--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\proyecto\Matriz Cacao, Cafe y Arroz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38CD72F8-248A-4F19-B0E4-BD41511F3404}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -741,11 +740,14 @@
   <si>
     <t>Pratylenchus (lesionadores) y Meloidogyne (agalladores)</t>
   </si>
+  <si>
+    <t>Hemileia vastatrix Berkeley y Broome</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1232,6 +1234,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,9 +1261,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,6 +1282,84 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,6 +1369,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1323,102 +1421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,7 +1463,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1524,7 @@
         <xdr:cNvPr id="3" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1585,7 @@
         <xdr:cNvPr id="4" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1646,7 @@
         <xdr:cNvPr id="9" name="8 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1690,7 @@
         <xdr:cNvPr id="11" name="10 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1740,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,11 +2070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H8"/>
+      <selection activeCell="J3" sqref="J3:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,331 +2325,331 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100:N101"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="104" t="str">
+      <c r="J2" s="89" t="str">
         <f>[1]Hoja1!$B$6</f>
         <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
 Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país
 El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector
 </v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="106"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="93"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="109"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="94"/>
     </row>
     <row r="4" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="93"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94"/>
     </row>
     <row r="5" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="93"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="109"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="94"/>
     </row>
     <row r="6" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="93"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="109"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="94"/>
     </row>
     <row r="7" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="93"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="94"/>
     </row>
     <row r="8" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="93"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="94"/>
     </row>
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="93"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="109"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="94"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F10" s="93"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="109"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="94"/>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="93"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="109"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="94"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="93"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="94"/>
     </row>
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="94"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="112"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="97"/>
     </row>
     <row r="16" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="109"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="80"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
@@ -2661,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="52"/>
-      <c r="L20" s="72" t="s">
+      <c r="L20" s="98" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="50" t="s">
@@ -2677,7 +2679,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="65"/>
       <c r="K21" s="67"/>
-      <c r="L21" s="73"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="65"/>
       <c r="N21" s="67"/>
       <c r="O21" s="6"/>
@@ -2699,14 +2701,14 @@
       <c r="I22" s="52"/>
       <c r="J22" s="65"/>
       <c r="K22" s="67"/>
-      <c r="L22" s="73"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="65"/>
       <c r="N22" s="67"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="56" t="s">
+      <c r="P22" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="57"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="50" t="s">
         <v>68</v>
       </c>
@@ -2777,12 +2779,12 @@
       <c r="I23" s="55"/>
       <c r="J23" s="53"/>
       <c r="K23" s="55"/>
-      <c r="L23" s="74"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="53"/>
       <c r="N23" s="55"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="53"/>
       <c r="S23" s="55"/>
       <c r="T23" s="53"/>
@@ -3353,8 +3355,10 @@
         <v>115</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
+      <c r="H33" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="56"/>
       <c r="J33" s="9" t="s">
         <v>117</v>
       </c>
@@ -3421,8 +3425,8 @@
       <c r="E34" s="43"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
       <c r="L34" s="48"/>
@@ -3477,8 +3481,8 @@
       <c r="E35" s="43"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
       <c r="L35" s="48"/>
@@ -3533,8 +3537,8 @@
       <c r="E36" s="43"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
       <c r="L36" s="48"/>
@@ -3589,8 +3593,8 @@
       <c r="E37" s="43"/>
       <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
       <c r="L37" s="48"/>
@@ -3645,8 +3649,8 @@
       <c r="E38" s="43"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
       <c r="L38" s="48"/>
@@ -3701,8 +3705,8 @@
       <c r="E39" s="43"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
       <c r="L39" s="48"/>
@@ -3757,8 +3761,8 @@
       <c r="E40" s="43"/>
       <c r="F40" s="12"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
       <c r="L40" s="48"/>
@@ -3813,8 +3817,8 @@
       <c r="E41" s="46"/>
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
       <c r="L41" s="49"/>
@@ -4218,9 +4222,9 @@
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="64"/>
-      <c r="BB47" s="64"/>
-      <c r="BC47" s="64"/>
+      <c r="BA47" s="56"/>
+      <c r="BB47" s="56"/>
+      <c r="BC47" s="56"/>
     </row>
     <row r="48" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B48" s="41"/>
@@ -4274,9 +4278,9 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="64"/>
-      <c r="BB48" s="64"/>
-      <c r="BC48" s="64"/>
+      <c r="BA48" s="56"/>
+      <c r="BB48" s="56"/>
+      <c r="BC48" s="56"/>
     </row>
     <row r="49" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B49" s="41"/>
@@ -4330,9 +4334,9 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="64"/>
-      <c r="BB49" s="64"/>
-      <c r="BC49" s="64"/>
+      <c r="BA49" s="56"/>
+      <c r="BB49" s="56"/>
+      <c r="BC49" s="56"/>
     </row>
     <row r="50" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B50" s="41"/>
@@ -4386,9 +4390,9 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="64"/>
-      <c r="BB50" s="64"/>
-      <c r="BC50" s="64"/>
+      <c r="BA50" s="56"/>
+      <c r="BB50" s="56"/>
+      <c r="BC50" s="56"/>
     </row>
     <row r="51" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B51" s="41"/>
@@ -4442,9 +4446,9 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="64"/>
-      <c r="BB51" s="64"/>
-      <c r="BC51" s="64"/>
+      <c r="BA51" s="56"/>
+      <c r="BB51" s="56"/>
+      <c r="BC51" s="56"/>
     </row>
     <row r="52" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B52" s="41"/>
@@ -4498,9 +4502,9 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="64"/>
-      <c r="BB52" s="64"/>
-      <c r="BC52" s="64"/>
+      <c r="BA52" s="56"/>
+      <c r="BB52" s="56"/>
+      <c r="BC52" s="56"/>
     </row>
     <row r="53" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B53" s="44"/>
@@ -4554,9 +4558,9 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="64"/>
-      <c r="BB53" s="64"/>
-      <c r="BC53" s="64"/>
+      <c r="BA53" s="56"/>
+      <c r="BB53" s="56"/>
+      <c r="BC53" s="56"/>
     </row>
     <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="O54" s="4"/>
@@ -4597,9 +4601,9 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="64"/>
-      <c r="BB54" s="64"/>
-      <c r="BC54" s="64"/>
+      <c r="BA54" s="56"/>
+      <c r="BB54" s="56"/>
+      <c r="BC54" s="56"/>
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
@@ -4649,22 +4653,22 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
       <c r="AZ55" s="14"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="64"/>
-      <c r="BC55" s="64"/>
+      <c r="BA55" s="56"/>
+      <c r="BB55" s="56"/>
+      <c r="BC55" s="56"/>
     </row>
     <row r="56" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="115"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="103"/>
       <c r="O56" s="4"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="14"/>
@@ -4703,20 +4707,20 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="14"/>
-      <c r="BA56" s="64"/>
-      <c r="BB56" s="64"/>
-      <c r="BC56" s="64"/>
+      <c r="BA56" s="56"/>
+      <c r="BB56" s="56"/>
+      <c r="BC56" s="56"/>
     </row>
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F57" s="116"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="118"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="106"/>
       <c r="O57" s="4"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="17"/>
@@ -4755,9 +4759,9 @@
       <c r="AX57" s="16"/>
       <c r="AY57" s="16"/>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="64"/>
-      <c r="BB57" s="64"/>
-      <c r="BC57" s="64"/>
+      <c r="BA57" s="56"/>
+      <c r="BB57" s="56"/>
+      <c r="BC57" s="56"/>
     </row>
     <row r="58" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F58" s="50" t="s">
@@ -4770,7 +4774,7 @@
         <v>19</v>
       </c>
       <c r="K58" s="52"/>
-      <c r="L58" s="72" t="s">
+      <c r="L58" s="98" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="50" t="s">
@@ -4826,7 +4830,7 @@
       <c r="I59" s="55"/>
       <c r="J59" s="65"/>
       <c r="K59" s="67"/>
-      <c r="L59" s="73"/>
+      <c r="L59" s="99"/>
       <c r="M59" s="65"/>
       <c r="N59" s="67"/>
       <c r="O59" s="4"/>
@@ -4888,14 +4892,14 @@
       <c r="I60" s="52"/>
       <c r="J60" s="65"/>
       <c r="K60" s="67"/>
-      <c r="L60" s="73"/>
+      <c r="L60" s="99"/>
       <c r="M60" s="65"/>
       <c r="N60" s="67"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="60" t="s">
+      <c r="P60" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="61"/>
+      <c r="Q60" s="62"/>
       <c r="R60" s="65" t="s">
         <v>68</v>
       </c>
@@ -4966,12 +4970,12 @@
       <c r="I61" s="55"/>
       <c r="J61" s="53"/>
       <c r="K61" s="55"/>
-      <c r="L61" s="74"/>
+      <c r="L61" s="100"/>
       <c r="M61" s="53"/>
       <c r="N61" s="55"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="64"/>
       <c r="R61" s="53"/>
       <c r="S61" s="55"/>
       <c r="T61" s="53"/>
@@ -5016,19 +5020,19 @@
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="64" t="s">
+      <c r="F62" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="64"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="9" t="s">
         <v>119</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="64" t="s">
+      <c r="J62" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
       <c r="M62" s="9" t="s">
         <v>121</v>
       </c>
@@ -5075,14 +5079,14 @@
         <v>82</v>
       </c>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="64" t="s">
+      <c r="AO62" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="AP62" s="64"/>
-      <c r="AQ62" s="64"/>
-      <c r="AR62" s="64"/>
-      <c r="AS62" s="64"/>
-      <c r="AT62" s="64"/>
+      <c r="AP62" s="56"/>
+      <c r="AQ62" s="56"/>
+      <c r="AR62" s="56"/>
+      <c r="AS62" s="56"/>
+      <c r="AT62" s="56"/>
       <c r="AU62" s="9" t="s">
         <v>150</v>
       </c>
@@ -5102,13 +5106,13 @@
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
       <c r="M63" s="12"/>
       <c r="N63" s="14"/>
       <c r="O63" s="1"/>
@@ -5137,12 +5141,12 @@
       <c r="AL63" s="14"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="14"/>
-      <c r="AO63" s="64"/>
-      <c r="AP63" s="64"/>
-      <c r="AQ63" s="64"/>
-      <c r="AR63" s="64"/>
-      <c r="AS63" s="64"/>
-      <c r="AT63" s="64"/>
+      <c r="AO63" s="56"/>
+      <c r="AP63" s="56"/>
+      <c r="AQ63" s="56"/>
+      <c r="AR63" s="56"/>
+      <c r="AS63" s="56"/>
+      <c r="AT63" s="56"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="13"/>
       <c r="AW63" s="13"/>
@@ -5158,13 +5162,13 @@
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
       <c r="M64" s="12"/>
       <c r="N64" s="14"/>
       <c r="O64" s="1"/>
@@ -5193,12 +5197,12 @@
       <c r="AL64" s="14"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="14"/>
-      <c r="AO64" s="64"/>
-      <c r="AP64" s="64"/>
-      <c r="AQ64" s="64"/>
-      <c r="AR64" s="64"/>
-      <c r="AS64" s="64"/>
-      <c r="AT64" s="64"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="56"/>
+      <c r="AQ64" s="56"/>
+      <c r="AR64" s="56"/>
+      <c r="AS64" s="56"/>
+      <c r="AT64" s="56"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
       <c r="AW64" s="13"/>
@@ -5214,13 +5218,13 @@
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
       <c r="M65" s="12"/>
       <c r="N65" s="14"/>
       <c r="O65" s="1"/>
@@ -5249,12 +5253,12 @@
       <c r="AL65" s="14"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="14"/>
-      <c r="AO65" s="64"/>
-      <c r="AP65" s="64"/>
-      <c r="AQ65" s="64"/>
-      <c r="AR65" s="64"/>
-      <c r="AS65" s="64"/>
-      <c r="AT65" s="64"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="56"/>
+      <c r="AQ65" s="56"/>
+      <c r="AR65" s="56"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="56"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="13"/>
       <c r="AW65" s="13"/>
@@ -5270,13 +5274,13 @@
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
       <c r="E66" s="43"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
       <c r="M66" s="12"/>
       <c r="N66" s="14"/>
       <c r="O66" s="1"/>
@@ -5305,12 +5309,12 @@
       <c r="AL66" s="14"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="14"/>
-      <c r="AO66" s="64"/>
-      <c r="AP66" s="64"/>
-      <c r="AQ66" s="64"/>
-      <c r="AR66" s="64"/>
-      <c r="AS66" s="64"/>
-      <c r="AT66" s="64"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="56"/>
+      <c r="AQ66" s="56"/>
+      <c r="AR66" s="56"/>
+      <c r="AS66" s="56"/>
+      <c r="AT66" s="56"/>
       <c r="AU66" s="12"/>
       <c r="AV66" s="13"/>
       <c r="AW66" s="13"/>
@@ -5326,13 +5330,13 @@
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
       <c r="E67" s="46"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="1"/>
@@ -5361,12 +5365,12 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="17"/>
-      <c r="AO67" s="64"/>
-      <c r="AP67" s="64"/>
-      <c r="AQ67" s="64"/>
-      <c r="AR67" s="64"/>
-      <c r="AS67" s="64"/>
-      <c r="AT67" s="64"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="56"/>
+      <c r="AQ67" s="56"/>
+      <c r="AR67" s="56"/>
+      <c r="AS67" s="56"/>
+      <c r="AT67" s="56"/>
       <c r="AU67" s="15"/>
       <c r="AV67" s="16"/>
       <c r="AW67" s="16"/>
@@ -5397,8 +5401,8 @@
       <c r="L68" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
       <c r="O68" s="1"/>
       <c r="P68" s="9" t="s">
         <v>22</v>
@@ -5437,26 +5441,26 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="64" t="s">
+      <c r="AM68" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AN68" s="64"/>
-      <c r="AO68" s="64" t="s">
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="64"/>
-      <c r="AQ68" s="64"/>
-      <c r="AR68" s="64"/>
-      <c r="AS68" s="64"/>
-      <c r="AT68" s="64"/>
-      <c r="AU68" s="64" t="s">
+      <c r="AP68" s="56"/>
+      <c r="AQ68" s="56"/>
+      <c r="AR68" s="56"/>
+      <c r="AS68" s="56"/>
+      <c r="AT68" s="56"/>
+      <c r="AU68" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AV68" s="64"/>
-      <c r="AW68" s="64"/>
-      <c r="AX68" s="64"/>
-      <c r="AY68" s="64"/>
-      <c r="AZ68" s="64"/>
+      <c r="AV68" s="56"/>
+      <c r="AW68" s="56"/>
+      <c r="AX68" s="56"/>
+      <c r="AY68" s="56"/>
+      <c r="AZ68" s="56"/>
       <c r="BA68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5475,8 +5479,8 @@
       <c r="J69" s="12"/>
       <c r="K69" s="14"/>
       <c r="L69" s="48"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
       <c r="O69" s="1"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="14"/>
@@ -5501,20 +5505,20 @@
       <c r="AJ69" s="13"/>
       <c r="AK69" s="13"/>
       <c r="AL69" s="14"/>
-      <c r="AM69" s="64"/>
-      <c r="AN69" s="64"/>
-      <c r="AO69" s="64"/>
-      <c r="AP69" s="64"/>
-      <c r="AQ69" s="64"/>
-      <c r="AR69" s="64"/>
-      <c r="AS69" s="64"/>
-      <c r="AT69" s="64"/>
-      <c r="AU69" s="64"/>
-      <c r="AV69" s="64"/>
-      <c r="AW69" s="64"/>
-      <c r="AX69" s="64"/>
-      <c r="AY69" s="64"/>
-      <c r="AZ69" s="64"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="56"/>
+      <c r="AQ69" s="56"/>
+      <c r="AR69" s="56"/>
+      <c r="AS69" s="56"/>
+      <c r="AT69" s="56"/>
+      <c r="AU69" s="56"/>
+      <c r="AV69" s="56"/>
+      <c r="AW69" s="56"/>
+      <c r="AX69" s="56"/>
+      <c r="AY69" s="56"/>
+      <c r="AZ69" s="56"/>
       <c r="BA69" s="12"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="14"/>
@@ -5531,8 +5535,8 @@
       <c r="J70" s="12"/>
       <c r="K70" s="14"/>
       <c r="L70" s="48"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
       <c r="O70" s="1"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="14"/>
@@ -5557,20 +5561,20 @@
       <c r="AJ70" s="13"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="14"/>
-      <c r="AM70" s="64"/>
-      <c r="AN70" s="64"/>
-      <c r="AO70" s="64"/>
-      <c r="AP70" s="64"/>
-      <c r="AQ70" s="64"/>
-      <c r="AR70" s="64"/>
-      <c r="AS70" s="64"/>
-      <c r="AT70" s="64"/>
-      <c r="AU70" s="64"/>
-      <c r="AV70" s="64"/>
-      <c r="AW70" s="64"/>
-      <c r="AX70" s="64"/>
-      <c r="AY70" s="64"/>
-      <c r="AZ70" s="64"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="56"/>
+      <c r="AQ70" s="56"/>
+      <c r="AR70" s="56"/>
+      <c r="AS70" s="56"/>
+      <c r="AT70" s="56"/>
+      <c r="AU70" s="56"/>
+      <c r="AV70" s="56"/>
+      <c r="AW70" s="56"/>
+      <c r="AX70" s="56"/>
+      <c r="AY70" s="56"/>
+      <c r="AZ70" s="56"/>
       <c r="BA70" s="12"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="14"/>
@@ -5587,8 +5591,8 @@
       <c r="J71" s="12"/>
       <c r="K71" s="14"/>
       <c r="L71" s="48"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
       <c r="O71" s="1"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="14"/>
@@ -5613,20 +5617,20 @@
       <c r="AJ71" s="13"/>
       <c r="AK71" s="13"/>
       <c r="AL71" s="14"/>
-      <c r="AM71" s="64"/>
-      <c r="AN71" s="64"/>
-      <c r="AO71" s="64"/>
-      <c r="AP71" s="64"/>
-      <c r="AQ71" s="64"/>
-      <c r="AR71" s="64"/>
-      <c r="AS71" s="64"/>
-      <c r="AT71" s="64"/>
-      <c r="AU71" s="64"/>
-      <c r="AV71" s="64"/>
-      <c r="AW71" s="64"/>
-      <c r="AX71" s="64"/>
-      <c r="AY71" s="64"/>
-      <c r="AZ71" s="64"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="56"/>
+      <c r="AQ71" s="56"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="56"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="14"/>
@@ -5643,8 +5647,8 @@
       <c r="J72" s="12"/>
       <c r="K72" s="14"/>
       <c r="L72" s="48"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
       <c r="O72" s="1"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="14"/>
@@ -5669,20 +5673,20 @@
       <c r="AJ72" s="13"/>
       <c r="AK72" s="13"/>
       <c r="AL72" s="14"/>
-      <c r="AM72" s="64"/>
-      <c r="AN72" s="64"/>
-      <c r="AO72" s="64"/>
-      <c r="AP72" s="64"/>
-      <c r="AQ72" s="64"/>
-      <c r="AR72" s="64"/>
-      <c r="AS72" s="64"/>
-      <c r="AT72" s="64"/>
-      <c r="AU72" s="64"/>
-      <c r="AV72" s="64"/>
-      <c r="AW72" s="64"/>
-      <c r="AX72" s="64"/>
-      <c r="AY72" s="64"/>
-      <c r="AZ72" s="64"/>
+      <c r="AM72" s="56"/>
+      <c r="AN72" s="56"/>
+      <c r="AO72" s="56"/>
+      <c r="AP72" s="56"/>
+      <c r="AQ72" s="56"/>
+      <c r="AR72" s="56"/>
+      <c r="AS72" s="56"/>
+      <c r="AT72" s="56"/>
+      <c r="AU72" s="56"/>
+      <c r="AV72" s="56"/>
+      <c r="AW72" s="56"/>
+      <c r="AX72" s="56"/>
+      <c r="AY72" s="56"/>
+      <c r="AZ72" s="56"/>
       <c r="BA72" s="12"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="14"/>
@@ -5699,8 +5703,8 @@
       <c r="J73" s="12"/>
       <c r="K73" s="14"/>
       <c r="L73" s="48"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
       <c r="O73" s="1"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="14"/>
@@ -5725,20 +5729,20 @@
       <c r="AJ73" s="13"/>
       <c r="AK73" s="13"/>
       <c r="AL73" s="14"/>
-      <c r="AM73" s="64"/>
-      <c r="AN73" s="64"/>
-      <c r="AO73" s="64"/>
-      <c r="AP73" s="64"/>
-      <c r="AQ73" s="64"/>
-      <c r="AR73" s="64"/>
-      <c r="AS73" s="64"/>
-      <c r="AT73" s="64"/>
-      <c r="AU73" s="64"/>
-      <c r="AV73" s="64"/>
-      <c r="AW73" s="64"/>
-      <c r="AX73" s="64"/>
-      <c r="AY73" s="64"/>
-      <c r="AZ73" s="64"/>
+      <c r="AM73" s="56"/>
+      <c r="AN73" s="56"/>
+      <c r="AO73" s="56"/>
+      <c r="AP73" s="56"/>
+      <c r="AQ73" s="56"/>
+      <c r="AR73" s="56"/>
+      <c r="AS73" s="56"/>
+      <c r="AT73" s="56"/>
+      <c r="AU73" s="56"/>
+      <c r="AV73" s="56"/>
+      <c r="AW73" s="56"/>
+      <c r="AX73" s="56"/>
+      <c r="AY73" s="56"/>
+      <c r="AZ73" s="56"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="14"/>
@@ -5755,8 +5759,8 @@
       <c r="J74" s="12"/>
       <c r="K74" s="14"/>
       <c r="L74" s="48"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
       <c r="O74" s="1"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="14"/>
@@ -5781,20 +5785,20 @@
       <c r="AJ74" s="13"/>
       <c r="AK74" s="13"/>
       <c r="AL74" s="14"/>
-      <c r="AM74" s="64"/>
-      <c r="AN74" s="64"/>
-      <c r="AO74" s="64"/>
-      <c r="AP74" s="64"/>
-      <c r="AQ74" s="64"/>
-      <c r="AR74" s="64"/>
-      <c r="AS74" s="64"/>
-      <c r="AT74" s="64"/>
-      <c r="AU74" s="64"/>
-      <c r="AV74" s="64"/>
-      <c r="AW74" s="64"/>
-      <c r="AX74" s="64"/>
-      <c r="AY74" s="64"/>
-      <c r="AZ74" s="64"/>
+      <c r="AM74" s="56"/>
+      <c r="AN74" s="56"/>
+      <c r="AO74" s="56"/>
+      <c r="AP74" s="56"/>
+      <c r="AQ74" s="56"/>
+      <c r="AR74" s="56"/>
+      <c r="AS74" s="56"/>
+      <c r="AT74" s="56"/>
+      <c r="AU74" s="56"/>
+      <c r="AV74" s="56"/>
+      <c r="AW74" s="56"/>
+      <c r="AX74" s="56"/>
+      <c r="AY74" s="56"/>
+      <c r="AZ74" s="56"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="14"/>
@@ -5811,8 +5815,8 @@
       <c r="J75" s="12"/>
       <c r="K75" s="14"/>
       <c r="L75" s="48"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
       <c r="O75" s="1"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="14"/>
@@ -5837,20 +5841,20 @@
       <c r="AJ75" s="13"/>
       <c r="AK75" s="13"/>
       <c r="AL75" s="14"/>
-      <c r="AM75" s="64"/>
-      <c r="AN75" s="64"/>
-      <c r="AO75" s="64"/>
-      <c r="AP75" s="64"/>
-      <c r="AQ75" s="64"/>
-      <c r="AR75" s="64"/>
-      <c r="AS75" s="64"/>
-      <c r="AT75" s="64"/>
-      <c r="AU75" s="64"/>
-      <c r="AV75" s="64"/>
-      <c r="AW75" s="64"/>
-      <c r="AX75" s="64"/>
-      <c r="AY75" s="64"/>
-      <c r="AZ75" s="64"/>
+      <c r="AM75" s="56"/>
+      <c r="AN75" s="56"/>
+      <c r="AO75" s="56"/>
+      <c r="AP75" s="56"/>
+      <c r="AQ75" s="56"/>
+      <c r="AR75" s="56"/>
+      <c r="AS75" s="56"/>
+      <c r="AT75" s="56"/>
+      <c r="AU75" s="56"/>
+      <c r="AV75" s="56"/>
+      <c r="AW75" s="56"/>
+      <c r="AX75" s="56"/>
+      <c r="AY75" s="56"/>
+      <c r="AZ75" s="56"/>
       <c r="BA75" s="12"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="14"/>
@@ -5867,8 +5871,8 @@
       <c r="J76" s="12"/>
       <c r="K76" s="14"/>
       <c r="L76" s="48"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
       <c r="O76" s="1"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="14"/>
@@ -5893,20 +5897,20 @@
       <c r="AJ76" s="13"/>
       <c r="AK76" s="13"/>
       <c r="AL76" s="14"/>
-      <c r="AM76" s="64"/>
-      <c r="AN76" s="64"/>
-      <c r="AO76" s="64"/>
-      <c r="AP76" s="64"/>
-      <c r="AQ76" s="64"/>
-      <c r="AR76" s="64"/>
-      <c r="AS76" s="64"/>
-      <c r="AT76" s="64"/>
-      <c r="AU76" s="64"/>
-      <c r="AV76" s="64"/>
-      <c r="AW76" s="64"/>
-      <c r="AX76" s="64"/>
-      <c r="AY76" s="64"/>
-      <c r="AZ76" s="64"/>
+      <c r="AM76" s="56"/>
+      <c r="AN76" s="56"/>
+      <c r="AO76" s="56"/>
+      <c r="AP76" s="56"/>
+      <c r="AQ76" s="56"/>
+      <c r="AR76" s="56"/>
+      <c r="AS76" s="56"/>
+      <c r="AT76" s="56"/>
+      <c r="AU76" s="56"/>
+      <c r="AV76" s="56"/>
+      <c r="AW76" s="56"/>
+      <c r="AX76" s="56"/>
+      <c r="AY76" s="56"/>
+      <c r="AZ76" s="56"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="14"/>
@@ -5923,8 +5927,8 @@
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
       <c r="L77" s="49"/>
-      <c r="M77" s="64"/>
-      <c r="N77" s="64"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
       <c r="O77" s="1"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="14"/>
@@ -5992,66 +5996,66 @@
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="64" t="s">
+      <c r="P78" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="64"/>
+      <c r="Q78" s="56"/>
       <c r="R78" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S78" s="68"/>
-      <c r="T78" s="64" t="s">
+      <c r="T78" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="U78" s="64"/>
-      <c r="V78" s="64" t="s">
+      <c r="U78" s="56"/>
+      <c r="V78" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="64"/>
-      <c r="X78" s="64" t="s">
+      <c r="W78" s="56"/>
+      <c r="X78" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="64"/>
-      <c r="Z78" s="64"/>
-      <c r="AA78" s="64"/>
-      <c r="AB78" s="64" t="s">
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="56"/>
+      <c r="AB78" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="64"/>
-      <c r="AD78" s="64"/>
-      <c r="AE78" s="64"/>
-      <c r="AF78" s="64"/>
-      <c r="AG78" s="64" t="s">
+      <c r="AC78" s="56"/>
+      <c r="AD78" s="56"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AH78" s="64"/>
-      <c r="AI78" s="64"/>
-      <c r="AJ78" s="64"/>
-      <c r="AK78" s="64"/>
-      <c r="AL78" s="64"/>
-      <c r="AM78" s="64" t="s">
+      <c r="AH78" s="56"/>
+      <c r="AI78" s="56"/>
+      <c r="AJ78" s="56"/>
+      <c r="AK78" s="56"/>
+      <c r="AL78" s="56"/>
+      <c r="AM78" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AN78" s="64"/>
-      <c r="AO78" s="64" t="s">
+      <c r="AN78" s="56"/>
+      <c r="AO78" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="AP78" s="64"/>
-      <c r="AQ78" s="64"/>
-      <c r="AR78" s="64"/>
-      <c r="AS78" s="64"/>
-      <c r="AT78" s="64"/>
-      <c r="AU78" s="64"/>
-      <c r="AV78" s="64"/>
-      <c r="AW78" s="64"/>
-      <c r="AX78" s="64"/>
-      <c r="AY78" s="64"/>
-      <c r="AZ78" s="64"/>
-      <c r="BA78" s="64" t="s">
+      <c r="AP78" s="56"/>
+      <c r="AQ78" s="56"/>
+      <c r="AR78" s="56"/>
+      <c r="AS78" s="56"/>
+      <c r="AT78" s="56"/>
+      <c r="AU78" s="56"/>
+      <c r="AV78" s="56"/>
+      <c r="AW78" s="56"/>
+      <c r="AX78" s="56"/>
+      <c r="AY78" s="56"/>
+      <c r="AZ78" s="56"/>
+      <c r="BA78" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="BB78" s="64"/>
-      <c r="BC78" s="64"/>
+      <c r="BB78" s="56"/>
+      <c r="BC78" s="56"/>
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="41"/>
@@ -6068,46 +6072,46 @@
       <c r="M79" s="12"/>
       <c r="N79" s="14"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
       <c r="R79" s="68"/>
       <c r="S79" s="68"/>
-      <c r="T79" s="64"/>
-      <c r="U79" s="64"/>
-      <c r="V79" s="64"/>
-      <c r="W79" s="64"/>
-      <c r="X79" s="64"/>
-      <c r="Y79" s="64"/>
-      <c r="Z79" s="64"/>
-      <c r="AA79" s="64"/>
-      <c r="AB79" s="64"/>
-      <c r="AC79" s="64"/>
-      <c r="AD79" s="64"/>
-      <c r="AE79" s="64"/>
-      <c r="AF79" s="64"/>
-      <c r="AG79" s="64"/>
-      <c r="AH79" s="64"/>
-      <c r="AI79" s="64"/>
-      <c r="AJ79" s="64"/>
-      <c r="AK79" s="64"/>
-      <c r="AL79" s="64"/>
-      <c r="AM79" s="64"/>
-      <c r="AN79" s="64"/>
-      <c r="AO79" s="64"/>
-      <c r="AP79" s="64"/>
-      <c r="AQ79" s="64"/>
-      <c r="AR79" s="64"/>
-      <c r="AS79" s="64"/>
-      <c r="AT79" s="64"/>
-      <c r="AU79" s="64"/>
-      <c r="AV79" s="64"/>
-      <c r="AW79" s="64"/>
-      <c r="AX79" s="64"/>
-      <c r="AY79" s="64"/>
-      <c r="AZ79" s="64"/>
-      <c r="BA79" s="64"/>
-      <c r="BB79" s="64"/>
-      <c r="BC79" s="64"/>
+      <c r="T79" s="56"/>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56"/>
+      <c r="Y79" s="56"/>
+      <c r="Z79" s="56"/>
+      <c r="AA79" s="56"/>
+      <c r="AB79" s="56"/>
+      <c r="AC79" s="56"/>
+      <c r="AD79" s="56"/>
+      <c r="AE79" s="56"/>
+      <c r="AF79" s="56"/>
+      <c r="AG79" s="56"/>
+      <c r="AH79" s="56"/>
+      <c r="AI79" s="56"/>
+      <c r="AJ79" s="56"/>
+      <c r="AK79" s="56"/>
+      <c r="AL79" s="56"/>
+      <c r="AM79" s="56"/>
+      <c r="AN79" s="56"/>
+      <c r="AO79" s="56"/>
+      <c r="AP79" s="56"/>
+      <c r="AQ79" s="56"/>
+      <c r="AR79" s="56"/>
+      <c r="AS79" s="56"/>
+      <c r="AT79" s="56"/>
+      <c r="AU79" s="56"/>
+      <c r="AV79" s="56"/>
+      <c r="AW79" s="56"/>
+      <c r="AX79" s="56"/>
+      <c r="AY79" s="56"/>
+      <c r="AZ79" s="56"/>
+      <c r="BA79" s="56"/>
+      <c r="BB79" s="56"/>
+      <c r="BC79" s="56"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B80" s="41"/>
@@ -6124,46 +6128,46 @@
       <c r="M80" s="12"/>
       <c r="N80" s="14"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="64"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
       <c r="R80" s="68"/>
       <c r="S80" s="68"/>
-      <c r="T80" s="64"/>
-      <c r="U80" s="64"/>
-      <c r="V80" s="64"/>
-      <c r="W80" s="64"/>
-      <c r="X80" s="64"/>
-      <c r="Y80" s="64"/>
-      <c r="Z80" s="64"/>
-      <c r="AA80" s="64"/>
-      <c r="AB80" s="64"/>
-      <c r="AC80" s="64"/>
-      <c r="AD80" s="64"/>
-      <c r="AE80" s="64"/>
-      <c r="AF80" s="64"/>
-      <c r="AG80" s="64"/>
-      <c r="AH80" s="64"/>
-      <c r="AI80" s="64"/>
-      <c r="AJ80" s="64"/>
-      <c r="AK80" s="64"/>
-      <c r="AL80" s="64"/>
-      <c r="AM80" s="64"/>
-      <c r="AN80" s="64"/>
-      <c r="AO80" s="64"/>
-      <c r="AP80" s="64"/>
-      <c r="AQ80" s="64"/>
-      <c r="AR80" s="64"/>
-      <c r="AS80" s="64"/>
-      <c r="AT80" s="64"/>
-      <c r="AU80" s="64"/>
-      <c r="AV80" s="64"/>
-      <c r="AW80" s="64"/>
-      <c r="AX80" s="64"/>
-      <c r="AY80" s="64"/>
-      <c r="AZ80" s="64"/>
-      <c r="BA80" s="64"/>
-      <c r="BB80" s="64"/>
-      <c r="BC80" s="64"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="56"/>
+      <c r="AQ80" s="56"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="56"/>
+      <c r="AT80" s="56"/>
+      <c r="AU80" s="56"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="56"/>
+      <c r="BA80" s="56"/>
+      <c r="BB80" s="56"/>
+      <c r="BC80" s="56"/>
     </row>
     <row r="81" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B81" s="41"/>
@@ -6180,46 +6184,46 @@
       <c r="M81" s="12"/>
       <c r="N81" s="14"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="64"/>
-      <c r="Q81" s="64"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
       <c r="R81" s="68"/>
       <c r="S81" s="68"/>
-      <c r="T81" s="64"/>
-      <c r="U81" s="64"/>
-      <c r="V81" s="64"/>
-      <c r="W81" s="64"/>
-      <c r="X81" s="64"/>
-      <c r="Y81" s="64"/>
-      <c r="Z81" s="64"/>
-      <c r="AA81" s="64"/>
-      <c r="AB81" s="64"/>
-      <c r="AC81" s="64"/>
-      <c r="AD81" s="64"/>
-      <c r="AE81" s="64"/>
-      <c r="AF81" s="64"/>
-      <c r="AG81" s="64"/>
-      <c r="AH81" s="64"/>
-      <c r="AI81" s="64"/>
-      <c r="AJ81" s="64"/>
-      <c r="AK81" s="64"/>
-      <c r="AL81" s="64"/>
-      <c r="AM81" s="64"/>
-      <c r="AN81" s="64"/>
-      <c r="AO81" s="64"/>
-      <c r="AP81" s="64"/>
-      <c r="AQ81" s="64"/>
-      <c r="AR81" s="64"/>
-      <c r="AS81" s="64"/>
-      <c r="AT81" s="64"/>
-      <c r="AU81" s="64"/>
-      <c r="AV81" s="64"/>
-      <c r="AW81" s="64"/>
-      <c r="AX81" s="64"/>
-      <c r="AY81" s="64"/>
-      <c r="AZ81" s="64"/>
-      <c r="BA81" s="64"/>
-      <c r="BB81" s="64"/>
-      <c r="BC81" s="64"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="56"/>
+      <c r="AQ81" s="56"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="56"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="56"/>
+      <c r="AX81" s="56"/>
+      <c r="AY81" s="56"/>
+      <c r="AZ81" s="56"/>
+      <c r="BA81" s="56"/>
+      <c r="BB81" s="56"/>
+      <c r="BC81" s="56"/>
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="41"/>
@@ -6236,46 +6240,46 @@
       <c r="M82" s="12"/>
       <c r="N82" s="14"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="64"/>
-      <c r="Q82" s="64"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
       <c r="R82" s="68"/>
       <c r="S82" s="68"/>
-      <c r="T82" s="64"/>
-      <c r="U82" s="64"/>
-      <c r="V82" s="64"/>
-      <c r="W82" s="64"/>
-      <c r="X82" s="64"/>
-      <c r="Y82" s="64"/>
-      <c r="Z82" s="64"/>
-      <c r="AA82" s="64"/>
-      <c r="AB82" s="64"/>
-      <c r="AC82" s="64"/>
-      <c r="AD82" s="64"/>
-      <c r="AE82" s="64"/>
-      <c r="AF82" s="64"/>
-      <c r="AG82" s="64"/>
-      <c r="AH82" s="64"/>
-      <c r="AI82" s="64"/>
-      <c r="AJ82" s="64"/>
-      <c r="AK82" s="64"/>
-      <c r="AL82" s="64"/>
-      <c r="AM82" s="64"/>
-      <c r="AN82" s="64"/>
-      <c r="AO82" s="64"/>
-      <c r="AP82" s="64"/>
-      <c r="AQ82" s="64"/>
-      <c r="AR82" s="64"/>
-      <c r="AS82" s="64"/>
-      <c r="AT82" s="64"/>
-      <c r="AU82" s="64"/>
-      <c r="AV82" s="64"/>
-      <c r="AW82" s="64"/>
-      <c r="AX82" s="64"/>
-      <c r="AY82" s="64"/>
-      <c r="AZ82" s="64"/>
-      <c r="BA82" s="64"/>
-      <c r="BB82" s="64"/>
-      <c r="BC82" s="64"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="56"/>
+      <c r="AP82" s="56"/>
+      <c r="AQ82" s="56"/>
+      <c r="AR82" s="56"/>
+      <c r="AS82" s="56"/>
+      <c r="AT82" s="56"/>
+      <c r="AU82" s="56"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="56"/>
+      <c r="AX82" s="56"/>
+      <c r="AY82" s="56"/>
+      <c r="AZ82" s="56"/>
+      <c r="BA82" s="56"/>
+      <c r="BB82" s="56"/>
+      <c r="BC82" s="56"/>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="41"/>
@@ -6292,46 +6296,46 @@
       <c r="M83" s="12"/>
       <c r="N83" s="14"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
       <c r="R83" s="68"/>
       <c r="S83" s="68"/>
-      <c r="T83" s="64"/>
-      <c r="U83" s="64"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="64"/>
-      <c r="Y83" s="64"/>
-      <c r="Z83" s="64"/>
-      <c r="AA83" s="64"/>
-      <c r="AB83" s="64"/>
-      <c r="AC83" s="64"/>
-      <c r="AD83" s="64"/>
-      <c r="AE83" s="64"/>
-      <c r="AF83" s="64"/>
-      <c r="AG83" s="64"/>
-      <c r="AH83" s="64"/>
-      <c r="AI83" s="64"/>
-      <c r="AJ83" s="64"/>
-      <c r="AK83" s="64"/>
-      <c r="AL83" s="64"/>
-      <c r="AM83" s="64"/>
-      <c r="AN83" s="64"/>
-      <c r="AO83" s="64"/>
-      <c r="AP83" s="64"/>
-      <c r="AQ83" s="64"/>
-      <c r="AR83" s="64"/>
-      <c r="AS83" s="64"/>
-      <c r="AT83" s="64"/>
-      <c r="AU83" s="64"/>
-      <c r="AV83" s="64"/>
-      <c r="AW83" s="64"/>
-      <c r="AX83" s="64"/>
-      <c r="AY83" s="64"/>
-      <c r="AZ83" s="64"/>
-      <c r="BA83" s="64"/>
-      <c r="BB83" s="64"/>
-      <c r="BC83" s="64"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56"/>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="56"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="56"/>
+      <c r="AP83" s="56"/>
+      <c r="AQ83" s="56"/>
+      <c r="AR83" s="56"/>
+      <c r="AS83" s="56"/>
+      <c r="AT83" s="56"/>
+      <c r="AU83" s="56"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="56"/>
+      <c r="AX83" s="56"/>
+      <c r="AY83" s="56"/>
+      <c r="AZ83" s="56"/>
+      <c r="BA83" s="56"/>
+      <c r="BB83" s="56"/>
+      <c r="BC83" s="56"/>
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="41"/>
@@ -6348,46 +6352,46 @@
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="64"/>
-      <c r="Q84" s="64"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
       <c r="R84" s="68"/>
       <c r="S84" s="68"/>
-      <c r="T84" s="64"/>
-      <c r="U84" s="64"/>
-      <c r="V84" s="64"/>
-      <c r="W84" s="64"/>
-      <c r="X84" s="64"/>
-      <c r="Y84" s="64"/>
-      <c r="Z84" s="64"/>
-      <c r="AA84" s="64"/>
-      <c r="AB84" s="64"/>
-      <c r="AC84" s="64"/>
-      <c r="AD84" s="64"/>
-      <c r="AE84" s="64"/>
-      <c r="AF84" s="64"/>
-      <c r="AG84" s="64"/>
-      <c r="AH84" s="64"/>
-      <c r="AI84" s="64"/>
-      <c r="AJ84" s="64"/>
-      <c r="AK84" s="64"/>
-      <c r="AL84" s="64"/>
-      <c r="AM84" s="64"/>
-      <c r="AN84" s="64"/>
-      <c r="AO84" s="64"/>
-      <c r="AP84" s="64"/>
-      <c r="AQ84" s="64"/>
-      <c r="AR84" s="64"/>
-      <c r="AS84" s="64"/>
-      <c r="AT84" s="64"/>
-      <c r="AU84" s="64"/>
-      <c r="AV84" s="64"/>
-      <c r="AW84" s="64"/>
-      <c r="AX84" s="64"/>
-      <c r="AY84" s="64"/>
-      <c r="AZ84" s="64"/>
-      <c r="BA84" s="64"/>
-      <c r="BB84" s="64"/>
-      <c r="BC84" s="64"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="56"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="56"/>
+      <c r="AP84" s="56"/>
+      <c r="AQ84" s="56"/>
+      <c r="AR84" s="56"/>
+      <c r="AS84" s="56"/>
+      <c r="AT84" s="56"/>
+      <c r="AU84" s="56"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="56"/>
+      <c r="AX84" s="56"/>
+      <c r="AY84" s="56"/>
+      <c r="AZ84" s="56"/>
+      <c r="BA84" s="56"/>
+      <c r="BB84" s="56"/>
+      <c r="BC84" s="56"/>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B85" s="41"/>
@@ -6404,46 +6408,46 @@
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="64"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
       <c r="R85" s="68"/>
       <c r="S85" s="68"/>
-      <c r="T85" s="64"/>
-      <c r="U85" s="64"/>
-      <c r="V85" s="64"/>
-      <c r="W85" s="64"/>
-      <c r="X85" s="64"/>
-      <c r="Y85" s="64"/>
-      <c r="Z85" s="64"/>
-      <c r="AA85" s="64"/>
-      <c r="AB85" s="64"/>
-      <c r="AC85" s="64"/>
-      <c r="AD85" s="64"/>
-      <c r="AE85" s="64"/>
-      <c r="AF85" s="64"/>
-      <c r="AG85" s="64"/>
-      <c r="AH85" s="64"/>
-      <c r="AI85" s="64"/>
-      <c r="AJ85" s="64"/>
-      <c r="AK85" s="64"/>
-      <c r="AL85" s="64"/>
-      <c r="AM85" s="64"/>
-      <c r="AN85" s="64"/>
-      <c r="AO85" s="64"/>
-      <c r="AP85" s="64"/>
-      <c r="AQ85" s="64"/>
-      <c r="AR85" s="64"/>
-      <c r="AS85" s="64"/>
-      <c r="AT85" s="64"/>
-      <c r="AU85" s="64"/>
-      <c r="AV85" s="64"/>
-      <c r="AW85" s="64"/>
-      <c r="AX85" s="64"/>
-      <c r="AY85" s="64"/>
-      <c r="AZ85" s="64"/>
-      <c r="BA85" s="64"/>
-      <c r="BB85" s="64"/>
-      <c r="BC85" s="64"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56"/>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="56"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="56"/>
+      <c r="AP85" s="56"/>
+      <c r="AQ85" s="56"/>
+      <c r="AR85" s="56"/>
+      <c r="AS85" s="56"/>
+      <c r="AT85" s="56"/>
+      <c r="AU85" s="56"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="56"/>
+      <c r="AX85" s="56"/>
+      <c r="AY85" s="56"/>
+      <c r="AZ85" s="56"/>
+      <c r="BA85" s="56"/>
+      <c r="BB85" s="56"/>
+      <c r="BC85" s="56"/>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="41"/>
@@ -6460,46 +6464,46 @@
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
       <c r="R86" s="68"/>
       <c r="S86" s="68"/>
-      <c r="T86" s="64"/>
-      <c r="U86" s="64"/>
-      <c r="V86" s="64"/>
-      <c r="W86" s="64"/>
-      <c r="X86" s="64"/>
-      <c r="Y86" s="64"/>
-      <c r="Z86" s="64"/>
-      <c r="AA86" s="64"/>
-      <c r="AB86" s="64"/>
-      <c r="AC86" s="64"/>
-      <c r="AD86" s="64"/>
-      <c r="AE86" s="64"/>
-      <c r="AF86" s="64"/>
-      <c r="AG86" s="64"/>
-      <c r="AH86" s="64"/>
-      <c r="AI86" s="64"/>
-      <c r="AJ86" s="64"/>
-      <c r="AK86" s="64"/>
-      <c r="AL86" s="64"/>
-      <c r="AM86" s="64"/>
-      <c r="AN86" s="64"/>
-      <c r="AO86" s="64"/>
-      <c r="AP86" s="64"/>
-      <c r="AQ86" s="64"/>
-      <c r="AR86" s="64"/>
-      <c r="AS86" s="64"/>
-      <c r="AT86" s="64"/>
-      <c r="AU86" s="64"/>
-      <c r="AV86" s="64"/>
-      <c r="AW86" s="64"/>
-      <c r="AX86" s="64"/>
-      <c r="AY86" s="64"/>
-      <c r="AZ86" s="64"/>
-      <c r="BA86" s="64"/>
-      <c r="BB86" s="64"/>
-      <c r="BC86" s="64"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="56"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+      <c r="AP86" s="56"/>
+      <c r="AQ86" s="56"/>
+      <c r="AR86" s="56"/>
+      <c r="AS86" s="56"/>
+      <c r="AT86" s="56"/>
+      <c r="AU86" s="56"/>
+      <c r="AV86" s="56"/>
+      <c r="AW86" s="56"/>
+      <c r="AX86" s="56"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="56"/>
+      <c r="BA86" s="56"/>
+      <c r="BB86" s="56"/>
+      <c r="BC86" s="56"/>
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="44"/>
@@ -6516,46 +6520,46 @@
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="64"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
       <c r="R87" s="68"/>
       <c r="S87" s="68"/>
-      <c r="T87" s="64"/>
-      <c r="U87" s="64"/>
-      <c r="V87" s="64"/>
-      <c r="W87" s="64"/>
-      <c r="X87" s="64"/>
-      <c r="Y87" s="64"/>
-      <c r="Z87" s="64"/>
-      <c r="AA87" s="64"/>
-      <c r="AB87" s="64"/>
-      <c r="AC87" s="64"/>
-      <c r="AD87" s="64"/>
-      <c r="AE87" s="64"/>
-      <c r="AF87" s="64"/>
-      <c r="AG87" s="64"/>
-      <c r="AH87" s="64"/>
-      <c r="AI87" s="64"/>
-      <c r="AJ87" s="64"/>
-      <c r="AK87" s="64"/>
-      <c r="AL87" s="64"/>
-      <c r="AM87" s="64"/>
-      <c r="AN87" s="64"/>
-      <c r="AO87" s="64"/>
-      <c r="AP87" s="64"/>
-      <c r="AQ87" s="64"/>
-      <c r="AR87" s="64"/>
-      <c r="AS87" s="64"/>
-      <c r="AT87" s="64"/>
-      <c r="AU87" s="64"/>
-      <c r="AV87" s="64"/>
-      <c r="AW87" s="64"/>
-      <c r="AX87" s="64"/>
-      <c r="AY87" s="64"/>
-      <c r="AZ87" s="64"/>
-      <c r="BA87" s="64"/>
-      <c r="BB87" s="64"/>
-      <c r="BC87" s="64"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="56"/>
+      <c r="AP87" s="56"/>
+      <c r="AQ87" s="56"/>
+      <c r="AR87" s="56"/>
+      <c r="AS87" s="56"/>
+      <c r="AT87" s="56"/>
+      <c r="AU87" s="56"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="56"/>
+      <c r="AX87" s="56"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="56"/>
+      <c r="BA87" s="56"/>
+      <c r="BB87" s="56"/>
+      <c r="BC87" s="56"/>
     </row>
     <row r="88" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" s="1"/>
@@ -7104,68 +7108,68 @@
       <c r="M100" s="71"/>
       <c r="N100" s="71"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="88" t="s">
+      <c r="P100" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="Q100" s="88"/>
-      <c r="R100" s="87" t="s">
+      <c r="Q100" s="72"/>
+      <c r="R100" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="87"/>
-      <c r="T100" s="87" t="s">
+      <c r="S100" s="73"/>
+      <c r="T100" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="87"/>
-      <c r="V100" s="87" t="s">
+      <c r="U100" s="73"/>
+      <c r="V100" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="W100" s="87"/>
-      <c r="X100" s="87" t="s">
+      <c r="W100" s="73"/>
+      <c r="X100" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="Y100" s="87"/>
-      <c r="Z100" s="87"/>
-      <c r="AA100" s="87"/>
-      <c r="AB100" s="87" t="s">
+      <c r="Y100" s="73"/>
+      <c r="Z100" s="73"/>
+      <c r="AA100" s="73"/>
+      <c r="AB100" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AC100" s="87"/>
-      <c r="AD100" s="87"/>
-      <c r="AE100" s="87"/>
-      <c r="AF100" s="87"/>
-      <c r="AG100" s="87" t="s">
+      <c r="AC100" s="73"/>
+      <c r="AD100" s="73"/>
+      <c r="AE100" s="73"/>
+      <c r="AF100" s="73"/>
+      <c r="AG100" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AH100" s="87"/>
-      <c r="AI100" s="87"/>
-      <c r="AJ100" s="87"/>
-      <c r="AK100" s="87"/>
-      <c r="AL100" s="87"/>
-      <c r="AM100" s="87" t="s">
+      <c r="AH100" s="73"/>
+      <c r="AI100" s="73"/>
+      <c r="AJ100" s="73"/>
+      <c r="AK100" s="73"/>
+      <c r="AL100" s="73"/>
+      <c r="AM100" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="AN100" s="87"/>
-      <c r="AO100" s="87" t="s">
+      <c r="AN100" s="73"/>
+      <c r="AO100" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AP100" s="87"/>
-      <c r="AQ100" s="87"/>
-      <c r="AR100" s="87"/>
-      <c r="AS100" s="87"/>
-      <c r="AT100" s="87"/>
-      <c r="AU100" s="87" t="s">
+      <c r="AP100" s="73"/>
+      <c r="AQ100" s="73"/>
+      <c r="AR100" s="73"/>
+      <c r="AS100" s="73"/>
+      <c r="AT100" s="73"/>
+      <c r="AU100" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AV100" s="87"/>
-      <c r="AW100" s="87"/>
-      <c r="AX100" s="87"/>
-      <c r="AY100" s="87"/>
-      <c r="AZ100" s="87"/>
-      <c r="BA100" s="87" t="s">
+      <c r="AV100" s="73"/>
+      <c r="AW100" s="73"/>
+      <c r="AX100" s="73"/>
+      <c r="AY100" s="73"/>
+      <c r="AZ100" s="73"/>
+      <c r="BA100" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="BB100" s="87"/>
-      <c r="BC100" s="87"/>
+      <c r="BB100" s="73"/>
+      <c r="BC100" s="73"/>
     </row>
     <row r="101" spans="6:55" x14ac:dyDescent="0.25">
       <c r="F101" s="71"/>
@@ -7178,46 +7182,46 @@
       <c r="M101" s="71"/>
       <c r="N101" s="71"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="88"/>
-      <c r="Q101" s="88"/>
-      <c r="R101" s="87"/>
-      <c r="S101" s="87"/>
-      <c r="T101" s="87"/>
-      <c r="U101" s="87"/>
-      <c r="V101" s="87"/>
-      <c r="W101" s="87"/>
-      <c r="X101" s="87"/>
-      <c r="Y101" s="87"/>
-      <c r="Z101" s="87"/>
-      <c r="AA101" s="87"/>
-      <c r="AB101" s="87"/>
-      <c r="AC101" s="87"/>
-      <c r="AD101" s="87"/>
-      <c r="AE101" s="87"/>
-      <c r="AF101" s="87"/>
-      <c r="AG101" s="87"/>
-      <c r="AH101" s="87"/>
-      <c r="AI101" s="87"/>
-      <c r="AJ101" s="87"/>
-      <c r="AK101" s="87"/>
-      <c r="AL101" s="87"/>
-      <c r="AM101" s="87"/>
-      <c r="AN101" s="87"/>
-      <c r="AO101" s="87"/>
-      <c r="AP101" s="87"/>
-      <c r="AQ101" s="87"/>
-      <c r="AR101" s="87"/>
-      <c r="AS101" s="87"/>
-      <c r="AT101" s="87"/>
-      <c r="AU101" s="87"/>
-      <c r="AV101" s="87"/>
-      <c r="AW101" s="87"/>
-      <c r="AX101" s="87"/>
-      <c r="AY101" s="87"/>
-      <c r="AZ101" s="87"/>
-      <c r="BA101" s="87"/>
-      <c r="BB101" s="87"/>
-      <c r="BC101" s="87"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="73"/>
+      <c r="S101" s="73"/>
+      <c r="T101" s="73"/>
+      <c r="U101" s="73"/>
+      <c r="V101" s="73"/>
+      <c r="W101" s="73"/>
+      <c r="X101" s="73"/>
+      <c r="Y101" s="73"/>
+      <c r="Z101" s="73"/>
+      <c r="AA101" s="73"/>
+      <c r="AB101" s="73"/>
+      <c r="AC101" s="73"/>
+      <c r="AD101" s="73"/>
+      <c r="AE101" s="73"/>
+      <c r="AF101" s="73"/>
+      <c r="AG101" s="73"/>
+      <c r="AH101" s="73"/>
+      <c r="AI101" s="73"/>
+      <c r="AJ101" s="73"/>
+      <c r="AK101" s="73"/>
+      <c r="AL101" s="73"/>
+      <c r="AM101" s="73"/>
+      <c r="AN101" s="73"/>
+      <c r="AO101" s="73"/>
+      <c r="AP101" s="73"/>
+      <c r="AQ101" s="73"/>
+      <c r="AR101" s="73"/>
+      <c r="AS101" s="73"/>
+      <c r="AT101" s="73"/>
+      <c r="AU101" s="73"/>
+      <c r="AV101" s="73"/>
+      <c r="AW101" s="73"/>
+      <c r="AX101" s="73"/>
+      <c r="AY101" s="73"/>
+      <c r="AZ101" s="73"/>
+      <c r="BA101" s="73"/>
+      <c r="BB101" s="73"/>
+      <c r="BC101" s="73"/>
     </row>
     <row r="102" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="50" t="s">
@@ -7230,7 +7234,7 @@
         <v>19</v>
       </c>
       <c r="K102" s="52"/>
-      <c r="L102" s="72" t="s">
+      <c r="L102" s="98" t="s">
         <v>20</v>
       </c>
       <c r="M102" s="50" t="s">
@@ -7306,7 +7310,7 @@
       <c r="I103" s="55"/>
       <c r="J103" s="65"/>
       <c r="K103" s="67"/>
-      <c r="L103" s="73"/>
+      <c r="L103" s="99"/>
       <c r="M103" s="65"/>
       <c r="N103" s="67"/>
       <c r="O103" s="4"/>
@@ -7362,7 +7366,7 @@
       <c r="I104" s="52"/>
       <c r="J104" s="65"/>
       <c r="K104" s="67"/>
-      <c r="L104" s="73"/>
+      <c r="L104" s="99"/>
       <c r="M104" s="65"/>
       <c r="N104" s="67"/>
       <c r="O104" s="4"/>
@@ -7414,7 +7418,7 @@
       <c r="I105" s="55"/>
       <c r="J105" s="53"/>
       <c r="K105" s="55"/>
-      <c r="L105" s="74"/>
+      <c r="L105" s="100"/>
       <c r="M105" s="53"/>
       <c r="N105" s="55"/>
       <c r="O105" s="4"/>
@@ -7475,10 +7479,10 @@
       <c r="L106" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="M106" s="64" t="s">
+      <c r="M106" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N106" s="64"/>
+      <c r="N106" s="56"/>
       <c r="O106" s="6"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="14"/>
@@ -7529,8 +7533,8 @@
       <c r="J107" s="12"/>
       <c r="K107" s="14"/>
       <c r="L107" s="48"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
       <c r="O107" s="6"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="14"/>
@@ -7581,8 +7585,8 @@
       <c r="J108" s="12"/>
       <c r="K108" s="14"/>
       <c r="L108" s="48"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
       <c r="O108" s="1"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="14"/>
@@ -7633,8 +7637,8 @@
       <c r="J109" s="12"/>
       <c r="K109" s="14"/>
       <c r="L109" s="48"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="64"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
       <c r="O109" s="1"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="14"/>
@@ -7685,8 +7689,8 @@
       <c r="J110" s="12"/>
       <c r="K110" s="14"/>
       <c r="L110" s="48"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
       <c r="O110" s="1"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="14"/>
@@ -7737,8 +7741,8 @@
       <c r="J111" s="12"/>
       <c r="K111" s="14"/>
       <c r="L111" s="48"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="56"/>
       <c r="O111" s="1"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -7797,8 +7801,8 @@
       <c r="L112" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
       <c r="O112" s="1"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
@@ -7849,8 +7853,8 @@
       <c r="J113" s="12"/>
       <c r="K113" s="14"/>
       <c r="L113" s="48"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="56"/>
       <c r="O113" s="1"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -7901,8 +7905,8 @@
       <c r="J114" s="12"/>
       <c r="K114" s="14"/>
       <c r="L114" s="48"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="56"/>
       <c r="O114" s="1"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -7953,8 +7957,8 @@
       <c r="J115" s="12"/>
       <c r="K115" s="14"/>
       <c r="L115" s="48"/>
-      <c r="M115" s="64"/>
-      <c r="N115" s="64"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
       <c r="O115" s="1"/>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -8005,8 +8009,8 @@
       <c r="J116" s="12"/>
       <c r="K116" s="14"/>
       <c r="L116" s="48"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="64"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
       <c r="O116" s="4"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -8057,8 +8061,8 @@
       <c r="J117" s="15"/>
       <c r="K117" s="17"/>
       <c r="L117" s="49"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
       <c r="O117" s="4"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -8840,68 +8844,68 @@
       <c r="M136" s="51"/>
       <c r="N136" s="52"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="89" t="s">
+      <c r="P136" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="Q136" s="89"/>
-      <c r="R136" s="87" t="s">
+      <c r="Q136" s="74"/>
+      <c r="R136" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="S136" s="87"/>
-      <c r="T136" s="87" t="s">
+      <c r="S136" s="73"/>
+      <c r="T136" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="87"/>
-      <c r="V136" s="87" t="s">
+      <c r="U136" s="73"/>
+      <c r="V136" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="W136" s="87"/>
-      <c r="X136" s="87" t="s">
+      <c r="W136" s="73"/>
+      <c r="X136" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="Y136" s="87"/>
-      <c r="Z136" s="87"/>
-      <c r="AA136" s="87"/>
-      <c r="AB136" s="87" t="s">
+      <c r="Y136" s="73"/>
+      <c r="Z136" s="73"/>
+      <c r="AA136" s="73"/>
+      <c r="AB136" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AC136" s="87"/>
-      <c r="AD136" s="87"/>
-      <c r="AE136" s="87"/>
-      <c r="AF136" s="87"/>
-      <c r="AG136" s="87" t="s">
+      <c r="AC136" s="73"/>
+      <c r="AD136" s="73"/>
+      <c r="AE136" s="73"/>
+      <c r="AF136" s="73"/>
+      <c r="AG136" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AH136" s="87"/>
-      <c r="AI136" s="87"/>
-      <c r="AJ136" s="87"/>
-      <c r="AK136" s="87"/>
-      <c r="AL136" s="87"/>
-      <c r="AM136" s="87" t="s">
+      <c r="AH136" s="73"/>
+      <c r="AI136" s="73"/>
+      <c r="AJ136" s="73"/>
+      <c r="AK136" s="73"/>
+      <c r="AL136" s="73"/>
+      <c r="AM136" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="AN136" s="87"/>
-      <c r="AO136" s="87" t="s">
+      <c r="AN136" s="73"/>
+      <c r="AO136" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AP136" s="87"/>
-      <c r="AQ136" s="87"/>
-      <c r="AR136" s="87"/>
-      <c r="AS136" s="87"/>
-      <c r="AT136" s="87"/>
-      <c r="AU136" s="87" t="s">
+      <c r="AP136" s="73"/>
+      <c r="AQ136" s="73"/>
+      <c r="AR136" s="73"/>
+      <c r="AS136" s="73"/>
+      <c r="AT136" s="73"/>
+      <c r="AU136" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AV136" s="87"/>
-      <c r="AW136" s="87"/>
-      <c r="AX136" s="87"/>
-      <c r="AY136" s="87"/>
-      <c r="AZ136" s="87"/>
-      <c r="BA136" s="87" t="s">
+      <c r="AV136" s="73"/>
+      <c r="AW136" s="73"/>
+      <c r="AX136" s="73"/>
+      <c r="AY136" s="73"/>
+      <c r="AZ136" s="73"/>
+      <c r="BA136" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="BB136" s="87"/>
-      <c r="BC136" s="87"/>
+      <c r="BB136" s="73"/>
+      <c r="BC136" s="73"/>
     </row>
     <row r="137" spans="6:55" x14ac:dyDescent="0.25">
       <c r="F137" s="53"/>
@@ -8914,46 +8918,46 @@
       <c r="M137" s="54"/>
       <c r="N137" s="55"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="89"/>
-      <c r="Q137" s="89"/>
-      <c r="R137" s="87"/>
-      <c r="S137" s="87"/>
-      <c r="T137" s="87"/>
-      <c r="U137" s="87"/>
-      <c r="V137" s="87"/>
-      <c r="W137" s="87"/>
-      <c r="X137" s="87"/>
-      <c r="Y137" s="87"/>
-      <c r="Z137" s="87"/>
-      <c r="AA137" s="87"/>
-      <c r="AB137" s="87"/>
-      <c r="AC137" s="87"/>
-      <c r="AD137" s="87"/>
-      <c r="AE137" s="87"/>
-      <c r="AF137" s="87"/>
-      <c r="AG137" s="87"/>
-      <c r="AH137" s="87"/>
-      <c r="AI137" s="87"/>
-      <c r="AJ137" s="87"/>
-      <c r="AK137" s="87"/>
-      <c r="AL137" s="87"/>
-      <c r="AM137" s="87"/>
-      <c r="AN137" s="87"/>
-      <c r="AO137" s="87"/>
-      <c r="AP137" s="87"/>
-      <c r="AQ137" s="87"/>
-      <c r="AR137" s="87"/>
-      <c r="AS137" s="87"/>
-      <c r="AT137" s="87"/>
-      <c r="AU137" s="87"/>
-      <c r="AV137" s="87"/>
-      <c r="AW137" s="87"/>
-      <c r="AX137" s="87"/>
-      <c r="AY137" s="87"/>
-      <c r="AZ137" s="87"/>
-      <c r="BA137" s="87"/>
-      <c r="BB137" s="87"/>
-      <c r="BC137" s="87"/>
+      <c r="P137" s="74"/>
+      <c r="Q137" s="74"/>
+      <c r="R137" s="73"/>
+      <c r="S137" s="73"/>
+      <c r="T137" s="73"/>
+      <c r="U137" s="73"/>
+      <c r="V137" s="73"/>
+      <c r="W137" s="73"/>
+      <c r="X137" s="73"/>
+      <c r="Y137" s="73"/>
+      <c r="Z137" s="73"/>
+      <c r="AA137" s="73"/>
+      <c r="AB137" s="73"/>
+      <c r="AC137" s="73"/>
+      <c r="AD137" s="73"/>
+      <c r="AE137" s="73"/>
+      <c r="AF137" s="73"/>
+      <c r="AG137" s="73"/>
+      <c r="AH137" s="73"/>
+      <c r="AI137" s="73"/>
+      <c r="AJ137" s="73"/>
+      <c r="AK137" s="73"/>
+      <c r="AL137" s="73"/>
+      <c r="AM137" s="73"/>
+      <c r="AN137" s="73"/>
+      <c r="AO137" s="73"/>
+      <c r="AP137" s="73"/>
+      <c r="AQ137" s="73"/>
+      <c r="AR137" s="73"/>
+      <c r="AS137" s="73"/>
+      <c r="AT137" s="73"/>
+      <c r="AU137" s="73"/>
+      <c r="AV137" s="73"/>
+      <c r="AW137" s="73"/>
+      <c r="AX137" s="73"/>
+      <c r="AY137" s="73"/>
+      <c r="AZ137" s="73"/>
+      <c r="BA137" s="73"/>
+      <c r="BB137" s="73"/>
+      <c r="BC137" s="73"/>
     </row>
     <row r="138" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9" t="s">
@@ -8974,26 +8978,26 @@
       <c r="M138" s="10"/>
       <c r="N138" s="11"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="64" t="s">
+      <c r="P138" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="64"/>
+      <c r="Q138" s="56"/>
       <c r="R138" s="32" t="s">
         <v>101</v>
       </c>
       <c r="S138" s="34"/>
-      <c r="T138" s="64" t="s">
+      <c r="T138" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="U138" s="64"/>
+      <c r="U138" s="56"/>
       <c r="V138" s="9"/>
       <c r="W138" s="11"/>
-      <c r="X138" s="64" t="s">
+      <c r="X138" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="Y138" s="64"/>
-      <c r="Z138" s="64"/>
-      <c r="AA138" s="64"/>
+      <c r="Y138" s="56"/>
+      <c r="Z138" s="56"/>
+      <c r="AA138" s="56"/>
       <c r="AB138" s="9" t="s">
         <v>96</v>
       </c>
@@ -9007,8 +9011,8 @@
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="11"/>
-      <c r="AM138" s="64"/>
-      <c r="AN138" s="64"/>
+      <c r="AM138" s="56"/>
+      <c r="AN138" s="56"/>
       <c r="AO138" s="9" t="s">
         <v>97</v>
       </c>
@@ -9042,18 +9046,18 @@
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="64"/>
-      <c r="Q139" s="64"/>
-      <c r="R139" s="90"/>
-      <c r="S139" s="91"/>
-      <c r="T139" s="64"/>
-      <c r="U139" s="64"/>
+      <c r="P139" s="56"/>
+      <c r="Q139" s="56"/>
+      <c r="R139" s="75"/>
+      <c r="S139" s="76"/>
+      <c r="T139" s="56"/>
+      <c r="U139" s="56"/>
       <c r="V139" s="12"/>
       <c r="W139" s="14"/>
-      <c r="X139" s="64"/>
-      <c r="Y139" s="64"/>
-      <c r="Z139" s="64"/>
-      <c r="AA139" s="64"/>
+      <c r="X139" s="56"/>
+      <c r="Y139" s="56"/>
+      <c r="Z139" s="56"/>
+      <c r="AA139" s="56"/>
       <c r="AB139" s="12"/>
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
@@ -9065,8 +9069,8 @@
       <c r="AJ139" s="13"/>
       <c r="AK139" s="13"/>
       <c r="AL139" s="14"/>
-      <c r="AM139" s="64"/>
-      <c r="AN139" s="64"/>
+      <c r="AM139" s="56"/>
+      <c r="AN139" s="56"/>
       <c r="AO139" s="12"/>
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
@@ -9094,18 +9098,18 @@
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="64"/>
-      <c r="Q140" s="64"/>
-      <c r="R140" s="90"/>
-      <c r="S140" s="91"/>
-      <c r="T140" s="64"/>
-      <c r="U140" s="64"/>
+      <c r="P140" s="56"/>
+      <c r="Q140" s="56"/>
+      <c r="R140" s="75"/>
+      <c r="S140" s="76"/>
+      <c r="T140" s="56"/>
+      <c r="U140" s="56"/>
       <c r="V140" s="12"/>
       <c r="W140" s="14"/>
-      <c r="X140" s="64"/>
-      <c r="Y140" s="64"/>
-      <c r="Z140" s="64"/>
-      <c r="AA140" s="64"/>
+      <c r="X140" s="56"/>
+      <c r="Y140" s="56"/>
+      <c r="Z140" s="56"/>
+      <c r="AA140" s="56"/>
       <c r="AB140" s="12"/>
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
@@ -9117,8 +9121,8 @@
       <c r="AJ140" s="13"/>
       <c r="AK140" s="13"/>
       <c r="AL140" s="14"/>
-      <c r="AM140" s="64"/>
-      <c r="AN140" s="64"/>
+      <c r="AM140" s="56"/>
+      <c r="AN140" s="56"/>
       <c r="AO140" s="12"/>
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
@@ -9146,18 +9150,18 @@
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="64"/>
-      <c r="Q141" s="64"/>
-      <c r="R141" s="90"/>
-      <c r="S141" s="91"/>
-      <c r="T141" s="64"/>
-      <c r="U141" s="64"/>
+      <c r="P141" s="56"/>
+      <c r="Q141" s="56"/>
+      <c r="R141" s="75"/>
+      <c r="S141" s="76"/>
+      <c r="T141" s="56"/>
+      <c r="U141" s="56"/>
       <c r="V141" s="12"/>
       <c r="W141" s="14"/>
-      <c r="X141" s="64"/>
-      <c r="Y141" s="64"/>
-      <c r="Z141" s="64"/>
-      <c r="AA141" s="64"/>
+      <c r="X141" s="56"/>
+      <c r="Y141" s="56"/>
+      <c r="Z141" s="56"/>
+      <c r="AA141" s="56"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
@@ -9169,8 +9173,8 @@
       <c r="AJ141" s="13"/>
       <c r="AK141" s="13"/>
       <c r="AL141" s="14"/>
-      <c r="AM141" s="64"/>
-      <c r="AN141" s="64"/>
+      <c r="AM141" s="56"/>
+      <c r="AN141" s="56"/>
       <c r="AO141" s="12"/>
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
@@ -9206,18 +9210,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="11"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="64"/>
-      <c r="Q142" s="64"/>
-      <c r="R142" s="90"/>
-      <c r="S142" s="91"/>
-      <c r="T142" s="64"/>
-      <c r="U142" s="64"/>
+      <c r="P142" s="56"/>
+      <c r="Q142" s="56"/>
+      <c r="R142" s="75"/>
+      <c r="S142" s="76"/>
+      <c r="T142" s="56"/>
+      <c r="U142" s="56"/>
       <c r="V142" s="12"/>
       <c r="W142" s="14"/>
-      <c r="X142" s="64"/>
-      <c r="Y142" s="64"/>
-      <c r="Z142" s="64"/>
-      <c r="AA142" s="64"/>
+      <c r="X142" s="56"/>
+      <c r="Y142" s="56"/>
+      <c r="Z142" s="56"/>
+      <c r="AA142" s="56"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
@@ -9229,8 +9233,8 @@
       <c r="AJ142" s="13"/>
       <c r="AK142" s="13"/>
       <c r="AL142" s="14"/>
-      <c r="AM142" s="64"/>
-      <c r="AN142" s="64"/>
+      <c r="AM142" s="56"/>
+      <c r="AN142" s="56"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
@@ -9258,18 +9262,18 @@
       <c r="M143" s="13"/>
       <c r="N143" s="14"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="64"/>
-      <c r="Q143" s="64"/>
-      <c r="R143" s="90"/>
-      <c r="S143" s="91"/>
-      <c r="T143" s="64"/>
-      <c r="U143" s="64"/>
+      <c r="P143" s="56"/>
+      <c r="Q143" s="56"/>
+      <c r="R143" s="75"/>
+      <c r="S143" s="76"/>
+      <c r="T143" s="56"/>
+      <c r="U143" s="56"/>
       <c r="V143" s="12"/>
       <c r="W143" s="14"/>
-      <c r="X143" s="64"/>
-      <c r="Y143" s="64"/>
-      <c r="Z143" s="64"/>
-      <c r="AA143" s="64"/>
+      <c r="X143" s="56"/>
+      <c r="Y143" s="56"/>
+      <c r="Z143" s="56"/>
+      <c r="AA143" s="56"/>
       <c r="AB143" s="12"/>
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
@@ -9281,8 +9285,8 @@
       <c r="AJ143" s="13"/>
       <c r="AK143" s="13"/>
       <c r="AL143" s="14"/>
-      <c r="AM143" s="64"/>
-      <c r="AN143" s="64"/>
+      <c r="AM143" s="56"/>
+      <c r="AN143" s="56"/>
       <c r="AO143" s="12"/>
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
@@ -9310,18 +9314,18 @@
       <c r="M144" s="13"/>
       <c r="N144" s="14"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="64"/>
-      <c r="Q144" s="64"/>
-      <c r="R144" s="90"/>
-      <c r="S144" s="91"/>
-      <c r="T144" s="64"/>
-      <c r="U144" s="64"/>
+      <c r="P144" s="56"/>
+      <c r="Q144" s="56"/>
+      <c r="R144" s="75"/>
+      <c r="S144" s="76"/>
+      <c r="T144" s="56"/>
+      <c r="U144" s="56"/>
       <c r="V144" s="12"/>
       <c r="W144" s="14"/>
-      <c r="X144" s="64"/>
-      <c r="Y144" s="64"/>
-      <c r="Z144" s="64"/>
-      <c r="AA144" s="64"/>
+      <c r="X144" s="56"/>
+      <c r="Y144" s="56"/>
+      <c r="Z144" s="56"/>
+      <c r="AA144" s="56"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
@@ -9333,8 +9337,8 @@
       <c r="AJ144" s="13"/>
       <c r="AK144" s="13"/>
       <c r="AL144" s="14"/>
-      <c r="AM144" s="64"/>
-      <c r="AN144" s="64"/>
+      <c r="AM144" s="56"/>
+      <c r="AN144" s="56"/>
       <c r="AO144" s="12"/>
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
@@ -9362,18 +9366,18 @@
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="64"/>
-      <c r="Q145" s="64"/>
-      <c r="R145" s="90"/>
-      <c r="S145" s="91"/>
-      <c r="T145" s="64"/>
-      <c r="U145" s="64"/>
+      <c r="P145" s="56"/>
+      <c r="Q145" s="56"/>
+      <c r="R145" s="75"/>
+      <c r="S145" s="76"/>
+      <c r="T145" s="56"/>
+      <c r="U145" s="56"/>
       <c r="V145" s="12"/>
       <c r="W145" s="14"/>
-      <c r="X145" s="64"/>
-      <c r="Y145" s="64"/>
-      <c r="Z145" s="64"/>
-      <c r="AA145" s="64"/>
+      <c r="X145" s="56"/>
+      <c r="Y145" s="56"/>
+      <c r="Z145" s="56"/>
+      <c r="AA145" s="56"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
@@ -9385,8 +9389,8 @@
       <c r="AJ145" s="13"/>
       <c r="AK145" s="13"/>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="64"/>
-      <c r="AN145" s="64"/>
+      <c r="AM145" s="56"/>
+      <c r="AN145" s="56"/>
       <c r="AO145" s="12"/>
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
@@ -9415,25 +9419,25 @@
       <c r="J146" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K146" s="64" t="s">
+      <c r="K146" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="64"/>
-      <c r="M146" s="64"/>
-      <c r="N146" s="64"/>
+      <c r="L146" s="56"/>
+      <c r="M146" s="56"/>
+      <c r="N146" s="56"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="64"/>
-      <c r="Q146" s="64"/>
-      <c r="R146" s="90"/>
-      <c r="S146" s="91"/>
-      <c r="T146" s="64"/>
-      <c r="U146" s="64"/>
+      <c r="P146" s="56"/>
+      <c r="Q146" s="56"/>
+      <c r="R146" s="75"/>
+      <c r="S146" s="76"/>
+      <c r="T146" s="56"/>
+      <c r="U146" s="56"/>
       <c r="V146" s="12"/>
       <c r="W146" s="14"/>
-      <c r="X146" s="64"/>
-      <c r="Y146" s="64"/>
-      <c r="Z146" s="64"/>
-      <c r="AA146" s="64"/>
+      <c r="X146" s="56"/>
+      <c r="Y146" s="56"/>
+      <c r="Z146" s="56"/>
+      <c r="AA146" s="56"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
@@ -9445,8 +9449,8 @@
       <c r="AJ146" s="13"/>
       <c r="AK146" s="13"/>
       <c r="AL146" s="14"/>
-      <c r="AM146" s="64"/>
-      <c r="AN146" s="64"/>
+      <c r="AM146" s="56"/>
+      <c r="AN146" s="56"/>
       <c r="AO146" s="12"/>
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
@@ -9469,23 +9473,23 @@
       <c r="H147" s="12"/>
       <c r="I147" s="14"/>
       <c r="J147" s="48"/>
-      <c r="K147" s="64"/>
-      <c r="L147" s="64"/>
-      <c r="M147" s="64"/>
-      <c r="N147" s="64"/>
+      <c r="K147" s="56"/>
+      <c r="L147" s="56"/>
+      <c r="M147" s="56"/>
+      <c r="N147" s="56"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="64"/>
-      <c r="Q147" s="64"/>
-      <c r="R147" s="90"/>
-      <c r="S147" s="91"/>
-      <c r="T147" s="64"/>
-      <c r="U147" s="64"/>
+      <c r="P147" s="56"/>
+      <c r="Q147" s="56"/>
+      <c r="R147" s="75"/>
+      <c r="S147" s="76"/>
+      <c r="T147" s="56"/>
+      <c r="U147" s="56"/>
       <c r="V147" s="12"/>
       <c r="W147" s="14"/>
-      <c r="X147" s="64"/>
-      <c r="Y147" s="64"/>
-      <c r="Z147" s="64"/>
-      <c r="AA147" s="64"/>
+      <c r="X147" s="56"/>
+      <c r="Y147" s="56"/>
+      <c r="Z147" s="56"/>
+      <c r="AA147" s="56"/>
       <c r="AB147" s="12"/>
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
@@ -9497,8 +9501,8 @@
       <c r="AJ147" s="13"/>
       <c r="AK147" s="13"/>
       <c r="AL147" s="14"/>
-      <c r="AM147" s="64"/>
-      <c r="AN147" s="64"/>
+      <c r="AM147" s="56"/>
+      <c r="AN147" s="56"/>
       <c r="AO147" s="12"/>
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
@@ -9521,23 +9525,23 @@
       <c r="H148" s="12"/>
       <c r="I148" s="14"/>
       <c r="J148" s="48"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
-      <c r="M148" s="64"/>
-      <c r="N148" s="64"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="56"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="64"/>
-      <c r="Q148" s="64"/>
-      <c r="R148" s="90"/>
-      <c r="S148" s="91"/>
-      <c r="T148" s="64"/>
-      <c r="U148" s="64"/>
+      <c r="P148" s="56"/>
+      <c r="Q148" s="56"/>
+      <c r="R148" s="75"/>
+      <c r="S148" s="76"/>
+      <c r="T148" s="56"/>
+      <c r="U148" s="56"/>
       <c r="V148" s="12"/>
       <c r="W148" s="14"/>
-      <c r="X148" s="64"/>
-      <c r="Y148" s="64"/>
-      <c r="Z148" s="64"/>
-      <c r="AA148" s="64"/>
+      <c r="X148" s="56"/>
+      <c r="Y148" s="56"/>
+      <c r="Z148" s="56"/>
+      <c r="AA148" s="56"/>
       <c r="AB148" s="12"/>
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
@@ -9549,8 +9553,8 @@
       <c r="AJ148" s="13"/>
       <c r="AK148" s="13"/>
       <c r="AL148" s="14"/>
-      <c r="AM148" s="64"/>
-      <c r="AN148" s="64"/>
+      <c r="AM148" s="56"/>
+      <c r="AN148" s="56"/>
       <c r="AO148" s="12"/>
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
@@ -9573,23 +9577,23 @@
       <c r="H149" s="15"/>
       <c r="I149" s="17"/>
       <c r="J149" s="49"/>
-      <c r="K149" s="64"/>
-      <c r="L149" s="64"/>
-      <c r="M149" s="64"/>
-      <c r="N149" s="64"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="64"/>
-      <c r="Q149" s="64"/>
-      <c r="R149" s="90"/>
-      <c r="S149" s="91"/>
-      <c r="T149" s="64"/>
-      <c r="U149" s="64"/>
+      <c r="P149" s="56"/>
+      <c r="Q149" s="56"/>
+      <c r="R149" s="75"/>
+      <c r="S149" s="76"/>
+      <c r="T149" s="56"/>
+      <c r="U149" s="56"/>
       <c r="V149" s="12"/>
       <c r="W149" s="14"/>
-      <c r="X149" s="64"/>
-      <c r="Y149" s="64"/>
-      <c r="Z149" s="64"/>
-      <c r="AA149" s="64"/>
+      <c r="X149" s="56"/>
+      <c r="Y149" s="56"/>
+      <c r="Z149" s="56"/>
+      <c r="AA149" s="56"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
@@ -9601,8 +9605,8 @@
       <c r="AJ149" s="13"/>
       <c r="AK149" s="13"/>
       <c r="AL149" s="14"/>
-      <c r="AM149" s="64"/>
-      <c r="AN149" s="64"/>
+      <c r="AM149" s="56"/>
+      <c r="AN149" s="56"/>
       <c r="AO149" s="12"/>
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
@@ -9620,18 +9624,18 @@
       <c r="BC149" s="14"/>
     </row>
     <row r="150" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="P150" s="64"/>
-      <c r="Q150" s="64"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="56"/>
       <c r="R150" s="35"/>
       <c r="S150" s="37"/>
-      <c r="T150" s="64"/>
-      <c r="U150" s="64"/>
+      <c r="T150" s="56"/>
+      <c r="U150" s="56"/>
       <c r="V150" s="15"/>
       <c r="W150" s="17"/>
-      <c r="X150" s="64"/>
-      <c r="Y150" s="64"/>
-      <c r="Z150" s="64"/>
-      <c r="AA150" s="64"/>
+      <c r="X150" s="56"/>
+      <c r="Y150" s="56"/>
+      <c r="Z150" s="56"/>
+      <c r="AA150" s="56"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
@@ -9643,8 +9647,8 @@
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="64"/>
-      <c r="AN150" s="64"/>
+      <c r="AM150" s="56"/>
+      <c r="AN150" s="56"/>
       <c r="AO150" s="15"/>
       <c r="AP150" s="16"/>
       <c r="AQ150" s="16"/>
@@ -9699,14 +9703,14 @@
         <v>106</v>
       </c>
       <c r="AN151" s="11"/>
-      <c r="AO151" s="64" t="s">
+      <c r="AO151" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AP151" s="64"/>
-      <c r="AQ151" s="64"/>
-      <c r="AR151" s="64"/>
-      <c r="AS151" s="64"/>
-      <c r="AT151" s="64"/>
+      <c r="AP151" s="56"/>
+      <c r="AQ151" s="56"/>
+      <c r="AR151" s="56"/>
+      <c r="AS151" s="56"/>
+      <c r="AT151" s="56"/>
       <c r="AU151" s="9"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -9722,8 +9726,8 @@
     <row r="152" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P152" s="12"/>
       <c r="Q152" s="14"/>
-      <c r="R152" s="90"/>
-      <c r="S152" s="91"/>
+      <c r="R152" s="75"/>
+      <c r="S152" s="76"/>
       <c r="T152" s="12"/>
       <c r="U152" s="14"/>
       <c r="V152" s="12"/>
@@ -9745,12 +9749,12 @@
       <c r="AL152" s="14"/>
       <c r="AM152" s="12"/>
       <c r="AN152" s="14"/>
-      <c r="AO152" s="64"/>
-      <c r="AP152" s="64"/>
-      <c r="AQ152" s="64"/>
-      <c r="AR152" s="64"/>
-      <c r="AS152" s="64"/>
-      <c r="AT152" s="64"/>
+      <c r="AO152" s="56"/>
+      <c r="AP152" s="56"/>
+      <c r="AQ152" s="56"/>
+      <c r="AR152" s="56"/>
+      <c r="AS152" s="56"/>
+      <c r="AT152" s="56"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AW152" s="13"/>
@@ -9764,8 +9768,8 @@
     <row r="153" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P153" s="12"/>
       <c r="Q153" s="14"/>
-      <c r="R153" s="90"/>
-      <c r="S153" s="91"/>
+      <c r="R153" s="75"/>
+      <c r="S153" s="76"/>
       <c r="T153" s="12"/>
       <c r="U153" s="14"/>
       <c r="V153" s="12"/>
@@ -9787,12 +9791,12 @@
       <c r="AL153" s="14"/>
       <c r="AM153" s="12"/>
       <c r="AN153" s="14"/>
-      <c r="AO153" s="64"/>
-      <c r="AP153" s="64"/>
-      <c r="AQ153" s="64"/>
-      <c r="AR153" s="64"/>
-      <c r="AS153" s="64"/>
-      <c r="AT153" s="64"/>
+      <c r="AO153" s="56"/>
+      <c r="AP153" s="56"/>
+      <c r="AQ153" s="56"/>
+      <c r="AR153" s="56"/>
+      <c r="AS153" s="56"/>
+      <c r="AT153" s="56"/>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
       <c r="AW153" s="13"/>
@@ -9806,8 +9810,8 @@
     <row r="154" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P154" s="12"/>
       <c r="Q154" s="14"/>
-      <c r="R154" s="90"/>
-      <c r="S154" s="91"/>
+      <c r="R154" s="75"/>
+      <c r="S154" s="76"/>
       <c r="T154" s="12"/>
       <c r="U154" s="14"/>
       <c r="V154" s="12"/>
@@ -9829,12 +9833,12 @@
       <c r="AL154" s="14"/>
       <c r="AM154" s="12"/>
       <c r="AN154" s="14"/>
-      <c r="AO154" s="64"/>
-      <c r="AP154" s="64"/>
-      <c r="AQ154" s="64"/>
-      <c r="AR154" s="64"/>
-      <c r="AS154" s="64"/>
-      <c r="AT154" s="64"/>
+      <c r="AO154" s="56"/>
+      <c r="AP154" s="56"/>
+      <c r="AQ154" s="56"/>
+      <c r="AR154" s="56"/>
+      <c r="AS154" s="56"/>
+      <c r="AT154" s="56"/>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
       <c r="AW154" s="13"/>
@@ -9848,8 +9852,8 @@
     <row r="155" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P155" s="12"/>
       <c r="Q155" s="14"/>
-      <c r="R155" s="90"/>
-      <c r="S155" s="91"/>
+      <c r="R155" s="75"/>
+      <c r="S155" s="76"/>
       <c r="T155" s="12"/>
       <c r="U155" s="14"/>
       <c r="V155" s="12"/>
@@ -9871,12 +9875,12 @@
       <c r="AL155" s="14"/>
       <c r="AM155" s="12"/>
       <c r="AN155" s="14"/>
-      <c r="AO155" s="64"/>
-      <c r="AP155" s="64"/>
-      <c r="AQ155" s="64"/>
-      <c r="AR155" s="64"/>
-      <c r="AS155" s="64"/>
-      <c r="AT155" s="64"/>
+      <c r="AO155" s="56"/>
+      <c r="AP155" s="56"/>
+      <c r="AQ155" s="56"/>
+      <c r="AR155" s="56"/>
+      <c r="AS155" s="56"/>
+      <c r="AT155" s="56"/>
       <c r="AU155" s="12"/>
       <c r="AV155" s="13"/>
       <c r="AW155" s="13"/>
@@ -9890,8 +9894,8 @@
     <row r="156" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P156" s="12"/>
       <c r="Q156" s="14"/>
-      <c r="R156" s="90"/>
-      <c r="S156" s="91"/>
+      <c r="R156" s="75"/>
+      <c r="S156" s="76"/>
       <c r="T156" s="12"/>
       <c r="U156" s="14"/>
       <c r="V156" s="12"/>
@@ -9913,12 +9917,12 @@
       <c r="AL156" s="14"/>
       <c r="AM156" s="12"/>
       <c r="AN156" s="14"/>
-      <c r="AO156" s="64"/>
-      <c r="AP156" s="64"/>
-      <c r="AQ156" s="64"/>
-      <c r="AR156" s="64"/>
-      <c r="AS156" s="64"/>
-      <c r="AT156" s="64"/>
+      <c r="AO156" s="56"/>
+      <c r="AP156" s="56"/>
+      <c r="AQ156" s="56"/>
+      <c r="AR156" s="56"/>
+      <c r="AS156" s="56"/>
+      <c r="AT156" s="56"/>
       <c r="AU156" s="12"/>
       <c r="AV156" s="13"/>
       <c r="AW156" s="13"/>
@@ -9932,8 +9936,8 @@
     <row r="157" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P157" s="12"/>
       <c r="Q157" s="14"/>
-      <c r="R157" s="90"/>
-      <c r="S157" s="91"/>
+      <c r="R157" s="75"/>
+      <c r="S157" s="76"/>
       <c r="T157" s="12"/>
       <c r="U157" s="14"/>
       <c r="V157" s="12"/>
@@ -9955,12 +9959,12 @@
       <c r="AL157" s="14"/>
       <c r="AM157" s="12"/>
       <c r="AN157" s="14"/>
-      <c r="AO157" s="64"/>
-      <c r="AP157" s="64"/>
-      <c r="AQ157" s="64"/>
-      <c r="AR157" s="64"/>
-      <c r="AS157" s="64"/>
-      <c r="AT157" s="64"/>
+      <c r="AO157" s="56"/>
+      <c r="AP157" s="56"/>
+      <c r="AQ157" s="56"/>
+      <c r="AR157" s="56"/>
+      <c r="AS157" s="56"/>
+      <c r="AT157" s="56"/>
       <c r="AU157" s="12"/>
       <c r="AV157" s="13"/>
       <c r="AW157" s="13"/>
@@ -9974,8 +9978,8 @@
     <row r="158" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P158" s="12"/>
       <c r="Q158" s="14"/>
-      <c r="R158" s="90"/>
-      <c r="S158" s="91"/>
+      <c r="R158" s="75"/>
+      <c r="S158" s="76"/>
       <c r="T158" s="12"/>
       <c r="U158" s="14"/>
       <c r="V158" s="12"/>
@@ -9997,12 +10001,12 @@
       <c r="AL158" s="14"/>
       <c r="AM158" s="12"/>
       <c r="AN158" s="14"/>
-      <c r="AO158" s="64"/>
-      <c r="AP158" s="64"/>
-      <c r="AQ158" s="64"/>
-      <c r="AR158" s="64"/>
-      <c r="AS158" s="64"/>
-      <c r="AT158" s="64"/>
+      <c r="AO158" s="56"/>
+      <c r="AP158" s="56"/>
+      <c r="AQ158" s="56"/>
+      <c r="AR158" s="56"/>
+      <c r="AS158" s="56"/>
+      <c r="AT158" s="56"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AW158" s="13"/>
@@ -10016,8 +10020,8 @@
     <row r="159" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P159" s="12"/>
       <c r="Q159" s="14"/>
-      <c r="R159" s="90"/>
-      <c r="S159" s="91"/>
+      <c r="R159" s="75"/>
+      <c r="S159" s="76"/>
       <c r="T159" s="12"/>
       <c r="U159" s="14"/>
       <c r="V159" s="12"/>
@@ -10039,12 +10043,12 @@
       <c r="AL159" s="14"/>
       <c r="AM159" s="12"/>
       <c r="AN159" s="14"/>
-      <c r="AO159" s="64"/>
-      <c r="AP159" s="64"/>
-      <c r="AQ159" s="64"/>
-      <c r="AR159" s="64"/>
-      <c r="AS159" s="64"/>
-      <c r="AT159" s="64"/>
+      <c r="AO159" s="56"/>
+      <c r="AP159" s="56"/>
+      <c r="AQ159" s="56"/>
+      <c r="AR159" s="56"/>
+      <c r="AS159" s="56"/>
+      <c r="AT159" s="56"/>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AW159" s="13"/>
@@ -10058,8 +10062,8 @@
     <row r="160" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P160" s="12"/>
       <c r="Q160" s="14"/>
-      <c r="R160" s="90"/>
-      <c r="S160" s="91"/>
+      <c r="R160" s="75"/>
+      <c r="S160" s="76"/>
       <c r="T160" s="12"/>
       <c r="U160" s="14"/>
       <c r="V160" s="12"/>
@@ -10081,12 +10085,12 @@
       <c r="AL160" s="14"/>
       <c r="AM160" s="12"/>
       <c r="AN160" s="14"/>
-      <c r="AO160" s="64"/>
-      <c r="AP160" s="64"/>
-      <c r="AQ160" s="64"/>
-      <c r="AR160" s="64"/>
-      <c r="AS160" s="64"/>
-      <c r="AT160" s="64"/>
+      <c r="AO160" s="56"/>
+      <c r="AP160" s="56"/>
+      <c r="AQ160" s="56"/>
+      <c r="AR160" s="56"/>
+      <c r="AS160" s="56"/>
+      <c r="AT160" s="56"/>
       <c r="AU160" s="12"/>
       <c r="AV160" s="13"/>
       <c r="AW160" s="13"/>
@@ -10100,8 +10104,8 @@
     <row r="161" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P161" s="12"/>
       <c r="Q161" s="14"/>
-      <c r="R161" s="90"/>
-      <c r="S161" s="91"/>
+      <c r="R161" s="75"/>
+      <c r="S161" s="76"/>
       <c r="T161" s="12"/>
       <c r="U161" s="14"/>
       <c r="V161" s="12"/>
@@ -10123,12 +10127,12 @@
       <c r="AL161" s="14"/>
       <c r="AM161" s="12"/>
       <c r="AN161" s="14"/>
-      <c r="AO161" s="64"/>
-      <c r="AP161" s="64"/>
-      <c r="AQ161" s="64"/>
-      <c r="AR161" s="64"/>
-      <c r="AS161" s="64"/>
-      <c r="AT161" s="64"/>
+      <c r="AO161" s="56"/>
+      <c r="AP161" s="56"/>
+      <c r="AQ161" s="56"/>
+      <c r="AR161" s="56"/>
+      <c r="AS161" s="56"/>
+      <c r="AT161" s="56"/>
       <c r="AU161" s="12"/>
       <c r="AV161" s="13"/>
       <c r="AW161" s="13"/>
@@ -10142,8 +10146,8 @@
     <row r="162" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P162" s="12"/>
       <c r="Q162" s="14"/>
-      <c r="R162" s="90"/>
-      <c r="S162" s="91"/>
+      <c r="R162" s="75"/>
+      <c r="S162" s="76"/>
       <c r="T162" s="12"/>
       <c r="U162" s="14"/>
       <c r="V162" s="12"/>
@@ -10165,12 +10169,12 @@
       <c r="AL162" s="14"/>
       <c r="AM162" s="12"/>
       <c r="AN162" s="14"/>
-      <c r="AO162" s="64"/>
-      <c r="AP162" s="64"/>
-      <c r="AQ162" s="64"/>
-      <c r="AR162" s="64"/>
-      <c r="AS162" s="64"/>
-      <c r="AT162" s="64"/>
+      <c r="AO162" s="56"/>
+      <c r="AP162" s="56"/>
+      <c r="AQ162" s="56"/>
+      <c r="AR162" s="56"/>
+      <c r="AS162" s="56"/>
+      <c r="AT162" s="56"/>
       <c r="AU162" s="12"/>
       <c r="AV162" s="13"/>
       <c r="AW162" s="13"/>
@@ -10184,8 +10188,8 @@
     <row r="163" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P163" s="12"/>
       <c r="Q163" s="14"/>
-      <c r="R163" s="90"/>
-      <c r="S163" s="91"/>
+      <c r="R163" s="75"/>
+      <c r="S163" s="76"/>
       <c r="T163" s="12"/>
       <c r="U163" s="14"/>
       <c r="V163" s="12"/>
@@ -10207,12 +10211,12 @@
       <c r="AL163" s="14"/>
       <c r="AM163" s="12"/>
       <c r="AN163" s="14"/>
-      <c r="AO163" s="64"/>
-      <c r="AP163" s="64"/>
-      <c r="AQ163" s="64"/>
-      <c r="AR163" s="64"/>
-      <c r="AS163" s="64"/>
-      <c r="AT163" s="64"/>
+      <c r="AO163" s="56"/>
+      <c r="AP163" s="56"/>
+      <c r="AQ163" s="56"/>
+      <c r="AR163" s="56"/>
+      <c r="AS163" s="56"/>
+      <c r="AT163" s="56"/>
       <c r="AU163" s="12"/>
       <c r="AV163" s="13"/>
       <c r="AW163" s="13"/>
@@ -10226,8 +10230,8 @@
     <row r="164" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P164" s="12"/>
       <c r="Q164" s="14"/>
-      <c r="R164" s="90"/>
-      <c r="S164" s="91"/>
+      <c r="R164" s="75"/>
+      <c r="S164" s="76"/>
       <c r="T164" s="12"/>
       <c r="U164" s="14"/>
       <c r="V164" s="12"/>
@@ -10249,12 +10253,12 @@
       <c r="AL164" s="14"/>
       <c r="AM164" s="12"/>
       <c r="AN164" s="14"/>
-      <c r="AO164" s="64"/>
-      <c r="AP164" s="64"/>
-      <c r="AQ164" s="64"/>
-      <c r="AR164" s="64"/>
-      <c r="AS164" s="64"/>
-      <c r="AT164" s="64"/>
+      <c r="AO164" s="56"/>
+      <c r="AP164" s="56"/>
+      <c r="AQ164" s="56"/>
+      <c r="AR164" s="56"/>
+      <c r="AS164" s="56"/>
+      <c r="AT164" s="56"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
       <c r="AW164" s="13"/>
@@ -10268,8 +10272,8 @@
     <row r="165" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P165" s="12"/>
       <c r="Q165" s="14"/>
-      <c r="R165" s="90"/>
-      <c r="S165" s="91"/>
+      <c r="R165" s="75"/>
+      <c r="S165" s="76"/>
       <c r="T165" s="12"/>
       <c r="U165" s="14"/>
       <c r="V165" s="12"/>
@@ -10291,12 +10295,12 @@
       <c r="AL165" s="14"/>
       <c r="AM165" s="12"/>
       <c r="AN165" s="14"/>
-      <c r="AO165" s="64"/>
-      <c r="AP165" s="64"/>
-      <c r="AQ165" s="64"/>
-      <c r="AR165" s="64"/>
-      <c r="AS165" s="64"/>
-      <c r="AT165" s="64"/>
+      <c r="AO165" s="56"/>
+      <c r="AP165" s="56"/>
+      <c r="AQ165" s="56"/>
+      <c r="AR165" s="56"/>
+      <c r="AS165" s="56"/>
+      <c r="AT165" s="56"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
       <c r="AW165" s="13"/>
@@ -10310,8 +10314,8 @@
     <row r="166" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P166" s="12"/>
       <c r="Q166" s="14"/>
-      <c r="R166" s="90"/>
-      <c r="S166" s="91"/>
+      <c r="R166" s="75"/>
+      <c r="S166" s="76"/>
       <c r="T166" s="12"/>
       <c r="U166" s="14"/>
       <c r="V166" s="12"/>
@@ -10333,12 +10337,12 @@
       <c r="AL166" s="14"/>
       <c r="AM166" s="12"/>
       <c r="AN166" s="14"/>
-      <c r="AO166" s="64"/>
-      <c r="AP166" s="64"/>
-      <c r="AQ166" s="64"/>
-      <c r="AR166" s="64"/>
-      <c r="AS166" s="64"/>
-      <c r="AT166" s="64"/>
+      <c r="AO166" s="56"/>
+      <c r="AP166" s="56"/>
+      <c r="AQ166" s="56"/>
+      <c r="AR166" s="56"/>
+      <c r="AS166" s="56"/>
+      <c r="AT166" s="56"/>
       <c r="AU166" s="12"/>
       <c r="AV166" s="13"/>
       <c r="AW166" s="13"/>
@@ -10352,8 +10356,8 @@
     <row r="167" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P167" s="12"/>
       <c r="Q167" s="14"/>
-      <c r="R167" s="90"/>
-      <c r="S167" s="91"/>
+      <c r="R167" s="75"/>
+      <c r="S167" s="76"/>
       <c r="T167" s="15"/>
       <c r="U167" s="17"/>
       <c r="V167" s="15"/>
@@ -10375,12 +10379,12 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="15"/>
       <c r="AN167" s="17"/>
-      <c r="AO167" s="64"/>
-      <c r="AP167" s="64"/>
-      <c r="AQ167" s="64"/>
-      <c r="AR167" s="64"/>
-      <c r="AS167" s="64"/>
-      <c r="AT167" s="64"/>
+      <c r="AO167" s="56"/>
+      <c r="AP167" s="56"/>
+      <c r="AQ167" s="56"/>
+      <c r="AR167" s="56"/>
+      <c r="AS167" s="56"/>
+      <c r="AT167" s="56"/>
       <c r="AU167" s="15"/>
       <c r="AV167" s="16"/>
       <c r="AW167" s="16"/>
@@ -10477,8 +10481,6 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="L102:L105"/>
-    <mergeCell ref="M102:N105"/>
     <mergeCell ref="F104:G105"/>
     <mergeCell ref="AG138:AL150"/>
     <mergeCell ref="AM138:AN150"/>
@@ -10499,6 +10501,8 @@
     <mergeCell ref="K138:N141"/>
     <mergeCell ref="K142:N145"/>
     <mergeCell ref="K146:N149"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J142:J145"/>
     <mergeCell ref="F2:F13"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="H2:H13"/>
@@ -10518,6 +10522,11 @@
     <mergeCell ref="M24:N41"/>
     <mergeCell ref="F56:N57"/>
     <mergeCell ref="F20:I21"/>
+    <mergeCell ref="J20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="M20:N23"/>
     <mergeCell ref="AU151:AZ167"/>
     <mergeCell ref="BA151:BC167"/>
     <mergeCell ref="AO151:AT167"/>
@@ -10591,11 +10600,6 @@
     <mergeCell ref="AU68:AZ77"/>
     <mergeCell ref="AU88:AZ97"/>
     <mergeCell ref="AO100:AT101"/>
-    <mergeCell ref="J20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="M20:N23"/>
     <mergeCell ref="F24:G32"/>
     <mergeCell ref="F33:G41"/>
     <mergeCell ref="H24:I32"/>
@@ -10606,8 +10610,6 @@
     <mergeCell ref="J33:K41"/>
     <mergeCell ref="L24:L32"/>
     <mergeCell ref="L33:L41"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J142:J145"/>
     <mergeCell ref="J146:J149"/>
     <mergeCell ref="H136:I137"/>
     <mergeCell ref="J136:J137"/>
@@ -10630,6 +10632,8 @@
     <mergeCell ref="R100:S101"/>
     <mergeCell ref="F102:I103"/>
     <mergeCell ref="J102:K105"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="M102:N105"/>
     <mergeCell ref="T88:U97"/>
     <mergeCell ref="V88:W97"/>
     <mergeCell ref="X88:AA97"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\proyecto\Matriz Cacao, Cafe y Arroz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38CD72F8-248A-4F19-B0E4-BD41511F3404}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -740,14 +741,11 @@
   <si>
     <t>Pratylenchus (lesionadores) y Meloidogyne (agalladores)</t>
   </si>
-  <si>
-    <t>Hemileia vastatrix Berkeley y Broome</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1234,33 +1232,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,12 +1280,57 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,15 +1403,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,42 +1419,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,7 +1461,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1522,7 @@
         <xdr:cNvPr id="3" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1583,7 @@
         <xdr:cNvPr id="4" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1644,7 @@
         <xdr:cNvPr id="9" name="8 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1688,7 @@
         <xdr:cNvPr id="11" name="10 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1738,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,11 +2068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:N13"/>
+      <selection activeCell="C7" sqref="C7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,331 +2323,331 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:I41"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100:N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="89" t="str">
+      <c r="J2" s="104" t="str">
         <f>[1]Hoja1!$B$6</f>
         <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
 Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país
 El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector
 </v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="91"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="106"/>
     </row>
     <row r="3" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="78"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="94"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="109"/>
     </row>
     <row r="4" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="78"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="94"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="109"/>
     </row>
     <row r="5" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="78"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="94"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="109"/>
     </row>
     <row r="6" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="78"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="94"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="109"/>
     </row>
     <row r="7" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="78"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="94"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="109"/>
     </row>
     <row r="8" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="78"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="94"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="109"/>
     </row>
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="78"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="94"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="109"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F10" s="78"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="94"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="109"/>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="78"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="94"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="109"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="78"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="94"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="109"/>
     </row>
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="79"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="97"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="112"/>
     </row>
     <row r="16" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="109"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="112"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
@@ -2663,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="52"/>
-      <c r="L20" s="98" t="s">
+      <c r="L20" s="72" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="50" t="s">
@@ -2679,7 +2677,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="65"/>
       <c r="K21" s="67"/>
-      <c r="L21" s="99"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="65"/>
       <c r="N21" s="67"/>
       <c r="O21" s="6"/>
@@ -2701,14 +2699,14 @@
       <c r="I22" s="52"/>
       <c r="J22" s="65"/>
       <c r="K22" s="67"/>
-      <c r="L22" s="99"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="65"/>
       <c r="N22" s="67"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="58"/>
+      <c r="Q22" s="57"/>
       <c r="R22" s="50" t="s">
         <v>68</v>
       </c>
@@ -2779,12 +2777,12 @@
       <c r="I23" s="55"/>
       <c r="J23" s="53"/>
       <c r="K23" s="55"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="53"/>
       <c r="N23" s="55"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
       <c r="R23" s="53"/>
       <c r="S23" s="55"/>
       <c r="T23" s="53"/>
@@ -3355,10 +3353,8 @@
         <v>115</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="56"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="9" t="s">
         <v>117</v>
       </c>
@@ -3425,8 +3421,8 @@
       <c r="E34" s="43"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
       <c r="L34" s="48"/>
@@ -3481,8 +3477,8 @@
       <c r="E35" s="43"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
       <c r="L35" s="48"/>
@@ -3537,8 +3533,8 @@
       <c r="E36" s="43"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
       <c r="L36" s="48"/>
@@ -3593,8 +3589,8 @@
       <c r="E37" s="43"/>
       <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
       <c r="L37" s="48"/>
@@ -3649,8 +3645,8 @@
       <c r="E38" s="43"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
       <c r="L38" s="48"/>
@@ -3705,8 +3701,8 @@
       <c r="E39" s="43"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
       <c r="L39" s="48"/>
@@ -3761,8 +3757,8 @@
       <c r="E40" s="43"/>
       <c r="F40" s="12"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
       <c r="L40" s="48"/>
@@ -3817,8 +3813,8 @@
       <c r="E41" s="46"/>
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
       <c r="L41" s="49"/>
@@ -4222,9 +4218,9 @@
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="56"/>
-      <c r="BB47" s="56"/>
-      <c r="BC47" s="56"/>
+      <c r="BA47" s="64"/>
+      <c r="BB47" s="64"/>
+      <c r="BC47" s="64"/>
     </row>
     <row r="48" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B48" s="41"/>
@@ -4278,9 +4274,9 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="56"/>
-      <c r="BB48" s="56"/>
-      <c r="BC48" s="56"/>
+      <c r="BA48" s="64"/>
+      <c r="BB48" s="64"/>
+      <c r="BC48" s="64"/>
     </row>
     <row r="49" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B49" s="41"/>
@@ -4334,9 +4330,9 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="56"/>
-      <c r="BB49" s="56"/>
-      <c r="BC49" s="56"/>
+      <c r="BA49" s="64"/>
+      <c r="BB49" s="64"/>
+      <c r="BC49" s="64"/>
     </row>
     <row r="50" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B50" s="41"/>
@@ -4390,9 +4386,9 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="56"/>
-      <c r="BB50" s="56"/>
-      <c r="BC50" s="56"/>
+      <c r="BA50" s="64"/>
+      <c r="BB50" s="64"/>
+      <c r="BC50" s="64"/>
     </row>
     <row r="51" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B51" s="41"/>
@@ -4446,9 +4442,9 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="56"/>
-      <c r="BB51" s="56"/>
-      <c r="BC51" s="56"/>
+      <c r="BA51" s="64"/>
+      <c r="BB51" s="64"/>
+      <c r="BC51" s="64"/>
     </row>
     <row r="52" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B52" s="41"/>
@@ -4502,9 +4498,9 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="56"/>
-      <c r="BB52" s="56"/>
-      <c r="BC52" s="56"/>
+      <c r="BA52" s="64"/>
+      <c r="BB52" s="64"/>
+      <c r="BC52" s="64"/>
     </row>
     <row r="53" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B53" s="44"/>
@@ -4558,9 +4554,9 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="56"/>
-      <c r="BB53" s="56"/>
-      <c r="BC53" s="56"/>
+      <c r="BA53" s="64"/>
+      <c r="BB53" s="64"/>
+      <c r="BC53" s="64"/>
     </row>
     <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="O54" s="4"/>
@@ -4601,9 +4597,9 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="56"/>
-      <c r="BB54" s="56"/>
-      <c r="BC54" s="56"/>
+      <c r="BA54" s="64"/>
+      <c r="BB54" s="64"/>
+      <c r="BC54" s="64"/>
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
@@ -4653,22 +4649,22 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
       <c r="AZ55" s="14"/>
-      <c r="BA55" s="56"/>
-      <c r="BB55" s="56"/>
-      <c r="BC55" s="56"/>
+      <c r="BA55" s="64"/>
+      <c r="BB55" s="64"/>
+      <c r="BC55" s="64"/>
     </row>
     <row r="56" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F56" s="101" t="s">
+      <c r="F56" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="102"/>
-      <c r="M56" s="102"/>
-      <c r="N56" s="103"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="115"/>
       <c r="O56" s="4"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="14"/>
@@ -4707,20 +4703,20 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="14"/>
-      <c r="BA56" s="56"/>
-      <c r="BB56" s="56"/>
-      <c r="BC56" s="56"/>
+      <c r="BA56" s="64"/>
+      <c r="BB56" s="64"/>
+      <c r="BC56" s="64"/>
     </row>
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F57" s="104"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="106"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="118"/>
       <c r="O57" s="4"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="17"/>
@@ -4759,9 +4755,9 @@
       <c r="AX57" s="16"/>
       <c r="AY57" s="16"/>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="56"/>
-      <c r="BB57" s="56"/>
-      <c r="BC57" s="56"/>
+      <c r="BA57" s="64"/>
+      <c r="BB57" s="64"/>
+      <c r="BC57" s="64"/>
     </row>
     <row r="58" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F58" s="50" t="s">
@@ -4774,7 +4770,7 @@
         <v>19</v>
       </c>
       <c r="K58" s="52"/>
-      <c r="L58" s="98" t="s">
+      <c r="L58" s="72" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="50" t="s">
@@ -4830,7 +4826,7 @@
       <c r="I59" s="55"/>
       <c r="J59" s="65"/>
       <c r="K59" s="67"/>
-      <c r="L59" s="99"/>
+      <c r="L59" s="73"/>
       <c r="M59" s="65"/>
       <c r="N59" s="67"/>
       <c r="O59" s="4"/>
@@ -4892,14 +4888,14 @@
       <c r="I60" s="52"/>
       <c r="J60" s="65"/>
       <c r="K60" s="67"/>
-      <c r="L60" s="99"/>
+      <c r="L60" s="73"/>
       <c r="M60" s="65"/>
       <c r="N60" s="67"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="61" t="s">
+      <c r="P60" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="62"/>
+      <c r="Q60" s="61"/>
       <c r="R60" s="65" t="s">
         <v>68</v>
       </c>
@@ -4970,12 +4966,12 @@
       <c r="I61" s="55"/>
       <c r="J61" s="53"/>
       <c r="K61" s="55"/>
-      <c r="L61" s="100"/>
+      <c r="L61" s="74"/>
       <c r="M61" s="53"/>
       <c r="N61" s="55"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="64"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="63"/>
       <c r="R61" s="53"/>
       <c r="S61" s="55"/>
       <c r="T61" s="53"/>
@@ -5020,19 +5016,19 @@
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="56" t="s">
+      <c r="F62" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="56"/>
+      <c r="G62" s="64"/>
       <c r="H62" s="9" t="s">
         <v>119</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="56" t="s">
+      <c r="J62" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
       <c r="M62" s="9" t="s">
         <v>121</v>
       </c>
@@ -5079,14 +5075,14 @@
         <v>82</v>
       </c>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="56" t="s">
+      <c r="AO62" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AP62" s="56"/>
-      <c r="AQ62" s="56"/>
-      <c r="AR62" s="56"/>
-      <c r="AS62" s="56"/>
-      <c r="AT62" s="56"/>
+      <c r="AP62" s="64"/>
+      <c r="AQ62" s="64"/>
+      <c r="AR62" s="64"/>
+      <c r="AS62" s="64"/>
+      <c r="AT62" s="64"/>
       <c r="AU62" s="9" t="s">
         <v>150</v>
       </c>
@@ -5106,13 +5102,13 @@
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
       <c r="M63" s="12"/>
       <c r="N63" s="14"/>
       <c r="O63" s="1"/>
@@ -5141,12 +5137,12 @@
       <c r="AL63" s="14"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="14"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="56"/>
-      <c r="AR63" s="56"/>
-      <c r="AS63" s="56"/>
-      <c r="AT63" s="56"/>
+      <c r="AO63" s="64"/>
+      <c r="AP63" s="64"/>
+      <c r="AQ63" s="64"/>
+      <c r="AR63" s="64"/>
+      <c r="AS63" s="64"/>
+      <c r="AT63" s="64"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="13"/>
       <c r="AW63" s="13"/>
@@ -5162,13 +5158,13 @@
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
       <c r="M64" s="12"/>
       <c r="N64" s="14"/>
       <c r="O64" s="1"/>
@@ -5197,12 +5193,12 @@
       <c r="AL64" s="14"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="14"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="56"/>
-      <c r="AQ64" s="56"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
+      <c r="AO64" s="64"/>
+      <c r="AP64" s="64"/>
+      <c r="AQ64" s="64"/>
+      <c r="AR64" s="64"/>
+      <c r="AS64" s="64"/>
+      <c r="AT64" s="64"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
       <c r="AW64" s="13"/>
@@ -5218,13 +5214,13 @@
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
       <c r="M65" s="12"/>
       <c r="N65" s="14"/>
       <c r="O65" s="1"/>
@@ -5253,12 +5249,12 @@
       <c r="AL65" s="14"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="14"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="56"/>
-      <c r="AQ65" s="56"/>
-      <c r="AR65" s="56"/>
-      <c r="AS65" s="56"/>
-      <c r="AT65" s="56"/>
+      <c r="AO65" s="64"/>
+      <c r="AP65" s="64"/>
+      <c r="AQ65" s="64"/>
+      <c r="AR65" s="64"/>
+      <c r="AS65" s="64"/>
+      <c r="AT65" s="64"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="13"/>
       <c r="AW65" s="13"/>
@@ -5274,13 +5270,13 @@
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
       <c r="E66" s="43"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
       <c r="M66" s="12"/>
       <c r="N66" s="14"/>
       <c r="O66" s="1"/>
@@ -5309,12 +5305,12 @@
       <c r="AL66" s="14"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="14"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="56"/>
-      <c r="AQ66" s="56"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
+      <c r="AO66" s="64"/>
+      <c r="AP66" s="64"/>
+      <c r="AQ66" s="64"/>
+      <c r="AR66" s="64"/>
+      <c r="AS66" s="64"/>
+      <c r="AT66" s="64"/>
       <c r="AU66" s="12"/>
       <c r="AV66" s="13"/>
       <c r="AW66" s="13"/>
@@ -5330,13 +5326,13 @@
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
       <c r="E67" s="46"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="1"/>
@@ -5365,12 +5361,12 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="17"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="56"/>
-      <c r="AQ67" s="56"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
+      <c r="AO67" s="64"/>
+      <c r="AP67" s="64"/>
+      <c r="AQ67" s="64"/>
+      <c r="AR67" s="64"/>
+      <c r="AS67" s="64"/>
+      <c r="AT67" s="64"/>
       <c r="AU67" s="15"/>
       <c r="AV67" s="16"/>
       <c r="AW67" s="16"/>
@@ -5401,8 +5397,8 @@
       <c r="L68" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
       <c r="O68" s="1"/>
       <c r="P68" s="9" t="s">
         <v>22</v>
@@ -5441,26 +5437,26 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="56" t="s">
+      <c r="AM68" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56" t="s">
+      <c r="AN68" s="64"/>
+      <c r="AO68" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="56"/>
-      <c r="AQ68" s="56"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="56"/>
-      <c r="AU68" s="56" t="s">
+      <c r="AP68" s="64"/>
+      <c r="AQ68" s="64"/>
+      <c r="AR68" s="64"/>
+      <c r="AS68" s="64"/>
+      <c r="AT68" s="64"/>
+      <c r="AU68" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="AV68" s="56"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="56"/>
+      <c r="AV68" s="64"/>
+      <c r="AW68" s="64"/>
+      <c r="AX68" s="64"/>
+      <c r="AY68" s="64"/>
+      <c r="AZ68" s="64"/>
       <c r="BA68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5479,8 +5475,8 @@
       <c r="J69" s="12"/>
       <c r="K69" s="14"/>
       <c r="L69" s="48"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
       <c r="O69" s="1"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="14"/>
@@ -5505,20 +5501,20 @@
       <c r="AJ69" s="13"/>
       <c r="AK69" s="13"/>
       <c r="AL69" s="14"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="56"/>
-      <c r="AQ69" s="56"/>
-      <c r="AR69" s="56"/>
-      <c r="AS69" s="56"/>
-      <c r="AT69" s="56"/>
-      <c r="AU69" s="56"/>
-      <c r="AV69" s="56"/>
-      <c r="AW69" s="56"/>
-      <c r="AX69" s="56"/>
-      <c r="AY69" s="56"/>
-      <c r="AZ69" s="56"/>
+      <c r="AM69" s="64"/>
+      <c r="AN69" s="64"/>
+      <c r="AO69" s="64"/>
+      <c r="AP69" s="64"/>
+      <c r="AQ69" s="64"/>
+      <c r="AR69" s="64"/>
+      <c r="AS69" s="64"/>
+      <c r="AT69" s="64"/>
+      <c r="AU69" s="64"/>
+      <c r="AV69" s="64"/>
+      <c r="AW69" s="64"/>
+      <c r="AX69" s="64"/>
+      <c r="AY69" s="64"/>
+      <c r="AZ69" s="64"/>
       <c r="BA69" s="12"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="14"/>
@@ -5535,8 +5531,8 @@
       <c r="J70" s="12"/>
       <c r="K70" s="14"/>
       <c r="L70" s="48"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
       <c r="O70" s="1"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="14"/>
@@ -5561,20 +5557,20 @@
       <c r="AJ70" s="13"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="14"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="56"/>
-      <c r="AQ70" s="56"/>
-      <c r="AR70" s="56"/>
-      <c r="AS70" s="56"/>
-      <c r="AT70" s="56"/>
-      <c r="AU70" s="56"/>
-      <c r="AV70" s="56"/>
-      <c r="AW70" s="56"/>
-      <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
-      <c r="AZ70" s="56"/>
+      <c r="AM70" s="64"/>
+      <c r="AN70" s="64"/>
+      <c r="AO70" s="64"/>
+      <c r="AP70" s="64"/>
+      <c r="AQ70" s="64"/>
+      <c r="AR70" s="64"/>
+      <c r="AS70" s="64"/>
+      <c r="AT70" s="64"/>
+      <c r="AU70" s="64"/>
+      <c r="AV70" s="64"/>
+      <c r="AW70" s="64"/>
+      <c r="AX70" s="64"/>
+      <c r="AY70" s="64"/>
+      <c r="AZ70" s="64"/>
       <c r="BA70" s="12"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="14"/>
@@ -5591,8 +5587,8 @@
       <c r="J71" s="12"/>
       <c r="K71" s="14"/>
       <c r="L71" s="48"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
       <c r="O71" s="1"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="14"/>
@@ -5617,20 +5613,20 @@
       <c r="AJ71" s="13"/>
       <c r="AK71" s="13"/>
       <c r="AL71" s="14"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="56"/>
-      <c r="AQ71" s="56"/>
-      <c r="AR71" s="56"/>
-      <c r="AS71" s="56"/>
-      <c r="AT71" s="56"/>
-      <c r="AU71" s="56"/>
-      <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
-      <c r="AX71" s="56"/>
-      <c r="AY71" s="56"/>
-      <c r="AZ71" s="56"/>
+      <c r="AM71" s="64"/>
+      <c r="AN71" s="64"/>
+      <c r="AO71" s="64"/>
+      <c r="AP71" s="64"/>
+      <c r="AQ71" s="64"/>
+      <c r="AR71" s="64"/>
+      <c r="AS71" s="64"/>
+      <c r="AT71" s="64"/>
+      <c r="AU71" s="64"/>
+      <c r="AV71" s="64"/>
+      <c r="AW71" s="64"/>
+      <c r="AX71" s="64"/>
+      <c r="AY71" s="64"/>
+      <c r="AZ71" s="64"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="14"/>
@@ -5647,8 +5643,8 @@
       <c r="J72" s="12"/>
       <c r="K72" s="14"/>
       <c r="L72" s="48"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
       <c r="O72" s="1"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="14"/>
@@ -5673,20 +5669,20 @@
       <c r="AJ72" s="13"/>
       <c r="AK72" s="13"/>
       <c r="AL72" s="14"/>
-      <c r="AM72" s="56"/>
-      <c r="AN72" s="56"/>
-      <c r="AO72" s="56"/>
-      <c r="AP72" s="56"/>
-      <c r="AQ72" s="56"/>
-      <c r="AR72" s="56"/>
-      <c r="AS72" s="56"/>
-      <c r="AT72" s="56"/>
-      <c r="AU72" s="56"/>
-      <c r="AV72" s="56"/>
-      <c r="AW72" s="56"/>
-      <c r="AX72" s="56"/>
-      <c r="AY72" s="56"/>
-      <c r="AZ72" s="56"/>
+      <c r="AM72" s="64"/>
+      <c r="AN72" s="64"/>
+      <c r="AO72" s="64"/>
+      <c r="AP72" s="64"/>
+      <c r="AQ72" s="64"/>
+      <c r="AR72" s="64"/>
+      <c r="AS72" s="64"/>
+      <c r="AT72" s="64"/>
+      <c r="AU72" s="64"/>
+      <c r="AV72" s="64"/>
+      <c r="AW72" s="64"/>
+      <c r="AX72" s="64"/>
+      <c r="AY72" s="64"/>
+      <c r="AZ72" s="64"/>
       <c r="BA72" s="12"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="14"/>
@@ -5703,8 +5699,8 @@
       <c r="J73" s="12"/>
       <c r="K73" s="14"/>
       <c r="L73" s="48"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
       <c r="O73" s="1"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="14"/>
@@ -5729,20 +5725,20 @@
       <c r="AJ73" s="13"/>
       <c r="AK73" s="13"/>
       <c r="AL73" s="14"/>
-      <c r="AM73" s="56"/>
-      <c r="AN73" s="56"/>
-      <c r="AO73" s="56"/>
-      <c r="AP73" s="56"/>
-      <c r="AQ73" s="56"/>
-      <c r="AR73" s="56"/>
-      <c r="AS73" s="56"/>
-      <c r="AT73" s="56"/>
-      <c r="AU73" s="56"/>
-      <c r="AV73" s="56"/>
-      <c r="AW73" s="56"/>
-      <c r="AX73" s="56"/>
-      <c r="AY73" s="56"/>
-      <c r="AZ73" s="56"/>
+      <c r="AM73" s="64"/>
+      <c r="AN73" s="64"/>
+      <c r="AO73" s="64"/>
+      <c r="AP73" s="64"/>
+      <c r="AQ73" s="64"/>
+      <c r="AR73" s="64"/>
+      <c r="AS73" s="64"/>
+      <c r="AT73" s="64"/>
+      <c r="AU73" s="64"/>
+      <c r="AV73" s="64"/>
+      <c r="AW73" s="64"/>
+      <c r="AX73" s="64"/>
+      <c r="AY73" s="64"/>
+      <c r="AZ73" s="64"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="14"/>
@@ -5759,8 +5755,8 @@
       <c r="J74" s="12"/>
       <c r="K74" s="14"/>
       <c r="L74" s="48"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
       <c r="O74" s="1"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="14"/>
@@ -5785,20 +5781,20 @@
       <c r="AJ74" s="13"/>
       <c r="AK74" s="13"/>
       <c r="AL74" s="14"/>
-      <c r="AM74" s="56"/>
-      <c r="AN74" s="56"/>
-      <c r="AO74" s="56"/>
-      <c r="AP74" s="56"/>
-      <c r="AQ74" s="56"/>
-      <c r="AR74" s="56"/>
-      <c r="AS74" s="56"/>
-      <c r="AT74" s="56"/>
-      <c r="AU74" s="56"/>
-      <c r="AV74" s="56"/>
-      <c r="AW74" s="56"/>
-      <c r="AX74" s="56"/>
-      <c r="AY74" s="56"/>
-      <c r="AZ74" s="56"/>
+      <c r="AM74" s="64"/>
+      <c r="AN74" s="64"/>
+      <c r="AO74" s="64"/>
+      <c r="AP74" s="64"/>
+      <c r="AQ74" s="64"/>
+      <c r="AR74" s="64"/>
+      <c r="AS74" s="64"/>
+      <c r="AT74" s="64"/>
+      <c r="AU74" s="64"/>
+      <c r="AV74" s="64"/>
+      <c r="AW74" s="64"/>
+      <c r="AX74" s="64"/>
+      <c r="AY74" s="64"/>
+      <c r="AZ74" s="64"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="14"/>
@@ -5815,8 +5811,8 @@
       <c r="J75" s="12"/>
       <c r="K75" s="14"/>
       <c r="L75" s="48"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
       <c r="O75" s="1"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="14"/>
@@ -5841,20 +5837,20 @@
       <c r="AJ75" s="13"/>
       <c r="AK75" s="13"/>
       <c r="AL75" s="14"/>
-      <c r="AM75" s="56"/>
-      <c r="AN75" s="56"/>
-      <c r="AO75" s="56"/>
-      <c r="AP75" s="56"/>
-      <c r="AQ75" s="56"/>
-      <c r="AR75" s="56"/>
-      <c r="AS75" s="56"/>
-      <c r="AT75" s="56"/>
-      <c r="AU75" s="56"/>
-      <c r="AV75" s="56"/>
-      <c r="AW75" s="56"/>
-      <c r="AX75" s="56"/>
-      <c r="AY75" s="56"/>
-      <c r="AZ75" s="56"/>
+      <c r="AM75" s="64"/>
+      <c r="AN75" s="64"/>
+      <c r="AO75" s="64"/>
+      <c r="AP75" s="64"/>
+      <c r="AQ75" s="64"/>
+      <c r="AR75" s="64"/>
+      <c r="AS75" s="64"/>
+      <c r="AT75" s="64"/>
+      <c r="AU75" s="64"/>
+      <c r="AV75" s="64"/>
+      <c r="AW75" s="64"/>
+      <c r="AX75" s="64"/>
+      <c r="AY75" s="64"/>
+      <c r="AZ75" s="64"/>
       <c r="BA75" s="12"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="14"/>
@@ -5871,8 +5867,8 @@
       <c r="J76" s="12"/>
       <c r="K76" s="14"/>
       <c r="L76" s="48"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
       <c r="O76" s="1"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="14"/>
@@ -5897,20 +5893,20 @@
       <c r="AJ76" s="13"/>
       <c r="AK76" s="13"/>
       <c r="AL76" s="14"/>
-      <c r="AM76" s="56"/>
-      <c r="AN76" s="56"/>
-      <c r="AO76" s="56"/>
-      <c r="AP76" s="56"/>
-      <c r="AQ76" s="56"/>
-      <c r="AR76" s="56"/>
-      <c r="AS76" s="56"/>
-      <c r="AT76" s="56"/>
-      <c r="AU76" s="56"/>
-      <c r="AV76" s="56"/>
-      <c r="AW76" s="56"/>
-      <c r="AX76" s="56"/>
-      <c r="AY76" s="56"/>
-      <c r="AZ76" s="56"/>
+      <c r="AM76" s="64"/>
+      <c r="AN76" s="64"/>
+      <c r="AO76" s="64"/>
+      <c r="AP76" s="64"/>
+      <c r="AQ76" s="64"/>
+      <c r="AR76" s="64"/>
+      <c r="AS76" s="64"/>
+      <c r="AT76" s="64"/>
+      <c r="AU76" s="64"/>
+      <c r="AV76" s="64"/>
+      <c r="AW76" s="64"/>
+      <c r="AX76" s="64"/>
+      <c r="AY76" s="64"/>
+      <c r="AZ76" s="64"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="14"/>
@@ -5927,8 +5923,8 @@
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
       <c r="L77" s="49"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
       <c r="O77" s="1"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="14"/>
@@ -5996,66 +5992,66 @@
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="56" t="s">
+      <c r="P78" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="56"/>
+      <c r="Q78" s="64"/>
       <c r="R78" s="68" t="s">
         <v>63</v>
       </c>
       <c r="S78" s="68"/>
-      <c r="T78" s="56" t="s">
+      <c r="T78" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="U78" s="56"/>
-      <c r="V78" s="56" t="s">
+      <c r="U78" s="64"/>
+      <c r="V78" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56" t="s">
+      <c r="W78" s="64"/>
+      <c r="X78" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="56"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="56"/>
-      <c r="AB78" s="56" t="s">
+      <c r="Y78" s="64"/>
+      <c r="Z78" s="64"/>
+      <c r="AA78" s="64"/>
+      <c r="AB78" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="56"/>
-      <c r="AD78" s="56"/>
-      <c r="AE78" s="56"/>
-      <c r="AF78" s="56"/>
-      <c r="AG78" s="56" t="s">
+      <c r="AC78" s="64"/>
+      <c r="AD78" s="64"/>
+      <c r="AE78" s="64"/>
+      <c r="AF78" s="64"/>
+      <c r="AG78" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AH78" s="56"/>
-      <c r="AI78" s="56"/>
-      <c r="AJ78" s="56"/>
-      <c r="AK78" s="56"/>
-      <c r="AL78" s="56"/>
-      <c r="AM78" s="56" t="s">
+      <c r="AH78" s="64"/>
+      <c r="AI78" s="64"/>
+      <c r="AJ78" s="64"/>
+      <c r="AK78" s="64"/>
+      <c r="AL78" s="64"/>
+      <c r="AM78" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AN78" s="56"/>
-      <c r="AO78" s="56" t="s">
+      <c r="AN78" s="64"/>
+      <c r="AO78" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="AP78" s="56"/>
-      <c r="AQ78" s="56"/>
-      <c r="AR78" s="56"/>
-      <c r="AS78" s="56"/>
-      <c r="AT78" s="56"/>
-      <c r="AU78" s="56"/>
-      <c r="AV78" s="56"/>
-      <c r="AW78" s="56"/>
-      <c r="AX78" s="56"/>
-      <c r="AY78" s="56"/>
-      <c r="AZ78" s="56"/>
-      <c r="BA78" s="56" t="s">
+      <c r="AP78" s="64"/>
+      <c r="AQ78" s="64"/>
+      <c r="AR78" s="64"/>
+      <c r="AS78" s="64"/>
+      <c r="AT78" s="64"/>
+      <c r="AU78" s="64"/>
+      <c r="AV78" s="64"/>
+      <c r="AW78" s="64"/>
+      <c r="AX78" s="64"/>
+      <c r="AY78" s="64"/>
+      <c r="AZ78" s="64"/>
+      <c r="BA78" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="BB78" s="56"/>
-      <c r="BC78" s="56"/>
+      <c r="BB78" s="64"/>
+      <c r="BC78" s="64"/>
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="41"/>
@@ -6072,46 +6068,46 @@
       <c r="M79" s="12"/>
       <c r="N79" s="14"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="56"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
       <c r="R79" s="68"/>
       <c r="S79" s="68"/>
-      <c r="T79" s="56"/>
-      <c r="U79" s="56"/>
-      <c r="V79" s="56"/>
-      <c r="W79" s="56"/>
-      <c r="X79" s="56"/>
-      <c r="Y79" s="56"/>
-      <c r="Z79" s="56"/>
-      <c r="AA79" s="56"/>
-      <c r="AB79" s="56"/>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="56"/>
-      <c r="AE79" s="56"/>
-      <c r="AF79" s="56"/>
-      <c r="AG79" s="56"/>
-      <c r="AH79" s="56"/>
-      <c r="AI79" s="56"/>
-      <c r="AJ79" s="56"/>
-      <c r="AK79" s="56"/>
-      <c r="AL79" s="56"/>
-      <c r="AM79" s="56"/>
-      <c r="AN79" s="56"/>
-      <c r="AO79" s="56"/>
-      <c r="AP79" s="56"/>
-      <c r="AQ79" s="56"/>
-      <c r="AR79" s="56"/>
-      <c r="AS79" s="56"/>
-      <c r="AT79" s="56"/>
-      <c r="AU79" s="56"/>
-      <c r="AV79" s="56"/>
-      <c r="AW79" s="56"/>
-      <c r="AX79" s="56"/>
-      <c r="AY79" s="56"/>
-      <c r="AZ79" s="56"/>
-      <c r="BA79" s="56"/>
-      <c r="BB79" s="56"/>
-      <c r="BC79" s="56"/>
+      <c r="T79" s="64"/>
+      <c r="U79" s="64"/>
+      <c r="V79" s="64"/>
+      <c r="W79" s="64"/>
+      <c r="X79" s="64"/>
+      <c r="Y79" s="64"/>
+      <c r="Z79" s="64"/>
+      <c r="AA79" s="64"/>
+      <c r="AB79" s="64"/>
+      <c r="AC79" s="64"/>
+      <c r="AD79" s="64"/>
+      <c r="AE79" s="64"/>
+      <c r="AF79" s="64"/>
+      <c r="AG79" s="64"/>
+      <c r="AH79" s="64"/>
+      <c r="AI79" s="64"/>
+      <c r="AJ79" s="64"/>
+      <c r="AK79" s="64"/>
+      <c r="AL79" s="64"/>
+      <c r="AM79" s="64"/>
+      <c r="AN79" s="64"/>
+      <c r="AO79" s="64"/>
+      <c r="AP79" s="64"/>
+      <c r="AQ79" s="64"/>
+      <c r="AR79" s="64"/>
+      <c r="AS79" s="64"/>
+      <c r="AT79" s="64"/>
+      <c r="AU79" s="64"/>
+      <c r="AV79" s="64"/>
+      <c r="AW79" s="64"/>
+      <c r="AX79" s="64"/>
+      <c r="AY79" s="64"/>
+      <c r="AZ79" s="64"/>
+      <c r="BA79" s="64"/>
+      <c r="BB79" s="64"/>
+      <c r="BC79" s="64"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B80" s="41"/>
@@ -6128,46 +6124,46 @@
       <c r="M80" s="12"/>
       <c r="N80" s="14"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="64"/>
       <c r="R80" s="68"/>
       <c r="S80" s="68"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="56"/>
-      <c r="AP80" s="56"/>
-      <c r="AQ80" s="56"/>
-      <c r="AR80" s="56"/>
-      <c r="AS80" s="56"/>
-      <c r="AT80" s="56"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="56"/>
-      <c r="BA80" s="56"/>
-      <c r="BB80" s="56"/>
-      <c r="BC80" s="56"/>
+      <c r="T80" s="64"/>
+      <c r="U80" s="64"/>
+      <c r="V80" s="64"/>
+      <c r="W80" s="64"/>
+      <c r="X80" s="64"/>
+      <c r="Y80" s="64"/>
+      <c r="Z80" s="64"/>
+      <c r="AA80" s="64"/>
+      <c r="AB80" s="64"/>
+      <c r="AC80" s="64"/>
+      <c r="AD80" s="64"/>
+      <c r="AE80" s="64"/>
+      <c r="AF80" s="64"/>
+      <c r="AG80" s="64"/>
+      <c r="AH80" s="64"/>
+      <c r="AI80" s="64"/>
+      <c r="AJ80" s="64"/>
+      <c r="AK80" s="64"/>
+      <c r="AL80" s="64"/>
+      <c r="AM80" s="64"/>
+      <c r="AN80" s="64"/>
+      <c r="AO80" s="64"/>
+      <c r="AP80" s="64"/>
+      <c r="AQ80" s="64"/>
+      <c r="AR80" s="64"/>
+      <c r="AS80" s="64"/>
+      <c r="AT80" s="64"/>
+      <c r="AU80" s="64"/>
+      <c r="AV80" s="64"/>
+      <c r="AW80" s="64"/>
+      <c r="AX80" s="64"/>
+      <c r="AY80" s="64"/>
+      <c r="AZ80" s="64"/>
+      <c r="BA80" s="64"/>
+      <c r="BB80" s="64"/>
+      <c r="BC80" s="64"/>
     </row>
     <row r="81" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B81" s="41"/>
@@ -6184,46 +6180,46 @@
       <c r="M81" s="12"/>
       <c r="N81" s="14"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
       <c r="R81" s="68"/>
       <c r="S81" s="68"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-      <c r="AP81" s="56"/>
-      <c r="AQ81" s="56"/>
-      <c r="AR81" s="56"/>
-      <c r="AS81" s="56"/>
-      <c r="AT81" s="56"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="56"/>
-      <c r="BA81" s="56"/>
-      <c r="BB81" s="56"/>
-      <c r="BC81" s="56"/>
+      <c r="T81" s="64"/>
+      <c r="U81" s="64"/>
+      <c r="V81" s="64"/>
+      <c r="W81" s="64"/>
+      <c r="X81" s="64"/>
+      <c r="Y81" s="64"/>
+      <c r="Z81" s="64"/>
+      <c r="AA81" s="64"/>
+      <c r="AB81" s="64"/>
+      <c r="AC81" s="64"/>
+      <c r="AD81" s="64"/>
+      <c r="AE81" s="64"/>
+      <c r="AF81" s="64"/>
+      <c r="AG81" s="64"/>
+      <c r="AH81" s="64"/>
+      <c r="AI81" s="64"/>
+      <c r="AJ81" s="64"/>
+      <c r="AK81" s="64"/>
+      <c r="AL81" s="64"/>
+      <c r="AM81" s="64"/>
+      <c r="AN81" s="64"/>
+      <c r="AO81" s="64"/>
+      <c r="AP81" s="64"/>
+      <c r="AQ81" s="64"/>
+      <c r="AR81" s="64"/>
+      <c r="AS81" s="64"/>
+      <c r="AT81" s="64"/>
+      <c r="AU81" s="64"/>
+      <c r="AV81" s="64"/>
+      <c r="AW81" s="64"/>
+      <c r="AX81" s="64"/>
+      <c r="AY81" s="64"/>
+      <c r="AZ81" s="64"/>
+      <c r="BA81" s="64"/>
+      <c r="BB81" s="64"/>
+      <c r="BC81" s="64"/>
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="41"/>
@@ -6240,46 +6236,46 @@
       <c r="M82" s="12"/>
       <c r="N82" s="14"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
       <c r="R82" s="68"/>
       <c r="S82" s="68"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="56"/>
-      <c r="AP82" s="56"/>
-      <c r="AQ82" s="56"/>
-      <c r="AR82" s="56"/>
-      <c r="AS82" s="56"/>
-      <c r="AT82" s="56"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="56"/>
-      <c r="BA82" s="56"/>
-      <c r="BB82" s="56"/>
-      <c r="BC82" s="56"/>
+      <c r="T82" s="64"/>
+      <c r="U82" s="64"/>
+      <c r="V82" s="64"/>
+      <c r="W82" s="64"/>
+      <c r="X82" s="64"/>
+      <c r="Y82" s="64"/>
+      <c r="Z82" s="64"/>
+      <c r="AA82" s="64"/>
+      <c r="AB82" s="64"/>
+      <c r="AC82" s="64"/>
+      <c r="AD82" s="64"/>
+      <c r="AE82" s="64"/>
+      <c r="AF82" s="64"/>
+      <c r="AG82" s="64"/>
+      <c r="AH82" s="64"/>
+      <c r="AI82" s="64"/>
+      <c r="AJ82" s="64"/>
+      <c r="AK82" s="64"/>
+      <c r="AL82" s="64"/>
+      <c r="AM82" s="64"/>
+      <c r="AN82" s="64"/>
+      <c r="AO82" s="64"/>
+      <c r="AP82" s="64"/>
+      <c r="AQ82" s="64"/>
+      <c r="AR82" s="64"/>
+      <c r="AS82" s="64"/>
+      <c r="AT82" s="64"/>
+      <c r="AU82" s="64"/>
+      <c r="AV82" s="64"/>
+      <c r="AW82" s="64"/>
+      <c r="AX82" s="64"/>
+      <c r="AY82" s="64"/>
+      <c r="AZ82" s="64"/>
+      <c r="BA82" s="64"/>
+      <c r="BB82" s="64"/>
+      <c r="BC82" s="64"/>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="41"/>
@@ -6296,46 +6292,46 @@
       <c r="M83" s="12"/>
       <c r="N83" s="14"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="64"/>
       <c r="R83" s="68"/>
       <c r="S83" s="68"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="56"/>
-      <c r="AP83" s="56"/>
-      <c r="AQ83" s="56"/>
-      <c r="AR83" s="56"/>
-      <c r="AS83" s="56"/>
-      <c r="AT83" s="56"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="56"/>
-      <c r="BA83" s="56"/>
-      <c r="BB83" s="56"/>
-      <c r="BC83" s="56"/>
+      <c r="T83" s="64"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="64"/>
+      <c r="Y83" s="64"/>
+      <c r="Z83" s="64"/>
+      <c r="AA83" s="64"/>
+      <c r="AB83" s="64"/>
+      <c r="AC83" s="64"/>
+      <c r="AD83" s="64"/>
+      <c r="AE83" s="64"/>
+      <c r="AF83" s="64"/>
+      <c r="AG83" s="64"/>
+      <c r="AH83" s="64"/>
+      <c r="AI83" s="64"/>
+      <c r="AJ83" s="64"/>
+      <c r="AK83" s="64"/>
+      <c r="AL83" s="64"/>
+      <c r="AM83" s="64"/>
+      <c r="AN83" s="64"/>
+      <c r="AO83" s="64"/>
+      <c r="AP83" s="64"/>
+      <c r="AQ83" s="64"/>
+      <c r="AR83" s="64"/>
+      <c r="AS83" s="64"/>
+      <c r="AT83" s="64"/>
+      <c r="AU83" s="64"/>
+      <c r="AV83" s="64"/>
+      <c r="AW83" s="64"/>
+      <c r="AX83" s="64"/>
+      <c r="AY83" s="64"/>
+      <c r="AZ83" s="64"/>
+      <c r="BA83" s="64"/>
+      <c r="BB83" s="64"/>
+      <c r="BC83" s="64"/>
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="41"/>
@@ -6352,46 +6348,46 @@
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="64"/>
       <c r="R84" s="68"/>
       <c r="S84" s="68"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
-      <c r="AP84" s="56"/>
-      <c r="AQ84" s="56"/>
-      <c r="AR84" s="56"/>
-      <c r="AS84" s="56"/>
-      <c r="AT84" s="56"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="56"/>
-      <c r="BA84" s="56"/>
-      <c r="BB84" s="56"/>
-      <c r="BC84" s="56"/>
+      <c r="T84" s="64"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="64"/>
+      <c r="W84" s="64"/>
+      <c r="X84" s="64"/>
+      <c r="Y84" s="64"/>
+      <c r="Z84" s="64"/>
+      <c r="AA84" s="64"/>
+      <c r="AB84" s="64"/>
+      <c r="AC84" s="64"/>
+      <c r="AD84" s="64"/>
+      <c r="AE84" s="64"/>
+      <c r="AF84" s="64"/>
+      <c r="AG84" s="64"/>
+      <c r="AH84" s="64"/>
+      <c r="AI84" s="64"/>
+      <c r="AJ84" s="64"/>
+      <c r="AK84" s="64"/>
+      <c r="AL84" s="64"/>
+      <c r="AM84" s="64"/>
+      <c r="AN84" s="64"/>
+      <c r="AO84" s="64"/>
+      <c r="AP84" s="64"/>
+      <c r="AQ84" s="64"/>
+      <c r="AR84" s="64"/>
+      <c r="AS84" s="64"/>
+      <c r="AT84" s="64"/>
+      <c r="AU84" s="64"/>
+      <c r="AV84" s="64"/>
+      <c r="AW84" s="64"/>
+      <c r="AX84" s="64"/>
+      <c r="AY84" s="64"/>
+      <c r="AZ84" s="64"/>
+      <c r="BA84" s="64"/>
+      <c r="BB84" s="64"/>
+      <c r="BC84" s="64"/>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B85" s="41"/>
@@ -6408,46 +6404,46 @@
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
       <c r="R85" s="68"/>
       <c r="S85" s="68"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="56"/>
-      <c r="AP85" s="56"/>
-      <c r="AQ85" s="56"/>
-      <c r="AR85" s="56"/>
-      <c r="AS85" s="56"/>
-      <c r="AT85" s="56"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="56"/>
-      <c r="BA85" s="56"/>
-      <c r="BB85" s="56"/>
-      <c r="BC85" s="56"/>
+      <c r="T85" s="64"/>
+      <c r="U85" s="64"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="64"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+      <c r="Z85" s="64"/>
+      <c r="AA85" s="64"/>
+      <c r="AB85" s="64"/>
+      <c r="AC85" s="64"/>
+      <c r="AD85" s="64"/>
+      <c r="AE85" s="64"/>
+      <c r="AF85" s="64"/>
+      <c r="AG85" s="64"/>
+      <c r="AH85" s="64"/>
+      <c r="AI85" s="64"/>
+      <c r="AJ85" s="64"/>
+      <c r="AK85" s="64"/>
+      <c r="AL85" s="64"/>
+      <c r="AM85" s="64"/>
+      <c r="AN85" s="64"/>
+      <c r="AO85" s="64"/>
+      <c r="AP85" s="64"/>
+      <c r="AQ85" s="64"/>
+      <c r="AR85" s="64"/>
+      <c r="AS85" s="64"/>
+      <c r="AT85" s="64"/>
+      <c r="AU85" s="64"/>
+      <c r="AV85" s="64"/>
+      <c r="AW85" s="64"/>
+      <c r="AX85" s="64"/>
+      <c r="AY85" s="64"/>
+      <c r="AZ85" s="64"/>
+      <c r="BA85" s="64"/>
+      <c r="BB85" s="64"/>
+      <c r="BC85" s="64"/>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="41"/>
@@ -6464,46 +6460,46 @@
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
       <c r="R86" s="68"/>
       <c r="S86" s="68"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="56"/>
-      <c r="AQ86" s="56"/>
-      <c r="AR86" s="56"/>
-      <c r="AS86" s="56"/>
-      <c r="AT86" s="56"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="56"/>
-      <c r="BA86" s="56"/>
-      <c r="BB86" s="56"/>
-      <c r="BC86" s="56"/>
+      <c r="T86" s="64"/>
+      <c r="U86" s="64"/>
+      <c r="V86" s="64"/>
+      <c r="W86" s="64"/>
+      <c r="X86" s="64"/>
+      <c r="Y86" s="64"/>
+      <c r="Z86" s="64"/>
+      <c r="AA86" s="64"/>
+      <c r="AB86" s="64"/>
+      <c r="AC86" s="64"/>
+      <c r="AD86" s="64"/>
+      <c r="AE86" s="64"/>
+      <c r="AF86" s="64"/>
+      <c r="AG86" s="64"/>
+      <c r="AH86" s="64"/>
+      <c r="AI86" s="64"/>
+      <c r="AJ86" s="64"/>
+      <c r="AK86" s="64"/>
+      <c r="AL86" s="64"/>
+      <c r="AM86" s="64"/>
+      <c r="AN86" s="64"/>
+      <c r="AO86" s="64"/>
+      <c r="AP86" s="64"/>
+      <c r="AQ86" s="64"/>
+      <c r="AR86" s="64"/>
+      <c r="AS86" s="64"/>
+      <c r="AT86" s="64"/>
+      <c r="AU86" s="64"/>
+      <c r="AV86" s="64"/>
+      <c r="AW86" s="64"/>
+      <c r="AX86" s="64"/>
+      <c r="AY86" s="64"/>
+      <c r="AZ86" s="64"/>
+      <c r="BA86" s="64"/>
+      <c r="BB86" s="64"/>
+      <c r="BC86" s="64"/>
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="44"/>
@@ -6520,46 +6516,46 @@
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
       <c r="R87" s="68"/>
       <c r="S87" s="68"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-      <c r="AP87" s="56"/>
-      <c r="AQ87" s="56"/>
-      <c r="AR87" s="56"/>
-      <c r="AS87" s="56"/>
-      <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="56"/>
-      <c r="BA87" s="56"/>
-      <c r="BB87" s="56"/>
-      <c r="BC87" s="56"/>
+      <c r="T87" s="64"/>
+      <c r="U87" s="64"/>
+      <c r="V87" s="64"/>
+      <c r="W87" s="64"/>
+      <c r="X87" s="64"/>
+      <c r="Y87" s="64"/>
+      <c r="Z87" s="64"/>
+      <c r="AA87" s="64"/>
+      <c r="AB87" s="64"/>
+      <c r="AC87" s="64"/>
+      <c r="AD87" s="64"/>
+      <c r="AE87" s="64"/>
+      <c r="AF87" s="64"/>
+      <c r="AG87" s="64"/>
+      <c r="AH87" s="64"/>
+      <c r="AI87" s="64"/>
+      <c r="AJ87" s="64"/>
+      <c r="AK87" s="64"/>
+      <c r="AL87" s="64"/>
+      <c r="AM87" s="64"/>
+      <c r="AN87" s="64"/>
+      <c r="AO87" s="64"/>
+      <c r="AP87" s="64"/>
+      <c r="AQ87" s="64"/>
+      <c r="AR87" s="64"/>
+      <c r="AS87" s="64"/>
+      <c r="AT87" s="64"/>
+      <c r="AU87" s="64"/>
+      <c r="AV87" s="64"/>
+      <c r="AW87" s="64"/>
+      <c r="AX87" s="64"/>
+      <c r="AY87" s="64"/>
+      <c r="AZ87" s="64"/>
+      <c r="BA87" s="64"/>
+      <c r="BB87" s="64"/>
+      <c r="BC87" s="64"/>
     </row>
     <row r="88" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" s="1"/>
@@ -7108,68 +7104,68 @@
       <c r="M100" s="71"/>
       <c r="N100" s="71"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="72" t="s">
+      <c r="P100" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="73" t="s">
+      <c r="Q100" s="88"/>
+      <c r="R100" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="73"/>
-      <c r="T100" s="73" t="s">
+      <c r="S100" s="87"/>
+      <c r="T100" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="73"/>
-      <c r="V100" s="73" t="s">
+      <c r="U100" s="87"/>
+      <c r="V100" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="W100" s="73"/>
-      <c r="X100" s="73" t="s">
+      <c r="W100" s="87"/>
+      <c r="X100" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="Y100" s="73"/>
-      <c r="Z100" s="73"/>
-      <c r="AA100" s="73"/>
-      <c r="AB100" s="73" t="s">
+      <c r="Y100" s="87"/>
+      <c r="Z100" s="87"/>
+      <c r="AA100" s="87"/>
+      <c r="AB100" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="AC100" s="73"/>
-      <c r="AD100" s="73"/>
-      <c r="AE100" s="73"/>
-      <c r="AF100" s="73"/>
-      <c r="AG100" s="73" t="s">
+      <c r="AC100" s="87"/>
+      <c r="AD100" s="87"/>
+      <c r="AE100" s="87"/>
+      <c r="AF100" s="87"/>
+      <c r="AG100" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AH100" s="73"/>
-      <c r="AI100" s="73"/>
-      <c r="AJ100" s="73"/>
-      <c r="AK100" s="73"/>
-      <c r="AL100" s="73"/>
-      <c r="AM100" s="73" t="s">
+      <c r="AH100" s="87"/>
+      <c r="AI100" s="87"/>
+      <c r="AJ100" s="87"/>
+      <c r="AK100" s="87"/>
+      <c r="AL100" s="87"/>
+      <c r="AM100" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AN100" s="73"/>
-      <c r="AO100" s="73" t="s">
+      <c r="AN100" s="87"/>
+      <c r="AO100" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AP100" s="73"/>
-      <c r="AQ100" s="73"/>
-      <c r="AR100" s="73"/>
-      <c r="AS100" s="73"/>
-      <c r="AT100" s="73"/>
-      <c r="AU100" s="73" t="s">
+      <c r="AP100" s="87"/>
+      <c r="AQ100" s="87"/>
+      <c r="AR100" s="87"/>
+      <c r="AS100" s="87"/>
+      <c r="AT100" s="87"/>
+      <c r="AU100" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AV100" s="73"/>
-      <c r="AW100" s="73"/>
-      <c r="AX100" s="73"/>
-      <c r="AY100" s="73"/>
-      <c r="AZ100" s="73"/>
-      <c r="BA100" s="73" t="s">
+      <c r="AV100" s="87"/>
+      <c r="AW100" s="87"/>
+      <c r="AX100" s="87"/>
+      <c r="AY100" s="87"/>
+      <c r="AZ100" s="87"/>
+      <c r="BA100" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="BB100" s="73"/>
-      <c r="BC100" s="73"/>
+      <c r="BB100" s="87"/>
+      <c r="BC100" s="87"/>
     </row>
     <row r="101" spans="6:55" x14ac:dyDescent="0.25">
       <c r="F101" s="71"/>
@@ -7182,46 +7178,46 @@
       <c r="M101" s="71"/>
       <c r="N101" s="71"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="73"/>
-      <c r="S101" s="73"/>
-      <c r="T101" s="73"/>
-      <c r="U101" s="73"/>
-      <c r="V101" s="73"/>
-      <c r="W101" s="73"/>
-      <c r="X101" s="73"/>
-      <c r="Y101" s="73"/>
-      <c r="Z101" s="73"/>
-      <c r="AA101" s="73"/>
-      <c r="AB101" s="73"/>
-      <c r="AC101" s="73"/>
-      <c r="AD101" s="73"/>
-      <c r="AE101" s="73"/>
-      <c r="AF101" s="73"/>
-      <c r="AG101" s="73"/>
-      <c r="AH101" s="73"/>
-      <c r="AI101" s="73"/>
-      <c r="AJ101" s="73"/>
-      <c r="AK101" s="73"/>
-      <c r="AL101" s="73"/>
-      <c r="AM101" s="73"/>
-      <c r="AN101" s="73"/>
-      <c r="AO101" s="73"/>
-      <c r="AP101" s="73"/>
-      <c r="AQ101" s="73"/>
-      <c r="AR101" s="73"/>
-      <c r="AS101" s="73"/>
-      <c r="AT101" s="73"/>
-      <c r="AU101" s="73"/>
-      <c r="AV101" s="73"/>
-      <c r="AW101" s="73"/>
-      <c r="AX101" s="73"/>
-      <c r="AY101" s="73"/>
-      <c r="AZ101" s="73"/>
-      <c r="BA101" s="73"/>
-      <c r="BB101" s="73"/>
-      <c r="BC101" s="73"/>
+      <c r="P101" s="88"/>
+      <c r="Q101" s="88"/>
+      <c r="R101" s="87"/>
+      <c r="S101" s="87"/>
+      <c r="T101" s="87"/>
+      <c r="U101" s="87"/>
+      <c r="V101" s="87"/>
+      <c r="W101" s="87"/>
+      <c r="X101" s="87"/>
+      <c r="Y101" s="87"/>
+      <c r="Z101" s="87"/>
+      <c r="AA101" s="87"/>
+      <c r="AB101" s="87"/>
+      <c r="AC101" s="87"/>
+      <c r="AD101" s="87"/>
+      <c r="AE101" s="87"/>
+      <c r="AF101" s="87"/>
+      <c r="AG101" s="87"/>
+      <c r="AH101" s="87"/>
+      <c r="AI101" s="87"/>
+      <c r="AJ101" s="87"/>
+      <c r="AK101" s="87"/>
+      <c r="AL101" s="87"/>
+      <c r="AM101" s="87"/>
+      <c r="AN101" s="87"/>
+      <c r="AO101" s="87"/>
+      <c r="AP101" s="87"/>
+      <c r="AQ101" s="87"/>
+      <c r="AR101" s="87"/>
+      <c r="AS101" s="87"/>
+      <c r="AT101" s="87"/>
+      <c r="AU101" s="87"/>
+      <c r="AV101" s="87"/>
+      <c r="AW101" s="87"/>
+      <c r="AX101" s="87"/>
+      <c r="AY101" s="87"/>
+      <c r="AZ101" s="87"/>
+      <c r="BA101" s="87"/>
+      <c r="BB101" s="87"/>
+      <c r="BC101" s="87"/>
     </row>
     <row r="102" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="50" t="s">
@@ -7234,7 +7230,7 @@
         <v>19</v>
       </c>
       <c r="K102" s="52"/>
-      <c r="L102" s="98" t="s">
+      <c r="L102" s="72" t="s">
         <v>20</v>
       </c>
       <c r="M102" s="50" t="s">
@@ -7310,7 +7306,7 @@
       <c r="I103" s="55"/>
       <c r="J103" s="65"/>
       <c r="K103" s="67"/>
-      <c r="L103" s="99"/>
+      <c r="L103" s="73"/>
       <c r="M103" s="65"/>
       <c r="N103" s="67"/>
       <c r="O103" s="4"/>
@@ -7366,7 +7362,7 @@
       <c r="I104" s="52"/>
       <c r="J104" s="65"/>
       <c r="K104" s="67"/>
-      <c r="L104" s="99"/>
+      <c r="L104" s="73"/>
       <c r="M104" s="65"/>
       <c r="N104" s="67"/>
       <c r="O104" s="4"/>
@@ -7418,7 +7414,7 @@
       <c r="I105" s="55"/>
       <c r="J105" s="53"/>
       <c r="K105" s="55"/>
-      <c r="L105" s="100"/>
+      <c r="L105" s="74"/>
       <c r="M105" s="53"/>
       <c r="N105" s="55"/>
       <c r="O105" s="4"/>
@@ -7479,10 +7475,10 @@
       <c r="L106" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="M106" s="56" t="s">
+      <c r="M106" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="N106" s="56"/>
+      <c r="N106" s="64"/>
       <c r="O106" s="6"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="14"/>
@@ -7533,8 +7529,8 @@
       <c r="J107" s="12"/>
       <c r="K107" s="14"/>
       <c r="L107" s="48"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="64"/>
       <c r="O107" s="6"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="14"/>
@@ -7585,8 +7581,8 @@
       <c r="J108" s="12"/>
       <c r="K108" s="14"/>
       <c r="L108" s="48"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="64"/>
       <c r="O108" s="1"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="14"/>
@@ -7637,8 +7633,8 @@
       <c r="J109" s="12"/>
       <c r="K109" s="14"/>
       <c r="L109" s="48"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
+      <c r="M109" s="64"/>
+      <c r="N109" s="64"/>
       <c r="O109" s="1"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="14"/>
@@ -7689,8 +7685,8 @@
       <c r="J110" s="12"/>
       <c r="K110" s="14"/>
       <c r="L110" s="48"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="64"/>
       <c r="O110" s="1"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="14"/>
@@ -7741,8 +7737,8 @@
       <c r="J111" s="12"/>
       <c r="K111" s="14"/>
       <c r="L111" s="48"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
+      <c r="M111" s="64"/>
+      <c r="N111" s="64"/>
       <c r="O111" s="1"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -7801,8 +7797,8 @@
       <c r="L112" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
+      <c r="M112" s="64"/>
+      <c r="N112" s="64"/>
       <c r="O112" s="1"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
@@ -7853,8 +7849,8 @@
       <c r="J113" s="12"/>
       <c r="K113" s="14"/>
       <c r="L113" s="48"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
+      <c r="M113" s="64"/>
+      <c r="N113" s="64"/>
       <c r="O113" s="1"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -7905,8 +7901,8 @@
       <c r="J114" s="12"/>
       <c r="K114" s="14"/>
       <c r="L114" s="48"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
+      <c r="M114" s="64"/>
+      <c r="N114" s="64"/>
       <c r="O114" s="1"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -7957,8 +7953,8 @@
       <c r="J115" s="12"/>
       <c r="K115" s="14"/>
       <c r="L115" s="48"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
+      <c r="M115" s="64"/>
+      <c r="N115" s="64"/>
       <c r="O115" s="1"/>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -8009,8 +8005,8 @@
       <c r="J116" s="12"/>
       <c r="K116" s="14"/>
       <c r="L116" s="48"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="64"/>
       <c r="O116" s="4"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -8061,8 +8057,8 @@
       <c r="J117" s="15"/>
       <c r="K117" s="17"/>
       <c r="L117" s="49"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
+      <c r="M117" s="64"/>
+      <c r="N117" s="64"/>
       <c r="O117" s="4"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -8844,68 +8840,68 @@
       <c r="M136" s="51"/>
       <c r="N136" s="52"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="74" t="s">
+      <c r="P136" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="Q136" s="74"/>
-      <c r="R136" s="73" t="s">
+      <c r="Q136" s="89"/>
+      <c r="R136" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="S136" s="73"/>
-      <c r="T136" s="73" t="s">
+      <c r="S136" s="87"/>
+      <c r="T136" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="73"/>
-      <c r="V136" s="73" t="s">
+      <c r="U136" s="87"/>
+      <c r="V136" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="W136" s="73"/>
-      <c r="X136" s="73" t="s">
+      <c r="W136" s="87"/>
+      <c r="X136" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="Y136" s="73"/>
-      <c r="Z136" s="73"/>
-      <c r="AA136" s="73"/>
-      <c r="AB136" s="73" t="s">
+      <c r="Y136" s="87"/>
+      <c r="Z136" s="87"/>
+      <c r="AA136" s="87"/>
+      <c r="AB136" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="AC136" s="73"/>
-      <c r="AD136" s="73"/>
-      <c r="AE136" s="73"/>
-      <c r="AF136" s="73"/>
-      <c r="AG136" s="73" t="s">
+      <c r="AC136" s="87"/>
+      <c r="AD136" s="87"/>
+      <c r="AE136" s="87"/>
+      <c r="AF136" s="87"/>
+      <c r="AG136" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AH136" s="73"/>
-      <c r="AI136" s="73"/>
-      <c r="AJ136" s="73"/>
-      <c r="AK136" s="73"/>
-      <c r="AL136" s="73"/>
-      <c r="AM136" s="73" t="s">
+      <c r="AH136" s="87"/>
+      <c r="AI136" s="87"/>
+      <c r="AJ136" s="87"/>
+      <c r="AK136" s="87"/>
+      <c r="AL136" s="87"/>
+      <c r="AM136" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AN136" s="73"/>
-      <c r="AO136" s="73" t="s">
+      <c r="AN136" s="87"/>
+      <c r="AO136" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AP136" s="73"/>
-      <c r="AQ136" s="73"/>
-      <c r="AR136" s="73"/>
-      <c r="AS136" s="73"/>
-      <c r="AT136" s="73"/>
-      <c r="AU136" s="73" t="s">
+      <c r="AP136" s="87"/>
+      <c r="AQ136" s="87"/>
+      <c r="AR136" s="87"/>
+      <c r="AS136" s="87"/>
+      <c r="AT136" s="87"/>
+      <c r="AU136" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AV136" s="73"/>
-      <c r="AW136" s="73"/>
-      <c r="AX136" s="73"/>
-      <c r="AY136" s="73"/>
-      <c r="AZ136" s="73"/>
-      <c r="BA136" s="73" t="s">
+      <c r="AV136" s="87"/>
+      <c r="AW136" s="87"/>
+      <c r="AX136" s="87"/>
+      <c r="AY136" s="87"/>
+      <c r="AZ136" s="87"/>
+      <c r="BA136" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="BB136" s="73"/>
-      <c r="BC136" s="73"/>
+      <c r="BB136" s="87"/>
+      <c r="BC136" s="87"/>
     </row>
     <row r="137" spans="6:55" x14ac:dyDescent="0.25">
       <c r="F137" s="53"/>
@@ -8918,46 +8914,46 @@
       <c r="M137" s="54"/>
       <c r="N137" s="55"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="74"/>
-      <c r="Q137" s="74"/>
-      <c r="R137" s="73"/>
-      <c r="S137" s="73"/>
-      <c r="T137" s="73"/>
-      <c r="U137" s="73"/>
-      <c r="V137" s="73"/>
-      <c r="W137" s="73"/>
-      <c r="X137" s="73"/>
-      <c r="Y137" s="73"/>
-      <c r="Z137" s="73"/>
-      <c r="AA137" s="73"/>
-      <c r="AB137" s="73"/>
-      <c r="AC137" s="73"/>
-      <c r="AD137" s="73"/>
-      <c r="AE137" s="73"/>
-      <c r="AF137" s="73"/>
-      <c r="AG137" s="73"/>
-      <c r="AH137" s="73"/>
-      <c r="AI137" s="73"/>
-      <c r="AJ137" s="73"/>
-      <c r="AK137" s="73"/>
-      <c r="AL137" s="73"/>
-      <c r="AM137" s="73"/>
-      <c r="AN137" s="73"/>
-      <c r="AO137" s="73"/>
-      <c r="AP137" s="73"/>
-      <c r="AQ137" s="73"/>
-      <c r="AR137" s="73"/>
-      <c r="AS137" s="73"/>
-      <c r="AT137" s="73"/>
-      <c r="AU137" s="73"/>
-      <c r="AV137" s="73"/>
-      <c r="AW137" s="73"/>
-      <c r="AX137" s="73"/>
-      <c r="AY137" s="73"/>
-      <c r="AZ137" s="73"/>
-      <c r="BA137" s="73"/>
-      <c r="BB137" s="73"/>
-      <c r="BC137" s="73"/>
+      <c r="P137" s="89"/>
+      <c r="Q137" s="89"/>
+      <c r="R137" s="87"/>
+      <c r="S137" s="87"/>
+      <c r="T137" s="87"/>
+      <c r="U137" s="87"/>
+      <c r="V137" s="87"/>
+      <c r="W137" s="87"/>
+      <c r="X137" s="87"/>
+      <c r="Y137" s="87"/>
+      <c r="Z137" s="87"/>
+      <c r="AA137" s="87"/>
+      <c r="AB137" s="87"/>
+      <c r="AC137" s="87"/>
+      <c r="AD137" s="87"/>
+      <c r="AE137" s="87"/>
+      <c r="AF137" s="87"/>
+      <c r="AG137" s="87"/>
+      <c r="AH137" s="87"/>
+      <c r="AI137" s="87"/>
+      <c r="AJ137" s="87"/>
+      <c r="AK137" s="87"/>
+      <c r="AL137" s="87"/>
+      <c r="AM137" s="87"/>
+      <c r="AN137" s="87"/>
+      <c r="AO137" s="87"/>
+      <c r="AP137" s="87"/>
+      <c r="AQ137" s="87"/>
+      <c r="AR137" s="87"/>
+      <c r="AS137" s="87"/>
+      <c r="AT137" s="87"/>
+      <c r="AU137" s="87"/>
+      <c r="AV137" s="87"/>
+      <c r="AW137" s="87"/>
+      <c r="AX137" s="87"/>
+      <c r="AY137" s="87"/>
+      <c r="AZ137" s="87"/>
+      <c r="BA137" s="87"/>
+      <c r="BB137" s="87"/>
+      <c r="BC137" s="87"/>
     </row>
     <row r="138" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9" t="s">
@@ -8978,26 +8974,26 @@
       <c r="M138" s="10"/>
       <c r="N138" s="11"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="56" t="s">
+      <c r="P138" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="56"/>
+      <c r="Q138" s="64"/>
       <c r="R138" s="32" t="s">
         <v>101</v>
       </c>
       <c r="S138" s="34"/>
-      <c r="T138" s="56" t="s">
+      <c r="T138" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="U138" s="56"/>
+      <c r="U138" s="64"/>
       <c r="V138" s="9"/>
       <c r="W138" s="11"/>
-      <c r="X138" s="56" t="s">
+      <c r="X138" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="Y138" s="56"/>
-      <c r="Z138" s="56"/>
-      <c r="AA138" s="56"/>
+      <c r="Y138" s="64"/>
+      <c r="Z138" s="64"/>
+      <c r="AA138" s="64"/>
       <c r="AB138" s="9" t="s">
         <v>96</v>
       </c>
@@ -9011,8 +9007,8 @@
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="11"/>
-      <c r="AM138" s="56"/>
-      <c r="AN138" s="56"/>
+      <c r="AM138" s="64"/>
+      <c r="AN138" s="64"/>
       <c r="AO138" s="9" t="s">
         <v>97</v>
       </c>
@@ -9046,18 +9042,18 @@
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="56"/>
-      <c r="Q139" s="56"/>
-      <c r="R139" s="75"/>
-      <c r="S139" s="76"/>
-      <c r="T139" s="56"/>
-      <c r="U139" s="56"/>
+      <c r="P139" s="64"/>
+      <c r="Q139" s="64"/>
+      <c r="R139" s="90"/>
+      <c r="S139" s="91"/>
+      <c r="T139" s="64"/>
+      <c r="U139" s="64"/>
       <c r="V139" s="12"/>
       <c r="W139" s="14"/>
-      <c r="X139" s="56"/>
-      <c r="Y139" s="56"/>
-      <c r="Z139" s="56"/>
-      <c r="AA139" s="56"/>
+      <c r="X139" s="64"/>
+      <c r="Y139" s="64"/>
+      <c r="Z139" s="64"/>
+      <c r="AA139" s="64"/>
       <c r="AB139" s="12"/>
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
@@ -9069,8 +9065,8 @@
       <c r="AJ139" s="13"/>
       <c r="AK139" s="13"/>
       <c r="AL139" s="14"/>
-      <c r="AM139" s="56"/>
-      <c r="AN139" s="56"/>
+      <c r="AM139" s="64"/>
+      <c r="AN139" s="64"/>
       <c r="AO139" s="12"/>
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
@@ -9098,18 +9094,18 @@
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="56"/>
-      <c r="Q140" s="56"/>
-      <c r="R140" s="75"/>
-      <c r="S140" s="76"/>
-      <c r="T140" s="56"/>
-      <c r="U140" s="56"/>
+      <c r="P140" s="64"/>
+      <c r="Q140" s="64"/>
+      <c r="R140" s="90"/>
+      <c r="S140" s="91"/>
+      <c r="T140" s="64"/>
+      <c r="U140" s="64"/>
       <c r="V140" s="12"/>
       <c r="W140" s="14"/>
-      <c r="X140" s="56"/>
-      <c r="Y140" s="56"/>
-      <c r="Z140" s="56"/>
-      <c r="AA140" s="56"/>
+      <c r="X140" s="64"/>
+      <c r="Y140" s="64"/>
+      <c r="Z140" s="64"/>
+      <c r="AA140" s="64"/>
       <c r="AB140" s="12"/>
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
@@ -9121,8 +9117,8 @@
       <c r="AJ140" s="13"/>
       <c r="AK140" s="13"/>
       <c r="AL140" s="14"/>
-      <c r="AM140" s="56"/>
-      <c r="AN140" s="56"/>
+      <c r="AM140" s="64"/>
+      <c r="AN140" s="64"/>
       <c r="AO140" s="12"/>
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
@@ -9150,18 +9146,18 @@
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="56"/>
-      <c r="Q141" s="56"/>
-      <c r="R141" s="75"/>
-      <c r="S141" s="76"/>
-      <c r="T141" s="56"/>
-      <c r="U141" s="56"/>
+      <c r="P141" s="64"/>
+      <c r="Q141" s="64"/>
+      <c r="R141" s="90"/>
+      <c r="S141" s="91"/>
+      <c r="T141" s="64"/>
+      <c r="U141" s="64"/>
       <c r="V141" s="12"/>
       <c r="W141" s="14"/>
-      <c r="X141" s="56"/>
-      <c r="Y141" s="56"/>
-      <c r="Z141" s="56"/>
-      <c r="AA141" s="56"/>
+      <c r="X141" s="64"/>
+      <c r="Y141" s="64"/>
+      <c r="Z141" s="64"/>
+      <c r="AA141" s="64"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
@@ -9173,8 +9169,8 @@
       <c r="AJ141" s="13"/>
       <c r="AK141" s="13"/>
       <c r="AL141" s="14"/>
-      <c r="AM141" s="56"/>
-      <c r="AN141" s="56"/>
+      <c r="AM141" s="64"/>
+      <c r="AN141" s="64"/>
       <c r="AO141" s="12"/>
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
@@ -9210,18 +9206,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="11"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="56"/>
-      <c r="Q142" s="56"/>
-      <c r="R142" s="75"/>
-      <c r="S142" s="76"/>
-      <c r="T142" s="56"/>
-      <c r="U142" s="56"/>
+      <c r="P142" s="64"/>
+      <c r="Q142" s="64"/>
+      <c r="R142" s="90"/>
+      <c r="S142" s="91"/>
+      <c r="T142" s="64"/>
+      <c r="U142" s="64"/>
       <c r="V142" s="12"/>
       <c r="W142" s="14"/>
-      <c r="X142" s="56"/>
-      <c r="Y142" s="56"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="56"/>
+      <c r="X142" s="64"/>
+      <c r="Y142" s="64"/>
+      <c r="Z142" s="64"/>
+      <c r="AA142" s="64"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
@@ -9233,8 +9229,8 @@
       <c r="AJ142" s="13"/>
       <c r="AK142" s="13"/>
       <c r="AL142" s="14"/>
-      <c r="AM142" s="56"/>
-      <c r="AN142" s="56"/>
+      <c r="AM142" s="64"/>
+      <c r="AN142" s="64"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
@@ -9262,18 +9258,18 @@
       <c r="M143" s="13"/>
       <c r="N143" s="14"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="56"/>
-      <c r="Q143" s="56"/>
-      <c r="R143" s="75"/>
-      <c r="S143" s="76"/>
-      <c r="T143" s="56"/>
-      <c r="U143" s="56"/>
+      <c r="P143" s="64"/>
+      <c r="Q143" s="64"/>
+      <c r="R143" s="90"/>
+      <c r="S143" s="91"/>
+      <c r="T143" s="64"/>
+      <c r="U143" s="64"/>
       <c r="V143" s="12"/>
       <c r="W143" s="14"/>
-      <c r="X143" s="56"/>
-      <c r="Y143" s="56"/>
-      <c r="Z143" s="56"/>
-      <c r="AA143" s="56"/>
+      <c r="X143" s="64"/>
+      <c r="Y143" s="64"/>
+      <c r="Z143" s="64"/>
+      <c r="AA143" s="64"/>
       <c r="AB143" s="12"/>
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
@@ -9285,8 +9281,8 @@
       <c r="AJ143" s="13"/>
       <c r="AK143" s="13"/>
       <c r="AL143" s="14"/>
-      <c r="AM143" s="56"/>
-      <c r="AN143" s="56"/>
+      <c r="AM143" s="64"/>
+      <c r="AN143" s="64"/>
       <c r="AO143" s="12"/>
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
@@ -9314,18 +9310,18 @@
       <c r="M144" s="13"/>
       <c r="N144" s="14"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="56"/>
-      <c r="Q144" s="56"/>
-      <c r="R144" s="75"/>
-      <c r="S144" s="76"/>
-      <c r="T144" s="56"/>
-      <c r="U144" s="56"/>
+      <c r="P144" s="64"/>
+      <c r="Q144" s="64"/>
+      <c r="R144" s="90"/>
+      <c r="S144" s="91"/>
+      <c r="T144" s="64"/>
+      <c r="U144" s="64"/>
       <c r="V144" s="12"/>
       <c r="W144" s="14"/>
-      <c r="X144" s="56"/>
-      <c r="Y144" s="56"/>
-      <c r="Z144" s="56"/>
-      <c r="AA144" s="56"/>
+      <c r="X144" s="64"/>
+      <c r="Y144" s="64"/>
+      <c r="Z144" s="64"/>
+      <c r="AA144" s="64"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
@@ -9337,8 +9333,8 @@
       <c r="AJ144" s="13"/>
       <c r="AK144" s="13"/>
       <c r="AL144" s="14"/>
-      <c r="AM144" s="56"/>
-      <c r="AN144" s="56"/>
+      <c r="AM144" s="64"/>
+      <c r="AN144" s="64"/>
       <c r="AO144" s="12"/>
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
@@ -9366,18 +9362,18 @@
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="56"/>
-      <c r="Q145" s="56"/>
-      <c r="R145" s="75"/>
-      <c r="S145" s="76"/>
-      <c r="T145" s="56"/>
-      <c r="U145" s="56"/>
+      <c r="P145" s="64"/>
+      <c r="Q145" s="64"/>
+      <c r="R145" s="90"/>
+      <c r="S145" s="91"/>
+      <c r="T145" s="64"/>
+      <c r="U145" s="64"/>
       <c r="V145" s="12"/>
       <c r="W145" s="14"/>
-      <c r="X145" s="56"/>
-      <c r="Y145" s="56"/>
-      <c r="Z145" s="56"/>
-      <c r="AA145" s="56"/>
+      <c r="X145" s="64"/>
+      <c r="Y145" s="64"/>
+      <c r="Z145" s="64"/>
+      <c r="AA145" s="64"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
@@ -9389,8 +9385,8 @@
       <c r="AJ145" s="13"/>
       <c r="AK145" s="13"/>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="56"/>
-      <c r="AN145" s="56"/>
+      <c r="AM145" s="64"/>
+      <c r="AN145" s="64"/>
       <c r="AO145" s="12"/>
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
@@ -9419,25 +9415,25 @@
       <c r="J146" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K146" s="56" t="s">
+      <c r="K146" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
+      <c r="L146" s="64"/>
+      <c r="M146" s="64"/>
+      <c r="N146" s="64"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="56"/>
-      <c r="R146" s="75"/>
-      <c r="S146" s="76"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
+      <c r="P146" s="64"/>
+      <c r="Q146" s="64"/>
+      <c r="R146" s="90"/>
+      <c r="S146" s="91"/>
+      <c r="T146" s="64"/>
+      <c r="U146" s="64"/>
       <c r="V146" s="12"/>
       <c r="W146" s="14"/>
-      <c r="X146" s="56"/>
-      <c r="Y146" s="56"/>
-      <c r="Z146" s="56"/>
-      <c r="AA146" s="56"/>
+      <c r="X146" s="64"/>
+      <c r="Y146" s="64"/>
+      <c r="Z146" s="64"/>
+      <c r="AA146" s="64"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
@@ -9449,8 +9445,8 @@
       <c r="AJ146" s="13"/>
       <c r="AK146" s="13"/>
       <c r="AL146" s="14"/>
-      <c r="AM146" s="56"/>
-      <c r="AN146" s="56"/>
+      <c r="AM146" s="64"/>
+      <c r="AN146" s="64"/>
       <c r="AO146" s="12"/>
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
@@ -9473,23 +9469,23 @@
       <c r="H147" s="12"/>
       <c r="I147" s="14"/>
       <c r="J147" s="48"/>
-      <c r="K147" s="56"/>
-      <c r="L147" s="56"/>
-      <c r="M147" s="56"/>
-      <c r="N147" s="56"/>
+      <c r="K147" s="64"/>
+      <c r="L147" s="64"/>
+      <c r="M147" s="64"/>
+      <c r="N147" s="64"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="56"/>
-      <c r="Q147" s="56"/>
-      <c r="R147" s="75"/>
-      <c r="S147" s="76"/>
-      <c r="T147" s="56"/>
-      <c r="U147" s="56"/>
+      <c r="P147" s="64"/>
+      <c r="Q147" s="64"/>
+      <c r="R147" s="90"/>
+      <c r="S147" s="91"/>
+      <c r="T147" s="64"/>
+      <c r="U147" s="64"/>
       <c r="V147" s="12"/>
       <c r="W147" s="14"/>
-      <c r="X147" s="56"/>
-      <c r="Y147" s="56"/>
-      <c r="Z147" s="56"/>
-      <c r="AA147" s="56"/>
+      <c r="X147" s="64"/>
+      <c r="Y147" s="64"/>
+      <c r="Z147" s="64"/>
+      <c r="AA147" s="64"/>
       <c r="AB147" s="12"/>
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
@@ -9501,8 +9497,8 @@
       <c r="AJ147" s="13"/>
       <c r="AK147" s="13"/>
       <c r="AL147" s="14"/>
-      <c r="AM147" s="56"/>
-      <c r="AN147" s="56"/>
+      <c r="AM147" s="64"/>
+      <c r="AN147" s="64"/>
       <c r="AO147" s="12"/>
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
@@ -9525,23 +9521,23 @@
       <c r="H148" s="12"/>
       <c r="I148" s="14"/>
       <c r="J148" s="48"/>
-      <c r="K148" s="56"/>
-      <c r="L148" s="56"/>
-      <c r="M148" s="56"/>
-      <c r="N148" s="56"/>
+      <c r="K148" s="64"/>
+      <c r="L148" s="64"/>
+      <c r="M148" s="64"/>
+      <c r="N148" s="64"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="56"/>
-      <c r="R148" s="75"/>
-      <c r="S148" s="76"/>
-      <c r="T148" s="56"/>
-      <c r="U148" s="56"/>
+      <c r="P148" s="64"/>
+      <c r="Q148" s="64"/>
+      <c r="R148" s="90"/>
+      <c r="S148" s="91"/>
+      <c r="T148" s="64"/>
+      <c r="U148" s="64"/>
       <c r="V148" s="12"/>
       <c r="W148" s="14"/>
-      <c r="X148" s="56"/>
-      <c r="Y148" s="56"/>
-      <c r="Z148" s="56"/>
-      <c r="AA148" s="56"/>
+      <c r="X148" s="64"/>
+      <c r="Y148" s="64"/>
+      <c r="Z148" s="64"/>
+      <c r="AA148" s="64"/>
       <c r="AB148" s="12"/>
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
@@ -9553,8 +9549,8 @@
       <c r="AJ148" s="13"/>
       <c r="AK148" s="13"/>
       <c r="AL148" s="14"/>
-      <c r="AM148" s="56"/>
-      <c r="AN148" s="56"/>
+      <c r="AM148" s="64"/>
+      <c r="AN148" s="64"/>
       <c r="AO148" s="12"/>
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
@@ -9577,23 +9573,23 @@
       <c r="H149" s="15"/>
       <c r="I149" s="17"/>
       <c r="J149" s="49"/>
-      <c r="K149" s="56"/>
-      <c r="L149" s="56"/>
-      <c r="M149" s="56"/>
-      <c r="N149" s="56"/>
+      <c r="K149" s="64"/>
+      <c r="L149" s="64"/>
+      <c r="M149" s="64"/>
+      <c r="N149" s="64"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="56"/>
-      <c r="Q149" s="56"/>
-      <c r="R149" s="75"/>
-      <c r="S149" s="76"/>
-      <c r="T149" s="56"/>
-      <c r="U149" s="56"/>
+      <c r="P149" s="64"/>
+      <c r="Q149" s="64"/>
+      <c r="R149" s="90"/>
+      <c r="S149" s="91"/>
+      <c r="T149" s="64"/>
+      <c r="U149" s="64"/>
       <c r="V149" s="12"/>
       <c r="W149" s="14"/>
-      <c r="X149" s="56"/>
-      <c r="Y149" s="56"/>
-      <c r="Z149" s="56"/>
-      <c r="AA149" s="56"/>
+      <c r="X149" s="64"/>
+      <c r="Y149" s="64"/>
+      <c r="Z149" s="64"/>
+      <c r="AA149" s="64"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
@@ -9605,8 +9601,8 @@
       <c r="AJ149" s="13"/>
       <c r="AK149" s="13"/>
       <c r="AL149" s="14"/>
-      <c r="AM149" s="56"/>
-      <c r="AN149" s="56"/>
+      <c r="AM149" s="64"/>
+      <c r="AN149" s="64"/>
       <c r="AO149" s="12"/>
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
@@ -9624,18 +9620,18 @@
       <c r="BC149" s="14"/>
     </row>
     <row r="150" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="P150" s="56"/>
-      <c r="Q150" s="56"/>
+      <c r="P150" s="64"/>
+      <c r="Q150" s="64"/>
       <c r="R150" s="35"/>
       <c r="S150" s="37"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
+      <c r="T150" s="64"/>
+      <c r="U150" s="64"/>
       <c r="V150" s="15"/>
       <c r="W150" s="17"/>
-      <c r="X150" s="56"/>
-      <c r="Y150" s="56"/>
-      <c r="Z150" s="56"/>
-      <c r="AA150" s="56"/>
+      <c r="X150" s="64"/>
+      <c r="Y150" s="64"/>
+      <c r="Z150" s="64"/>
+      <c r="AA150" s="64"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
@@ -9647,8 +9643,8 @@
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="56"/>
-      <c r="AN150" s="56"/>
+      <c r="AM150" s="64"/>
+      <c r="AN150" s="64"/>
       <c r="AO150" s="15"/>
       <c r="AP150" s="16"/>
       <c r="AQ150" s="16"/>
@@ -9703,14 +9699,14 @@
         <v>106</v>
       </c>
       <c r="AN151" s="11"/>
-      <c r="AO151" s="56" t="s">
+      <c r="AO151" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AP151" s="56"/>
-      <c r="AQ151" s="56"/>
-      <c r="AR151" s="56"/>
-      <c r="AS151" s="56"/>
-      <c r="AT151" s="56"/>
+      <c r="AP151" s="64"/>
+      <c r="AQ151" s="64"/>
+      <c r="AR151" s="64"/>
+      <c r="AS151" s="64"/>
+      <c r="AT151" s="64"/>
       <c r="AU151" s="9"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -9726,8 +9722,8 @@
     <row r="152" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P152" s="12"/>
       <c r="Q152" s="14"/>
-      <c r="R152" s="75"/>
-      <c r="S152" s="76"/>
+      <c r="R152" s="90"/>
+      <c r="S152" s="91"/>
       <c r="T152" s="12"/>
       <c r="U152" s="14"/>
       <c r="V152" s="12"/>
@@ -9749,12 +9745,12 @@
       <c r="AL152" s="14"/>
       <c r="AM152" s="12"/>
       <c r="AN152" s="14"/>
-      <c r="AO152" s="56"/>
-      <c r="AP152" s="56"/>
-      <c r="AQ152" s="56"/>
-      <c r="AR152" s="56"/>
-      <c r="AS152" s="56"/>
-      <c r="AT152" s="56"/>
+      <c r="AO152" s="64"/>
+      <c r="AP152" s="64"/>
+      <c r="AQ152" s="64"/>
+      <c r="AR152" s="64"/>
+      <c r="AS152" s="64"/>
+      <c r="AT152" s="64"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AW152" s="13"/>
@@ -9768,8 +9764,8 @@
     <row r="153" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P153" s="12"/>
       <c r="Q153" s="14"/>
-      <c r="R153" s="75"/>
-      <c r="S153" s="76"/>
+      <c r="R153" s="90"/>
+      <c r="S153" s="91"/>
       <c r="T153" s="12"/>
       <c r="U153" s="14"/>
       <c r="V153" s="12"/>
@@ -9791,12 +9787,12 @@
       <c r="AL153" s="14"/>
       <c r="AM153" s="12"/>
       <c r="AN153" s="14"/>
-      <c r="AO153" s="56"/>
-      <c r="AP153" s="56"/>
-      <c r="AQ153" s="56"/>
-      <c r="AR153" s="56"/>
-      <c r="AS153" s="56"/>
-      <c r="AT153" s="56"/>
+      <c r="AO153" s="64"/>
+      <c r="AP153" s="64"/>
+      <c r="AQ153" s="64"/>
+      <c r="AR153" s="64"/>
+      <c r="AS153" s="64"/>
+      <c r="AT153" s="64"/>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
       <c r="AW153" s="13"/>
@@ -9810,8 +9806,8 @@
     <row r="154" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P154" s="12"/>
       <c r="Q154" s="14"/>
-      <c r="R154" s="75"/>
-      <c r="S154" s="76"/>
+      <c r="R154" s="90"/>
+      <c r="S154" s="91"/>
       <c r="T154" s="12"/>
       <c r="U154" s="14"/>
       <c r="V154" s="12"/>
@@ -9833,12 +9829,12 @@
       <c r="AL154" s="14"/>
       <c r="AM154" s="12"/>
       <c r="AN154" s="14"/>
-      <c r="AO154" s="56"/>
-      <c r="AP154" s="56"/>
-      <c r="AQ154" s="56"/>
-      <c r="AR154" s="56"/>
-      <c r="AS154" s="56"/>
-      <c r="AT154" s="56"/>
+      <c r="AO154" s="64"/>
+      <c r="AP154" s="64"/>
+      <c r="AQ154" s="64"/>
+      <c r="AR154" s="64"/>
+      <c r="AS154" s="64"/>
+      <c r="AT154" s="64"/>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
       <c r="AW154" s="13"/>
@@ -9852,8 +9848,8 @@
     <row r="155" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P155" s="12"/>
       <c r="Q155" s="14"/>
-      <c r="R155" s="75"/>
-      <c r="S155" s="76"/>
+      <c r="R155" s="90"/>
+      <c r="S155" s="91"/>
       <c r="T155" s="12"/>
       <c r="U155" s="14"/>
       <c r="V155" s="12"/>
@@ -9875,12 +9871,12 @@
       <c r="AL155" s="14"/>
       <c r="AM155" s="12"/>
       <c r="AN155" s="14"/>
-      <c r="AO155" s="56"/>
-      <c r="AP155" s="56"/>
-      <c r="AQ155" s="56"/>
-      <c r="AR155" s="56"/>
-      <c r="AS155" s="56"/>
-      <c r="AT155" s="56"/>
+      <c r="AO155" s="64"/>
+      <c r="AP155" s="64"/>
+      <c r="AQ155" s="64"/>
+      <c r="AR155" s="64"/>
+      <c r="AS155" s="64"/>
+      <c r="AT155" s="64"/>
       <c r="AU155" s="12"/>
       <c r="AV155" s="13"/>
       <c r="AW155" s="13"/>
@@ -9894,8 +9890,8 @@
     <row r="156" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P156" s="12"/>
       <c r="Q156" s="14"/>
-      <c r="R156" s="75"/>
-      <c r="S156" s="76"/>
+      <c r="R156" s="90"/>
+      <c r="S156" s="91"/>
       <c r="T156" s="12"/>
       <c r="U156" s="14"/>
       <c r="V156" s="12"/>
@@ -9917,12 +9913,12 @@
       <c r="AL156" s="14"/>
       <c r="AM156" s="12"/>
       <c r="AN156" s="14"/>
-      <c r="AO156" s="56"/>
-      <c r="AP156" s="56"/>
-      <c r="AQ156" s="56"/>
-      <c r="AR156" s="56"/>
-      <c r="AS156" s="56"/>
-      <c r="AT156" s="56"/>
+      <c r="AO156" s="64"/>
+      <c r="AP156" s="64"/>
+      <c r="AQ156" s="64"/>
+      <c r="AR156" s="64"/>
+      <c r="AS156" s="64"/>
+      <c r="AT156" s="64"/>
       <c r="AU156" s="12"/>
       <c r="AV156" s="13"/>
       <c r="AW156" s="13"/>
@@ -9936,8 +9932,8 @@
     <row r="157" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P157" s="12"/>
       <c r="Q157" s="14"/>
-      <c r="R157" s="75"/>
-      <c r="S157" s="76"/>
+      <c r="R157" s="90"/>
+      <c r="S157" s="91"/>
       <c r="T157" s="12"/>
       <c r="U157" s="14"/>
       <c r="V157" s="12"/>
@@ -9959,12 +9955,12 @@
       <c r="AL157" s="14"/>
       <c r="AM157" s="12"/>
       <c r="AN157" s="14"/>
-      <c r="AO157" s="56"/>
-      <c r="AP157" s="56"/>
-      <c r="AQ157" s="56"/>
-      <c r="AR157" s="56"/>
-      <c r="AS157" s="56"/>
-      <c r="AT157" s="56"/>
+      <c r="AO157" s="64"/>
+      <c r="AP157" s="64"/>
+      <c r="AQ157" s="64"/>
+      <c r="AR157" s="64"/>
+      <c r="AS157" s="64"/>
+      <c r="AT157" s="64"/>
       <c r="AU157" s="12"/>
       <c r="AV157" s="13"/>
       <c r="AW157" s="13"/>
@@ -9978,8 +9974,8 @@
     <row r="158" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P158" s="12"/>
       <c r="Q158" s="14"/>
-      <c r="R158" s="75"/>
-      <c r="S158" s="76"/>
+      <c r="R158" s="90"/>
+      <c r="S158" s="91"/>
       <c r="T158" s="12"/>
       <c r="U158" s="14"/>
       <c r="V158" s="12"/>
@@ -10001,12 +9997,12 @@
       <c r="AL158" s="14"/>
       <c r="AM158" s="12"/>
       <c r="AN158" s="14"/>
-      <c r="AO158" s="56"/>
-      <c r="AP158" s="56"/>
-      <c r="AQ158" s="56"/>
-      <c r="AR158" s="56"/>
-      <c r="AS158" s="56"/>
-      <c r="AT158" s="56"/>
+      <c r="AO158" s="64"/>
+      <c r="AP158" s="64"/>
+      <c r="AQ158" s="64"/>
+      <c r="AR158" s="64"/>
+      <c r="AS158" s="64"/>
+      <c r="AT158" s="64"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AW158" s="13"/>
@@ -10020,8 +10016,8 @@
     <row r="159" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P159" s="12"/>
       <c r="Q159" s="14"/>
-      <c r="R159" s="75"/>
-      <c r="S159" s="76"/>
+      <c r="R159" s="90"/>
+      <c r="S159" s="91"/>
       <c r="T159" s="12"/>
       <c r="U159" s="14"/>
       <c r="V159" s="12"/>
@@ -10043,12 +10039,12 @@
       <c r="AL159" s="14"/>
       <c r="AM159" s="12"/>
       <c r="AN159" s="14"/>
-      <c r="AO159" s="56"/>
-      <c r="AP159" s="56"/>
-      <c r="AQ159" s="56"/>
-      <c r="AR159" s="56"/>
-      <c r="AS159" s="56"/>
-      <c r="AT159" s="56"/>
+      <c r="AO159" s="64"/>
+      <c r="AP159" s="64"/>
+      <c r="AQ159" s="64"/>
+      <c r="AR159" s="64"/>
+      <c r="AS159" s="64"/>
+      <c r="AT159" s="64"/>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AW159" s="13"/>
@@ -10062,8 +10058,8 @@
     <row r="160" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P160" s="12"/>
       <c r="Q160" s="14"/>
-      <c r="R160" s="75"/>
-      <c r="S160" s="76"/>
+      <c r="R160" s="90"/>
+      <c r="S160" s="91"/>
       <c r="T160" s="12"/>
       <c r="U160" s="14"/>
       <c r="V160" s="12"/>
@@ -10085,12 +10081,12 @@
       <c r="AL160" s="14"/>
       <c r="AM160" s="12"/>
       <c r="AN160" s="14"/>
-      <c r="AO160" s="56"/>
-      <c r="AP160" s="56"/>
-      <c r="AQ160" s="56"/>
-      <c r="AR160" s="56"/>
-      <c r="AS160" s="56"/>
-      <c r="AT160" s="56"/>
+      <c r="AO160" s="64"/>
+      <c r="AP160" s="64"/>
+      <c r="AQ160" s="64"/>
+      <c r="AR160" s="64"/>
+      <c r="AS160" s="64"/>
+      <c r="AT160" s="64"/>
       <c r="AU160" s="12"/>
       <c r="AV160" s="13"/>
       <c r="AW160" s="13"/>
@@ -10104,8 +10100,8 @@
     <row r="161" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P161" s="12"/>
       <c r="Q161" s="14"/>
-      <c r="R161" s="75"/>
-      <c r="S161" s="76"/>
+      <c r="R161" s="90"/>
+      <c r="S161" s="91"/>
       <c r="T161" s="12"/>
       <c r="U161" s="14"/>
       <c r="V161" s="12"/>
@@ -10127,12 +10123,12 @@
       <c r="AL161" s="14"/>
       <c r="AM161" s="12"/>
       <c r="AN161" s="14"/>
-      <c r="AO161" s="56"/>
-      <c r="AP161" s="56"/>
-      <c r="AQ161" s="56"/>
-      <c r="AR161" s="56"/>
-      <c r="AS161" s="56"/>
-      <c r="AT161" s="56"/>
+      <c r="AO161" s="64"/>
+      <c r="AP161" s="64"/>
+      <c r="AQ161" s="64"/>
+      <c r="AR161" s="64"/>
+      <c r="AS161" s="64"/>
+      <c r="AT161" s="64"/>
       <c r="AU161" s="12"/>
       <c r="AV161" s="13"/>
       <c r="AW161" s="13"/>
@@ -10146,8 +10142,8 @@
     <row r="162" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P162" s="12"/>
       <c r="Q162" s="14"/>
-      <c r="R162" s="75"/>
-      <c r="S162" s="76"/>
+      <c r="R162" s="90"/>
+      <c r="S162" s="91"/>
       <c r="T162" s="12"/>
       <c r="U162" s="14"/>
       <c r="V162" s="12"/>
@@ -10169,12 +10165,12 @@
       <c r="AL162" s="14"/>
       <c r="AM162" s="12"/>
       <c r="AN162" s="14"/>
-      <c r="AO162" s="56"/>
-      <c r="AP162" s="56"/>
-      <c r="AQ162" s="56"/>
-      <c r="AR162" s="56"/>
-      <c r="AS162" s="56"/>
-      <c r="AT162" s="56"/>
+      <c r="AO162" s="64"/>
+      <c r="AP162" s="64"/>
+      <c r="AQ162" s="64"/>
+      <c r="AR162" s="64"/>
+      <c r="AS162" s="64"/>
+      <c r="AT162" s="64"/>
       <c r="AU162" s="12"/>
       <c r="AV162" s="13"/>
       <c r="AW162" s="13"/>
@@ -10188,8 +10184,8 @@
     <row r="163" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P163" s="12"/>
       <c r="Q163" s="14"/>
-      <c r="R163" s="75"/>
-      <c r="S163" s="76"/>
+      <c r="R163" s="90"/>
+      <c r="S163" s="91"/>
       <c r="T163" s="12"/>
       <c r="U163" s="14"/>
       <c r="V163" s="12"/>
@@ -10211,12 +10207,12 @@
       <c r="AL163" s="14"/>
       <c r="AM163" s="12"/>
       <c r="AN163" s="14"/>
-      <c r="AO163" s="56"/>
-      <c r="AP163" s="56"/>
-      <c r="AQ163" s="56"/>
-      <c r="AR163" s="56"/>
-      <c r="AS163" s="56"/>
-      <c r="AT163" s="56"/>
+      <c r="AO163" s="64"/>
+      <c r="AP163" s="64"/>
+      <c r="AQ163" s="64"/>
+      <c r="AR163" s="64"/>
+      <c r="AS163" s="64"/>
+      <c r="AT163" s="64"/>
       <c r="AU163" s="12"/>
       <c r="AV163" s="13"/>
       <c r="AW163" s="13"/>
@@ -10230,8 +10226,8 @@
     <row r="164" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P164" s="12"/>
       <c r="Q164" s="14"/>
-      <c r="R164" s="75"/>
-      <c r="S164" s="76"/>
+      <c r="R164" s="90"/>
+      <c r="S164" s="91"/>
       <c r="T164" s="12"/>
       <c r="U164" s="14"/>
       <c r="V164" s="12"/>
@@ -10253,12 +10249,12 @@
       <c r="AL164" s="14"/>
       <c r="AM164" s="12"/>
       <c r="AN164" s="14"/>
-      <c r="AO164" s="56"/>
-      <c r="AP164" s="56"/>
-      <c r="AQ164" s="56"/>
-      <c r="AR164" s="56"/>
-      <c r="AS164" s="56"/>
-      <c r="AT164" s="56"/>
+      <c r="AO164" s="64"/>
+      <c r="AP164" s="64"/>
+      <c r="AQ164" s="64"/>
+      <c r="AR164" s="64"/>
+      <c r="AS164" s="64"/>
+      <c r="AT164" s="64"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
       <c r="AW164" s="13"/>
@@ -10272,8 +10268,8 @@
     <row r="165" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P165" s="12"/>
       <c r="Q165" s="14"/>
-      <c r="R165" s="75"/>
-      <c r="S165" s="76"/>
+      <c r="R165" s="90"/>
+      <c r="S165" s="91"/>
       <c r="T165" s="12"/>
       <c r="U165" s="14"/>
       <c r="V165" s="12"/>
@@ -10295,12 +10291,12 @@
       <c r="AL165" s="14"/>
       <c r="AM165" s="12"/>
       <c r="AN165" s="14"/>
-      <c r="AO165" s="56"/>
-      <c r="AP165" s="56"/>
-      <c r="AQ165" s="56"/>
-      <c r="AR165" s="56"/>
-      <c r="AS165" s="56"/>
-      <c r="AT165" s="56"/>
+      <c r="AO165" s="64"/>
+      <c r="AP165" s="64"/>
+      <c r="AQ165" s="64"/>
+      <c r="AR165" s="64"/>
+      <c r="AS165" s="64"/>
+      <c r="AT165" s="64"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
       <c r="AW165" s="13"/>
@@ -10314,8 +10310,8 @@
     <row r="166" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P166" s="12"/>
       <c r="Q166" s="14"/>
-      <c r="R166" s="75"/>
-      <c r="S166" s="76"/>
+      <c r="R166" s="90"/>
+      <c r="S166" s="91"/>
       <c r="T166" s="12"/>
       <c r="U166" s="14"/>
       <c r="V166" s="12"/>
@@ -10337,12 +10333,12 @@
       <c r="AL166" s="14"/>
       <c r="AM166" s="12"/>
       <c r="AN166" s="14"/>
-      <c r="AO166" s="56"/>
-      <c r="AP166" s="56"/>
-      <c r="AQ166" s="56"/>
-      <c r="AR166" s="56"/>
-      <c r="AS166" s="56"/>
-      <c r="AT166" s="56"/>
+      <c r="AO166" s="64"/>
+      <c r="AP166" s="64"/>
+      <c r="AQ166" s="64"/>
+      <c r="AR166" s="64"/>
+      <c r="AS166" s="64"/>
+      <c r="AT166" s="64"/>
       <c r="AU166" s="12"/>
       <c r="AV166" s="13"/>
       <c r="AW166" s="13"/>
@@ -10356,8 +10352,8 @@
     <row r="167" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P167" s="12"/>
       <c r="Q167" s="14"/>
-      <c r="R167" s="75"/>
-      <c r="S167" s="76"/>
+      <c r="R167" s="90"/>
+      <c r="S167" s="91"/>
       <c r="T167" s="15"/>
       <c r="U167" s="17"/>
       <c r="V167" s="15"/>
@@ -10379,12 +10375,12 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="15"/>
       <c r="AN167" s="17"/>
-      <c r="AO167" s="56"/>
-      <c r="AP167" s="56"/>
-      <c r="AQ167" s="56"/>
-      <c r="AR167" s="56"/>
-      <c r="AS167" s="56"/>
-      <c r="AT167" s="56"/>
+      <c r="AO167" s="64"/>
+      <c r="AP167" s="64"/>
+      <c r="AQ167" s="64"/>
+      <c r="AR167" s="64"/>
+      <c r="AS167" s="64"/>
+      <c r="AT167" s="64"/>
       <c r="AU167" s="15"/>
       <c r="AV167" s="16"/>
       <c r="AW167" s="16"/>
@@ -10481,6 +10477,8 @@
     </row>
   </sheetData>
   <mergeCells count="277">
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="M102:N105"/>
     <mergeCell ref="F104:G105"/>
     <mergeCell ref="AG138:AL150"/>
     <mergeCell ref="AM138:AN150"/>
@@ -10501,8 +10499,6 @@
     <mergeCell ref="K138:N141"/>
     <mergeCell ref="K142:N145"/>
     <mergeCell ref="K146:N149"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J142:J145"/>
     <mergeCell ref="F2:F13"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="H2:H13"/>
@@ -10522,11 +10518,6 @@
     <mergeCell ref="M24:N41"/>
     <mergeCell ref="F56:N57"/>
     <mergeCell ref="F20:I21"/>
-    <mergeCell ref="J20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="M20:N23"/>
     <mergeCell ref="AU151:AZ167"/>
     <mergeCell ref="BA151:BC167"/>
     <mergeCell ref="AO151:AT167"/>
@@ -10600,6 +10591,11 @@
     <mergeCell ref="AU68:AZ77"/>
     <mergeCell ref="AU88:AZ97"/>
     <mergeCell ref="AO100:AT101"/>
+    <mergeCell ref="J20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="M20:N23"/>
     <mergeCell ref="F24:G32"/>
     <mergeCell ref="F33:G41"/>
     <mergeCell ref="H24:I32"/>
@@ -10610,6 +10606,8 @@
     <mergeCell ref="J33:K41"/>
     <mergeCell ref="L24:L32"/>
     <mergeCell ref="L33:L41"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J142:J145"/>
     <mergeCell ref="J146:J149"/>
     <mergeCell ref="H136:I137"/>
     <mergeCell ref="J136:J137"/>
@@ -10632,8 +10630,6 @@
     <mergeCell ref="R100:S101"/>
     <mergeCell ref="F102:I103"/>
     <mergeCell ref="J102:K105"/>
-    <mergeCell ref="L102:L105"/>
-    <mergeCell ref="M102:N105"/>
     <mergeCell ref="T88:U97"/>
     <mergeCell ref="V88:W97"/>
     <mergeCell ref="X88:AA97"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\proyecto\Matriz Cacao, Cafe y Arroz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38CD72F8-248A-4F19-B0E4-BD41511F3404}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
   <si>
     <r>
       <rPr>
@@ -741,12 +740,22 @@
   <si>
     <t>Pratylenchus (lesionadores) y Meloidogyne (agalladores)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hemileia vastatrix </t>
+  </si>
+  <si>
+    <t>Verter la dosis recomendada de COURAGE
+en el volumen de agua requerido y agitar hasta lograr una
+mezcla homogénea. Mantener la mezcla en constante agitación y
+asperjarla, procurando cubrir total y uniformemente el follaje para
+asegurar un mejor control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,8 +814,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +899,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1064,10 +1085,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,6 +1200,225 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,227 +1446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis4" xfId="1" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1461,7 +1487,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1548,7 @@
         <xdr:cNvPr id="3" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1609,7 @@
         <xdr:cNvPr id="4" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1670,7 @@
         <xdr:cNvPr id="9" name="8 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1714,7 @@
         <xdr:cNvPr id="11" name="10 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1764,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1817,7 @@
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="6">
           <cell r="B6" t="str">
             <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
@@ -2068,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2323,510 +2349,510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100:N101"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="104" t="str">
+      <c r="J2" s="65" t="str">
         <f>[1]Hoja1!$B$6</f>
         <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
 Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país
 El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector
 </v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="106"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
     </row>
     <row r="3" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="93"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="109"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
     </row>
     <row r="4" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="93"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="70"/>
     </row>
     <row r="5" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="93"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="109"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
     </row>
     <row r="6" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="93"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="109"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
     </row>
     <row r="7" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="93"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
     </row>
     <row r="8" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="93"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
     </row>
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="93"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="109"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F10" s="93"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="109"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="93"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="109"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="93"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
     </row>
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="94"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="112"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="73"/>
     </row>
     <row r="16" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="80"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="91"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="72" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="52"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="67"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="50" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="50" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="67"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="56" t="s">
+      <c r="P22" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="50" t="s">
+      <c r="Q22" s="104"/>
+      <c r="R22" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="52"/>
-      <c r="T22" s="50" t="s">
+      <c r="S22" s="42"/>
+      <c r="T22" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="U22" s="52"/>
-      <c r="V22" s="50" t="s">
+      <c r="U22" s="42"/>
+      <c r="V22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="50" t="s">
+      <c r="W22" s="42"/>
+      <c r="X22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="50" t="s">
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="50" t="s">
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="50" t="s">
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="50" t="s">
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="50" t="s">
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="50" t="s">
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="52"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="42"/>
     </row>
     <row r="23" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="55"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="55"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="46"/>
     </row>
     <row r="24" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
@@ -2839,7 +2865,7 @@
         <v>129</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="82" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -2897,17 +2923,17 @@
       <c r="BC24" s="11"/>
     </row>
     <row r="25" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="14"/>
       <c r="J25" s="12"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="48"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="12"/>
       <c r="N25" s="14"/>
       <c r="O25" s="1"/>
@@ -2953,17 +2979,17 @@
       <c r="BC25" s="14"/>
     </row>
     <row r="26" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14"/>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="12"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="48"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="12"/>
       <c r="N26" s="14"/>
       <c r="O26" s="1"/>
@@ -3009,17 +3035,17 @@
       <c r="BC26" s="14"/>
     </row>
     <row r="27" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="48"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="12"/>
       <c r="N27" s="14"/>
       <c r="O27" s="1"/>
@@ -3065,17 +3091,17 @@
       <c r="BC27" s="14"/>
     </row>
     <row r="28" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="12"/>
       <c r="G28" s="14"/>
       <c r="H28" s="12"/>
       <c r="I28" s="14"/>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="48"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="12"/>
       <c r="N28" s="14"/>
       <c r="O28" s="1"/>
@@ -3121,17 +3147,17 @@
       <c r="BC28" s="14"/>
     </row>
     <row r="29" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="14"/>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="48"/>
+      <c r="L29" s="95"/>
       <c r="M29" s="12"/>
       <c r="N29" s="14"/>
       <c r="O29" s="1"/>
@@ -3177,17 +3203,17 @@
       <c r="BC29" s="14"/>
     </row>
     <row r="30" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
       <c r="I30" s="14"/>
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="48"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="12"/>
       <c r="N30" s="14"/>
       <c r="O30" s="1"/>
@@ -3233,17 +3259,17 @@
       <c r="BC30" s="14"/>
     </row>
     <row r="31" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
       <c r="F31" s="12"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
       <c r="I31" s="14"/>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="95"/>
       <c r="M31" s="12"/>
       <c r="N31" s="14"/>
       <c r="O31" s="1"/>
@@ -3289,17 +3315,17 @@
       <c r="BC31" s="14"/>
     </row>
     <row r="32" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="I32" s="17"/>
       <c r="J32" s="15"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="49"/>
+      <c r="L32" s="96"/>
       <c r="M32" s="12"/>
       <c r="N32" s="14"/>
       <c r="O32" s="1"/>
@@ -3345,21 +3371,23 @@
       <c r="BC32" s="17"/>
     </row>
     <row r="33" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
       <c r="F33" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
+      <c r="H33" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="47"/>
       <c r="J33" s="9" t="s">
         <v>117</v>
       </c>
       <c r="K33" s="11"/>
-      <c r="L33" s="47" t="s">
+      <c r="L33" s="82" t="s">
         <v>116</v>
       </c>
       <c r="M33" s="12"/>
@@ -3415,17 +3443,17 @@
       <c r="BC33" s="11"/>
     </row>
     <row r="34" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="48"/>
+      <c r="L34" s="95"/>
       <c r="M34" s="12"/>
       <c r="N34" s="14"/>
       <c r="O34" s="1"/>
@@ -3471,17 +3499,17 @@
       <c r="BC34" s="14"/>
     </row>
     <row r="35" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="48"/>
+      <c r="L35" s="95"/>
       <c r="M35" s="12"/>
       <c r="N35" s="14"/>
       <c r="O35" s="1"/>
@@ -3527,17 +3555,17 @@
       <c r="BC35" s="14"/>
     </row>
     <row r="36" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="48"/>
+      <c r="L36" s="95"/>
       <c r="M36" s="12"/>
       <c r="N36" s="14"/>
       <c r="O36" s="1"/>
@@ -3583,17 +3611,17 @@
       <c r="BC36" s="14"/>
     </row>
     <row r="37" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="48"/>
+      <c r="L37" s="95"/>
       <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="1"/>
@@ -3639,17 +3667,17 @@
       <c r="BC37" s="14"/>
     </row>
     <row r="38" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="48"/>
+      <c r="L38" s="95"/>
       <c r="M38" s="12"/>
       <c r="N38" s="14"/>
       <c r="O38" s="1"/>
@@ -3695,17 +3723,17 @@
       <c r="BC38" s="14"/>
     </row>
     <row r="39" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="48"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="12"/>
       <c r="N39" s="14"/>
       <c r="O39" s="1"/>
@@ -3751,17 +3779,17 @@
       <c r="BC39" s="14"/>
     </row>
     <row r="40" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="12"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="48"/>
+      <c r="L40" s="95"/>
       <c r="M40" s="12"/>
       <c r="N40" s="14"/>
       <c r="O40" s="1"/>
@@ -3807,17 +3835,17 @@
       <c r="BC40" s="14"/>
     </row>
     <row r="41" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="96"/>
       <c r="M41" s="15"/>
       <c r="N41" s="17"/>
       <c r="O41" s="1"/>
@@ -3863,10 +3891,10 @@
       <c r="BC41" s="17"/>
     </row>
     <row r="42" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
       <c r="F42" s="9" t="s">
         <v>154</v>
       </c>
@@ -3879,7 +3907,7 @@
         <v>132</v>
       </c>
       <c r="K42" s="11"/>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="82" t="s">
         <v>133</v>
       </c>
       <c r="M42" s="9"/>
@@ -3935,17 +3963,17 @@
       <c r="BC42" s="11"/>
     </row>
     <row r="43" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="12"/>
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="14"/>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="48"/>
+      <c r="L43" s="95"/>
       <c r="M43" s="12"/>
       <c r="N43" s="14"/>
       <c r="O43" s="1"/>
@@ -3991,17 +4019,17 @@
       <c r="BC43" s="14"/>
     </row>
     <row r="44" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="14"/>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="48"/>
+      <c r="L44" s="95"/>
       <c r="M44" s="12"/>
       <c r="N44" s="14"/>
       <c r="O44" s="1"/>
@@ -4047,17 +4075,17 @@
       <c r="BC44" s="14"/>
     </row>
     <row r="45" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="12"/>
       <c r="G45" s="14"/>
       <c r="H45" s="12"/>
       <c r="I45" s="14"/>
       <c r="J45" s="12"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="48"/>
+      <c r="L45" s="95"/>
       <c r="M45" s="12"/>
       <c r="N45" s="14"/>
       <c r="O45" s="1"/>
@@ -4103,17 +4131,17 @@
       <c r="BC45" s="14"/>
     </row>
     <row r="46" spans="2:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="12"/>
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="14"/>
       <c r="J46" s="12"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="48"/>
+      <c r="L46" s="95"/>
       <c r="M46" s="12"/>
       <c r="N46" s="14"/>
       <c r="O46" s="1"/>
@@ -4159,17 +4187,17 @@
       <c r="BC46" s="17"/>
     </row>
     <row r="47" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="12"/>
       <c r="G47" s="14"/>
       <c r="H47" s="12"/>
       <c r="I47" s="14"/>
       <c r="J47" s="12"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="48"/>
+      <c r="L47" s="95"/>
       <c r="M47" s="12"/>
       <c r="N47" s="14"/>
       <c r="O47" s="4"/>
@@ -4218,22 +4246,22 @@
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="64"/>
-      <c r="BB47" s="64"/>
-      <c r="BC47" s="64"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47"/>
+      <c r="BC47" s="47"/>
     </row>
     <row r="48" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="12"/>
       <c r="G48" s="14"/>
       <c r="H48" s="12"/>
       <c r="I48" s="14"/>
       <c r="J48" s="12"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="48"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="12"/>
       <c r="N48" s="14"/>
       <c r="O48" s="4"/>
@@ -4274,22 +4302,22 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="64"/>
-      <c r="BB48" s="64"/>
-      <c r="BC48" s="64"/>
+      <c r="BA48" s="47"/>
+      <c r="BB48" s="47"/>
+      <c r="BC48" s="47"/>
     </row>
     <row r="49" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="12"/>
       <c r="G49" s="14"/>
       <c r="H49" s="12"/>
       <c r="I49" s="14"/>
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="48"/>
+      <c r="L49" s="95"/>
       <c r="M49" s="12"/>
       <c r="N49" s="14"/>
       <c r="O49" s="4"/>
@@ -4330,22 +4358,22 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="64"/>
-      <c r="BB49" s="64"/>
-      <c r="BC49" s="64"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
     </row>
     <row r="50" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="12"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
       <c r="I50" s="14"/>
       <c r="J50" s="12"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="48"/>
+      <c r="L50" s="95"/>
       <c r="M50" s="12"/>
       <c r="N50" s="14"/>
       <c r="O50" s="4"/>
@@ -4386,22 +4414,22 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="64"/>
-      <c r="BB50" s="64"/>
-      <c r="BC50" s="64"/>
+      <c r="BA50" s="47"/>
+      <c r="BB50" s="47"/>
+      <c r="BC50" s="47"/>
     </row>
     <row r="51" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="12"/>
       <c r="G51" s="14"/>
       <c r="H51" s="12"/>
       <c r="I51" s="14"/>
       <c r="J51" s="12"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="48"/>
+      <c r="L51" s="95"/>
       <c r="M51" s="12"/>
       <c r="N51" s="14"/>
       <c r="O51" s="4"/>
@@ -4442,22 +4470,22 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="64"/>
-      <c r="BB51" s="64"/>
-      <c r="BC51" s="64"/>
+      <c r="BA51" s="47"/>
+      <c r="BB51" s="47"/>
+      <c r="BC51" s="47"/>
     </row>
     <row r="52" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="12"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="14"/>
       <c r="J52" s="12"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="48"/>
+      <c r="L52" s="95"/>
       <c r="M52" s="12"/>
       <c r="N52" s="14"/>
       <c r="O52" s="4"/>
@@ -4498,22 +4526,22 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="64"/>
-      <c r="BB52" s="64"/>
-      <c r="BC52" s="64"/>
+      <c r="BA52" s="47"/>
+      <c r="BB52" s="47"/>
+      <c r="BC52" s="47"/>
     </row>
     <row r="53" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
       <c r="I53" s="17"/>
       <c r="J53" s="15"/>
       <c r="K53" s="17"/>
-      <c r="L53" s="49"/>
+      <c r="L53" s="96"/>
       <c r="M53" s="15"/>
       <c r="N53" s="17"/>
       <c r="O53" s="4"/>
@@ -4554,9 +4582,9 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="64"/>
-      <c r="BB53" s="64"/>
-      <c r="BC53" s="64"/>
+      <c r="BA53" s="47"/>
+      <c r="BB53" s="47"/>
+      <c r="BC53" s="47"/>
     </row>
     <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="O54" s="4"/>
@@ -4597,9 +4625,9 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="64"/>
-      <c r="BB54" s="64"/>
-      <c r="BC54" s="64"/>
+      <c r="BA54" s="47"/>
+      <c r="BB54" s="47"/>
+      <c r="BC54" s="47"/>
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
@@ -4649,22 +4677,22 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
       <c r="AZ55" s="14"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="64"/>
-      <c r="BC55" s="64"/>
+      <c r="BA55" s="47"/>
+      <c r="BB55" s="47"/>
+      <c r="BC55" s="47"/>
     </row>
     <row r="56" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="115"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="76"/>
       <c r="O56" s="4"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="14"/>
@@ -4703,20 +4731,20 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="14"/>
-      <c r="BA56" s="64"/>
-      <c r="BB56" s="64"/>
-      <c r="BC56" s="64"/>
+      <c r="BA56" s="47"/>
+      <c r="BB56" s="47"/>
+      <c r="BC56" s="47"/>
     </row>
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F57" s="116"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="118"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="79"/>
       <c r="O57" s="4"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="17"/>
@@ -4755,28 +4783,28 @@
       <c r="AX57" s="16"/>
       <c r="AY57" s="16"/>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="64"/>
-      <c r="BB57" s="64"/>
-      <c r="BC57" s="64"/>
+      <c r="BA57" s="47"/>
+      <c r="BB57" s="47"/>
+      <c r="BC57" s="47"/>
     </row>
     <row r="58" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="50" t="s">
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="52"/>
-      <c r="L58" s="72" t="s">
+      <c r="K58" s="42"/>
+      <c r="L58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="50" t="s">
+      <c r="M58" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="52"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -4820,15 +4848,15 @@
       <c r="BC58" s="4"/>
     </row>
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="67"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="44"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -4872,163 +4900,163 @@
       <c r="BC59" s="5"/>
     </row>
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="50" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="50" t="s">
+      <c r="G60" s="42"/>
+      <c r="H60" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="67"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="44"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="60" t="s">
+      <c r="P60" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="65" t="s">
+      <c r="Q60" s="108"/>
+      <c r="R60" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="S60" s="67"/>
-      <c r="T60" s="65" t="s">
+      <c r="S60" s="44"/>
+      <c r="T60" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="67"/>
-      <c r="V60" s="65" t="s">
+      <c r="U60" s="44"/>
+      <c r="V60" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="W60" s="67"/>
-      <c r="X60" s="65" t="s">
+      <c r="W60" s="44"/>
+      <c r="X60" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="65" t="s">
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="102"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="67"/>
-      <c r="AG60" s="65" t="s">
+      <c r="AC60" s="102"/>
+      <c r="AD60" s="102"/>
+      <c r="AE60" s="102"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="67"/>
-      <c r="AM60" s="65" t="s">
+      <c r="AH60" s="102"/>
+      <c r="AI60" s="102"/>
+      <c r="AJ60" s="102"/>
+      <c r="AK60" s="102"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AN60" s="67"/>
-      <c r="AO60" s="65" t="s">
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="AP60" s="66"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="67"/>
-      <c r="AU60" s="65" t="s">
+      <c r="AP60" s="102"/>
+      <c r="AQ60" s="102"/>
+      <c r="AR60" s="102"/>
+      <c r="AS60" s="102"/>
+      <c r="AT60" s="44"/>
+      <c r="AU60" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AV60" s="66"/>
-      <c r="AW60" s="66"/>
-      <c r="AX60" s="66"/>
-      <c r="AY60" s="66"/>
-      <c r="AZ60" s="67"/>
-      <c r="BA60" s="65" t="s">
+      <c r="AV60" s="102"/>
+      <c r="AW60" s="102"/>
+      <c r="AX60" s="102"/>
+      <c r="AY60" s="102"/>
+      <c r="AZ60" s="44"/>
+      <c r="BA60" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="BB60" s="66"/>
-      <c r="BC60" s="67"/>
+      <c r="BB60" s="102"/>
+      <c r="BC60" s="44"/>
     </row>
     <row r="61" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="55"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="53"/>
-      <c r="AH61" s="54"/>
-      <c r="AI61" s="54"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="53"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="53"/>
-      <c r="AP61" s="54"/>
-      <c r="AQ61" s="54"/>
-      <c r="AR61" s="54"/>
-      <c r="AS61" s="54"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="53"/>
-      <c r="AV61" s="54"/>
-      <c r="AW61" s="54"/>
-      <c r="AX61" s="54"/>
-      <c r="AY61" s="54"/>
-      <c r="AZ61" s="55"/>
-      <c r="BA61" s="53"/>
-      <c r="BB61" s="54"/>
-      <c r="BC61" s="55"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="45"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="46"/>
+      <c r="AM61" s="45"/>
+      <c r="AN61" s="46"/>
+      <c r="AO61" s="45"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="51"/>
+      <c r="AT61" s="46"/>
+      <c r="AU61" s="45"/>
+      <c r="AV61" s="51"/>
+      <c r="AW61" s="51"/>
+      <c r="AX61" s="51"/>
+      <c r="AY61" s="51"/>
+      <c r="AZ61" s="46"/>
+      <c r="BA61" s="45"/>
+      <c r="BB61" s="51"/>
+      <c r="BC61" s="46"/>
     </row>
     <row r="62" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="64" t="s">
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="64"/>
+      <c r="G62" s="47"/>
       <c r="H62" s="9" t="s">
         <v>119</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="64" t="s">
+      <c r="J62" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
       <c r="M62" s="9" t="s">
         <v>121</v>
       </c>
@@ -5075,14 +5103,14 @@
         <v>82</v>
       </c>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="64" t="s">
+      <c r="AO62" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="AP62" s="64"/>
-      <c r="AQ62" s="64"/>
-      <c r="AR62" s="64"/>
-      <c r="AS62" s="64"/>
-      <c r="AT62" s="64"/>
+      <c r="AP62" s="47"/>
+      <c r="AQ62" s="47"/>
+      <c r="AR62" s="47"/>
+      <c r="AS62" s="47"/>
+      <c r="AT62" s="47"/>
       <c r="AU62" s="9" t="s">
         <v>150</v>
       </c>
@@ -5098,17 +5126,17 @@
       <c r="BC62" s="11"/>
     </row>
     <row r="63" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
       <c r="M63" s="12"/>
       <c r="N63" s="14"/>
       <c r="O63" s="1"/>
@@ -5137,12 +5165,12 @@
       <c r="AL63" s="14"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="14"/>
-      <c r="AO63" s="64"/>
-      <c r="AP63" s="64"/>
-      <c r="AQ63" s="64"/>
-      <c r="AR63" s="64"/>
-      <c r="AS63" s="64"/>
-      <c r="AT63" s="64"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
+      <c r="AQ63" s="47"/>
+      <c r="AR63" s="47"/>
+      <c r="AS63" s="47"/>
+      <c r="AT63" s="47"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="13"/>
       <c r="AW63" s="13"/>
@@ -5154,17 +5182,17 @@
       <c r="BC63" s="14"/>
     </row>
     <row r="64" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
       <c r="M64" s="12"/>
       <c r="N64" s="14"/>
       <c r="O64" s="1"/>
@@ -5193,12 +5221,12 @@
       <c r="AL64" s="14"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="14"/>
-      <c r="AO64" s="64"/>
-      <c r="AP64" s="64"/>
-      <c r="AQ64" s="64"/>
-      <c r="AR64" s="64"/>
-      <c r="AS64" s="64"/>
-      <c r="AT64" s="64"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
+      <c r="AQ64" s="47"/>
+      <c r="AR64" s="47"/>
+      <c r="AS64" s="47"/>
+      <c r="AT64" s="47"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
       <c r="AW64" s="13"/>
@@ -5210,17 +5238,17 @@
       <c r="BC64" s="14"/>
     </row>
     <row r="65" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
       <c r="M65" s="12"/>
       <c r="N65" s="14"/>
       <c r="O65" s="1"/>
@@ -5249,12 +5277,12 @@
       <c r="AL65" s="14"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="14"/>
-      <c r="AO65" s="64"/>
-      <c r="AP65" s="64"/>
-      <c r="AQ65" s="64"/>
-      <c r="AR65" s="64"/>
-      <c r="AS65" s="64"/>
-      <c r="AT65" s="64"/>
+      <c r="AO65" s="47"/>
+      <c r="AP65" s="47"/>
+      <c r="AQ65" s="47"/>
+      <c r="AR65" s="47"/>
+      <c r="AS65" s="47"/>
+      <c r="AT65" s="47"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="13"/>
       <c r="AW65" s="13"/>
@@ -5266,17 +5294,17 @@
       <c r="BC65" s="14"/>
     </row>
     <row r="66" spans="2:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
       <c r="M66" s="12"/>
       <c r="N66" s="14"/>
       <c r="O66" s="1"/>
@@ -5305,12 +5333,12 @@
       <c r="AL66" s="14"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="14"/>
-      <c r="AO66" s="64"/>
-      <c r="AP66" s="64"/>
-      <c r="AQ66" s="64"/>
-      <c r="AR66" s="64"/>
-      <c r="AS66" s="64"/>
-      <c r="AT66" s="64"/>
+      <c r="AO66" s="47"/>
+      <c r="AP66" s="47"/>
+      <c r="AQ66" s="47"/>
+      <c r="AR66" s="47"/>
+      <c r="AS66" s="47"/>
+      <c r="AT66" s="47"/>
       <c r="AU66" s="12"/>
       <c r="AV66" s="13"/>
       <c r="AW66" s="13"/>
@@ -5322,17 +5350,17 @@
       <c r="BC66" s="14"/>
     </row>
     <row r="67" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="1"/>
@@ -5361,12 +5389,12 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="17"/>
-      <c r="AO67" s="64"/>
-      <c r="AP67" s="64"/>
-      <c r="AQ67" s="64"/>
-      <c r="AR67" s="64"/>
-      <c r="AS67" s="64"/>
-      <c r="AT67" s="64"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
+      <c r="AQ67" s="47"/>
+      <c r="AR67" s="47"/>
+      <c r="AS67" s="47"/>
+      <c r="AT67" s="47"/>
       <c r="AU67" s="15"/>
       <c r="AV67" s="16"/>
       <c r="AW67" s="16"/>
@@ -5378,10 +5406,10 @@
       <c r="BC67" s="17"/>
     </row>
     <row r="68" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="113"/>
       <c r="F68" s="9" t="s">
         <v>122</v>
       </c>
@@ -5394,11 +5422,11 @@
         <v>123</v>
       </c>
       <c r="K68" s="11"/>
-      <c r="L68" s="47" t="s">
+      <c r="L68" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
       <c r="O68" s="1"/>
       <c r="P68" s="9" t="s">
         <v>22</v>
@@ -5437,26 +5465,26 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="64" t="s">
+      <c r="AM68" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="AN68" s="64"/>
-      <c r="AO68" s="64" t="s">
+      <c r="AN68" s="47"/>
+      <c r="AO68" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="64"/>
-      <c r="AQ68" s="64"/>
-      <c r="AR68" s="64"/>
-      <c r="AS68" s="64"/>
-      <c r="AT68" s="64"/>
-      <c r="AU68" s="64" t="s">
+      <c r="AP68" s="47"/>
+      <c r="AQ68" s="47"/>
+      <c r="AR68" s="47"/>
+      <c r="AS68" s="47"/>
+      <c r="AT68" s="47"/>
+      <c r="AU68" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AV68" s="64"/>
-      <c r="AW68" s="64"/>
-      <c r="AX68" s="64"/>
-      <c r="AY68" s="64"/>
-      <c r="AZ68" s="64"/>
+      <c r="AV68" s="47"/>
+      <c r="AW68" s="47"/>
+      <c r="AX68" s="47"/>
+      <c r="AY68" s="47"/>
+      <c r="AZ68" s="47"/>
       <c r="BA68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5464,19 +5492,19 @@
       <c r="BC68" s="11"/>
     </row>
     <row r="69" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="116"/>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
       <c r="H69" s="12"/>
       <c r="I69" s="14"/>
       <c r="J69" s="12"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
       <c r="O69" s="1"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="14"/>
@@ -5501,38 +5529,38 @@
       <c r="AJ69" s="13"/>
       <c r="AK69" s="13"/>
       <c r="AL69" s="14"/>
-      <c r="AM69" s="64"/>
-      <c r="AN69" s="64"/>
-      <c r="AO69" s="64"/>
-      <c r="AP69" s="64"/>
-      <c r="AQ69" s="64"/>
-      <c r="AR69" s="64"/>
-      <c r="AS69" s="64"/>
-      <c r="AT69" s="64"/>
-      <c r="AU69" s="64"/>
-      <c r="AV69" s="64"/>
-      <c r="AW69" s="64"/>
-      <c r="AX69" s="64"/>
-      <c r="AY69" s="64"/>
-      <c r="AZ69" s="64"/>
+      <c r="AM69" s="47"/>
+      <c r="AN69" s="47"/>
+      <c r="AO69" s="47"/>
+      <c r="AP69" s="47"/>
+      <c r="AQ69" s="47"/>
+      <c r="AR69" s="47"/>
+      <c r="AS69" s="47"/>
+      <c r="AT69" s="47"/>
+      <c r="AU69" s="47"/>
+      <c r="AV69" s="47"/>
+      <c r="AW69" s="47"/>
+      <c r="AX69" s="47"/>
+      <c r="AY69" s="47"/>
+      <c r="AZ69" s="47"/>
       <c r="BA69" s="12"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="14"/>
     </row>
     <row r="70" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="116"/>
       <c r="F70" s="12"/>
       <c r="G70" s="14"/>
       <c r="H70" s="12"/>
       <c r="I70" s="14"/>
       <c r="J70" s="12"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
       <c r="O70" s="1"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="14"/>
@@ -5557,38 +5585,38 @@
       <c r="AJ70" s="13"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="14"/>
-      <c r="AM70" s="64"/>
-      <c r="AN70" s="64"/>
-      <c r="AO70" s="64"/>
-      <c r="AP70" s="64"/>
-      <c r="AQ70" s="64"/>
-      <c r="AR70" s="64"/>
-      <c r="AS70" s="64"/>
-      <c r="AT70" s="64"/>
-      <c r="AU70" s="64"/>
-      <c r="AV70" s="64"/>
-      <c r="AW70" s="64"/>
-      <c r="AX70" s="64"/>
-      <c r="AY70" s="64"/>
-      <c r="AZ70" s="64"/>
+      <c r="AM70" s="47"/>
+      <c r="AN70" s="47"/>
+      <c r="AO70" s="47"/>
+      <c r="AP70" s="47"/>
+      <c r="AQ70" s="47"/>
+      <c r="AR70" s="47"/>
+      <c r="AS70" s="47"/>
+      <c r="AT70" s="47"/>
+      <c r="AU70" s="47"/>
+      <c r="AV70" s="47"/>
+      <c r="AW70" s="47"/>
+      <c r="AX70" s="47"/>
+      <c r="AY70" s="47"/>
+      <c r="AZ70" s="47"/>
       <c r="BA70" s="12"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="14"/>
     </row>
     <row r="71" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="115"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116"/>
       <c r="F71" s="12"/>
       <c r="G71" s="14"/>
       <c r="H71" s="12"/>
       <c r="I71" s="14"/>
       <c r="J71" s="12"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
       <c r="O71" s="1"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="14"/>
@@ -5613,38 +5641,38 @@
       <c r="AJ71" s="13"/>
       <c r="AK71" s="13"/>
       <c r="AL71" s="14"/>
-      <c r="AM71" s="64"/>
-      <c r="AN71" s="64"/>
-      <c r="AO71" s="64"/>
-      <c r="AP71" s="64"/>
-      <c r="AQ71" s="64"/>
-      <c r="AR71" s="64"/>
-      <c r="AS71" s="64"/>
-      <c r="AT71" s="64"/>
-      <c r="AU71" s="64"/>
-      <c r="AV71" s="64"/>
-      <c r="AW71" s="64"/>
-      <c r="AX71" s="64"/>
-      <c r="AY71" s="64"/>
-      <c r="AZ71" s="64"/>
+      <c r="AM71" s="47"/>
+      <c r="AN71" s="47"/>
+      <c r="AO71" s="47"/>
+      <c r="AP71" s="47"/>
+      <c r="AQ71" s="47"/>
+      <c r="AR71" s="47"/>
+      <c r="AS71" s="47"/>
+      <c r="AT71" s="47"/>
+      <c r="AU71" s="47"/>
+      <c r="AV71" s="47"/>
+      <c r="AW71" s="47"/>
+      <c r="AX71" s="47"/>
+      <c r="AY71" s="47"/>
+      <c r="AZ71" s="47"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="14"/>
     </row>
     <row r="72" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="116"/>
       <c r="F72" s="12"/>
       <c r="G72" s="14"/>
       <c r="H72" s="12"/>
       <c r="I72" s="14"/>
       <c r="J72" s="12"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
       <c r="O72" s="1"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="14"/>
@@ -5669,38 +5697,38 @@
       <c r="AJ72" s="13"/>
       <c r="AK72" s="13"/>
       <c r="AL72" s="14"/>
-      <c r="AM72" s="64"/>
-      <c r="AN72" s="64"/>
-      <c r="AO72" s="64"/>
-      <c r="AP72" s="64"/>
-      <c r="AQ72" s="64"/>
-      <c r="AR72" s="64"/>
-      <c r="AS72" s="64"/>
-      <c r="AT72" s="64"/>
-      <c r="AU72" s="64"/>
-      <c r="AV72" s="64"/>
-      <c r="AW72" s="64"/>
-      <c r="AX72" s="64"/>
-      <c r="AY72" s="64"/>
-      <c r="AZ72" s="64"/>
+      <c r="AM72" s="47"/>
+      <c r="AN72" s="47"/>
+      <c r="AO72" s="47"/>
+      <c r="AP72" s="47"/>
+      <c r="AQ72" s="47"/>
+      <c r="AR72" s="47"/>
+      <c r="AS72" s="47"/>
+      <c r="AT72" s="47"/>
+      <c r="AU72" s="47"/>
+      <c r="AV72" s="47"/>
+      <c r="AW72" s="47"/>
+      <c r="AX72" s="47"/>
+      <c r="AY72" s="47"/>
+      <c r="AZ72" s="47"/>
       <c r="BA72" s="12"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="14"/>
     </row>
     <row r="73" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="116"/>
       <c r="F73" s="12"/>
       <c r="G73" s="14"/>
       <c r="H73" s="12"/>
       <c r="I73" s="14"/>
       <c r="J73" s="12"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
       <c r="O73" s="1"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="14"/>
@@ -5725,38 +5753,38 @@
       <c r="AJ73" s="13"/>
       <c r="AK73" s="13"/>
       <c r="AL73" s="14"/>
-      <c r="AM73" s="64"/>
-      <c r="AN73" s="64"/>
-      <c r="AO73" s="64"/>
-      <c r="AP73" s="64"/>
-      <c r="AQ73" s="64"/>
-      <c r="AR73" s="64"/>
-      <c r="AS73" s="64"/>
-      <c r="AT73" s="64"/>
-      <c r="AU73" s="64"/>
-      <c r="AV73" s="64"/>
-      <c r="AW73" s="64"/>
-      <c r="AX73" s="64"/>
-      <c r="AY73" s="64"/>
-      <c r="AZ73" s="64"/>
+      <c r="AM73" s="47"/>
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="47"/>
+      <c r="AQ73" s="47"/>
+      <c r="AR73" s="47"/>
+      <c r="AS73" s="47"/>
+      <c r="AT73" s="47"/>
+      <c r="AU73" s="47"/>
+      <c r="AV73" s="47"/>
+      <c r="AW73" s="47"/>
+      <c r="AX73" s="47"/>
+      <c r="AY73" s="47"/>
+      <c r="AZ73" s="47"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="14"/>
     </row>
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="116"/>
       <c r="F74" s="12"/>
       <c r="G74" s="14"/>
       <c r="H74" s="12"/>
       <c r="I74" s="14"/>
       <c r="J74" s="12"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
       <c r="O74" s="1"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="14"/>
@@ -5781,38 +5809,38 @@
       <c r="AJ74" s="13"/>
       <c r="AK74" s="13"/>
       <c r="AL74" s="14"/>
-      <c r="AM74" s="64"/>
-      <c r="AN74" s="64"/>
-      <c r="AO74" s="64"/>
-      <c r="AP74" s="64"/>
-      <c r="AQ74" s="64"/>
-      <c r="AR74" s="64"/>
-      <c r="AS74" s="64"/>
-      <c r="AT74" s="64"/>
-      <c r="AU74" s="64"/>
-      <c r="AV74" s="64"/>
-      <c r="AW74" s="64"/>
-      <c r="AX74" s="64"/>
-      <c r="AY74" s="64"/>
-      <c r="AZ74" s="64"/>
+      <c r="AM74" s="47"/>
+      <c r="AN74" s="47"/>
+      <c r="AO74" s="47"/>
+      <c r="AP74" s="47"/>
+      <c r="AQ74" s="47"/>
+      <c r="AR74" s="47"/>
+      <c r="AS74" s="47"/>
+      <c r="AT74" s="47"/>
+      <c r="AU74" s="47"/>
+      <c r="AV74" s="47"/>
+      <c r="AW74" s="47"/>
+      <c r="AX74" s="47"/>
+      <c r="AY74" s="47"/>
+      <c r="AZ74" s="47"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="14"/>
     </row>
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="116"/>
       <c r="F75" s="12"/>
       <c r="G75" s="14"/>
       <c r="H75" s="12"/>
       <c r="I75" s="14"/>
       <c r="J75" s="12"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
+      <c r="L75" s="95"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
       <c r="O75" s="1"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="14"/>
@@ -5837,38 +5865,38 @@
       <c r="AJ75" s="13"/>
       <c r="AK75" s="13"/>
       <c r="AL75" s="14"/>
-      <c r="AM75" s="64"/>
-      <c r="AN75" s="64"/>
-      <c r="AO75" s="64"/>
-      <c r="AP75" s="64"/>
-      <c r="AQ75" s="64"/>
-      <c r="AR75" s="64"/>
-      <c r="AS75" s="64"/>
-      <c r="AT75" s="64"/>
-      <c r="AU75" s="64"/>
-      <c r="AV75" s="64"/>
-      <c r="AW75" s="64"/>
-      <c r="AX75" s="64"/>
-      <c r="AY75" s="64"/>
-      <c r="AZ75" s="64"/>
+      <c r="AM75" s="47"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="47"/>
+      <c r="AP75" s="47"/>
+      <c r="AQ75" s="47"/>
+      <c r="AR75" s="47"/>
+      <c r="AS75" s="47"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="47"/>
+      <c r="AW75" s="47"/>
+      <c r="AX75" s="47"/>
+      <c r="AY75" s="47"/>
+      <c r="AZ75" s="47"/>
       <c r="BA75" s="12"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="14"/>
     </row>
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="116"/>
       <c r="F76" s="12"/>
       <c r="G76" s="14"/>
       <c r="H76" s="12"/>
       <c r="I76" s="14"/>
       <c r="J76" s="12"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
+      <c r="L76" s="95"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
       <c r="O76" s="1"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="14"/>
@@ -5893,38 +5921,38 @@
       <c r="AJ76" s="13"/>
       <c r="AK76" s="13"/>
       <c r="AL76" s="14"/>
-      <c r="AM76" s="64"/>
-      <c r="AN76" s="64"/>
-      <c r="AO76" s="64"/>
-      <c r="AP76" s="64"/>
-      <c r="AQ76" s="64"/>
-      <c r="AR76" s="64"/>
-      <c r="AS76" s="64"/>
-      <c r="AT76" s="64"/>
-      <c r="AU76" s="64"/>
-      <c r="AV76" s="64"/>
-      <c r="AW76" s="64"/>
-      <c r="AX76" s="64"/>
-      <c r="AY76" s="64"/>
-      <c r="AZ76" s="64"/>
+      <c r="AM76" s="47"/>
+      <c r="AN76" s="47"/>
+      <c r="AO76" s="47"/>
+      <c r="AP76" s="47"/>
+      <c r="AQ76" s="47"/>
+      <c r="AR76" s="47"/>
+      <c r="AS76" s="47"/>
+      <c r="AT76" s="47"/>
+      <c r="AU76" s="47"/>
+      <c r="AV76" s="47"/>
+      <c r="AW76" s="47"/>
+      <c r="AX76" s="47"/>
+      <c r="AY76" s="47"/>
+      <c r="AZ76" s="47"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="14"/>
     </row>
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119"/>
       <c r="F77" s="15"/>
       <c r="G77" s="17"/>
       <c r="H77" s="15"/>
       <c r="I77" s="17"/>
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="64"/>
-      <c r="N77" s="64"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
       <c r="O77" s="1"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="14"/>
@@ -5949,29 +5977,29 @@
       <c r="AJ77" s="13"/>
       <c r="AK77" s="13"/>
       <c r="AL77" s="14"/>
-      <c r="AM77" s="47"/>
-      <c r="AN77" s="47"/>
-      <c r="AO77" s="47"/>
-      <c r="AP77" s="47"/>
-      <c r="AQ77" s="47"/>
-      <c r="AR77" s="47"/>
-      <c r="AS77" s="47"/>
-      <c r="AT77" s="47"/>
-      <c r="AU77" s="47"/>
-      <c r="AV77" s="47"/>
-      <c r="AW77" s="47"/>
-      <c r="AX77" s="47"/>
-      <c r="AY77" s="47"/>
-      <c r="AZ77" s="47"/>
+      <c r="AM77" s="82"/>
+      <c r="AN77" s="82"/>
+      <c r="AO77" s="82"/>
+      <c r="AP77" s="82"/>
+      <c r="AQ77" s="82"/>
+      <c r="AR77" s="82"/>
+      <c r="AS77" s="82"/>
+      <c r="AT77" s="82"/>
+      <c r="AU77" s="82"/>
+      <c r="AV77" s="82"/>
+      <c r="AW77" s="82"/>
+      <c r="AX77" s="82"/>
+      <c r="AY77" s="82"/>
+      <c r="AZ77" s="82"/>
       <c r="BA77" s="12"/>
       <c r="BB77" s="13"/>
       <c r="BC77" s="14"/>
     </row>
     <row r="78" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="113"/>
       <c r="F78" s="9" t="s">
         <v>125</v>
       </c>
@@ -5984,7 +6012,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="11"/>
-      <c r="L78" s="47" t="s">
+      <c r="L78" s="82" t="s">
         <v>126</v>
       </c>
       <c r="M78" s="9" t="s">
@@ -5992,570 +6020,572 @@
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="64" t="s">
+      <c r="P78" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="64"/>
-      <c r="R78" s="68" t="s">
+      <c r="Q78" s="47"/>
+      <c r="R78" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S78" s="68"/>
-      <c r="T78" s="64" t="s">
+      <c r="S78" s="101"/>
+      <c r="T78" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="U78" s="64"/>
-      <c r="V78" s="64" t="s">
+      <c r="U78" s="47"/>
+      <c r="V78" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="64"/>
-      <c r="X78" s="64" t="s">
+      <c r="W78" s="47"/>
+      <c r="X78" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="64"/>
-      <c r="Z78" s="64"/>
-      <c r="AA78" s="64"/>
-      <c r="AB78" s="64" t="s">
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="64"/>
-      <c r="AD78" s="64"/>
-      <c r="AE78" s="64"/>
-      <c r="AF78" s="64"/>
-      <c r="AG78" s="64" t="s">
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AH78" s="64"/>
-      <c r="AI78" s="64"/>
-      <c r="AJ78" s="64"/>
-      <c r="AK78" s="64"/>
-      <c r="AL78" s="64"/>
-      <c r="AM78" s="64" t="s">
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="47"/>
+      <c r="AL78" s="47"/>
+      <c r="AM78" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="AN78" s="64"/>
-      <c r="AO78" s="64" t="s">
+      <c r="AN78" s="47"/>
+      <c r="AO78" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="AP78" s="64"/>
-      <c r="AQ78" s="64"/>
-      <c r="AR78" s="64"/>
-      <c r="AS78" s="64"/>
-      <c r="AT78" s="64"/>
-      <c r="AU78" s="64"/>
-      <c r="AV78" s="64"/>
-      <c r="AW78" s="64"/>
-      <c r="AX78" s="64"/>
-      <c r="AY78" s="64"/>
-      <c r="AZ78" s="64"/>
-      <c r="BA78" s="64" t="s">
+      <c r="AP78" s="120"/>
+      <c r="AQ78" s="120"/>
+      <c r="AR78" s="120"/>
+      <c r="AS78" s="120"/>
+      <c r="AT78" s="120"/>
+      <c r="AU78" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV78" s="47"/>
+      <c r="AW78" s="47"/>
+      <c r="AX78" s="47"/>
+      <c r="AY78" s="47"/>
+      <c r="AZ78" s="47"/>
+      <c r="BA78" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="BB78" s="64"/>
-      <c r="BC78" s="64"/>
+      <c r="BB78" s="47"/>
+      <c r="BC78" s="47"/>
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="116"/>
       <c r="F79" s="12"/>
       <c r="G79" s="14"/>
       <c r="H79" s="12"/>
       <c r="I79" s="14"/>
       <c r="J79" s="12"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="48"/>
+      <c r="L79" s="95"/>
       <c r="M79" s="12"/>
       <c r="N79" s="14"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="64"/>
-      <c r="U79" s="64"/>
-      <c r="V79" s="64"/>
-      <c r="W79" s="64"/>
-      <c r="X79" s="64"/>
-      <c r="Y79" s="64"/>
-      <c r="Z79" s="64"/>
-      <c r="AA79" s="64"/>
-      <c r="AB79" s="64"/>
-      <c r="AC79" s="64"/>
-      <c r="AD79" s="64"/>
-      <c r="AE79" s="64"/>
-      <c r="AF79" s="64"/>
-      <c r="AG79" s="64"/>
-      <c r="AH79" s="64"/>
-      <c r="AI79" s="64"/>
-      <c r="AJ79" s="64"/>
-      <c r="AK79" s="64"/>
-      <c r="AL79" s="64"/>
-      <c r="AM79" s="64"/>
-      <c r="AN79" s="64"/>
-      <c r="AO79" s="64"/>
-      <c r="AP79" s="64"/>
-      <c r="AQ79" s="64"/>
-      <c r="AR79" s="64"/>
-      <c r="AS79" s="64"/>
-      <c r="AT79" s="64"/>
-      <c r="AU79" s="64"/>
-      <c r="AV79" s="64"/>
-      <c r="AW79" s="64"/>
-      <c r="AX79" s="64"/>
-      <c r="AY79" s="64"/>
-      <c r="AZ79" s="64"/>
-      <c r="BA79" s="64"/>
-      <c r="BB79" s="64"/>
-      <c r="BC79" s="64"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="101"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="47"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="120"/>
+      <c r="AP79" s="120"/>
+      <c r="AQ79" s="120"/>
+      <c r="AR79" s="120"/>
+      <c r="AS79" s="120"/>
+      <c r="AT79" s="120"/>
+      <c r="AU79" s="47"/>
+      <c r="AV79" s="47"/>
+      <c r="AW79" s="47"/>
+      <c r="AX79" s="47"/>
+      <c r="AY79" s="47"/>
+      <c r="AZ79" s="47"/>
+      <c r="BA79" s="47"/>
+      <c r="BB79" s="47"/>
+      <c r="BC79" s="47"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="116"/>
       <c r="F80" s="12"/>
       <c r="G80" s="14"/>
       <c r="H80" s="12"/>
       <c r="I80" s="14"/>
       <c r="J80" s="12"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="48"/>
+      <c r="L80" s="95"/>
       <c r="M80" s="12"/>
       <c r="N80" s="14"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="64"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
-      <c r="T80" s="64"/>
-      <c r="U80" s="64"/>
-      <c r="V80" s="64"/>
-      <c r="W80" s="64"/>
-      <c r="X80" s="64"/>
-      <c r="Y80" s="64"/>
-      <c r="Z80" s="64"/>
-      <c r="AA80" s="64"/>
-      <c r="AB80" s="64"/>
-      <c r="AC80" s="64"/>
-      <c r="AD80" s="64"/>
-      <c r="AE80" s="64"/>
-      <c r="AF80" s="64"/>
-      <c r="AG80" s="64"/>
-      <c r="AH80" s="64"/>
-      <c r="AI80" s="64"/>
-      <c r="AJ80" s="64"/>
-      <c r="AK80" s="64"/>
-      <c r="AL80" s="64"/>
-      <c r="AM80" s="64"/>
-      <c r="AN80" s="64"/>
-      <c r="AO80" s="64"/>
-      <c r="AP80" s="64"/>
-      <c r="AQ80" s="64"/>
-      <c r="AR80" s="64"/>
-      <c r="AS80" s="64"/>
-      <c r="AT80" s="64"/>
-      <c r="AU80" s="64"/>
-      <c r="AV80" s="64"/>
-      <c r="AW80" s="64"/>
-      <c r="AX80" s="64"/>
-      <c r="AY80" s="64"/>
-      <c r="AZ80" s="64"/>
-      <c r="BA80" s="64"/>
-      <c r="BB80" s="64"/>
-      <c r="BC80" s="64"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="101"/>
+      <c r="S80" s="101"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="47"/>
+      <c r="AE80" s="47"/>
+      <c r="AF80" s="47"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="47"/>
+      <c r="AK80" s="47"/>
+      <c r="AL80" s="47"/>
+      <c r="AM80" s="47"/>
+      <c r="AN80" s="47"/>
+      <c r="AO80" s="120"/>
+      <c r="AP80" s="120"/>
+      <c r="AQ80" s="120"/>
+      <c r="AR80" s="120"/>
+      <c r="AS80" s="120"/>
+      <c r="AT80" s="120"/>
+      <c r="AU80" s="47"/>
+      <c r="AV80" s="47"/>
+      <c r="AW80" s="47"/>
+      <c r="AX80" s="47"/>
+      <c r="AY80" s="47"/>
+      <c r="AZ80" s="47"/>
+      <c r="BA80" s="47"/>
+      <c r="BB80" s="47"/>
+      <c r="BC80" s="47"/>
     </row>
     <row r="81" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116"/>
       <c r="F81" s="12"/>
       <c r="G81" s="14"/>
       <c r="H81" s="12"/>
       <c r="I81" s="14"/>
       <c r="J81" s="12"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="48"/>
+      <c r="L81" s="95"/>
       <c r="M81" s="12"/>
       <c r="N81" s="14"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="64"/>
-      <c r="Q81" s="64"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
-      <c r="T81" s="64"/>
-      <c r="U81" s="64"/>
-      <c r="V81" s="64"/>
-      <c r="W81" s="64"/>
-      <c r="X81" s="64"/>
-      <c r="Y81" s="64"/>
-      <c r="Z81" s="64"/>
-      <c r="AA81" s="64"/>
-      <c r="AB81" s="64"/>
-      <c r="AC81" s="64"/>
-      <c r="AD81" s="64"/>
-      <c r="AE81" s="64"/>
-      <c r="AF81" s="64"/>
-      <c r="AG81" s="64"/>
-      <c r="AH81" s="64"/>
-      <c r="AI81" s="64"/>
-      <c r="AJ81" s="64"/>
-      <c r="AK81" s="64"/>
-      <c r="AL81" s="64"/>
-      <c r="AM81" s="64"/>
-      <c r="AN81" s="64"/>
-      <c r="AO81" s="64"/>
-      <c r="AP81" s="64"/>
-      <c r="AQ81" s="64"/>
-      <c r="AR81" s="64"/>
-      <c r="AS81" s="64"/>
-      <c r="AT81" s="64"/>
-      <c r="AU81" s="64"/>
-      <c r="AV81" s="64"/>
-      <c r="AW81" s="64"/>
-      <c r="AX81" s="64"/>
-      <c r="AY81" s="64"/>
-      <c r="AZ81" s="64"/>
-      <c r="BA81" s="64"/>
-      <c r="BB81" s="64"/>
-      <c r="BC81" s="64"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="101"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
+      <c r="AD81" s="47"/>
+      <c r="AE81" s="47"/>
+      <c r="AF81" s="47"/>
+      <c r="AG81" s="47"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="47"/>
+      <c r="AJ81" s="47"/>
+      <c r="AK81" s="47"/>
+      <c r="AL81" s="47"/>
+      <c r="AM81" s="47"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="120"/>
+      <c r="AP81" s="120"/>
+      <c r="AQ81" s="120"/>
+      <c r="AR81" s="120"/>
+      <c r="AS81" s="120"/>
+      <c r="AT81" s="120"/>
+      <c r="AU81" s="47"/>
+      <c r="AV81" s="47"/>
+      <c r="AW81" s="47"/>
+      <c r="AX81" s="47"/>
+      <c r="AY81" s="47"/>
+      <c r="AZ81" s="47"/>
+      <c r="BA81" s="47"/>
+      <c r="BB81" s="47"/>
+      <c r="BC81" s="47"/>
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="116"/>
       <c r="F82" s="12"/>
       <c r="G82" s="14"/>
       <c r="H82" s="12"/>
       <c r="I82" s="14"/>
       <c r="J82" s="12"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="48"/>
+      <c r="L82" s="95"/>
       <c r="M82" s="12"/>
       <c r="N82" s="14"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="64"/>
-      <c r="Q82" s="64"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="64"/>
-      <c r="U82" s="64"/>
-      <c r="V82" s="64"/>
-      <c r="W82" s="64"/>
-      <c r="X82" s="64"/>
-      <c r="Y82" s="64"/>
-      <c r="Z82" s="64"/>
-      <c r="AA82" s="64"/>
-      <c r="AB82" s="64"/>
-      <c r="AC82" s="64"/>
-      <c r="AD82" s="64"/>
-      <c r="AE82" s="64"/>
-      <c r="AF82" s="64"/>
-      <c r="AG82" s="64"/>
-      <c r="AH82" s="64"/>
-      <c r="AI82" s="64"/>
-      <c r="AJ82" s="64"/>
-      <c r="AK82" s="64"/>
-      <c r="AL82" s="64"/>
-      <c r="AM82" s="64"/>
-      <c r="AN82" s="64"/>
-      <c r="AO82" s="64"/>
-      <c r="AP82" s="64"/>
-      <c r="AQ82" s="64"/>
-      <c r="AR82" s="64"/>
-      <c r="AS82" s="64"/>
-      <c r="AT82" s="64"/>
-      <c r="AU82" s="64"/>
-      <c r="AV82" s="64"/>
-      <c r="AW82" s="64"/>
-      <c r="AX82" s="64"/>
-      <c r="AY82" s="64"/>
-      <c r="AZ82" s="64"/>
-      <c r="BA82" s="64"/>
-      <c r="BB82" s="64"/>
-      <c r="BC82" s="64"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="101"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="47"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="47"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="47"/>
+      <c r="AL82" s="47"/>
+      <c r="AM82" s="47"/>
+      <c r="AN82" s="47"/>
+      <c r="AO82" s="120"/>
+      <c r="AP82" s="120"/>
+      <c r="AQ82" s="120"/>
+      <c r="AR82" s="120"/>
+      <c r="AS82" s="120"/>
+      <c r="AT82" s="120"/>
+      <c r="AU82" s="47"/>
+      <c r="AV82" s="47"/>
+      <c r="AW82" s="47"/>
+      <c r="AX82" s="47"/>
+      <c r="AY82" s="47"/>
+      <c r="AZ82" s="47"/>
+      <c r="BA82" s="47"/>
+      <c r="BB82" s="47"/>
+      <c r="BC82" s="47"/>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="12"/>
       <c r="G83" s="14"/>
       <c r="H83" s="12"/>
       <c r="I83" s="14"/>
       <c r="J83" s="12"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="48"/>
+      <c r="L83" s="95"/>
       <c r="M83" s="12"/>
       <c r="N83" s="14"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="64"/>
-      <c r="U83" s="64"/>
-      <c r="V83" s="64"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="64"/>
-      <c r="Y83" s="64"/>
-      <c r="Z83" s="64"/>
-      <c r="AA83" s="64"/>
-      <c r="AB83" s="64"/>
-      <c r="AC83" s="64"/>
-      <c r="AD83" s="64"/>
-      <c r="AE83" s="64"/>
-      <c r="AF83" s="64"/>
-      <c r="AG83" s="64"/>
-      <c r="AH83" s="64"/>
-      <c r="AI83" s="64"/>
-      <c r="AJ83" s="64"/>
-      <c r="AK83" s="64"/>
-      <c r="AL83" s="64"/>
-      <c r="AM83" s="64"/>
-      <c r="AN83" s="64"/>
-      <c r="AO83" s="64"/>
-      <c r="AP83" s="64"/>
-      <c r="AQ83" s="64"/>
-      <c r="AR83" s="64"/>
-      <c r="AS83" s="64"/>
-      <c r="AT83" s="64"/>
-      <c r="AU83" s="64"/>
-      <c r="AV83" s="64"/>
-      <c r="AW83" s="64"/>
-      <c r="AX83" s="64"/>
-      <c r="AY83" s="64"/>
-      <c r="AZ83" s="64"/>
-      <c r="BA83" s="64"/>
-      <c r="BB83" s="64"/>
-      <c r="BC83" s="64"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="47"/>
+      <c r="AC83" s="47"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="47"/>
+      <c r="AF83" s="47"/>
+      <c r="AG83" s="47"/>
+      <c r="AH83" s="47"/>
+      <c r="AI83" s="47"/>
+      <c r="AJ83" s="47"/>
+      <c r="AK83" s="47"/>
+      <c r="AL83" s="47"/>
+      <c r="AM83" s="47"/>
+      <c r="AN83" s="47"/>
+      <c r="AO83" s="120"/>
+      <c r="AP83" s="120"/>
+      <c r="AQ83" s="120"/>
+      <c r="AR83" s="120"/>
+      <c r="AS83" s="120"/>
+      <c r="AT83" s="120"/>
+      <c r="AU83" s="47"/>
+      <c r="AV83" s="47"/>
+      <c r="AW83" s="47"/>
+      <c r="AX83" s="47"/>
+      <c r="AY83" s="47"/>
+      <c r="AZ83" s="47"/>
+      <c r="BA83" s="47"/>
+      <c r="BB83" s="47"/>
+      <c r="BC83" s="47"/>
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="116"/>
       <c r="F84" s="12"/>
       <c r="G84" s="14"/>
       <c r="H84" s="12"/>
       <c r="I84" s="14"/>
       <c r="J84" s="12"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="48"/>
+      <c r="L84" s="95"/>
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="64"/>
-      <c r="Q84" s="64"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="64"/>
-      <c r="U84" s="64"/>
-      <c r="V84" s="64"/>
-      <c r="W84" s="64"/>
-      <c r="X84" s="64"/>
-      <c r="Y84" s="64"/>
-      <c r="Z84" s="64"/>
-      <c r="AA84" s="64"/>
-      <c r="AB84" s="64"/>
-      <c r="AC84" s="64"/>
-      <c r="AD84" s="64"/>
-      <c r="AE84" s="64"/>
-      <c r="AF84" s="64"/>
-      <c r="AG84" s="64"/>
-      <c r="AH84" s="64"/>
-      <c r="AI84" s="64"/>
-      <c r="AJ84" s="64"/>
-      <c r="AK84" s="64"/>
-      <c r="AL84" s="64"/>
-      <c r="AM84" s="64"/>
-      <c r="AN84" s="64"/>
-      <c r="AO84" s="64"/>
-      <c r="AP84" s="64"/>
-      <c r="AQ84" s="64"/>
-      <c r="AR84" s="64"/>
-      <c r="AS84" s="64"/>
-      <c r="AT84" s="64"/>
-      <c r="AU84" s="64"/>
-      <c r="AV84" s="64"/>
-      <c r="AW84" s="64"/>
-      <c r="AX84" s="64"/>
-      <c r="AY84" s="64"/>
-      <c r="AZ84" s="64"/>
-      <c r="BA84" s="64"/>
-      <c r="BB84" s="64"/>
-      <c r="BC84" s="64"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="101"/>
+      <c r="S84" s="101"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="47"/>
+      <c r="AA84" s="47"/>
+      <c r="AB84" s="47"/>
+      <c r="AC84" s="47"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="47"/>
+      <c r="AF84" s="47"/>
+      <c r="AG84" s="47"/>
+      <c r="AH84" s="47"/>
+      <c r="AI84" s="47"/>
+      <c r="AJ84" s="47"/>
+      <c r="AK84" s="47"/>
+      <c r="AL84" s="47"/>
+      <c r="AM84" s="47"/>
+      <c r="AN84" s="47"/>
+      <c r="AO84" s="120"/>
+      <c r="AP84" s="120"/>
+      <c r="AQ84" s="120"/>
+      <c r="AR84" s="120"/>
+      <c r="AS84" s="120"/>
+      <c r="AT84" s="120"/>
+      <c r="AU84" s="47"/>
+      <c r="AV84" s="47"/>
+      <c r="AW84" s="47"/>
+      <c r="AX84" s="47"/>
+      <c r="AY84" s="47"/>
+      <c r="AZ84" s="47"/>
+      <c r="BA84" s="47"/>
+      <c r="BB84" s="47"/>
+      <c r="BC84" s="47"/>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="115"/>
+      <c r="E85" s="116"/>
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
       <c r="H85" s="12"/>
       <c r="I85" s="14"/>
       <c r="J85" s="12"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="48"/>
+      <c r="L85" s="95"/>
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="64"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="64"/>
-      <c r="U85" s="64"/>
-      <c r="V85" s="64"/>
-      <c r="W85" s="64"/>
-      <c r="X85" s="64"/>
-      <c r="Y85" s="64"/>
-      <c r="Z85" s="64"/>
-      <c r="AA85" s="64"/>
-      <c r="AB85" s="64"/>
-      <c r="AC85" s="64"/>
-      <c r="AD85" s="64"/>
-      <c r="AE85" s="64"/>
-      <c r="AF85" s="64"/>
-      <c r="AG85" s="64"/>
-      <c r="AH85" s="64"/>
-      <c r="AI85" s="64"/>
-      <c r="AJ85" s="64"/>
-      <c r="AK85" s="64"/>
-      <c r="AL85" s="64"/>
-      <c r="AM85" s="64"/>
-      <c r="AN85" s="64"/>
-      <c r="AO85" s="64"/>
-      <c r="AP85" s="64"/>
-      <c r="AQ85" s="64"/>
-      <c r="AR85" s="64"/>
-      <c r="AS85" s="64"/>
-      <c r="AT85" s="64"/>
-      <c r="AU85" s="64"/>
-      <c r="AV85" s="64"/>
-      <c r="AW85" s="64"/>
-      <c r="AX85" s="64"/>
-      <c r="AY85" s="64"/>
-      <c r="AZ85" s="64"/>
-      <c r="BA85" s="64"/>
-      <c r="BB85" s="64"/>
-      <c r="BC85" s="64"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="101"/>
+      <c r="S85" s="101"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="47"/>
+      <c r="Z85" s="47"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="47"/>
+      <c r="AC85" s="47"/>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="47"/>
+      <c r="AF85" s="47"/>
+      <c r="AG85" s="47"/>
+      <c r="AH85" s="47"/>
+      <c r="AI85" s="47"/>
+      <c r="AJ85" s="47"/>
+      <c r="AK85" s="47"/>
+      <c r="AL85" s="47"/>
+      <c r="AM85" s="47"/>
+      <c r="AN85" s="47"/>
+      <c r="AO85" s="120"/>
+      <c r="AP85" s="120"/>
+      <c r="AQ85" s="120"/>
+      <c r="AR85" s="120"/>
+      <c r="AS85" s="120"/>
+      <c r="AT85" s="120"/>
+      <c r="AU85" s="47"/>
+      <c r="AV85" s="47"/>
+      <c r="AW85" s="47"/>
+      <c r="AX85" s="47"/>
+      <c r="AY85" s="47"/>
+      <c r="AZ85" s="47"/>
+      <c r="BA85" s="47"/>
+      <c r="BB85" s="47"/>
+      <c r="BC85" s="47"/>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="116"/>
       <c r="F86" s="12"/>
       <c r="G86" s="14"/>
       <c r="H86" s="12"/>
       <c r="I86" s="14"/>
       <c r="J86" s="12"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="48"/>
+      <c r="L86" s="95"/>
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="64"/>
-      <c r="U86" s="64"/>
-      <c r="V86" s="64"/>
-      <c r="W86" s="64"/>
-      <c r="X86" s="64"/>
-      <c r="Y86" s="64"/>
-      <c r="Z86" s="64"/>
-      <c r="AA86" s="64"/>
-      <c r="AB86" s="64"/>
-      <c r="AC86" s="64"/>
-      <c r="AD86" s="64"/>
-      <c r="AE86" s="64"/>
-      <c r="AF86" s="64"/>
-      <c r="AG86" s="64"/>
-      <c r="AH86" s="64"/>
-      <c r="AI86" s="64"/>
-      <c r="AJ86" s="64"/>
-      <c r="AK86" s="64"/>
-      <c r="AL86" s="64"/>
-      <c r="AM86" s="64"/>
-      <c r="AN86" s="64"/>
-      <c r="AO86" s="64"/>
-      <c r="AP86" s="64"/>
-      <c r="AQ86" s="64"/>
-      <c r="AR86" s="64"/>
-      <c r="AS86" s="64"/>
-      <c r="AT86" s="64"/>
-      <c r="AU86" s="64"/>
-      <c r="AV86" s="64"/>
-      <c r="AW86" s="64"/>
-      <c r="AX86" s="64"/>
-      <c r="AY86" s="64"/>
-      <c r="AZ86" s="64"/>
-      <c r="BA86" s="64"/>
-      <c r="BB86" s="64"/>
-      <c r="BC86" s="64"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="101"/>
+      <c r="S86" s="101"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="47"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="47"/>
+      <c r="AD86" s="47"/>
+      <c r="AE86" s="47"/>
+      <c r="AF86" s="47"/>
+      <c r="AG86" s="47"/>
+      <c r="AH86" s="47"/>
+      <c r="AI86" s="47"/>
+      <c r="AJ86" s="47"/>
+      <c r="AK86" s="47"/>
+      <c r="AL86" s="47"/>
+      <c r="AM86" s="47"/>
+      <c r="AN86" s="47"/>
+      <c r="AO86" s="120"/>
+      <c r="AP86" s="120"/>
+      <c r="AQ86" s="120"/>
+      <c r="AR86" s="120"/>
+      <c r="AS86" s="120"/>
+      <c r="AT86" s="120"/>
+      <c r="AU86" s="47"/>
+      <c r="AV86" s="47"/>
+      <c r="AW86" s="47"/>
+      <c r="AX86" s="47"/>
+      <c r="AY86" s="47"/>
+      <c r="AZ86" s="47"/>
+      <c r="BA86" s="47"/>
+      <c r="BB86" s="47"/>
+      <c r="BC86" s="47"/>
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="119"/>
       <c r="F87" s="15"/>
       <c r="G87" s="17"/>
       <c r="H87" s="15"/>
       <c r="I87" s="17"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="49"/>
+      <c r="L87" s="96"/>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="64"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
-      <c r="T87" s="64"/>
-      <c r="U87" s="64"/>
-      <c r="V87" s="64"/>
-      <c r="W87" s="64"/>
-      <c r="X87" s="64"/>
-      <c r="Y87" s="64"/>
-      <c r="Z87" s="64"/>
-      <c r="AA87" s="64"/>
-      <c r="AB87" s="64"/>
-      <c r="AC87" s="64"/>
-      <c r="AD87" s="64"/>
-      <c r="AE87" s="64"/>
-      <c r="AF87" s="64"/>
-      <c r="AG87" s="64"/>
-      <c r="AH87" s="64"/>
-      <c r="AI87" s="64"/>
-      <c r="AJ87" s="64"/>
-      <c r="AK87" s="64"/>
-      <c r="AL87" s="64"/>
-      <c r="AM87" s="64"/>
-      <c r="AN87" s="64"/>
-      <c r="AO87" s="64"/>
-      <c r="AP87" s="64"/>
-      <c r="AQ87" s="64"/>
-      <c r="AR87" s="64"/>
-      <c r="AS87" s="64"/>
-      <c r="AT87" s="64"/>
-      <c r="AU87" s="64"/>
-      <c r="AV87" s="64"/>
-      <c r="AW87" s="64"/>
-      <c r="AX87" s="64"/>
-      <c r="AY87" s="64"/>
-      <c r="AZ87" s="64"/>
-      <c r="BA87" s="64"/>
-      <c r="BB87" s="64"/>
-      <c r="BC87" s="64"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="101"/>
+      <c r="S87" s="101"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="47"/>
+      <c r="AD87" s="47"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="47"/>
+      <c r="AI87" s="47"/>
+      <c r="AJ87" s="47"/>
+      <c r="AK87" s="47"/>
+      <c r="AL87" s="47"/>
+      <c r="AM87" s="47"/>
+      <c r="AN87" s="47"/>
+      <c r="AO87" s="120"/>
+      <c r="AP87" s="120"/>
+      <c r="AQ87" s="120"/>
+      <c r="AR87" s="120"/>
+      <c r="AS87" s="120"/>
+      <c r="AT87" s="120"/>
+      <c r="AU87" s="47"/>
+      <c r="AV87" s="47"/>
+      <c r="AW87" s="47"/>
+      <c r="AX87" s="47"/>
+      <c r="AY87" s="47"/>
+      <c r="AZ87" s="47"/>
+      <c r="BA87" s="47"/>
+      <c r="BB87" s="47"/>
+      <c r="BC87" s="47"/>
     </row>
     <row r="88" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" s="1"/>
@@ -7092,151 +7122,151 @@
       <c r="BC99" s="4"/>
     </row>
     <row r="100" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F100" s="71" t="s">
+      <c r="F100" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="99"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="99"/>
+      <c r="M100" s="99"/>
+      <c r="N100" s="99"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="88" t="s">
+      <c r="P100" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="Q100" s="88"/>
-      <c r="R100" s="87" t="s">
+      <c r="Q100" s="100"/>
+      <c r="R100" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="87"/>
-      <c r="T100" s="87" t="s">
+      <c r="S100" s="81"/>
+      <c r="T100" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="87"/>
-      <c r="V100" s="87" t="s">
+      <c r="U100" s="81"/>
+      <c r="V100" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="W100" s="87"/>
-      <c r="X100" s="87" t="s">
+      <c r="W100" s="81"/>
+      <c r="X100" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Y100" s="87"/>
-      <c r="Z100" s="87"/>
-      <c r="AA100" s="87"/>
-      <c r="AB100" s="87" t="s">
+      <c r="Y100" s="81"/>
+      <c r="Z100" s="81"/>
+      <c r="AA100" s="81"/>
+      <c r="AB100" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AC100" s="87"/>
-      <c r="AD100" s="87"/>
-      <c r="AE100" s="87"/>
-      <c r="AF100" s="87"/>
-      <c r="AG100" s="87" t="s">
+      <c r="AC100" s="81"/>
+      <c r="AD100" s="81"/>
+      <c r="AE100" s="81"/>
+      <c r="AF100" s="81"/>
+      <c r="AG100" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="AH100" s="87"/>
-      <c r="AI100" s="87"/>
-      <c r="AJ100" s="87"/>
-      <c r="AK100" s="87"/>
-      <c r="AL100" s="87"/>
-      <c r="AM100" s="87" t="s">
+      <c r="AH100" s="81"/>
+      <c r="AI100" s="81"/>
+      <c r="AJ100" s="81"/>
+      <c r="AK100" s="81"/>
+      <c r="AL100" s="81"/>
+      <c r="AM100" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="AN100" s="87"/>
-      <c r="AO100" s="87" t="s">
+      <c r="AN100" s="81"/>
+      <c r="AO100" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AP100" s="87"/>
-      <c r="AQ100" s="87"/>
-      <c r="AR100" s="87"/>
-      <c r="AS100" s="87"/>
-      <c r="AT100" s="87"/>
-      <c r="AU100" s="87" t="s">
+      <c r="AP100" s="81"/>
+      <c r="AQ100" s="81"/>
+      <c r="AR100" s="81"/>
+      <c r="AS100" s="81"/>
+      <c r="AT100" s="81"/>
+      <c r="AU100" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AV100" s="87"/>
-      <c r="AW100" s="87"/>
-      <c r="AX100" s="87"/>
-      <c r="AY100" s="87"/>
-      <c r="AZ100" s="87"/>
-      <c r="BA100" s="87" t="s">
+      <c r="AV100" s="81"/>
+      <c r="AW100" s="81"/>
+      <c r="AX100" s="81"/>
+      <c r="AY100" s="81"/>
+      <c r="AZ100" s="81"/>
+      <c r="BA100" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="BB100" s="87"/>
-      <c r="BC100" s="87"/>
+      <c r="BB100" s="81"/>
+      <c r="BC100" s="81"/>
     </row>
     <row r="101" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="71"/>
-      <c r="K101" s="71"/>
-      <c r="L101" s="71"/>
-      <c r="M101" s="71"/>
-      <c r="N101" s="71"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="99"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="88"/>
-      <c r="Q101" s="88"/>
-      <c r="R101" s="87"/>
-      <c r="S101" s="87"/>
-      <c r="T101" s="87"/>
-      <c r="U101" s="87"/>
-      <c r="V101" s="87"/>
-      <c r="W101" s="87"/>
-      <c r="X101" s="87"/>
-      <c r="Y101" s="87"/>
-      <c r="Z101" s="87"/>
-      <c r="AA101" s="87"/>
-      <c r="AB101" s="87"/>
-      <c r="AC101" s="87"/>
-      <c r="AD101" s="87"/>
-      <c r="AE101" s="87"/>
-      <c r="AF101" s="87"/>
-      <c r="AG101" s="87"/>
-      <c r="AH101" s="87"/>
-      <c r="AI101" s="87"/>
-      <c r="AJ101" s="87"/>
-      <c r="AK101" s="87"/>
-      <c r="AL101" s="87"/>
-      <c r="AM101" s="87"/>
-      <c r="AN101" s="87"/>
-      <c r="AO101" s="87"/>
-      <c r="AP101" s="87"/>
-      <c r="AQ101" s="87"/>
-      <c r="AR101" s="87"/>
-      <c r="AS101" s="87"/>
-      <c r="AT101" s="87"/>
-      <c r="AU101" s="87"/>
-      <c r="AV101" s="87"/>
-      <c r="AW101" s="87"/>
-      <c r="AX101" s="87"/>
-      <c r="AY101" s="87"/>
-      <c r="AZ101" s="87"/>
-      <c r="BA101" s="87"/>
-      <c r="BB101" s="87"/>
-      <c r="BC101" s="87"/>
+      <c r="P101" s="100"/>
+      <c r="Q101" s="100"/>
+      <c r="R101" s="81"/>
+      <c r="S101" s="81"/>
+      <c r="T101" s="81"/>
+      <c r="U101" s="81"/>
+      <c r="V101" s="81"/>
+      <c r="W101" s="81"/>
+      <c r="X101" s="81"/>
+      <c r="Y101" s="81"/>
+      <c r="Z101" s="81"/>
+      <c r="AA101" s="81"/>
+      <c r="AB101" s="81"/>
+      <c r="AC101" s="81"/>
+      <c r="AD101" s="81"/>
+      <c r="AE101" s="81"/>
+      <c r="AF101" s="81"/>
+      <c r="AG101" s="81"/>
+      <c r="AH101" s="81"/>
+      <c r="AI101" s="81"/>
+      <c r="AJ101" s="81"/>
+      <c r="AK101" s="81"/>
+      <c r="AL101" s="81"/>
+      <c r="AM101" s="81"/>
+      <c r="AN101" s="81"/>
+      <c r="AO101" s="81"/>
+      <c r="AP101" s="81"/>
+      <c r="AQ101" s="81"/>
+      <c r="AR101" s="81"/>
+      <c r="AS101" s="81"/>
+      <c r="AT101" s="81"/>
+      <c r="AU101" s="81"/>
+      <c r="AV101" s="81"/>
+      <c r="AW101" s="81"/>
+      <c r="AX101" s="81"/>
+      <c r="AY101" s="81"/>
+      <c r="AZ101" s="81"/>
+      <c r="BA101" s="81"/>
+      <c r="BB101" s="81"/>
+      <c r="BC101" s="81"/>
     </row>
     <row r="102" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="50" t="s">
+      <c r="F102" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="50" t="s">
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="52"/>
-      <c r="L102" s="72" t="s">
+      <c r="K102" s="42"/>
+      <c r="L102" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M102" s="50" t="s">
+      <c r="M102" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N102" s="52"/>
+      <c r="N102" s="42"/>
       <c r="O102" s="4"/>
       <c r="P102" s="9" t="s">
         <v>33</v>
@@ -7300,15 +7330,15 @@
       <c r="BC102" s="11"/>
     </row>
     <row r="103" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F103" s="53"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="67"/>
-      <c r="L103" s="73"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="67"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="44"/>
       <c r="O103" s="4"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="14"/>
@@ -7352,19 +7382,19 @@
       <c r="BC103" s="14"/>
     </row>
     <row r="104" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="50" t="s">
+      <c r="G104" s="42"/>
+      <c r="H104" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="73"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="67"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="44"/>
       <c r="O104" s="4"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="14"/>
@@ -7408,15 +7438,15 @@
       <c r="BC104" s="14"/>
     </row>
     <row r="105" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F105" s="53"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="55"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="46"/>
       <c r="O105" s="4"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="14"/>
@@ -7472,13 +7502,13 @@
         <v>33</v>
       </c>
       <c r="K106" s="11"/>
-      <c r="L106" s="47" t="s">
+      <c r="L106" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M106" s="64" t="s">
+      <c r="M106" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="N106" s="64"/>
+      <c r="N106" s="47"/>
       <c r="O106" s="6"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="14"/>
@@ -7528,9 +7558,9 @@
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
       <c r="K107" s="14"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="47"/>
       <c r="O107" s="6"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="14"/>
@@ -7580,9 +7610,9 @@
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
       <c r="K108" s="14"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
+      <c r="L108" s="95"/>
+      <c r="M108" s="47"/>
+      <c r="N108" s="47"/>
       <c r="O108" s="1"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="14"/>
@@ -7632,9 +7662,9 @@
       <c r="I109" s="14"/>
       <c r="J109" s="12"/>
       <c r="K109" s="14"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="64"/>
+      <c r="L109" s="95"/>
+      <c r="M109" s="47"/>
+      <c r="N109" s="47"/>
       <c r="O109" s="1"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="14"/>
@@ -7684,9 +7714,9 @@
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
       <c r="K110" s="14"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
+      <c r="L110" s="95"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
       <c r="O110" s="1"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="14"/>
@@ -7736,9 +7766,9 @@
       <c r="I111" s="14"/>
       <c r="J111" s="12"/>
       <c r="K111" s="14"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
       <c r="O111" s="1"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -7794,11 +7824,11 @@
         <v>32</v>
       </c>
       <c r="K112" s="11"/>
-      <c r="L112" s="47" t="s">
+      <c r="L112" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
       <c r="O112" s="1"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
@@ -7848,9 +7878,9 @@
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
       <c r="K113" s="14"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="47"/>
       <c r="O113" s="1"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -7900,9 +7930,9 @@
       <c r="I114" s="14"/>
       <c r="J114" s="12"/>
       <c r="K114" s="14"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="47"/>
+      <c r="N114" s="47"/>
       <c r="O114" s="1"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -7952,9 +7982,9 @@
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
       <c r="K115" s="14"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="64"/>
-      <c r="N115" s="64"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
       <c r="O115" s="1"/>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -8004,9 +8034,9 @@
       <c r="I116" s="14"/>
       <c r="J116" s="12"/>
       <c r="K116" s="14"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="64"/>
+      <c r="L116" s="95"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="47"/>
       <c r="O116" s="4"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -8056,9 +8086,9 @@
       <c r="I117" s="17"/>
       <c r="J117" s="15"/>
       <c r="K117" s="17"/>
-      <c r="L117" s="49"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
+      <c r="L117" s="96"/>
+      <c r="M117" s="47"/>
+      <c r="N117" s="47"/>
       <c r="O117" s="4"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -8796,164 +8826,164 @@
       <c r="BC133" s="8"/>
     </row>
     <row r="134" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F134" s="119" t="s">
+      <c r="F134" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G134" s="119"/>
-      <c r="H134" s="119"/>
-      <c r="I134" s="119"/>
-      <c r="J134" s="119"/>
-      <c r="K134" s="119"/>
-      <c r="L134" s="119"/>
-      <c r="M134" s="119"/>
-      <c r="N134" s="119"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="52"/>
+      <c r="L134" s="52"/>
+      <c r="M134" s="52"/>
+      <c r="N134" s="52"/>
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F135" s="119"/>
-      <c r="G135" s="119"/>
-      <c r="H135" s="119"/>
-      <c r="I135" s="119"/>
-      <c r="J135" s="119"/>
-      <c r="K135" s="119"/>
-      <c r="L135" s="119"/>
-      <c r="M135" s="119"/>
-      <c r="N135" s="119"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="52"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F136" s="50" t="s">
+      <c r="F136" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G136" s="52"/>
-      <c r="H136" s="50" t="s">
+      <c r="G136" s="42"/>
+      <c r="H136" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I136" s="52"/>
-      <c r="J136" s="69" t="s">
+      <c r="I136" s="42"/>
+      <c r="J136" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="K136" s="50" t="s">
+      <c r="K136" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="L136" s="51"/>
-      <c r="M136" s="51"/>
-      <c r="N136" s="52"/>
+      <c r="L136" s="50"/>
+      <c r="M136" s="50"/>
+      <c r="N136" s="42"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="89" t="s">
+      <c r="P136" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q136" s="89"/>
-      <c r="R136" s="87" t="s">
+      <c r="Q136" s="80"/>
+      <c r="R136" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="S136" s="87"/>
-      <c r="T136" s="87" t="s">
+      <c r="S136" s="81"/>
+      <c r="T136" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="87"/>
-      <c r="V136" s="87" t="s">
+      <c r="U136" s="81"/>
+      <c r="V136" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="W136" s="87"/>
-      <c r="X136" s="87" t="s">
+      <c r="W136" s="81"/>
+      <c r="X136" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Y136" s="87"/>
-      <c r="Z136" s="87"/>
-      <c r="AA136" s="87"/>
-      <c r="AB136" s="87" t="s">
+      <c r="Y136" s="81"/>
+      <c r="Z136" s="81"/>
+      <c r="AA136" s="81"/>
+      <c r="AB136" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AC136" s="87"/>
-      <c r="AD136" s="87"/>
-      <c r="AE136" s="87"/>
-      <c r="AF136" s="87"/>
-      <c r="AG136" s="87" t="s">
+      <c r="AC136" s="81"/>
+      <c r="AD136" s="81"/>
+      <c r="AE136" s="81"/>
+      <c r="AF136" s="81"/>
+      <c r="AG136" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="AH136" s="87"/>
-      <c r="AI136" s="87"/>
-      <c r="AJ136" s="87"/>
-      <c r="AK136" s="87"/>
-      <c r="AL136" s="87"/>
-      <c r="AM136" s="87" t="s">
+      <c r="AH136" s="81"/>
+      <c r="AI136" s="81"/>
+      <c r="AJ136" s="81"/>
+      <c r="AK136" s="81"/>
+      <c r="AL136" s="81"/>
+      <c r="AM136" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="AN136" s="87"/>
-      <c r="AO136" s="87" t="s">
+      <c r="AN136" s="81"/>
+      <c r="AO136" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AP136" s="87"/>
-      <c r="AQ136" s="87"/>
-      <c r="AR136" s="87"/>
-      <c r="AS136" s="87"/>
-      <c r="AT136" s="87"/>
-      <c r="AU136" s="87" t="s">
+      <c r="AP136" s="81"/>
+      <c r="AQ136" s="81"/>
+      <c r="AR136" s="81"/>
+      <c r="AS136" s="81"/>
+      <c r="AT136" s="81"/>
+      <c r="AU136" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AV136" s="87"/>
-      <c r="AW136" s="87"/>
-      <c r="AX136" s="87"/>
-      <c r="AY136" s="87"/>
-      <c r="AZ136" s="87"/>
-      <c r="BA136" s="87" t="s">
+      <c r="AV136" s="81"/>
+      <c r="AW136" s="81"/>
+      <c r="AX136" s="81"/>
+      <c r="AY136" s="81"/>
+      <c r="AZ136" s="81"/>
+      <c r="BA136" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="BB136" s="87"/>
-      <c r="BC136" s="87"/>
+      <c r="BB136" s="81"/>
+      <c r="BC136" s="81"/>
     </row>
     <row r="137" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F137" s="53"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="70"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="55"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="98"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="51"/>
+      <c r="M137" s="51"/>
+      <c r="N137" s="46"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="89"/>
-      <c r="Q137" s="89"/>
-      <c r="R137" s="87"/>
-      <c r="S137" s="87"/>
-      <c r="T137" s="87"/>
-      <c r="U137" s="87"/>
-      <c r="V137" s="87"/>
-      <c r="W137" s="87"/>
-      <c r="X137" s="87"/>
-      <c r="Y137" s="87"/>
-      <c r="Z137" s="87"/>
-      <c r="AA137" s="87"/>
-      <c r="AB137" s="87"/>
-      <c r="AC137" s="87"/>
-      <c r="AD137" s="87"/>
-      <c r="AE137" s="87"/>
-      <c r="AF137" s="87"/>
-      <c r="AG137" s="87"/>
-      <c r="AH137" s="87"/>
-      <c r="AI137" s="87"/>
-      <c r="AJ137" s="87"/>
-      <c r="AK137" s="87"/>
-      <c r="AL137" s="87"/>
-      <c r="AM137" s="87"/>
-      <c r="AN137" s="87"/>
-      <c r="AO137" s="87"/>
-      <c r="AP137" s="87"/>
-      <c r="AQ137" s="87"/>
-      <c r="AR137" s="87"/>
-      <c r="AS137" s="87"/>
-      <c r="AT137" s="87"/>
-      <c r="AU137" s="87"/>
-      <c r="AV137" s="87"/>
-      <c r="AW137" s="87"/>
-      <c r="AX137" s="87"/>
-      <c r="AY137" s="87"/>
-      <c r="AZ137" s="87"/>
-      <c r="BA137" s="87"/>
-      <c r="BB137" s="87"/>
-      <c r="BC137" s="87"/>
+      <c r="P137" s="80"/>
+      <c r="Q137" s="80"/>
+      <c r="R137" s="81"/>
+      <c r="S137" s="81"/>
+      <c r="T137" s="81"/>
+      <c r="U137" s="81"/>
+      <c r="V137" s="81"/>
+      <c r="W137" s="81"/>
+      <c r="X137" s="81"/>
+      <c r="Y137" s="81"/>
+      <c r="Z137" s="81"/>
+      <c r="AA137" s="81"/>
+      <c r="AB137" s="81"/>
+      <c r="AC137" s="81"/>
+      <c r="AD137" s="81"/>
+      <c r="AE137" s="81"/>
+      <c r="AF137" s="81"/>
+      <c r="AG137" s="81"/>
+      <c r="AH137" s="81"/>
+      <c r="AI137" s="81"/>
+      <c r="AJ137" s="81"/>
+      <c r="AK137" s="81"/>
+      <c r="AL137" s="81"/>
+      <c r="AM137" s="81"/>
+      <c r="AN137" s="81"/>
+      <c r="AO137" s="81"/>
+      <c r="AP137" s="81"/>
+      <c r="AQ137" s="81"/>
+      <c r="AR137" s="81"/>
+      <c r="AS137" s="81"/>
+      <c r="AT137" s="81"/>
+      <c r="AU137" s="81"/>
+      <c r="AV137" s="81"/>
+      <c r="AW137" s="81"/>
+      <c r="AX137" s="81"/>
+      <c r="AY137" s="81"/>
+      <c r="AZ137" s="81"/>
+      <c r="BA137" s="81"/>
+      <c r="BB137" s="81"/>
+      <c r="BC137" s="81"/>
     </row>
     <row r="138" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9" t="s">
@@ -8964,7 +8994,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="11"/>
-      <c r="J138" s="47" t="s">
+      <c r="J138" s="82" t="s">
         <v>47</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -8974,26 +9004,26 @@
       <c r="M138" s="10"/>
       <c r="N138" s="11"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="64" t="s">
+      <c r="P138" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="64"/>
+      <c r="Q138" s="47"/>
       <c r="R138" s="32" t="s">
         <v>101</v>
       </c>
       <c r="S138" s="34"/>
-      <c r="T138" s="64" t="s">
+      <c r="T138" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="U138" s="64"/>
+      <c r="U138" s="47"/>
       <c r="V138" s="9"/>
       <c r="W138" s="11"/>
-      <c r="X138" s="64" t="s">
+      <c r="X138" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="Y138" s="64"/>
-      <c r="Z138" s="64"/>
-      <c r="AA138" s="64"/>
+      <c r="Y138" s="47"/>
+      <c r="Z138" s="47"/>
+      <c r="AA138" s="47"/>
       <c r="AB138" s="9" t="s">
         <v>96</v>
       </c>
@@ -9007,8 +9037,8 @@
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="11"/>
-      <c r="AM138" s="64"/>
-      <c r="AN138" s="64"/>
+      <c r="AM138" s="47"/>
+      <c r="AN138" s="47"/>
       <c r="AO138" s="9" t="s">
         <v>97</v>
       </c>
@@ -9036,24 +9066,24 @@
       <c r="G139" s="14"/>
       <c r="H139" s="12"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="95"/>
       <c r="K139" s="12"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="64"/>
-      <c r="Q139" s="64"/>
-      <c r="R139" s="90"/>
-      <c r="S139" s="91"/>
-      <c r="T139" s="64"/>
-      <c r="U139" s="64"/>
+      <c r="P139" s="47"/>
+      <c r="Q139" s="47"/>
+      <c r="R139" s="48"/>
+      <c r="S139" s="49"/>
+      <c r="T139" s="47"/>
+      <c r="U139" s="47"/>
       <c r="V139" s="12"/>
       <c r="W139" s="14"/>
-      <c r="X139" s="64"/>
-      <c r="Y139" s="64"/>
-      <c r="Z139" s="64"/>
-      <c r="AA139" s="64"/>
+      <c r="X139" s="47"/>
+      <c r="Y139" s="47"/>
+      <c r="Z139" s="47"/>
+      <c r="AA139" s="47"/>
       <c r="AB139" s="12"/>
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
@@ -9065,8 +9095,8 @@
       <c r="AJ139" s="13"/>
       <c r="AK139" s="13"/>
       <c r="AL139" s="14"/>
-      <c r="AM139" s="64"/>
-      <c r="AN139" s="64"/>
+      <c r="AM139" s="47"/>
+      <c r="AN139" s="47"/>
       <c r="AO139" s="12"/>
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
@@ -9088,24 +9118,24 @@
       <c r="G140" s="14"/>
       <c r="H140" s="12"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="95"/>
       <c r="K140" s="12"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="64"/>
-      <c r="Q140" s="64"/>
-      <c r="R140" s="90"/>
-      <c r="S140" s="91"/>
-      <c r="T140" s="64"/>
-      <c r="U140" s="64"/>
+      <c r="P140" s="47"/>
+      <c r="Q140" s="47"/>
+      <c r="R140" s="48"/>
+      <c r="S140" s="49"/>
+      <c r="T140" s="47"/>
+      <c r="U140" s="47"/>
       <c r="V140" s="12"/>
       <c r="W140" s="14"/>
-      <c r="X140" s="64"/>
-      <c r="Y140" s="64"/>
-      <c r="Z140" s="64"/>
-      <c r="AA140" s="64"/>
+      <c r="X140" s="47"/>
+      <c r="Y140" s="47"/>
+      <c r="Z140" s="47"/>
+      <c r="AA140" s="47"/>
       <c r="AB140" s="12"/>
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
@@ -9117,8 +9147,8 @@
       <c r="AJ140" s="13"/>
       <c r="AK140" s="13"/>
       <c r="AL140" s="14"/>
-      <c r="AM140" s="64"/>
-      <c r="AN140" s="64"/>
+      <c r="AM140" s="47"/>
+      <c r="AN140" s="47"/>
       <c r="AO140" s="12"/>
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
@@ -9140,24 +9170,24 @@
       <c r="G141" s="17"/>
       <c r="H141" s="15"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="49"/>
+      <c r="J141" s="96"/>
       <c r="K141" s="15"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="64"/>
-      <c r="Q141" s="64"/>
-      <c r="R141" s="90"/>
-      <c r="S141" s="91"/>
-      <c r="T141" s="64"/>
-      <c r="U141" s="64"/>
+      <c r="P141" s="47"/>
+      <c r="Q141" s="47"/>
+      <c r="R141" s="48"/>
+      <c r="S141" s="49"/>
+      <c r="T141" s="47"/>
+      <c r="U141" s="47"/>
       <c r="V141" s="12"/>
       <c r="W141" s="14"/>
-      <c r="X141" s="64"/>
-      <c r="Y141" s="64"/>
-      <c r="Z141" s="64"/>
-      <c r="AA141" s="64"/>
+      <c r="X141" s="47"/>
+      <c r="Y141" s="47"/>
+      <c r="Z141" s="47"/>
+      <c r="AA141" s="47"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
@@ -9169,8 +9199,8 @@
       <c r="AJ141" s="13"/>
       <c r="AK141" s="13"/>
       <c r="AL141" s="14"/>
-      <c r="AM141" s="64"/>
-      <c r="AN141" s="64"/>
+      <c r="AM141" s="47"/>
+      <c r="AN141" s="47"/>
       <c r="AO141" s="12"/>
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
@@ -9196,7 +9226,7 @@
         <v>45</v>
       </c>
       <c r="I142" s="11"/>
-      <c r="J142" s="47" t="s">
+      <c r="J142" s="82" t="s">
         <v>48</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -9206,18 +9236,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="11"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="64"/>
-      <c r="Q142" s="64"/>
-      <c r="R142" s="90"/>
-      <c r="S142" s="91"/>
-      <c r="T142" s="64"/>
-      <c r="U142" s="64"/>
+      <c r="P142" s="47"/>
+      <c r="Q142" s="47"/>
+      <c r="R142" s="48"/>
+      <c r="S142" s="49"/>
+      <c r="T142" s="47"/>
+      <c r="U142" s="47"/>
       <c r="V142" s="12"/>
       <c r="W142" s="14"/>
-      <c r="X142" s="64"/>
-      <c r="Y142" s="64"/>
-      <c r="Z142" s="64"/>
-      <c r="AA142" s="64"/>
+      <c r="X142" s="47"/>
+      <c r="Y142" s="47"/>
+      <c r="Z142" s="47"/>
+      <c r="AA142" s="47"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
@@ -9229,8 +9259,8 @@
       <c r="AJ142" s="13"/>
       <c r="AK142" s="13"/>
       <c r="AL142" s="14"/>
-      <c r="AM142" s="64"/>
-      <c r="AN142" s="64"/>
+      <c r="AM142" s="47"/>
+      <c r="AN142" s="47"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
@@ -9252,24 +9282,24 @@
       <c r="G143" s="14"/>
       <c r="H143" s="12"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="95"/>
       <c r="K143" s="12"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="14"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="64"/>
-      <c r="Q143" s="64"/>
-      <c r="R143" s="90"/>
-      <c r="S143" s="91"/>
-      <c r="T143" s="64"/>
-      <c r="U143" s="64"/>
+      <c r="P143" s="47"/>
+      <c r="Q143" s="47"/>
+      <c r="R143" s="48"/>
+      <c r="S143" s="49"/>
+      <c r="T143" s="47"/>
+      <c r="U143" s="47"/>
       <c r="V143" s="12"/>
       <c r="W143" s="14"/>
-      <c r="X143" s="64"/>
-      <c r="Y143" s="64"/>
-      <c r="Z143" s="64"/>
-      <c r="AA143" s="64"/>
+      <c r="X143" s="47"/>
+      <c r="Y143" s="47"/>
+      <c r="Z143" s="47"/>
+      <c r="AA143" s="47"/>
       <c r="AB143" s="12"/>
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
@@ -9281,8 +9311,8 @@
       <c r="AJ143" s="13"/>
       <c r="AK143" s="13"/>
       <c r="AL143" s="14"/>
-      <c r="AM143" s="64"/>
-      <c r="AN143" s="64"/>
+      <c r="AM143" s="47"/>
+      <c r="AN143" s="47"/>
       <c r="AO143" s="12"/>
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
@@ -9304,24 +9334,24 @@
       <c r="G144" s="14"/>
       <c r="H144" s="12"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="95"/>
       <c r="K144" s="12"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="14"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="64"/>
-      <c r="Q144" s="64"/>
-      <c r="R144" s="90"/>
-      <c r="S144" s="91"/>
-      <c r="T144" s="64"/>
-      <c r="U144" s="64"/>
+      <c r="P144" s="47"/>
+      <c r="Q144" s="47"/>
+      <c r="R144" s="48"/>
+      <c r="S144" s="49"/>
+      <c r="T144" s="47"/>
+      <c r="U144" s="47"/>
       <c r="V144" s="12"/>
       <c r="W144" s="14"/>
-      <c r="X144" s="64"/>
-      <c r="Y144" s="64"/>
-      <c r="Z144" s="64"/>
-      <c r="AA144" s="64"/>
+      <c r="X144" s="47"/>
+      <c r="Y144" s="47"/>
+      <c r="Z144" s="47"/>
+      <c r="AA144" s="47"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
@@ -9333,8 +9363,8 @@
       <c r="AJ144" s="13"/>
       <c r="AK144" s="13"/>
       <c r="AL144" s="14"/>
-      <c r="AM144" s="64"/>
-      <c r="AN144" s="64"/>
+      <c r="AM144" s="47"/>
+      <c r="AN144" s="47"/>
       <c r="AO144" s="12"/>
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
@@ -9356,24 +9386,24 @@
       <c r="G145" s="17"/>
       <c r="H145" s="15"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="49"/>
+      <c r="J145" s="96"/>
       <c r="K145" s="15"/>
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="64"/>
-      <c r="Q145" s="64"/>
-      <c r="R145" s="90"/>
-      <c r="S145" s="91"/>
-      <c r="T145" s="64"/>
-      <c r="U145" s="64"/>
+      <c r="P145" s="47"/>
+      <c r="Q145" s="47"/>
+      <c r="R145" s="48"/>
+      <c r="S145" s="49"/>
+      <c r="T145" s="47"/>
+      <c r="U145" s="47"/>
       <c r="V145" s="12"/>
       <c r="W145" s="14"/>
-      <c r="X145" s="64"/>
-      <c r="Y145" s="64"/>
-      <c r="Z145" s="64"/>
-      <c r="AA145" s="64"/>
+      <c r="X145" s="47"/>
+      <c r="Y145" s="47"/>
+      <c r="Z145" s="47"/>
+      <c r="AA145" s="47"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
@@ -9385,8 +9415,8 @@
       <c r="AJ145" s="13"/>
       <c r="AK145" s="13"/>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="64"/>
-      <c r="AN145" s="64"/>
+      <c r="AM145" s="47"/>
+      <c r="AN145" s="47"/>
       <c r="AO145" s="12"/>
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
@@ -9412,28 +9442,28 @@
         <v>46</v>
       </c>
       <c r="I146" s="11"/>
-      <c r="J146" s="47" t="s">
+      <c r="J146" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="K146" s="64" t="s">
+      <c r="K146" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="64"/>
-      <c r="M146" s="64"/>
-      <c r="N146" s="64"/>
+      <c r="L146" s="47"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="47"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="64"/>
-      <c r="Q146" s="64"/>
-      <c r="R146" s="90"/>
-      <c r="S146" s="91"/>
-      <c r="T146" s="64"/>
-      <c r="U146" s="64"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="48"/>
+      <c r="S146" s="49"/>
+      <c r="T146" s="47"/>
+      <c r="U146" s="47"/>
       <c r="V146" s="12"/>
       <c r="W146" s="14"/>
-      <c r="X146" s="64"/>
-      <c r="Y146" s="64"/>
-      <c r="Z146" s="64"/>
-      <c r="AA146" s="64"/>
+      <c r="X146" s="47"/>
+      <c r="Y146" s="47"/>
+      <c r="Z146" s="47"/>
+      <c r="AA146" s="47"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
@@ -9445,8 +9475,8 @@
       <c r="AJ146" s="13"/>
       <c r="AK146" s="13"/>
       <c r="AL146" s="14"/>
-      <c r="AM146" s="64"/>
-      <c r="AN146" s="64"/>
+      <c r="AM146" s="47"/>
+      <c r="AN146" s="47"/>
       <c r="AO146" s="12"/>
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
@@ -9468,24 +9498,24 @@
       <c r="G147" s="14"/>
       <c r="H147" s="12"/>
       <c r="I147" s="14"/>
-      <c r="J147" s="48"/>
-      <c r="K147" s="64"/>
-      <c r="L147" s="64"/>
-      <c r="M147" s="64"/>
-      <c r="N147" s="64"/>
+      <c r="J147" s="95"/>
+      <c r="K147" s="47"/>
+      <c r="L147" s="47"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="64"/>
-      <c r="Q147" s="64"/>
-      <c r="R147" s="90"/>
-      <c r="S147" s="91"/>
-      <c r="T147" s="64"/>
-      <c r="U147" s="64"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="48"/>
+      <c r="S147" s="49"/>
+      <c r="T147" s="47"/>
+      <c r="U147" s="47"/>
       <c r="V147" s="12"/>
       <c r="W147" s="14"/>
-      <c r="X147" s="64"/>
-      <c r="Y147" s="64"/>
-      <c r="Z147" s="64"/>
-      <c r="AA147" s="64"/>
+      <c r="X147" s="47"/>
+      <c r="Y147" s="47"/>
+      <c r="Z147" s="47"/>
+      <c r="AA147" s="47"/>
       <c r="AB147" s="12"/>
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
@@ -9497,8 +9527,8 @@
       <c r="AJ147" s="13"/>
       <c r="AK147" s="13"/>
       <c r="AL147" s="14"/>
-      <c r="AM147" s="64"/>
-      <c r="AN147" s="64"/>
+      <c r="AM147" s="47"/>
+      <c r="AN147" s="47"/>
       <c r="AO147" s="12"/>
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
@@ -9520,24 +9550,24 @@
       <c r="G148" s="14"/>
       <c r="H148" s="12"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="48"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
-      <c r="M148" s="64"/>
-      <c r="N148" s="64"/>
+      <c r="J148" s="95"/>
+      <c r="K148" s="47"/>
+      <c r="L148" s="47"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="64"/>
-      <c r="Q148" s="64"/>
-      <c r="R148" s="90"/>
-      <c r="S148" s="91"/>
-      <c r="T148" s="64"/>
-      <c r="U148" s="64"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="48"/>
+      <c r="S148" s="49"/>
+      <c r="T148" s="47"/>
+      <c r="U148" s="47"/>
       <c r="V148" s="12"/>
       <c r="W148" s="14"/>
-      <c r="X148" s="64"/>
-      <c r="Y148" s="64"/>
-      <c r="Z148" s="64"/>
-      <c r="AA148" s="64"/>
+      <c r="X148" s="47"/>
+      <c r="Y148" s="47"/>
+      <c r="Z148" s="47"/>
+      <c r="AA148" s="47"/>
       <c r="AB148" s="12"/>
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
@@ -9549,8 +9579,8 @@
       <c r="AJ148" s="13"/>
       <c r="AK148" s="13"/>
       <c r="AL148" s="14"/>
-      <c r="AM148" s="64"/>
-      <c r="AN148" s="64"/>
+      <c r="AM148" s="47"/>
+      <c r="AN148" s="47"/>
       <c r="AO148" s="12"/>
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
@@ -9572,24 +9602,24 @@
       <c r="G149" s="17"/>
       <c r="H149" s="15"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="64"/>
-      <c r="L149" s="64"/>
-      <c r="M149" s="64"/>
-      <c r="N149" s="64"/>
+      <c r="J149" s="96"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="47"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="64"/>
-      <c r="Q149" s="64"/>
-      <c r="R149" s="90"/>
-      <c r="S149" s="91"/>
-      <c r="T149" s="64"/>
-      <c r="U149" s="64"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="48"/>
+      <c r="S149" s="49"/>
+      <c r="T149" s="47"/>
+      <c r="U149" s="47"/>
       <c r="V149" s="12"/>
       <c r="W149" s="14"/>
-      <c r="X149" s="64"/>
-      <c r="Y149" s="64"/>
-      <c r="Z149" s="64"/>
-      <c r="AA149" s="64"/>
+      <c r="X149" s="47"/>
+      <c r="Y149" s="47"/>
+      <c r="Z149" s="47"/>
+      <c r="AA149" s="47"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
@@ -9601,8 +9631,8 @@
       <c r="AJ149" s="13"/>
       <c r="AK149" s="13"/>
       <c r="AL149" s="14"/>
-      <c r="AM149" s="64"/>
-      <c r="AN149" s="64"/>
+      <c r="AM149" s="47"/>
+      <c r="AN149" s="47"/>
       <c r="AO149" s="12"/>
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
@@ -9620,18 +9650,18 @@
       <c r="BC149" s="14"/>
     </row>
     <row r="150" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="P150" s="64"/>
-      <c r="Q150" s="64"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
       <c r="R150" s="35"/>
       <c r="S150" s="37"/>
-      <c r="T150" s="64"/>
-      <c r="U150" s="64"/>
+      <c r="T150" s="47"/>
+      <c r="U150" s="47"/>
       <c r="V150" s="15"/>
       <c r="W150" s="17"/>
-      <c r="X150" s="64"/>
-      <c r="Y150" s="64"/>
-      <c r="Z150" s="64"/>
-      <c r="AA150" s="64"/>
+      <c r="X150" s="47"/>
+      <c r="Y150" s="47"/>
+      <c r="Z150" s="47"/>
+      <c r="AA150" s="47"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
@@ -9643,8 +9673,8 @@
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="64"/>
-      <c r="AN150" s="64"/>
+      <c r="AM150" s="47"/>
+      <c r="AN150" s="47"/>
       <c r="AO150" s="15"/>
       <c r="AP150" s="16"/>
       <c r="AQ150" s="16"/>
@@ -9699,14 +9729,14 @@
         <v>106</v>
       </c>
       <c r="AN151" s="11"/>
-      <c r="AO151" s="64" t="s">
+      <c r="AO151" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AP151" s="64"/>
-      <c r="AQ151" s="64"/>
-      <c r="AR151" s="64"/>
-      <c r="AS151" s="64"/>
-      <c r="AT151" s="64"/>
+      <c r="AP151" s="47"/>
+      <c r="AQ151" s="47"/>
+      <c r="AR151" s="47"/>
+      <c r="AS151" s="47"/>
+      <c r="AT151" s="47"/>
       <c r="AU151" s="9"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -9722,8 +9752,8 @@
     <row r="152" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P152" s="12"/>
       <c r="Q152" s="14"/>
-      <c r="R152" s="90"/>
-      <c r="S152" s="91"/>
+      <c r="R152" s="48"/>
+      <c r="S152" s="49"/>
       <c r="T152" s="12"/>
       <c r="U152" s="14"/>
       <c r="V152" s="12"/>
@@ -9745,12 +9775,12 @@
       <c r="AL152" s="14"/>
       <c r="AM152" s="12"/>
       <c r="AN152" s="14"/>
-      <c r="AO152" s="64"/>
-      <c r="AP152" s="64"/>
-      <c r="AQ152" s="64"/>
-      <c r="AR152" s="64"/>
-      <c r="AS152" s="64"/>
-      <c r="AT152" s="64"/>
+      <c r="AO152" s="47"/>
+      <c r="AP152" s="47"/>
+      <c r="AQ152" s="47"/>
+      <c r="AR152" s="47"/>
+      <c r="AS152" s="47"/>
+      <c r="AT152" s="47"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AW152" s="13"/>
@@ -9764,8 +9794,8 @@
     <row r="153" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P153" s="12"/>
       <c r="Q153" s="14"/>
-      <c r="R153" s="90"/>
-      <c r="S153" s="91"/>
+      <c r="R153" s="48"/>
+      <c r="S153" s="49"/>
       <c r="T153" s="12"/>
       <c r="U153" s="14"/>
       <c r="V153" s="12"/>
@@ -9787,12 +9817,12 @@
       <c r="AL153" s="14"/>
       <c r="AM153" s="12"/>
       <c r="AN153" s="14"/>
-      <c r="AO153" s="64"/>
-      <c r="AP153" s="64"/>
-      <c r="AQ153" s="64"/>
-      <c r="AR153" s="64"/>
-      <c r="AS153" s="64"/>
-      <c r="AT153" s="64"/>
+      <c r="AO153" s="47"/>
+      <c r="AP153" s="47"/>
+      <c r="AQ153" s="47"/>
+      <c r="AR153" s="47"/>
+      <c r="AS153" s="47"/>
+      <c r="AT153" s="47"/>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
       <c r="AW153" s="13"/>
@@ -9806,8 +9836,8 @@
     <row r="154" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P154" s="12"/>
       <c r="Q154" s="14"/>
-      <c r="R154" s="90"/>
-      <c r="S154" s="91"/>
+      <c r="R154" s="48"/>
+      <c r="S154" s="49"/>
       <c r="T154" s="12"/>
       <c r="U154" s="14"/>
       <c r="V154" s="12"/>
@@ -9829,12 +9859,12 @@
       <c r="AL154" s="14"/>
       <c r="AM154" s="12"/>
       <c r="AN154" s="14"/>
-      <c r="AO154" s="64"/>
-      <c r="AP154" s="64"/>
-      <c r="AQ154" s="64"/>
-      <c r="AR154" s="64"/>
-      <c r="AS154" s="64"/>
-      <c r="AT154" s="64"/>
+      <c r="AO154" s="47"/>
+      <c r="AP154" s="47"/>
+      <c r="AQ154" s="47"/>
+      <c r="AR154" s="47"/>
+      <c r="AS154" s="47"/>
+      <c r="AT154" s="47"/>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
       <c r="AW154" s="13"/>
@@ -9848,8 +9878,8 @@
     <row r="155" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P155" s="12"/>
       <c r="Q155" s="14"/>
-      <c r="R155" s="90"/>
-      <c r="S155" s="91"/>
+      <c r="R155" s="48"/>
+      <c r="S155" s="49"/>
       <c r="T155" s="12"/>
       <c r="U155" s="14"/>
       <c r="V155" s="12"/>
@@ -9871,12 +9901,12 @@
       <c r="AL155" s="14"/>
       <c r="AM155" s="12"/>
       <c r="AN155" s="14"/>
-      <c r="AO155" s="64"/>
-      <c r="AP155" s="64"/>
-      <c r="AQ155" s="64"/>
-      <c r="AR155" s="64"/>
-      <c r="AS155" s="64"/>
-      <c r="AT155" s="64"/>
+      <c r="AO155" s="47"/>
+      <c r="AP155" s="47"/>
+      <c r="AQ155" s="47"/>
+      <c r="AR155" s="47"/>
+      <c r="AS155" s="47"/>
+      <c r="AT155" s="47"/>
       <c r="AU155" s="12"/>
       <c r="AV155" s="13"/>
       <c r="AW155" s="13"/>
@@ -9890,8 +9920,8 @@
     <row r="156" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P156" s="12"/>
       <c r="Q156" s="14"/>
-      <c r="R156" s="90"/>
-      <c r="S156" s="91"/>
+      <c r="R156" s="48"/>
+      <c r="S156" s="49"/>
       <c r="T156" s="12"/>
       <c r="U156" s="14"/>
       <c r="V156" s="12"/>
@@ -9913,12 +9943,12 @@
       <c r="AL156" s="14"/>
       <c r="AM156" s="12"/>
       <c r="AN156" s="14"/>
-      <c r="AO156" s="64"/>
-      <c r="AP156" s="64"/>
-      <c r="AQ156" s="64"/>
-      <c r="AR156" s="64"/>
-      <c r="AS156" s="64"/>
-      <c r="AT156" s="64"/>
+      <c r="AO156" s="47"/>
+      <c r="AP156" s="47"/>
+      <c r="AQ156" s="47"/>
+      <c r="AR156" s="47"/>
+      <c r="AS156" s="47"/>
+      <c r="AT156" s="47"/>
       <c r="AU156" s="12"/>
       <c r="AV156" s="13"/>
       <c r="AW156" s="13"/>
@@ -9932,8 +9962,8 @@
     <row r="157" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P157" s="12"/>
       <c r="Q157" s="14"/>
-      <c r="R157" s="90"/>
-      <c r="S157" s="91"/>
+      <c r="R157" s="48"/>
+      <c r="S157" s="49"/>
       <c r="T157" s="12"/>
       <c r="U157" s="14"/>
       <c r="V157" s="12"/>
@@ -9955,12 +9985,12 @@
       <c r="AL157" s="14"/>
       <c r="AM157" s="12"/>
       <c r="AN157" s="14"/>
-      <c r="AO157" s="64"/>
-      <c r="AP157" s="64"/>
-      <c r="AQ157" s="64"/>
-      <c r="AR157" s="64"/>
-      <c r="AS157" s="64"/>
-      <c r="AT157" s="64"/>
+      <c r="AO157" s="47"/>
+      <c r="AP157" s="47"/>
+      <c r="AQ157" s="47"/>
+      <c r="AR157" s="47"/>
+      <c r="AS157" s="47"/>
+      <c r="AT157" s="47"/>
       <c r="AU157" s="12"/>
       <c r="AV157" s="13"/>
       <c r="AW157" s="13"/>
@@ -9974,8 +10004,8 @@
     <row r="158" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P158" s="12"/>
       <c r="Q158" s="14"/>
-      <c r="R158" s="90"/>
-      <c r="S158" s="91"/>
+      <c r="R158" s="48"/>
+      <c r="S158" s="49"/>
       <c r="T158" s="12"/>
       <c r="U158" s="14"/>
       <c r="V158" s="12"/>
@@ -9997,12 +10027,12 @@
       <c r="AL158" s="14"/>
       <c r="AM158" s="12"/>
       <c r="AN158" s="14"/>
-      <c r="AO158" s="64"/>
-      <c r="AP158" s="64"/>
-      <c r="AQ158" s="64"/>
-      <c r="AR158" s="64"/>
-      <c r="AS158" s="64"/>
-      <c r="AT158" s="64"/>
+      <c r="AO158" s="47"/>
+      <c r="AP158" s="47"/>
+      <c r="AQ158" s="47"/>
+      <c r="AR158" s="47"/>
+      <c r="AS158" s="47"/>
+      <c r="AT158" s="47"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AW158" s="13"/>
@@ -10016,8 +10046,8 @@
     <row r="159" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P159" s="12"/>
       <c r="Q159" s="14"/>
-      <c r="R159" s="90"/>
-      <c r="S159" s="91"/>
+      <c r="R159" s="48"/>
+      <c r="S159" s="49"/>
       <c r="T159" s="12"/>
       <c r="U159" s="14"/>
       <c r="V159" s="12"/>
@@ -10039,12 +10069,12 @@
       <c r="AL159" s="14"/>
       <c r="AM159" s="12"/>
       <c r="AN159" s="14"/>
-      <c r="AO159" s="64"/>
-      <c r="AP159" s="64"/>
-      <c r="AQ159" s="64"/>
-      <c r="AR159" s="64"/>
-      <c r="AS159" s="64"/>
-      <c r="AT159" s="64"/>
+      <c r="AO159" s="47"/>
+      <c r="AP159" s="47"/>
+      <c r="AQ159" s="47"/>
+      <c r="AR159" s="47"/>
+      <c r="AS159" s="47"/>
+      <c r="AT159" s="47"/>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AW159" s="13"/>
@@ -10058,8 +10088,8 @@
     <row r="160" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P160" s="12"/>
       <c r="Q160" s="14"/>
-      <c r="R160" s="90"/>
-      <c r="S160" s="91"/>
+      <c r="R160" s="48"/>
+      <c r="S160" s="49"/>
       <c r="T160" s="12"/>
       <c r="U160" s="14"/>
       <c r="V160" s="12"/>
@@ -10081,12 +10111,12 @@
       <c r="AL160" s="14"/>
       <c r="AM160" s="12"/>
       <c r="AN160" s="14"/>
-      <c r="AO160" s="64"/>
-      <c r="AP160" s="64"/>
-      <c r="AQ160" s="64"/>
-      <c r="AR160" s="64"/>
-      <c r="AS160" s="64"/>
-      <c r="AT160" s="64"/>
+      <c r="AO160" s="47"/>
+      <c r="AP160" s="47"/>
+      <c r="AQ160" s="47"/>
+      <c r="AR160" s="47"/>
+      <c r="AS160" s="47"/>
+      <c r="AT160" s="47"/>
       <c r="AU160" s="12"/>
       <c r="AV160" s="13"/>
       <c r="AW160" s="13"/>
@@ -10100,8 +10130,8 @@
     <row r="161" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P161" s="12"/>
       <c r="Q161" s="14"/>
-      <c r="R161" s="90"/>
-      <c r="S161" s="91"/>
+      <c r="R161" s="48"/>
+      <c r="S161" s="49"/>
       <c r="T161" s="12"/>
       <c r="U161" s="14"/>
       <c r="V161" s="12"/>
@@ -10123,12 +10153,12 @@
       <c r="AL161" s="14"/>
       <c r="AM161" s="12"/>
       <c r="AN161" s="14"/>
-      <c r="AO161" s="64"/>
-      <c r="AP161" s="64"/>
-      <c r="AQ161" s="64"/>
-      <c r="AR161" s="64"/>
-      <c r="AS161" s="64"/>
-      <c r="AT161" s="64"/>
+      <c r="AO161" s="47"/>
+      <c r="AP161" s="47"/>
+      <c r="AQ161" s="47"/>
+      <c r="AR161" s="47"/>
+      <c r="AS161" s="47"/>
+      <c r="AT161" s="47"/>
       <c r="AU161" s="12"/>
       <c r="AV161" s="13"/>
       <c r="AW161" s="13"/>
@@ -10142,8 +10172,8 @@
     <row r="162" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P162" s="12"/>
       <c r="Q162" s="14"/>
-      <c r="R162" s="90"/>
-      <c r="S162" s="91"/>
+      <c r="R162" s="48"/>
+      <c r="S162" s="49"/>
       <c r="T162" s="12"/>
       <c r="U162" s="14"/>
       <c r="V162" s="12"/>
@@ -10165,12 +10195,12 @@
       <c r="AL162" s="14"/>
       <c r="AM162" s="12"/>
       <c r="AN162" s="14"/>
-      <c r="AO162" s="64"/>
-      <c r="AP162" s="64"/>
-      <c r="AQ162" s="64"/>
-      <c r="AR162" s="64"/>
-      <c r="AS162" s="64"/>
-      <c r="AT162" s="64"/>
+      <c r="AO162" s="47"/>
+      <c r="AP162" s="47"/>
+      <c r="AQ162" s="47"/>
+      <c r="AR162" s="47"/>
+      <c r="AS162" s="47"/>
+      <c r="AT162" s="47"/>
       <c r="AU162" s="12"/>
       <c r="AV162" s="13"/>
       <c r="AW162" s="13"/>
@@ -10184,8 +10214,8 @@
     <row r="163" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P163" s="12"/>
       <c r="Q163" s="14"/>
-      <c r="R163" s="90"/>
-      <c r="S163" s="91"/>
+      <c r="R163" s="48"/>
+      <c r="S163" s="49"/>
       <c r="T163" s="12"/>
       <c r="U163" s="14"/>
       <c r="V163" s="12"/>
@@ -10207,12 +10237,12 @@
       <c r="AL163" s="14"/>
       <c r="AM163" s="12"/>
       <c r="AN163" s="14"/>
-      <c r="AO163" s="64"/>
-      <c r="AP163" s="64"/>
-      <c r="AQ163" s="64"/>
-      <c r="AR163" s="64"/>
-      <c r="AS163" s="64"/>
-      <c r="AT163" s="64"/>
+      <c r="AO163" s="47"/>
+      <c r="AP163" s="47"/>
+      <c r="AQ163" s="47"/>
+      <c r="AR163" s="47"/>
+      <c r="AS163" s="47"/>
+      <c r="AT163" s="47"/>
       <c r="AU163" s="12"/>
       <c r="AV163" s="13"/>
       <c r="AW163" s="13"/>
@@ -10226,8 +10256,8 @@
     <row r="164" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P164" s="12"/>
       <c r="Q164" s="14"/>
-      <c r="R164" s="90"/>
-      <c r="S164" s="91"/>
+      <c r="R164" s="48"/>
+      <c r="S164" s="49"/>
       <c r="T164" s="12"/>
       <c r="U164" s="14"/>
       <c r="V164" s="12"/>
@@ -10249,12 +10279,12 @@
       <c r="AL164" s="14"/>
       <c r="AM164" s="12"/>
       <c r="AN164" s="14"/>
-      <c r="AO164" s="64"/>
-      <c r="AP164" s="64"/>
-      <c r="AQ164" s="64"/>
-      <c r="AR164" s="64"/>
-      <c r="AS164" s="64"/>
-      <c r="AT164" s="64"/>
+      <c r="AO164" s="47"/>
+      <c r="AP164" s="47"/>
+      <c r="AQ164" s="47"/>
+      <c r="AR164" s="47"/>
+      <c r="AS164" s="47"/>
+      <c r="AT164" s="47"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
       <c r="AW164" s="13"/>
@@ -10268,8 +10298,8 @@
     <row r="165" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P165" s="12"/>
       <c r="Q165" s="14"/>
-      <c r="R165" s="90"/>
-      <c r="S165" s="91"/>
+      <c r="R165" s="48"/>
+      <c r="S165" s="49"/>
       <c r="T165" s="12"/>
       <c r="U165" s="14"/>
       <c r="V165" s="12"/>
@@ -10291,12 +10321,12 @@
       <c r="AL165" s="14"/>
       <c r="AM165" s="12"/>
       <c r="AN165" s="14"/>
-      <c r="AO165" s="64"/>
-      <c r="AP165" s="64"/>
-      <c r="AQ165" s="64"/>
-      <c r="AR165" s="64"/>
-      <c r="AS165" s="64"/>
-      <c r="AT165" s="64"/>
+      <c r="AO165" s="47"/>
+      <c r="AP165" s="47"/>
+      <c r="AQ165" s="47"/>
+      <c r="AR165" s="47"/>
+      <c r="AS165" s="47"/>
+      <c r="AT165" s="47"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
       <c r="AW165" s="13"/>
@@ -10310,8 +10340,8 @@
     <row r="166" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P166" s="12"/>
       <c r="Q166" s="14"/>
-      <c r="R166" s="90"/>
-      <c r="S166" s="91"/>
+      <c r="R166" s="48"/>
+      <c r="S166" s="49"/>
       <c r="T166" s="12"/>
       <c r="U166" s="14"/>
       <c r="V166" s="12"/>
@@ -10333,12 +10363,12 @@
       <c r="AL166" s="14"/>
       <c r="AM166" s="12"/>
       <c r="AN166" s="14"/>
-      <c r="AO166" s="64"/>
-      <c r="AP166" s="64"/>
-      <c r="AQ166" s="64"/>
-      <c r="AR166" s="64"/>
-      <c r="AS166" s="64"/>
-      <c r="AT166" s="64"/>
+      <c r="AO166" s="47"/>
+      <c r="AP166" s="47"/>
+      <c r="AQ166" s="47"/>
+      <c r="AR166" s="47"/>
+      <c r="AS166" s="47"/>
+      <c r="AT166" s="47"/>
       <c r="AU166" s="12"/>
       <c r="AV166" s="13"/>
       <c r="AW166" s="13"/>
@@ -10352,8 +10382,8 @@
     <row r="167" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P167" s="12"/>
       <c r="Q167" s="14"/>
-      <c r="R167" s="90"/>
-      <c r="S167" s="91"/>
+      <c r="R167" s="48"/>
+      <c r="S167" s="49"/>
       <c r="T167" s="15"/>
       <c r="U167" s="17"/>
       <c r="V167" s="15"/>
@@ -10375,12 +10405,12 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="15"/>
       <c r="AN167" s="17"/>
-      <c r="AO167" s="64"/>
-      <c r="AP167" s="64"/>
-      <c r="AQ167" s="64"/>
-      <c r="AR167" s="64"/>
-      <c r="AS167" s="64"/>
-      <c r="AT167" s="64"/>
+      <c r="AO167" s="47"/>
+      <c r="AP167" s="47"/>
+      <c r="AQ167" s="47"/>
+      <c r="AR167" s="47"/>
+      <c r="AS167" s="47"/>
+      <c r="AT167" s="47"/>
       <c r="AU167" s="15"/>
       <c r="AV167" s="16"/>
       <c r="AW167" s="16"/>
@@ -10477,70 +10507,188 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="L102:L105"/>
-    <mergeCell ref="M102:N105"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="AG138:AL150"/>
-    <mergeCell ref="AM138:AN150"/>
-    <mergeCell ref="R151:S167"/>
-    <mergeCell ref="P151:Q167"/>
-    <mergeCell ref="T151:U167"/>
-    <mergeCell ref="V151:W167"/>
-    <mergeCell ref="X151:AA167"/>
-    <mergeCell ref="AB151:AF167"/>
-    <mergeCell ref="AG151:AL167"/>
-    <mergeCell ref="AM151:AN167"/>
-    <mergeCell ref="F138:G141"/>
-    <mergeCell ref="F142:G145"/>
-    <mergeCell ref="F146:G149"/>
-    <mergeCell ref="F136:G137"/>
-    <mergeCell ref="K136:N137"/>
-    <mergeCell ref="F134:N135"/>
-    <mergeCell ref="K138:N141"/>
-    <mergeCell ref="K142:N145"/>
-    <mergeCell ref="K146:N149"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="G2:G13"/>
-    <mergeCell ref="H2:H13"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J2:X13"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="J58:K61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:N61"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="X47:AA57"/>
-    <mergeCell ref="V47:W57"/>
-    <mergeCell ref="T47:U57"/>
-    <mergeCell ref="R47:S57"/>
-    <mergeCell ref="P47:Q57"/>
-    <mergeCell ref="M24:N41"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="F20:I21"/>
-    <mergeCell ref="AU151:AZ167"/>
-    <mergeCell ref="BA151:BC167"/>
-    <mergeCell ref="AO151:AT167"/>
-    <mergeCell ref="T138:U150"/>
-    <mergeCell ref="P136:Q137"/>
-    <mergeCell ref="R136:S137"/>
-    <mergeCell ref="T136:U137"/>
-    <mergeCell ref="V136:W137"/>
-    <mergeCell ref="X136:AA137"/>
-    <mergeCell ref="AB136:AF137"/>
-    <mergeCell ref="AG136:AL137"/>
-    <mergeCell ref="AM136:AN137"/>
-    <mergeCell ref="R138:S150"/>
-    <mergeCell ref="P138:Q150"/>
-    <mergeCell ref="AO136:AT137"/>
-    <mergeCell ref="AU136:AZ137"/>
-    <mergeCell ref="BA136:BC137"/>
-    <mergeCell ref="AB138:AF150"/>
-    <mergeCell ref="AO138:AT150"/>
-    <mergeCell ref="AU138:AZ150"/>
-    <mergeCell ref="BA138:BC150"/>
-    <mergeCell ref="X138:AA150"/>
-    <mergeCell ref="V138:W150"/>
+    <mergeCell ref="B62:E67"/>
+    <mergeCell ref="B68:E77"/>
+    <mergeCell ref="B78:E87"/>
+    <mergeCell ref="F42:G53"/>
+    <mergeCell ref="H42:I53"/>
+    <mergeCell ref="J42:K53"/>
+    <mergeCell ref="L42:L53"/>
+    <mergeCell ref="M42:N53"/>
+    <mergeCell ref="B60:E61"/>
+    <mergeCell ref="M78:N87"/>
+    <mergeCell ref="F78:G87"/>
+    <mergeCell ref="H78:I87"/>
+    <mergeCell ref="J78:K87"/>
+    <mergeCell ref="L78:L87"/>
+    <mergeCell ref="F68:G77"/>
+    <mergeCell ref="H68:I77"/>
+    <mergeCell ref="J68:K77"/>
+    <mergeCell ref="L68:L77"/>
+    <mergeCell ref="F62:G67"/>
+    <mergeCell ref="M68:N77"/>
+    <mergeCell ref="M62:N67"/>
+    <mergeCell ref="L62:L67"/>
+    <mergeCell ref="J62:K67"/>
+    <mergeCell ref="H62:I67"/>
+    <mergeCell ref="B24:E32"/>
+    <mergeCell ref="B33:E41"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B42:E53"/>
+    <mergeCell ref="BA33:BC41"/>
+    <mergeCell ref="P42:Q46"/>
+    <mergeCell ref="R42:S46"/>
+    <mergeCell ref="T42:U46"/>
+    <mergeCell ref="V42:W46"/>
+    <mergeCell ref="X42:AA46"/>
+    <mergeCell ref="AB42:AF46"/>
+    <mergeCell ref="AG42:AL46"/>
+    <mergeCell ref="AM42:AN46"/>
+    <mergeCell ref="AO42:AT46"/>
+    <mergeCell ref="AU42:AZ46"/>
+    <mergeCell ref="BA42:BC46"/>
+    <mergeCell ref="AB33:AF41"/>
+    <mergeCell ref="AG33:AL41"/>
+    <mergeCell ref="AM33:AN41"/>
+    <mergeCell ref="AO33:AT41"/>
+    <mergeCell ref="AU33:AZ41"/>
+    <mergeCell ref="P33:Q41"/>
+    <mergeCell ref="R33:S41"/>
+    <mergeCell ref="T33:U41"/>
+    <mergeCell ref="X33:AA41"/>
+    <mergeCell ref="AU22:AZ23"/>
+    <mergeCell ref="BA22:BC23"/>
+    <mergeCell ref="X24:AA32"/>
+    <mergeCell ref="AB24:AF32"/>
+    <mergeCell ref="AG24:AL32"/>
+    <mergeCell ref="AM24:AN32"/>
+    <mergeCell ref="AO24:AT32"/>
+    <mergeCell ref="AU24:AZ32"/>
+    <mergeCell ref="BA24:BC32"/>
+    <mergeCell ref="X22:AA23"/>
+    <mergeCell ref="AB22:AF23"/>
+    <mergeCell ref="AG22:AL23"/>
+    <mergeCell ref="AM22:AN23"/>
+    <mergeCell ref="AO22:AT23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="P24:Q32"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="R24:S32"/>
+    <mergeCell ref="T24:U32"/>
+    <mergeCell ref="V24:W32"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="V33:W41"/>
+    <mergeCell ref="P62:Q67"/>
+    <mergeCell ref="P68:Q77"/>
+    <mergeCell ref="P78:Q87"/>
+    <mergeCell ref="P88:Q97"/>
+    <mergeCell ref="BA60:BC61"/>
+    <mergeCell ref="BA62:BC67"/>
+    <mergeCell ref="BA68:BC77"/>
+    <mergeCell ref="BA78:BC87"/>
+    <mergeCell ref="BA88:BC97"/>
+    <mergeCell ref="AB60:AF61"/>
+    <mergeCell ref="AG60:AL61"/>
+    <mergeCell ref="AM60:AN61"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:AZ61"/>
+    <mergeCell ref="R60:S61"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:W61"/>
+    <mergeCell ref="X60:AA61"/>
+    <mergeCell ref="AM78:AN87"/>
+    <mergeCell ref="AO78:AT87"/>
+    <mergeCell ref="AU78:AZ87"/>
+    <mergeCell ref="R62:S67"/>
+    <mergeCell ref="T62:U67"/>
+    <mergeCell ref="V62:W67"/>
+    <mergeCell ref="X62:AA67"/>
+    <mergeCell ref="AB62:AF67"/>
+    <mergeCell ref="AG62:AL67"/>
+    <mergeCell ref="AM62:AN67"/>
+    <mergeCell ref="AO62:AT67"/>
+    <mergeCell ref="AU62:AZ67"/>
+    <mergeCell ref="R78:S87"/>
+    <mergeCell ref="T78:U87"/>
+    <mergeCell ref="V78:W87"/>
+    <mergeCell ref="X78:AA87"/>
+    <mergeCell ref="T88:U97"/>
+    <mergeCell ref="V88:W97"/>
+    <mergeCell ref="X88:AA97"/>
+    <mergeCell ref="AM68:AN77"/>
+    <mergeCell ref="AO68:AT77"/>
+    <mergeCell ref="R68:S77"/>
+    <mergeCell ref="T68:U77"/>
+    <mergeCell ref="V68:W77"/>
+    <mergeCell ref="X68:AA77"/>
+    <mergeCell ref="AM88:AN97"/>
+    <mergeCell ref="AO88:AT97"/>
+    <mergeCell ref="AB68:AF77"/>
+    <mergeCell ref="AB88:AF97"/>
+    <mergeCell ref="AG88:AL97"/>
+    <mergeCell ref="AG68:AL77"/>
+    <mergeCell ref="AB78:AF87"/>
+    <mergeCell ref="AG78:AL87"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="H136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="H138:I141"/>
+    <mergeCell ref="H142:I145"/>
+    <mergeCell ref="H146:I149"/>
+    <mergeCell ref="R88:S97"/>
+    <mergeCell ref="M106:N117"/>
+    <mergeCell ref="F100:N101"/>
+    <mergeCell ref="F112:G117"/>
+    <mergeCell ref="H112:I117"/>
+    <mergeCell ref="F106:G111"/>
+    <mergeCell ref="H106:I111"/>
+    <mergeCell ref="J112:K117"/>
+    <mergeCell ref="J106:K111"/>
+    <mergeCell ref="L112:L117"/>
+    <mergeCell ref="L106:L111"/>
+    <mergeCell ref="H104:I105"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="R100:S101"/>
+    <mergeCell ref="F102:I103"/>
+    <mergeCell ref="J102:K105"/>
+    <mergeCell ref="F24:G32"/>
+    <mergeCell ref="F33:G41"/>
+    <mergeCell ref="H24:I32"/>
+    <mergeCell ref="J24:K32"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H33:I41"/>
+    <mergeCell ref="J33:K41"/>
+    <mergeCell ref="L24:L32"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="BA100:BC101"/>
+    <mergeCell ref="AG47:AL57"/>
+    <mergeCell ref="AM47:AN57"/>
+    <mergeCell ref="AO47:AT57"/>
+    <mergeCell ref="AU47:AZ57"/>
+    <mergeCell ref="BA47:BC57"/>
+    <mergeCell ref="AB47:AF57"/>
+    <mergeCell ref="AU68:AZ77"/>
+    <mergeCell ref="AU88:AZ97"/>
+    <mergeCell ref="AO100:AT101"/>
+    <mergeCell ref="T100:U101"/>
+    <mergeCell ref="V100:W101"/>
+    <mergeCell ref="X100:AA101"/>
+    <mergeCell ref="AB100:AF101"/>
+    <mergeCell ref="AG100:AL101"/>
+    <mergeCell ref="AM100:AN101"/>
+    <mergeCell ref="AU121:AZ130"/>
+    <mergeCell ref="R121:S130"/>
+    <mergeCell ref="T121:U130"/>
+    <mergeCell ref="V121:W130"/>
+    <mergeCell ref="X121:AA130"/>
+    <mergeCell ref="AB121:AF130"/>
+    <mergeCell ref="AG121:AL130"/>
+    <mergeCell ref="AM121:AN130"/>
+    <mergeCell ref="AO121:AT130"/>
+    <mergeCell ref="AU100:AZ101"/>
     <mergeCell ref="BA121:BC130"/>
     <mergeCell ref="V102:W110"/>
     <mergeCell ref="T102:U110"/>
@@ -10565,195 +10713,77 @@
     <mergeCell ref="AB102:AF110"/>
     <mergeCell ref="X102:AA110"/>
     <mergeCell ref="P121:Q130"/>
-    <mergeCell ref="T100:U101"/>
-    <mergeCell ref="V100:W101"/>
-    <mergeCell ref="X100:AA101"/>
-    <mergeCell ref="AB100:AF101"/>
-    <mergeCell ref="AG100:AL101"/>
-    <mergeCell ref="AM100:AN101"/>
-    <mergeCell ref="AU121:AZ130"/>
-    <mergeCell ref="R121:S130"/>
-    <mergeCell ref="T121:U130"/>
-    <mergeCell ref="V121:W130"/>
-    <mergeCell ref="X121:AA130"/>
-    <mergeCell ref="AB121:AF130"/>
-    <mergeCell ref="AG121:AL130"/>
-    <mergeCell ref="AM121:AN130"/>
-    <mergeCell ref="AO121:AT130"/>
-    <mergeCell ref="AU100:AZ101"/>
-    <mergeCell ref="BA100:BC101"/>
-    <mergeCell ref="AG47:AL57"/>
-    <mergeCell ref="AM47:AN57"/>
-    <mergeCell ref="AO47:AT57"/>
-    <mergeCell ref="AU47:AZ57"/>
-    <mergeCell ref="BA47:BC57"/>
-    <mergeCell ref="AB47:AF57"/>
-    <mergeCell ref="AU68:AZ77"/>
-    <mergeCell ref="AU88:AZ97"/>
-    <mergeCell ref="AO100:AT101"/>
+    <mergeCell ref="AU151:AZ167"/>
+    <mergeCell ref="BA151:BC167"/>
+    <mergeCell ref="AO151:AT167"/>
+    <mergeCell ref="T138:U150"/>
+    <mergeCell ref="P136:Q137"/>
+    <mergeCell ref="R136:S137"/>
+    <mergeCell ref="T136:U137"/>
+    <mergeCell ref="V136:W137"/>
+    <mergeCell ref="X136:AA137"/>
+    <mergeCell ref="AB136:AF137"/>
+    <mergeCell ref="AG136:AL137"/>
+    <mergeCell ref="AM136:AN137"/>
+    <mergeCell ref="R138:S150"/>
+    <mergeCell ref="P138:Q150"/>
+    <mergeCell ref="AO136:AT137"/>
+    <mergeCell ref="AU136:AZ137"/>
+    <mergeCell ref="BA136:BC137"/>
+    <mergeCell ref="AB138:AF150"/>
+    <mergeCell ref="AO138:AT150"/>
+    <mergeCell ref="AU138:AZ150"/>
+    <mergeCell ref="BA138:BC150"/>
+    <mergeCell ref="X138:AA150"/>
+    <mergeCell ref="V138:W150"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="G2:G13"/>
+    <mergeCell ref="H2:H13"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J2:X13"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="J58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:N61"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="X47:AA57"/>
+    <mergeCell ref="V47:W57"/>
+    <mergeCell ref="T47:U57"/>
+    <mergeCell ref="R47:S57"/>
+    <mergeCell ref="P47:Q57"/>
+    <mergeCell ref="M24:N41"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="F20:I21"/>
     <mergeCell ref="J20:K23"/>
     <mergeCell ref="L20:L23"/>
     <mergeCell ref="F16:N17"/>
     <mergeCell ref="F18:N19"/>
     <mergeCell ref="M20:N23"/>
-    <mergeCell ref="F24:G32"/>
-    <mergeCell ref="F33:G41"/>
-    <mergeCell ref="H24:I32"/>
-    <mergeCell ref="J24:K32"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H33:I41"/>
-    <mergeCell ref="J33:K41"/>
-    <mergeCell ref="L24:L32"/>
-    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="M102:N105"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="AG138:AL150"/>
+    <mergeCell ref="AM138:AN150"/>
+    <mergeCell ref="R151:S167"/>
+    <mergeCell ref="P151:Q167"/>
+    <mergeCell ref="T151:U167"/>
+    <mergeCell ref="V151:W167"/>
+    <mergeCell ref="X151:AA167"/>
+    <mergeCell ref="AB151:AF167"/>
+    <mergeCell ref="AG151:AL167"/>
+    <mergeCell ref="AM151:AN167"/>
+    <mergeCell ref="F138:G141"/>
+    <mergeCell ref="F142:G145"/>
+    <mergeCell ref="F146:G149"/>
+    <mergeCell ref="F136:G137"/>
+    <mergeCell ref="K136:N137"/>
+    <mergeCell ref="F134:N135"/>
+    <mergeCell ref="K138:N141"/>
+    <mergeCell ref="K142:N145"/>
+    <mergeCell ref="K146:N149"/>
     <mergeCell ref="J138:J141"/>
     <mergeCell ref="J142:J145"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="H136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="H138:I141"/>
-    <mergeCell ref="H142:I145"/>
-    <mergeCell ref="H146:I149"/>
-    <mergeCell ref="R88:S97"/>
-    <mergeCell ref="M106:N117"/>
-    <mergeCell ref="F100:N101"/>
-    <mergeCell ref="F112:G117"/>
-    <mergeCell ref="H112:I117"/>
-    <mergeCell ref="F106:G111"/>
-    <mergeCell ref="H106:I111"/>
-    <mergeCell ref="J112:K117"/>
-    <mergeCell ref="J106:K111"/>
-    <mergeCell ref="L112:L117"/>
-    <mergeCell ref="L106:L111"/>
-    <mergeCell ref="H104:I105"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="R100:S101"/>
-    <mergeCell ref="F102:I103"/>
-    <mergeCell ref="J102:K105"/>
-    <mergeCell ref="T88:U97"/>
-    <mergeCell ref="V88:W97"/>
-    <mergeCell ref="X88:AA97"/>
-    <mergeCell ref="AM68:AN77"/>
-    <mergeCell ref="AO68:AT77"/>
-    <mergeCell ref="R68:S77"/>
-    <mergeCell ref="T68:U77"/>
-    <mergeCell ref="V68:W77"/>
-    <mergeCell ref="X68:AA77"/>
-    <mergeCell ref="AM88:AN97"/>
-    <mergeCell ref="AO88:AT97"/>
-    <mergeCell ref="AB68:AF77"/>
-    <mergeCell ref="AB88:AF97"/>
-    <mergeCell ref="AG88:AL97"/>
-    <mergeCell ref="AG68:AL77"/>
-    <mergeCell ref="AB78:AF87"/>
-    <mergeCell ref="AG78:AL87"/>
-    <mergeCell ref="X62:AA67"/>
-    <mergeCell ref="AB62:AF67"/>
-    <mergeCell ref="AG62:AL67"/>
-    <mergeCell ref="AM62:AN67"/>
-    <mergeCell ref="AO62:AT67"/>
-    <mergeCell ref="AU62:AZ67"/>
-    <mergeCell ref="R78:S87"/>
-    <mergeCell ref="T78:U87"/>
-    <mergeCell ref="V78:W87"/>
-    <mergeCell ref="X78:AA87"/>
-    <mergeCell ref="P62:Q67"/>
-    <mergeCell ref="P68:Q77"/>
-    <mergeCell ref="P78:Q87"/>
-    <mergeCell ref="P88:Q97"/>
-    <mergeCell ref="BA60:BC61"/>
-    <mergeCell ref="BA62:BC67"/>
-    <mergeCell ref="BA68:BC77"/>
-    <mergeCell ref="BA78:BC87"/>
-    <mergeCell ref="BA88:BC97"/>
-    <mergeCell ref="AB60:AF61"/>
-    <mergeCell ref="AG60:AL61"/>
-    <mergeCell ref="AM60:AN61"/>
-    <mergeCell ref="AO60:AT61"/>
-    <mergeCell ref="AU60:AZ61"/>
-    <mergeCell ref="R60:S61"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:W61"/>
-    <mergeCell ref="X60:AA61"/>
-    <mergeCell ref="AM78:AN87"/>
-    <mergeCell ref="AO78:AT87"/>
-    <mergeCell ref="AU78:AZ87"/>
-    <mergeCell ref="R62:S67"/>
-    <mergeCell ref="T62:U67"/>
-    <mergeCell ref="V62:W67"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="P24:Q32"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="R24:S32"/>
-    <mergeCell ref="T24:U32"/>
-    <mergeCell ref="V24:W32"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="V33:W41"/>
-    <mergeCell ref="X33:AA41"/>
-    <mergeCell ref="AU22:AZ23"/>
-    <mergeCell ref="BA22:BC23"/>
-    <mergeCell ref="X24:AA32"/>
-    <mergeCell ref="AB24:AF32"/>
-    <mergeCell ref="AG24:AL32"/>
-    <mergeCell ref="AM24:AN32"/>
-    <mergeCell ref="AO24:AT32"/>
-    <mergeCell ref="AU24:AZ32"/>
-    <mergeCell ref="BA24:BC32"/>
-    <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="AB22:AF23"/>
-    <mergeCell ref="AG22:AL23"/>
-    <mergeCell ref="AM22:AN23"/>
-    <mergeCell ref="AO22:AT23"/>
-    <mergeCell ref="B24:E32"/>
-    <mergeCell ref="B33:E41"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B42:E53"/>
-    <mergeCell ref="BA33:BC41"/>
-    <mergeCell ref="P42:Q46"/>
-    <mergeCell ref="R42:S46"/>
-    <mergeCell ref="T42:U46"/>
-    <mergeCell ref="V42:W46"/>
-    <mergeCell ref="X42:AA46"/>
-    <mergeCell ref="AB42:AF46"/>
-    <mergeCell ref="AG42:AL46"/>
-    <mergeCell ref="AM42:AN46"/>
-    <mergeCell ref="AO42:AT46"/>
-    <mergeCell ref="AU42:AZ46"/>
-    <mergeCell ref="BA42:BC46"/>
-    <mergeCell ref="AB33:AF41"/>
-    <mergeCell ref="AG33:AL41"/>
-    <mergeCell ref="AM33:AN41"/>
-    <mergeCell ref="AO33:AT41"/>
-    <mergeCell ref="AU33:AZ41"/>
-    <mergeCell ref="P33:Q41"/>
-    <mergeCell ref="R33:S41"/>
-    <mergeCell ref="T33:U41"/>
-    <mergeCell ref="B62:E67"/>
-    <mergeCell ref="B68:E77"/>
-    <mergeCell ref="B78:E87"/>
-    <mergeCell ref="F42:G53"/>
-    <mergeCell ref="H42:I53"/>
-    <mergeCell ref="J42:K53"/>
-    <mergeCell ref="L42:L53"/>
-    <mergeCell ref="M42:N53"/>
-    <mergeCell ref="B60:E61"/>
-    <mergeCell ref="M78:N87"/>
-    <mergeCell ref="F78:G87"/>
-    <mergeCell ref="H78:I87"/>
-    <mergeCell ref="J78:K87"/>
-    <mergeCell ref="L78:L87"/>
-    <mergeCell ref="F68:G77"/>
-    <mergeCell ref="H68:I77"/>
-    <mergeCell ref="J68:K77"/>
-    <mergeCell ref="L68:L77"/>
-    <mergeCell ref="F62:G67"/>
-    <mergeCell ref="M68:N77"/>
-    <mergeCell ref="M62:N67"/>
-    <mergeCell ref="L62:L67"/>
-    <mergeCell ref="J62:K67"/>
-    <mergeCell ref="H62:I67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:S32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\proyecto\Matriz Cacao, Cafe y Arroz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\proyecto\Matriz Cacao, Cafe y Arroz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D0894-7D09-4F20-AF70-90652B520F1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,22 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="160">
   <si>
     <r>
       <rPr>
@@ -750,11 +756,17 @@
 asperjarla, procurando cubrir total y uniformemente el follaje para
 asegurar un mejor control</t>
   </si>
+  <si>
+    <t>De contacto, no selectivo ni volátil con acción desecante. Al contacto quema severamente los tejidos verdes.                                                                                                                                                                                              BORRATOR® se emplea en aspersión foliar. Para su aplicación pueden emplearse equipos de aspersión manuales o montados sobre el tractor. Para la preparación de la mezcla, llene el cilindro o tanque de aplicación con agua limpia hasta la mitad y luego agregue el producto revolviendo constantemente. Complete luego hasta el volumen deseado.</t>
+  </si>
+  <si>
+    <t>Procurar no tener humedad baja del suelo, aplicar un buen manejo de fertilizantes, eviatr "desombrados" fuertes en el verano.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1089,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1200,6 +1212,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,244 +1404,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1526,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1587,7 @@
         <xdr:cNvPr id="3" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1648,7 @@
         <xdr:cNvPr id="4" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1709,7 @@
         <xdr:cNvPr id="9" name="8 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1753,7 @@
         <xdr:cNvPr id="11" name="10 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1803,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2349,510 +2388,510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="65" t="str">
+      <c r="J2" s="90" t="str">
         <f>[1]Hoja1!$B$6</f>
         <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
 Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país
 El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector
 </v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
     </row>
     <row r="3" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="54"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="95"/>
     </row>
     <row r="4" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="54"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="70"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="95"/>
     </row>
     <row r="5" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="54"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="70"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
     </row>
     <row r="6" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="54"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="70"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="95"/>
     </row>
     <row r="7" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="54"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="70"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="95"/>
     </row>
     <row r="8" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="54"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="95"/>
     </row>
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="54"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="70"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="95"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F10" s="54"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="70"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="95"/>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="54"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="70"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="95"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="54"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="70"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="95"/>
     </row>
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="55"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="73"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="98"/>
     </row>
     <row r="16" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="110"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F17" s="86"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="91"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="94"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="41" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="38" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="42"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F21" s="45"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="67"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="41" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41" t="s">
+      <c r="G22" s="52"/>
+      <c r="H22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="67"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="103" t="s">
+      <c r="P22" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="41" t="s">
+      <c r="Q22" s="58"/>
+      <c r="R22" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="41" t="s">
+      <c r="S22" s="52"/>
+      <c r="T22" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="U22" s="42"/>
-      <c r="V22" s="41" t="s">
+      <c r="U22" s="52"/>
+      <c r="V22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="42"/>
-      <c r="X22" s="41" t="s">
+      <c r="W22" s="52"/>
+      <c r="X22" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="41" t="s">
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="41" t="s">
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="41" t="s">
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="41" t="s">
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="41" t="s">
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="41" t="s">
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="52"/>
+      <c r="BA22" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="42"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="52"/>
     </row>
     <row r="23" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="55"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="51"/>
-      <c r="BC23" s="46"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="54"/>
+      <c r="BC23" s="55"/>
     </row>
     <row r="24" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
@@ -2865,7 +2904,7 @@
         <v>129</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="82" t="s">
+      <c r="L24" s="47" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -2923,17 +2962,17 @@
       <c r="BC24" s="11"/>
     </row>
     <row r="25" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="14"/>
       <c r="J25" s="12"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="95"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="12"/>
       <c r="N25" s="14"/>
       <c r="O25" s="1"/>
@@ -2979,17 +3018,17 @@
       <c r="BC25" s="14"/>
     </row>
     <row r="26" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14"/>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="12"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="95"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="12"/>
       <c r="N26" s="14"/>
       <c r="O26" s="1"/>
@@ -3035,17 +3074,17 @@
       <c r="BC26" s="14"/>
     </row>
     <row r="27" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="95"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="12"/>
       <c r="N27" s="14"/>
       <c r="O27" s="1"/>
@@ -3091,17 +3130,17 @@
       <c r="BC27" s="14"/>
     </row>
     <row r="28" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="12"/>
       <c r="G28" s="14"/>
       <c r="H28" s="12"/>
       <c r="I28" s="14"/>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="95"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="12"/>
       <c r="N28" s="14"/>
       <c r="O28" s="1"/>
@@ -3147,17 +3186,17 @@
       <c r="BC28" s="14"/>
     </row>
     <row r="29" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="116"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="14"/>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="95"/>
+      <c r="L29" s="48"/>
       <c r="M29" s="12"/>
       <c r="N29" s="14"/>
       <c r="O29" s="1"/>
@@ -3203,17 +3242,17 @@
       <c r="BC29" s="14"/>
     </row>
     <row r="30" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
       <c r="I30" s="14"/>
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="95"/>
+      <c r="L30" s="48"/>
       <c r="M30" s="12"/>
       <c r="N30" s="14"/>
       <c r="O30" s="1"/>
@@ -3259,17 +3298,17 @@
       <c r="BC30" s="14"/>
     </row>
     <row r="31" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="12"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
       <c r="I31" s="14"/>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="95"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="12"/>
       <c r="N31" s="14"/>
       <c r="O31" s="1"/>
@@ -3315,17 +3354,17 @@
       <c r="BC31" s="14"/>
     </row>
     <row r="32" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="I32" s="17"/>
       <c r="J32" s="15"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="96"/>
+      <c r="L32" s="49"/>
       <c r="M32" s="12"/>
       <c r="N32" s="14"/>
       <c r="O32" s="1"/>
@@ -3371,23 +3410,23 @@
       <c r="BC32" s="17"/>
     </row>
     <row r="33" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="47"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="9" t="s">
         <v>117</v>
       </c>
       <c r="K33" s="11"/>
-      <c r="L33" s="82" t="s">
+      <c r="L33" s="47" t="s">
         <v>116</v>
       </c>
       <c r="M33" s="12"/>
@@ -3443,17 +3482,17 @@
       <c r="BC33" s="11"/>
     </row>
     <row r="34" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="95"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="12"/>
       <c r="N34" s="14"/>
       <c r="O34" s="1"/>
@@ -3499,17 +3538,17 @@
       <c r="BC34" s="14"/>
     </row>
     <row r="35" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="95"/>
+      <c r="L35" s="48"/>
       <c r="M35" s="12"/>
       <c r="N35" s="14"/>
       <c r="O35" s="1"/>
@@ -3555,17 +3594,17 @@
       <c r="BC35" s="14"/>
     </row>
     <row r="36" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="95"/>
+      <c r="L36" s="48"/>
       <c r="M36" s="12"/>
       <c r="N36" s="14"/>
       <c r="O36" s="1"/>
@@ -3611,17 +3650,17 @@
       <c r="BC36" s="14"/>
     </row>
     <row r="37" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="95"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="1"/>
@@ -3667,17 +3706,17 @@
       <c r="BC37" s="14"/>
     </row>
     <row r="38" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="95"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="12"/>
       <c r="N38" s="14"/>
       <c r="O38" s="1"/>
@@ -3723,17 +3762,17 @@
       <c r="BC38" s="14"/>
     </row>
     <row r="39" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="95"/>
+      <c r="L39" s="48"/>
       <c r="M39" s="12"/>
       <c r="N39" s="14"/>
       <c r="O39" s="1"/>
@@ -3779,17 +3818,17 @@
       <c r="BC39" s="14"/>
     </row>
     <row r="40" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="12"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="95"/>
+      <c r="L40" s="48"/>
       <c r="M40" s="12"/>
       <c r="N40" s="14"/>
       <c r="O40" s="1"/>
@@ -3835,17 +3874,17 @@
       <c r="BC40" s="14"/>
     </row>
     <row r="41" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="96"/>
+      <c r="L41" s="49"/>
       <c r="M41" s="15"/>
       <c r="N41" s="17"/>
       <c r="O41" s="1"/>
@@ -3891,10 +3930,10 @@
       <c r="BC41" s="17"/>
     </row>
     <row r="42" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="111"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="113"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="9" t="s">
         <v>154</v>
       </c>
@@ -3907,11 +3946,13 @@
         <v>132</v>
       </c>
       <c r="K42" s="11"/>
-      <c r="L42" s="82" t="s">
+      <c r="L42" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="11"/>
+      <c r="M42" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" s="123"/>
       <c r="O42" s="1"/>
       <c r="P42" s="9" t="s">
         <v>143</v>
@@ -3963,19 +4004,19 @@
       <c r="BC42" s="11"/>
     </row>
     <row r="43" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="12"/>
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="14"/>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="14"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="126"/>
       <c r="O43" s="1"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="14"/>
@@ -4019,19 +4060,19 @@
       <c r="BC43" s="14"/>
     </row>
     <row r="44" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="14"/>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="14"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="126"/>
       <c r="O44" s="1"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="14"/>
@@ -4075,19 +4116,19 @@
       <c r="BC44" s="14"/>
     </row>
     <row r="45" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="116"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="12"/>
       <c r="G45" s="14"/>
       <c r="H45" s="12"/>
       <c r="I45" s="14"/>
       <c r="J45" s="12"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="14"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="126"/>
       <c r="O45" s="1"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="14"/>
@@ -4131,19 +4172,19 @@
       <c r="BC45" s="14"/>
     </row>
     <row r="46" spans="2:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="116"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="12"/>
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="14"/>
       <c r="J46" s="12"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="14"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="126"/>
       <c r="O46" s="1"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="17"/>
@@ -4187,19 +4228,19 @@
       <c r="BC46" s="17"/>
     </row>
     <row r="47" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="14"/>
       <c r="H47" s="12"/>
       <c r="I47" s="14"/>
       <c r="J47" s="12"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="14"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="126"/>
       <c r="O47" s="4"/>
       <c r="P47" s="9" t="s">
         <v>146</v>
@@ -4246,24 +4287,24 @@
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="47"/>
-      <c r="BB47" s="47"/>
-      <c r="BC47" s="47"/>
+      <c r="BA47" s="56"/>
+      <c r="BB47" s="56"/>
+      <c r="BC47" s="56"/>
     </row>
     <row r="48" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B48" s="114"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="12"/>
       <c r="G48" s="14"/>
       <c r="H48" s="12"/>
       <c r="I48" s="14"/>
       <c r="J48" s="12"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="14"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="126"/>
       <c r="O48" s="4"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="14"/>
@@ -4302,24 +4343,24 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="47"/>
-      <c r="BB48" s="47"/>
-      <c r="BC48" s="47"/>
+      <c r="BA48" s="56"/>
+      <c r="BB48" s="56"/>
+      <c r="BC48" s="56"/>
     </row>
     <row r="49" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="116"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="12"/>
       <c r="G49" s="14"/>
       <c r="H49" s="12"/>
       <c r="I49" s="14"/>
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="14"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="126"/>
       <c r="O49" s="4"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="14"/>
@@ -4358,24 +4399,24 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="47"/>
-      <c r="BB49" s="47"/>
-      <c r="BC49" s="47"/>
+      <c r="BA49" s="56"/>
+      <c r="BB49" s="56"/>
+      <c r="BC49" s="56"/>
     </row>
     <row r="50" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="116"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="12"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
       <c r="I50" s="14"/>
       <c r="J50" s="12"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="14"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="126"/>
       <c r="O50" s="4"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="14"/>
@@ -4414,24 +4455,24 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="47"/>
-      <c r="BB50" s="47"/>
-      <c r="BC50" s="47"/>
+      <c r="BA50" s="56"/>
+      <c r="BB50" s="56"/>
+      <c r="BC50" s="56"/>
     </row>
     <row r="51" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="116"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="12"/>
       <c r="G51" s="14"/>
       <c r="H51" s="12"/>
       <c r="I51" s="14"/>
       <c r="J51" s="12"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="14"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="126"/>
       <c r="O51" s="4"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="14"/>
@@ -4470,24 +4511,24 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="47"/>
-      <c r="BB51" s="47"/>
-      <c r="BC51" s="47"/>
+      <c r="BA51" s="56"/>
+      <c r="BB51" s="56"/>
+      <c r="BC51" s="56"/>
     </row>
     <row r="52" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B52" s="114"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="12"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="14"/>
       <c r="J52" s="12"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="14"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="126"/>
       <c r="O52" s="4"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="14"/>
@@ -4526,24 +4567,24 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="47"/>
-      <c r="BB52" s="47"/>
-      <c r="BC52" s="47"/>
+      <c r="BA52" s="56"/>
+      <c r="BB52" s="56"/>
+      <c r="BC52" s="56"/>
     </row>
     <row r="53" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B53" s="117"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
       <c r="I53" s="17"/>
       <c r="J53" s="15"/>
       <c r="K53" s="17"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="17"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="127"/>
+      <c r="N53" s="129"/>
       <c r="O53" s="4"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="14"/>
@@ -4582,9 +4623,9 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="47"/>
-      <c r="BB53" s="47"/>
-      <c r="BC53" s="47"/>
+      <c r="BA53" s="56"/>
+      <c r="BB53" s="56"/>
+      <c r="BC53" s="56"/>
     </row>
     <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="O54" s="4"/>
@@ -4625,9 +4666,9 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="47"/>
-      <c r="BB54" s="47"/>
-      <c r="BC54" s="47"/>
+      <c r="BA54" s="56"/>
+      <c r="BB54" s="56"/>
+      <c r="BC54" s="56"/>
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
@@ -4677,22 +4718,22 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
       <c r="AZ55" s="14"/>
-      <c r="BA55" s="47"/>
-      <c r="BB55" s="47"/>
-      <c r="BC55" s="47"/>
+      <c r="BA55" s="56"/>
+      <c r="BB55" s="56"/>
+      <c r="BC55" s="56"/>
     </row>
     <row r="56" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="76"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
+      <c r="L56" s="103"/>
+      <c r="M56" s="103"/>
+      <c r="N56" s="104"/>
       <c r="O56" s="4"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="14"/>
@@ -4731,20 +4772,20 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="14"/>
-      <c r="BA56" s="47"/>
-      <c r="BB56" s="47"/>
-      <c r="BC56" s="47"/>
+      <c r="BA56" s="56"/>
+      <c r="BB56" s="56"/>
+      <c r="BC56" s="56"/>
     </row>
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="79"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="107"/>
       <c r="O57" s="4"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="17"/>
@@ -4783,28 +4824,28 @@
       <c r="AX57" s="16"/>
       <c r="AY57" s="16"/>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="47"/>
-      <c r="BB57" s="47"/>
-      <c r="BC57" s="47"/>
+      <c r="BA57" s="56"/>
+      <c r="BB57" s="56"/>
+      <c r="BC57" s="56"/>
     </row>
     <row r="58" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="41" t="s">
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="42"/>
-      <c r="L58" s="38" t="s">
+      <c r="K58" s="52"/>
+      <c r="L58" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="41" t="s">
+      <c r="M58" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="42"/>
+      <c r="N58" s="52"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -4848,15 +4889,15 @@
       <c r="BC58" s="4"/>
     </row>
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F59" s="45"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="44"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="67"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -4900,163 +4941,163 @@
       <c r="BC59" s="5"/>
     </row>
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="41" t="s">
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="41" t="s">
+      <c r="G60" s="52"/>
+      <c r="H60" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="44"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="67"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="107" t="s">
+      <c r="P60" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="43" t="s">
+      <c r="Q60" s="62"/>
+      <c r="R60" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="S60" s="44"/>
-      <c r="T60" s="43" t="s">
+      <c r="S60" s="67"/>
+      <c r="T60" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="44"/>
-      <c r="V60" s="43" t="s">
+      <c r="U60" s="67"/>
+      <c r="V60" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="W60" s="44"/>
-      <c r="X60" s="43" t="s">
+      <c r="W60" s="67"/>
+      <c r="X60" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Y60" s="102"/>
-      <c r="Z60" s="102"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="43" t="s">
+      <c r="Y60" s="66"/>
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AC60" s="102"/>
-      <c r="AD60" s="102"/>
-      <c r="AE60" s="102"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="43" t="s">
+      <c r="AC60" s="66"/>
+      <c r="AD60" s="66"/>
+      <c r="AE60" s="66"/>
+      <c r="AF60" s="67"/>
+      <c r="AG60" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="AH60" s="102"/>
-      <c r="AI60" s="102"/>
-      <c r="AJ60" s="102"/>
-      <c r="AK60" s="102"/>
-      <c r="AL60" s="44"/>
-      <c r="AM60" s="43" t="s">
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="66"/>
+      <c r="AJ60" s="66"/>
+      <c r="AK60" s="66"/>
+      <c r="AL60" s="67"/>
+      <c r="AM60" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="AN60" s="44"/>
-      <c r="AO60" s="43" t="s">
+      <c r="AN60" s="67"/>
+      <c r="AO60" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="AP60" s="102"/>
-      <c r="AQ60" s="102"/>
-      <c r="AR60" s="102"/>
-      <c r="AS60" s="102"/>
-      <c r="AT60" s="44"/>
-      <c r="AU60" s="43" t="s">
+      <c r="AP60" s="66"/>
+      <c r="AQ60" s="66"/>
+      <c r="AR60" s="66"/>
+      <c r="AS60" s="66"/>
+      <c r="AT60" s="67"/>
+      <c r="AU60" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AV60" s="102"/>
-      <c r="AW60" s="102"/>
-      <c r="AX60" s="102"/>
-      <c r="AY60" s="102"/>
-      <c r="AZ60" s="44"/>
-      <c r="BA60" s="43" t="s">
+      <c r="AV60" s="66"/>
+      <c r="AW60" s="66"/>
+      <c r="AX60" s="66"/>
+      <c r="AY60" s="66"/>
+      <c r="AZ60" s="67"/>
+      <c r="BA60" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="BB60" s="102"/>
-      <c r="BC60" s="44"/>
+      <c r="BB60" s="66"/>
+      <c r="BC60" s="67"/>
     </row>
     <row r="61" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B61" s="45"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="46"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="55"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="110"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="51"/>
-      <c r="AA61" s="46"/>
-      <c r="AB61" s="45"/>
-      <c r="AC61" s="51"/>
-      <c r="AD61" s="51"/>
-      <c r="AE61" s="51"/>
-      <c r="AF61" s="46"/>
-      <c r="AG61" s="45"/>
-      <c r="AH61" s="51"/>
-      <c r="AI61" s="51"/>
-      <c r="AJ61" s="51"/>
-      <c r="AK61" s="51"/>
-      <c r="AL61" s="46"/>
-      <c r="AM61" s="45"/>
-      <c r="AN61" s="46"/>
-      <c r="AO61" s="45"/>
-      <c r="AP61" s="51"/>
-      <c r="AQ61" s="51"/>
-      <c r="AR61" s="51"/>
-      <c r="AS61" s="51"/>
-      <c r="AT61" s="46"/>
-      <c r="AU61" s="45"/>
-      <c r="AV61" s="51"/>
-      <c r="AW61" s="51"/>
-      <c r="AX61" s="51"/>
-      <c r="AY61" s="51"/>
-      <c r="AZ61" s="46"/>
-      <c r="BA61" s="45"/>
-      <c r="BB61" s="51"/>
-      <c r="BC61" s="46"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="53"/>
+      <c r="AH61" s="54"/>
+      <c r="AI61" s="54"/>
+      <c r="AJ61" s="54"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="53"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="53"/>
+      <c r="AP61" s="54"/>
+      <c r="AQ61" s="54"/>
+      <c r="AR61" s="54"/>
+      <c r="AS61" s="54"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="53"/>
+      <c r="AV61" s="54"/>
+      <c r="AW61" s="54"/>
+      <c r="AX61" s="54"/>
+      <c r="AY61" s="54"/>
+      <c r="AZ61" s="55"/>
+      <c r="BA61" s="53"/>
+      <c r="BB61" s="54"/>
+      <c r="BC61" s="55"/>
     </row>
     <row r="62" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="47" t="s">
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="47"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="9" t="s">
         <v>119</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="47" t="s">
+      <c r="J62" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
       <c r="M62" s="9" t="s">
         <v>121</v>
       </c>
@@ -5103,14 +5144,14 @@
         <v>82</v>
       </c>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="47" t="s">
+      <c r="AO62" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="AP62" s="47"/>
-      <c r="AQ62" s="47"/>
-      <c r="AR62" s="47"/>
-      <c r="AS62" s="47"/>
-      <c r="AT62" s="47"/>
+      <c r="AP62" s="56"/>
+      <c r="AQ62" s="56"/>
+      <c r="AR62" s="56"/>
+      <c r="AS62" s="56"/>
+      <c r="AT62" s="56"/>
       <c r="AU62" s="9" t="s">
         <v>150</v>
       </c>
@@ -5126,17 +5167,17 @@
       <c r="BC62" s="11"/>
     </row>
     <row r="63" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
       <c r="M63" s="12"/>
       <c r="N63" s="14"/>
       <c r="O63" s="1"/>
@@ -5165,12 +5206,12 @@
       <c r="AL63" s="14"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="14"/>
-      <c r="AO63" s="47"/>
-      <c r="AP63" s="47"/>
-      <c r="AQ63" s="47"/>
-      <c r="AR63" s="47"/>
-      <c r="AS63" s="47"/>
-      <c r="AT63" s="47"/>
+      <c r="AO63" s="56"/>
+      <c r="AP63" s="56"/>
+      <c r="AQ63" s="56"/>
+      <c r="AR63" s="56"/>
+      <c r="AS63" s="56"/>
+      <c r="AT63" s="56"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="13"/>
       <c r="AW63" s="13"/>
@@ -5182,17 +5223,17 @@
       <c r="BC63" s="14"/>
     </row>
     <row r="64" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="114"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
       <c r="M64" s="12"/>
       <c r="N64" s="14"/>
       <c r="O64" s="1"/>
@@ -5221,12 +5262,12 @@
       <c r="AL64" s="14"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="14"/>
-      <c r="AO64" s="47"/>
-      <c r="AP64" s="47"/>
-      <c r="AQ64" s="47"/>
-      <c r="AR64" s="47"/>
-      <c r="AS64" s="47"/>
-      <c r="AT64" s="47"/>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="56"/>
+      <c r="AQ64" s="56"/>
+      <c r="AR64" s="56"/>
+      <c r="AS64" s="56"/>
+      <c r="AT64" s="56"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
       <c r="AW64" s="13"/>
@@ -5238,17 +5279,17 @@
       <c r="BC64" s="14"/>
     </row>
     <row r="65" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
       <c r="M65" s="12"/>
       <c r="N65" s="14"/>
       <c r="O65" s="1"/>
@@ -5277,12 +5318,12 @@
       <c r="AL65" s="14"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="14"/>
-      <c r="AO65" s="47"/>
-      <c r="AP65" s="47"/>
-      <c r="AQ65" s="47"/>
-      <c r="AR65" s="47"/>
-      <c r="AS65" s="47"/>
-      <c r="AT65" s="47"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="56"/>
+      <c r="AQ65" s="56"/>
+      <c r="AR65" s="56"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="56"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="13"/>
       <c r="AW65" s="13"/>
@@ -5294,17 +5335,17 @@
       <c r="BC65" s="14"/>
     </row>
     <row r="66" spans="2:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
       <c r="M66" s="12"/>
       <c r="N66" s="14"/>
       <c r="O66" s="1"/>
@@ -5333,12 +5374,12 @@
       <c r="AL66" s="14"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="14"/>
-      <c r="AO66" s="47"/>
-      <c r="AP66" s="47"/>
-      <c r="AQ66" s="47"/>
-      <c r="AR66" s="47"/>
-      <c r="AS66" s="47"/>
-      <c r="AT66" s="47"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="56"/>
+      <c r="AQ66" s="56"/>
+      <c r="AR66" s="56"/>
+      <c r="AS66" s="56"/>
+      <c r="AT66" s="56"/>
       <c r="AU66" s="12"/>
       <c r="AV66" s="13"/>
       <c r="AW66" s="13"/>
@@ -5350,17 +5391,17 @@
       <c r="BC66" s="14"/>
     </row>
     <row r="67" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="1"/>
@@ -5389,12 +5430,12 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="17"/>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47"/>
-      <c r="AQ67" s="47"/>
-      <c r="AR67" s="47"/>
-      <c r="AS67" s="47"/>
-      <c r="AT67" s="47"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="56"/>
+      <c r="AQ67" s="56"/>
+      <c r="AR67" s="56"/>
+      <c r="AS67" s="56"/>
+      <c r="AT67" s="56"/>
       <c r="AU67" s="15"/>
       <c r="AV67" s="16"/>
       <c r="AW67" s="16"/>
@@ -5406,10 +5447,10 @@
       <c r="BC67" s="17"/>
     </row>
     <row r="68" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="113"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="9" t="s">
         <v>122</v>
       </c>
@@ -5422,11 +5463,11 @@
         <v>123</v>
       </c>
       <c r="K68" s="11"/>
-      <c r="L68" s="82" t="s">
+      <c r="L68" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
       <c r="O68" s="1"/>
       <c r="P68" s="9" t="s">
         <v>22</v>
@@ -5465,26 +5506,26 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="47" t="s">
+      <c r="AM68" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AN68" s="47"/>
-      <c r="AO68" s="47" t="s">
+      <c r="AN68" s="56"/>
+      <c r="AO68" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="47"/>
-      <c r="AQ68" s="47"/>
-      <c r="AR68" s="47"/>
-      <c r="AS68" s="47"/>
-      <c r="AT68" s="47"/>
-      <c r="AU68" s="47" t="s">
+      <c r="AP68" s="56"/>
+      <c r="AQ68" s="56"/>
+      <c r="AR68" s="56"/>
+      <c r="AS68" s="56"/>
+      <c r="AT68" s="56"/>
+      <c r="AU68" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AV68" s="47"/>
-      <c r="AW68" s="47"/>
-      <c r="AX68" s="47"/>
-      <c r="AY68" s="47"/>
-      <c r="AZ68" s="47"/>
+      <c r="AV68" s="56"/>
+      <c r="AW68" s="56"/>
+      <c r="AX68" s="56"/>
+      <c r="AY68" s="56"/>
+      <c r="AZ68" s="56"/>
       <c r="BA68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5492,19 +5533,19 @@
       <c r="BC68" s="11"/>
     </row>
     <row r="69" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="116"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="43"/>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
       <c r="H69" s="12"/>
       <c r="I69" s="14"/>
       <c r="J69" s="12"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
       <c r="O69" s="1"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="14"/>
@@ -5529,38 +5570,38 @@
       <c r="AJ69" s="13"/>
       <c r="AK69" s="13"/>
       <c r="AL69" s="14"/>
-      <c r="AM69" s="47"/>
-      <c r="AN69" s="47"/>
-      <c r="AO69" s="47"/>
-      <c r="AP69" s="47"/>
-      <c r="AQ69" s="47"/>
-      <c r="AR69" s="47"/>
-      <c r="AS69" s="47"/>
-      <c r="AT69" s="47"/>
-      <c r="AU69" s="47"/>
-      <c r="AV69" s="47"/>
-      <c r="AW69" s="47"/>
-      <c r="AX69" s="47"/>
-      <c r="AY69" s="47"/>
-      <c r="AZ69" s="47"/>
+      <c r="AM69" s="56"/>
+      <c r="AN69" s="56"/>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="56"/>
+      <c r="AQ69" s="56"/>
+      <c r="AR69" s="56"/>
+      <c r="AS69" s="56"/>
+      <c r="AT69" s="56"/>
+      <c r="AU69" s="56"/>
+      <c r="AV69" s="56"/>
+      <c r="AW69" s="56"/>
+      <c r="AX69" s="56"/>
+      <c r="AY69" s="56"/>
+      <c r="AZ69" s="56"/>
       <c r="BA69" s="12"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="14"/>
     </row>
     <row r="70" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B70" s="114"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="116"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="12"/>
       <c r="G70" s="14"/>
       <c r="H70" s="12"/>
       <c r="I70" s="14"/>
       <c r="J70" s="12"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
       <c r="O70" s="1"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="14"/>
@@ -5585,38 +5626,38 @@
       <c r="AJ70" s="13"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="14"/>
-      <c r="AM70" s="47"/>
-      <c r="AN70" s="47"/>
-      <c r="AO70" s="47"/>
-      <c r="AP70" s="47"/>
-      <c r="AQ70" s="47"/>
-      <c r="AR70" s="47"/>
-      <c r="AS70" s="47"/>
-      <c r="AT70" s="47"/>
-      <c r="AU70" s="47"/>
-      <c r="AV70" s="47"/>
-      <c r="AW70" s="47"/>
-      <c r="AX70" s="47"/>
-      <c r="AY70" s="47"/>
-      <c r="AZ70" s="47"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="56"/>
+      <c r="AQ70" s="56"/>
+      <c r="AR70" s="56"/>
+      <c r="AS70" s="56"/>
+      <c r="AT70" s="56"/>
+      <c r="AU70" s="56"/>
+      <c r="AV70" s="56"/>
+      <c r="AW70" s="56"/>
+      <c r="AX70" s="56"/>
+      <c r="AY70" s="56"/>
+      <c r="AZ70" s="56"/>
       <c r="BA70" s="12"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="14"/>
     </row>
     <row r="71" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B71" s="114"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="116"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="12"/>
       <c r="G71" s="14"/>
       <c r="H71" s="12"/>
       <c r="I71" s="14"/>
       <c r="J71" s="12"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
       <c r="O71" s="1"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="14"/>
@@ -5641,38 +5682,38 @@
       <c r="AJ71" s="13"/>
       <c r="AK71" s="13"/>
       <c r="AL71" s="14"/>
-      <c r="AM71" s="47"/>
-      <c r="AN71" s="47"/>
-      <c r="AO71" s="47"/>
-      <c r="AP71" s="47"/>
-      <c r="AQ71" s="47"/>
-      <c r="AR71" s="47"/>
-      <c r="AS71" s="47"/>
-      <c r="AT71" s="47"/>
-      <c r="AU71" s="47"/>
-      <c r="AV71" s="47"/>
-      <c r="AW71" s="47"/>
-      <c r="AX71" s="47"/>
-      <c r="AY71" s="47"/>
-      <c r="AZ71" s="47"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="56"/>
+      <c r="AQ71" s="56"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="56"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="14"/>
     </row>
     <row r="72" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B72" s="114"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="116"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="12"/>
       <c r="G72" s="14"/>
       <c r="H72" s="12"/>
       <c r="I72" s="14"/>
       <c r="J72" s="12"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
       <c r="O72" s="1"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="14"/>
@@ -5697,38 +5738,38 @@
       <c r="AJ72" s="13"/>
       <c r="AK72" s="13"/>
       <c r="AL72" s="14"/>
-      <c r="AM72" s="47"/>
-      <c r="AN72" s="47"/>
-      <c r="AO72" s="47"/>
-      <c r="AP72" s="47"/>
-      <c r="AQ72" s="47"/>
-      <c r="AR72" s="47"/>
-      <c r="AS72" s="47"/>
-      <c r="AT72" s="47"/>
-      <c r="AU72" s="47"/>
-      <c r="AV72" s="47"/>
-      <c r="AW72" s="47"/>
-      <c r="AX72" s="47"/>
-      <c r="AY72" s="47"/>
-      <c r="AZ72" s="47"/>
+      <c r="AM72" s="56"/>
+      <c r="AN72" s="56"/>
+      <c r="AO72" s="56"/>
+      <c r="AP72" s="56"/>
+      <c r="AQ72" s="56"/>
+      <c r="AR72" s="56"/>
+      <c r="AS72" s="56"/>
+      <c r="AT72" s="56"/>
+      <c r="AU72" s="56"/>
+      <c r="AV72" s="56"/>
+      <c r="AW72" s="56"/>
+      <c r="AX72" s="56"/>
+      <c r="AY72" s="56"/>
+      <c r="AZ72" s="56"/>
       <c r="BA72" s="12"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="14"/>
     </row>
     <row r="73" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="116"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="12"/>
       <c r="G73" s="14"/>
       <c r="H73" s="12"/>
       <c r="I73" s="14"/>
       <c r="J73" s="12"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
       <c r="O73" s="1"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="14"/>
@@ -5753,38 +5794,38 @@
       <c r="AJ73" s="13"/>
       <c r="AK73" s="13"/>
       <c r="AL73" s="14"/>
-      <c r="AM73" s="47"/>
-      <c r="AN73" s="47"/>
-      <c r="AO73" s="47"/>
-      <c r="AP73" s="47"/>
-      <c r="AQ73" s="47"/>
-      <c r="AR73" s="47"/>
-      <c r="AS73" s="47"/>
-      <c r="AT73" s="47"/>
-      <c r="AU73" s="47"/>
-      <c r="AV73" s="47"/>
-      <c r="AW73" s="47"/>
-      <c r="AX73" s="47"/>
-      <c r="AY73" s="47"/>
-      <c r="AZ73" s="47"/>
+      <c r="AM73" s="56"/>
+      <c r="AN73" s="56"/>
+      <c r="AO73" s="56"/>
+      <c r="AP73" s="56"/>
+      <c r="AQ73" s="56"/>
+      <c r="AR73" s="56"/>
+      <c r="AS73" s="56"/>
+      <c r="AT73" s="56"/>
+      <c r="AU73" s="56"/>
+      <c r="AV73" s="56"/>
+      <c r="AW73" s="56"/>
+      <c r="AX73" s="56"/>
+      <c r="AY73" s="56"/>
+      <c r="AZ73" s="56"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="14"/>
     </row>
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="116"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="12"/>
       <c r="G74" s="14"/>
       <c r="H74" s="12"/>
       <c r="I74" s="14"/>
       <c r="J74" s="12"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
       <c r="O74" s="1"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="14"/>
@@ -5809,38 +5850,38 @@
       <c r="AJ74" s="13"/>
       <c r="AK74" s="13"/>
       <c r="AL74" s="14"/>
-      <c r="AM74" s="47"/>
-      <c r="AN74" s="47"/>
-      <c r="AO74" s="47"/>
-      <c r="AP74" s="47"/>
-      <c r="AQ74" s="47"/>
-      <c r="AR74" s="47"/>
-      <c r="AS74" s="47"/>
-      <c r="AT74" s="47"/>
-      <c r="AU74" s="47"/>
-      <c r="AV74" s="47"/>
-      <c r="AW74" s="47"/>
-      <c r="AX74" s="47"/>
-      <c r="AY74" s="47"/>
-      <c r="AZ74" s="47"/>
+      <c r="AM74" s="56"/>
+      <c r="AN74" s="56"/>
+      <c r="AO74" s="56"/>
+      <c r="AP74" s="56"/>
+      <c r="AQ74" s="56"/>
+      <c r="AR74" s="56"/>
+      <c r="AS74" s="56"/>
+      <c r="AT74" s="56"/>
+      <c r="AU74" s="56"/>
+      <c r="AV74" s="56"/>
+      <c r="AW74" s="56"/>
+      <c r="AX74" s="56"/>
+      <c r="AY74" s="56"/>
+      <c r="AZ74" s="56"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="14"/>
     </row>
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B75" s="114"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="116"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43"/>
       <c r="F75" s="12"/>
       <c r="G75" s="14"/>
       <c r="H75" s="12"/>
       <c r="I75" s="14"/>
       <c r="J75" s="12"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="95"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
       <c r="O75" s="1"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="14"/>
@@ -5865,38 +5906,38 @@
       <c r="AJ75" s="13"/>
       <c r="AK75" s="13"/>
       <c r="AL75" s="14"/>
-      <c r="AM75" s="47"/>
-      <c r="AN75" s="47"/>
-      <c r="AO75" s="47"/>
-      <c r="AP75" s="47"/>
-      <c r="AQ75" s="47"/>
-      <c r="AR75" s="47"/>
-      <c r="AS75" s="47"/>
-      <c r="AT75" s="47"/>
-      <c r="AU75" s="47"/>
-      <c r="AV75" s="47"/>
-      <c r="AW75" s="47"/>
-      <c r="AX75" s="47"/>
-      <c r="AY75" s="47"/>
-      <c r="AZ75" s="47"/>
+      <c r="AM75" s="56"/>
+      <c r="AN75" s="56"/>
+      <c r="AO75" s="56"/>
+      <c r="AP75" s="56"/>
+      <c r="AQ75" s="56"/>
+      <c r="AR75" s="56"/>
+      <c r="AS75" s="56"/>
+      <c r="AT75" s="56"/>
+      <c r="AU75" s="56"/>
+      <c r="AV75" s="56"/>
+      <c r="AW75" s="56"/>
+      <c r="AX75" s="56"/>
+      <c r="AY75" s="56"/>
+      <c r="AZ75" s="56"/>
       <c r="BA75" s="12"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="14"/>
     </row>
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="116"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="12"/>
       <c r="G76" s="14"/>
       <c r="H76" s="12"/>
       <c r="I76" s="14"/>
       <c r="J76" s="12"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
       <c r="O76" s="1"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="14"/>
@@ -5921,38 +5962,38 @@
       <c r="AJ76" s="13"/>
       <c r="AK76" s="13"/>
       <c r="AL76" s="14"/>
-      <c r="AM76" s="47"/>
-      <c r="AN76" s="47"/>
-      <c r="AO76" s="47"/>
-      <c r="AP76" s="47"/>
-      <c r="AQ76" s="47"/>
-      <c r="AR76" s="47"/>
-      <c r="AS76" s="47"/>
-      <c r="AT76" s="47"/>
-      <c r="AU76" s="47"/>
-      <c r="AV76" s="47"/>
-      <c r="AW76" s="47"/>
-      <c r="AX76" s="47"/>
-      <c r="AY76" s="47"/>
-      <c r="AZ76" s="47"/>
+      <c r="AM76" s="56"/>
+      <c r="AN76" s="56"/>
+      <c r="AO76" s="56"/>
+      <c r="AP76" s="56"/>
+      <c r="AQ76" s="56"/>
+      <c r="AR76" s="56"/>
+      <c r="AS76" s="56"/>
+      <c r="AT76" s="56"/>
+      <c r="AU76" s="56"/>
+      <c r="AV76" s="56"/>
+      <c r="AW76" s="56"/>
+      <c r="AX76" s="56"/>
+      <c r="AY76" s="56"/>
+      <c r="AZ76" s="56"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="14"/>
     </row>
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B77" s="117"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="119"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="15"/>
       <c r="G77" s="17"/>
       <c r="H77" s="15"/>
       <c r="I77" s="17"/>
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
       <c r="O77" s="1"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="14"/>
@@ -5977,29 +6018,29 @@
       <c r="AJ77" s="13"/>
       <c r="AK77" s="13"/>
       <c r="AL77" s="14"/>
-      <c r="AM77" s="82"/>
-      <c r="AN77" s="82"/>
-      <c r="AO77" s="82"/>
-      <c r="AP77" s="82"/>
-      <c r="AQ77" s="82"/>
-      <c r="AR77" s="82"/>
-      <c r="AS77" s="82"/>
-      <c r="AT77" s="82"/>
-      <c r="AU77" s="82"/>
-      <c r="AV77" s="82"/>
-      <c r="AW77" s="82"/>
-      <c r="AX77" s="82"/>
-      <c r="AY77" s="82"/>
-      <c r="AZ77" s="82"/>
+      <c r="AM77" s="47"/>
+      <c r="AN77" s="47"/>
+      <c r="AO77" s="47"/>
+      <c r="AP77" s="47"/>
+      <c r="AQ77" s="47"/>
+      <c r="AR77" s="47"/>
+      <c r="AS77" s="47"/>
+      <c r="AT77" s="47"/>
+      <c r="AU77" s="47"/>
+      <c r="AV77" s="47"/>
+      <c r="AW77" s="47"/>
+      <c r="AX77" s="47"/>
+      <c r="AY77" s="47"/>
+      <c r="AZ77" s="47"/>
       <c r="BA77" s="12"/>
       <c r="BB77" s="13"/>
       <c r="BC77" s="14"/>
     </row>
     <row r="78" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B78" s="111"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="113"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="9" t="s">
         <v>125</v>
       </c>
@@ -6012,7 +6053,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="11"/>
-      <c r="L78" s="82" t="s">
+      <c r="L78" s="47" t="s">
         <v>126</v>
       </c>
       <c r="M78" s="9" t="s">
@@ -6020,572 +6061,572 @@
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="47" t="s">
+      <c r="P78" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="101" t="s">
+      <c r="Q78" s="56"/>
+      <c r="R78" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="S78" s="101"/>
-      <c r="T78" s="47" t="s">
+      <c r="S78" s="69"/>
+      <c r="T78" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="U78" s="47"/>
-      <c r="V78" s="47" t="s">
+      <c r="U78" s="56"/>
+      <c r="V78" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="47"/>
-      <c r="X78" s="47" t="s">
+      <c r="W78" s="56"/>
+      <c r="X78" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="47"/>
-      <c r="Z78" s="47"/>
-      <c r="AA78" s="47"/>
-      <c r="AB78" s="47" t="s">
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="56"/>
+      <c r="AB78" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="47"/>
-      <c r="AD78" s="47"/>
-      <c r="AE78" s="47"/>
-      <c r="AF78" s="47"/>
-      <c r="AG78" s="47" t="s">
+      <c r="AC78" s="56"/>
+      <c r="AD78" s="56"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AH78" s="47"/>
-      <c r="AI78" s="47"/>
-      <c r="AJ78" s="47"/>
-      <c r="AK78" s="47"/>
-      <c r="AL78" s="47"/>
-      <c r="AM78" s="47" t="s">
+      <c r="AH78" s="56"/>
+      <c r="AI78" s="56"/>
+      <c r="AJ78" s="56"/>
+      <c r="AK78" s="56"/>
+      <c r="AL78" s="56"/>
+      <c r="AM78" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AN78" s="47"/>
-      <c r="AO78" s="120" t="s">
+      <c r="AN78" s="56"/>
+      <c r="AO78" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AP78" s="120"/>
-      <c r="AQ78" s="120"/>
-      <c r="AR78" s="120"/>
-      <c r="AS78" s="120"/>
-      <c r="AT78" s="120"/>
-      <c r="AU78" s="47" t="s">
+      <c r="AP78" s="68"/>
+      <c r="AQ78" s="68"/>
+      <c r="AR78" s="68"/>
+      <c r="AS78" s="68"/>
+      <c r="AT78" s="68"/>
+      <c r="AU78" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AV78" s="47"/>
-      <c r="AW78" s="47"/>
-      <c r="AX78" s="47"/>
-      <c r="AY78" s="47"/>
-      <c r="AZ78" s="47"/>
-      <c r="BA78" s="47" t="s">
+      <c r="AV78" s="56"/>
+      <c r="AW78" s="56"/>
+      <c r="AX78" s="56"/>
+      <c r="AY78" s="56"/>
+      <c r="AZ78" s="56"/>
+      <c r="BA78" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="BB78" s="47"/>
-      <c r="BC78" s="47"/>
+      <c r="BB78" s="56"/>
+      <c r="BC78" s="56"/>
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="116"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43"/>
       <c r="F79" s="12"/>
       <c r="G79" s="14"/>
       <c r="H79" s="12"/>
       <c r="I79" s="14"/>
       <c r="J79" s="12"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="95"/>
+      <c r="L79" s="48"/>
       <c r="M79" s="12"/>
       <c r="N79" s="14"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="101"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
-      <c r="X79" s="47"/>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="47"/>
-      <c r="AA79" s="47"/>
-      <c r="AB79" s="47"/>
-      <c r="AC79" s="47"/>
-      <c r="AD79" s="47"/>
-      <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="47"/>
-      <c r="AH79" s="47"/>
-      <c r="AI79" s="47"/>
-      <c r="AJ79" s="47"/>
-      <c r="AK79" s="47"/>
-      <c r="AL79" s="47"/>
-      <c r="AM79" s="47"/>
-      <c r="AN79" s="47"/>
-      <c r="AO79" s="120"/>
-      <c r="AP79" s="120"/>
-      <c r="AQ79" s="120"/>
-      <c r="AR79" s="120"/>
-      <c r="AS79" s="120"/>
-      <c r="AT79" s="120"/>
-      <c r="AU79" s="47"/>
-      <c r="AV79" s="47"/>
-      <c r="AW79" s="47"/>
-      <c r="AX79" s="47"/>
-      <c r="AY79" s="47"/>
-      <c r="AZ79" s="47"/>
-      <c r="BA79" s="47"/>
-      <c r="BB79" s="47"/>
-      <c r="BC79" s="47"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="56"/>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56"/>
+      <c r="Y79" s="56"/>
+      <c r="Z79" s="56"/>
+      <c r="AA79" s="56"/>
+      <c r="AB79" s="56"/>
+      <c r="AC79" s="56"/>
+      <c r="AD79" s="56"/>
+      <c r="AE79" s="56"/>
+      <c r="AF79" s="56"/>
+      <c r="AG79" s="56"/>
+      <c r="AH79" s="56"/>
+      <c r="AI79" s="56"/>
+      <c r="AJ79" s="56"/>
+      <c r="AK79" s="56"/>
+      <c r="AL79" s="56"/>
+      <c r="AM79" s="56"/>
+      <c r="AN79" s="56"/>
+      <c r="AO79" s="68"/>
+      <c r="AP79" s="68"/>
+      <c r="AQ79" s="68"/>
+      <c r="AR79" s="68"/>
+      <c r="AS79" s="68"/>
+      <c r="AT79" s="68"/>
+      <c r="AU79" s="56"/>
+      <c r="AV79" s="56"/>
+      <c r="AW79" s="56"/>
+      <c r="AX79" s="56"/>
+      <c r="AY79" s="56"/>
+      <c r="AZ79" s="56"/>
+      <c r="BA79" s="56"/>
+      <c r="BB79" s="56"/>
+      <c r="BC79" s="56"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="116"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43"/>
       <c r="F80" s="12"/>
       <c r="G80" s="14"/>
       <c r="H80" s="12"/>
       <c r="I80" s="14"/>
       <c r="J80" s="12"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="95"/>
+      <c r="L80" s="48"/>
       <c r="M80" s="12"/>
       <c r="N80" s="14"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="101"/>
-      <c r="S80" s="101"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="47"/>
-      <c r="X80" s="47"/>
-      <c r="Y80" s="47"/>
-      <c r="Z80" s="47"/>
-      <c r="AA80" s="47"/>
-      <c r="AB80" s="47"/>
-      <c r="AC80" s="47"/>
-      <c r="AD80" s="47"/>
-      <c r="AE80" s="47"/>
-      <c r="AF80" s="47"/>
-      <c r="AG80" s="47"/>
-      <c r="AH80" s="47"/>
-      <c r="AI80" s="47"/>
-      <c r="AJ80" s="47"/>
-      <c r="AK80" s="47"/>
-      <c r="AL80" s="47"/>
-      <c r="AM80" s="47"/>
-      <c r="AN80" s="47"/>
-      <c r="AO80" s="120"/>
-      <c r="AP80" s="120"/>
-      <c r="AQ80" s="120"/>
-      <c r="AR80" s="120"/>
-      <c r="AS80" s="120"/>
-      <c r="AT80" s="120"/>
-      <c r="AU80" s="47"/>
-      <c r="AV80" s="47"/>
-      <c r="AW80" s="47"/>
-      <c r="AX80" s="47"/>
-      <c r="AY80" s="47"/>
-      <c r="AZ80" s="47"/>
-      <c r="BA80" s="47"/>
-      <c r="BB80" s="47"/>
-      <c r="BC80" s="47"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="68"/>
+      <c r="AP80" s="68"/>
+      <c r="AQ80" s="68"/>
+      <c r="AR80" s="68"/>
+      <c r="AS80" s="68"/>
+      <c r="AT80" s="68"/>
+      <c r="AU80" s="56"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="56"/>
+      <c r="BA80" s="56"/>
+      <c r="BB80" s="56"/>
+      <c r="BC80" s="56"/>
     </row>
     <row r="81" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B81" s="114"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="116"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="12"/>
       <c r="G81" s="14"/>
       <c r="H81" s="12"/>
       <c r="I81" s="14"/>
       <c r="J81" s="12"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="95"/>
+      <c r="L81" s="48"/>
       <c r="M81" s="12"/>
       <c r="N81" s="14"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="47"/>
-      <c r="R81" s="101"/>
-      <c r="S81" s="101"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="47"/>
-      <c r="W81" s="47"/>
-      <c r="X81" s="47"/>
-      <c r="Y81" s="47"/>
-      <c r="Z81" s="47"/>
-      <c r="AA81" s="47"/>
-      <c r="AB81" s="47"/>
-      <c r="AC81" s="47"/>
-      <c r="AD81" s="47"/>
-      <c r="AE81" s="47"/>
-      <c r="AF81" s="47"/>
-      <c r="AG81" s="47"/>
-      <c r="AH81" s="47"/>
-      <c r="AI81" s="47"/>
-      <c r="AJ81" s="47"/>
-      <c r="AK81" s="47"/>
-      <c r="AL81" s="47"/>
-      <c r="AM81" s="47"/>
-      <c r="AN81" s="47"/>
-      <c r="AO81" s="120"/>
-      <c r="AP81" s="120"/>
-      <c r="AQ81" s="120"/>
-      <c r="AR81" s="120"/>
-      <c r="AS81" s="120"/>
-      <c r="AT81" s="120"/>
-      <c r="AU81" s="47"/>
-      <c r="AV81" s="47"/>
-      <c r="AW81" s="47"/>
-      <c r="AX81" s="47"/>
-      <c r="AY81" s="47"/>
-      <c r="AZ81" s="47"/>
-      <c r="BA81" s="47"/>
-      <c r="BB81" s="47"/>
-      <c r="BC81" s="47"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="69"/>
+      <c r="S81" s="69"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="68"/>
+      <c r="AP81" s="68"/>
+      <c r="AQ81" s="68"/>
+      <c r="AR81" s="68"/>
+      <c r="AS81" s="68"/>
+      <c r="AT81" s="68"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="56"/>
+      <c r="AX81" s="56"/>
+      <c r="AY81" s="56"/>
+      <c r="AZ81" s="56"/>
+      <c r="BA81" s="56"/>
+      <c r="BB81" s="56"/>
+      <c r="BC81" s="56"/>
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="116"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43"/>
       <c r="F82" s="12"/>
       <c r="G82" s="14"/>
       <c r="H82" s="12"/>
       <c r="I82" s="14"/>
       <c r="J82" s="12"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="95"/>
+      <c r="L82" s="48"/>
       <c r="M82" s="12"/>
       <c r="N82" s="14"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="101"/>
-      <c r="S82" s="101"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
-      <c r="X82" s="47"/>
-      <c r="Y82" s="47"/>
-      <c r="Z82" s="47"/>
-      <c r="AA82" s="47"/>
-      <c r="AB82" s="47"/>
-      <c r="AC82" s="47"/>
-      <c r="AD82" s="47"/>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-      <c r="AG82" s="47"/>
-      <c r="AH82" s="47"/>
-      <c r="AI82" s="47"/>
-      <c r="AJ82" s="47"/>
-      <c r="AK82" s="47"/>
-      <c r="AL82" s="47"/>
-      <c r="AM82" s="47"/>
-      <c r="AN82" s="47"/>
-      <c r="AO82" s="120"/>
-      <c r="AP82" s="120"/>
-      <c r="AQ82" s="120"/>
-      <c r="AR82" s="120"/>
-      <c r="AS82" s="120"/>
-      <c r="AT82" s="120"/>
-      <c r="AU82" s="47"/>
-      <c r="AV82" s="47"/>
-      <c r="AW82" s="47"/>
-      <c r="AX82" s="47"/>
-      <c r="AY82" s="47"/>
-      <c r="AZ82" s="47"/>
-      <c r="BA82" s="47"/>
-      <c r="BB82" s="47"/>
-      <c r="BC82" s="47"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="68"/>
+      <c r="AP82" s="68"/>
+      <c r="AQ82" s="68"/>
+      <c r="AR82" s="68"/>
+      <c r="AS82" s="68"/>
+      <c r="AT82" s="68"/>
+      <c r="AU82" s="56"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="56"/>
+      <c r="AX82" s="56"/>
+      <c r="AY82" s="56"/>
+      <c r="AZ82" s="56"/>
+      <c r="BA82" s="56"/>
+      <c r="BB82" s="56"/>
+      <c r="BC82" s="56"/>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="116"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="12"/>
       <c r="G83" s="14"/>
       <c r="H83" s="12"/>
       <c r="I83" s="14"/>
       <c r="J83" s="12"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="95"/>
+      <c r="L83" s="48"/>
       <c r="M83" s="12"/>
       <c r="N83" s="14"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="101"/>
-      <c r="S83" s="101"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
-      <c r="X83" s="47"/>
-      <c r="Y83" s="47"/>
-      <c r="Z83" s="47"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="47"/>
-      <c r="AC83" s="47"/>
-      <c r="AD83" s="47"/>
-      <c r="AE83" s="47"/>
-      <c r="AF83" s="47"/>
-      <c r="AG83" s="47"/>
-      <c r="AH83" s="47"/>
-      <c r="AI83" s="47"/>
-      <c r="AJ83" s="47"/>
-      <c r="AK83" s="47"/>
-      <c r="AL83" s="47"/>
-      <c r="AM83" s="47"/>
-      <c r="AN83" s="47"/>
-      <c r="AO83" s="120"/>
-      <c r="AP83" s="120"/>
-      <c r="AQ83" s="120"/>
-      <c r="AR83" s="120"/>
-      <c r="AS83" s="120"/>
-      <c r="AT83" s="120"/>
-      <c r="AU83" s="47"/>
-      <c r="AV83" s="47"/>
-      <c r="AW83" s="47"/>
-      <c r="AX83" s="47"/>
-      <c r="AY83" s="47"/>
-      <c r="AZ83" s="47"/>
-      <c r="BA83" s="47"/>
-      <c r="BB83" s="47"/>
-      <c r="BC83" s="47"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="69"/>
+      <c r="S83" s="69"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+      <c r="W83" s="56"/>
+      <c r="X83" s="56"/>
+      <c r="Y83" s="56"/>
+      <c r="Z83" s="56"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="68"/>
+      <c r="AP83" s="68"/>
+      <c r="AQ83" s="68"/>
+      <c r="AR83" s="68"/>
+      <c r="AS83" s="68"/>
+      <c r="AT83" s="68"/>
+      <c r="AU83" s="56"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="56"/>
+      <c r="AX83" s="56"/>
+      <c r="AY83" s="56"/>
+      <c r="AZ83" s="56"/>
+      <c r="BA83" s="56"/>
+      <c r="BB83" s="56"/>
+      <c r="BC83" s="56"/>
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B84" s="114"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="116"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43"/>
       <c r="F84" s="12"/>
       <c r="G84" s="14"/>
       <c r="H84" s="12"/>
       <c r="I84" s="14"/>
       <c r="J84" s="12"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="95"/>
+      <c r="L84" s="48"/>
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="101"/>
-      <c r="S84" s="101"/>
-      <c r="T84" s="47"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="47"/>
-      <c r="W84" s="47"/>
-      <c r="X84" s="47"/>
-      <c r="Y84" s="47"/>
-      <c r="Z84" s="47"/>
-      <c r="AA84" s="47"/>
-      <c r="AB84" s="47"/>
-      <c r="AC84" s="47"/>
-      <c r="AD84" s="47"/>
-      <c r="AE84" s="47"/>
-      <c r="AF84" s="47"/>
-      <c r="AG84" s="47"/>
-      <c r="AH84" s="47"/>
-      <c r="AI84" s="47"/>
-      <c r="AJ84" s="47"/>
-      <c r="AK84" s="47"/>
-      <c r="AL84" s="47"/>
-      <c r="AM84" s="47"/>
-      <c r="AN84" s="47"/>
-      <c r="AO84" s="120"/>
-      <c r="AP84" s="120"/>
-      <c r="AQ84" s="120"/>
-      <c r="AR84" s="120"/>
-      <c r="AS84" s="120"/>
-      <c r="AT84" s="120"/>
-      <c r="AU84" s="47"/>
-      <c r="AV84" s="47"/>
-      <c r="AW84" s="47"/>
-      <c r="AX84" s="47"/>
-      <c r="AY84" s="47"/>
-      <c r="AZ84" s="47"/>
-      <c r="BA84" s="47"/>
-      <c r="BB84" s="47"/>
-      <c r="BC84" s="47"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="69"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="56"/>
+      <c r="Z84" s="56"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="68"/>
+      <c r="AP84" s="68"/>
+      <c r="AQ84" s="68"/>
+      <c r="AR84" s="68"/>
+      <c r="AS84" s="68"/>
+      <c r="AT84" s="68"/>
+      <c r="AU84" s="56"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="56"/>
+      <c r="AX84" s="56"/>
+      <c r="AY84" s="56"/>
+      <c r="AZ84" s="56"/>
+      <c r="BA84" s="56"/>
+      <c r="BB84" s="56"/>
+      <c r="BC84" s="56"/>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="116"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
       <c r="H85" s="12"/>
       <c r="I85" s="14"/>
       <c r="J85" s="12"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="95"/>
+      <c r="L85" s="48"/>
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
-      <c r="R85" s="101"/>
-      <c r="S85" s="101"/>
-      <c r="T85" s="47"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="47"/>
-      <c r="W85" s="47"/>
-      <c r="X85" s="47"/>
-      <c r="Y85" s="47"/>
-      <c r="Z85" s="47"/>
-      <c r="AA85" s="47"/>
-      <c r="AB85" s="47"/>
-      <c r="AC85" s="47"/>
-      <c r="AD85" s="47"/>
-      <c r="AE85" s="47"/>
-      <c r="AF85" s="47"/>
-      <c r="AG85" s="47"/>
-      <c r="AH85" s="47"/>
-      <c r="AI85" s="47"/>
-      <c r="AJ85" s="47"/>
-      <c r="AK85" s="47"/>
-      <c r="AL85" s="47"/>
-      <c r="AM85" s="47"/>
-      <c r="AN85" s="47"/>
-      <c r="AO85" s="120"/>
-      <c r="AP85" s="120"/>
-      <c r="AQ85" s="120"/>
-      <c r="AR85" s="120"/>
-      <c r="AS85" s="120"/>
-      <c r="AT85" s="120"/>
-      <c r="AU85" s="47"/>
-      <c r="AV85" s="47"/>
-      <c r="AW85" s="47"/>
-      <c r="AX85" s="47"/>
-      <c r="AY85" s="47"/>
-      <c r="AZ85" s="47"/>
-      <c r="BA85" s="47"/>
-      <c r="BB85" s="47"/>
-      <c r="BC85" s="47"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="69"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+      <c r="W85" s="56"/>
+      <c r="X85" s="56"/>
+      <c r="Y85" s="56"/>
+      <c r="Z85" s="56"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="68"/>
+      <c r="AP85" s="68"/>
+      <c r="AQ85" s="68"/>
+      <c r="AR85" s="68"/>
+      <c r="AS85" s="68"/>
+      <c r="AT85" s="68"/>
+      <c r="AU85" s="56"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="56"/>
+      <c r="AX85" s="56"/>
+      <c r="AY85" s="56"/>
+      <c r="AZ85" s="56"/>
+      <c r="BA85" s="56"/>
+      <c r="BB85" s="56"/>
+      <c r="BC85" s="56"/>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="116"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="43"/>
       <c r="F86" s="12"/>
       <c r="G86" s="14"/>
       <c r="H86" s="12"/>
       <c r="I86" s="14"/>
       <c r="J86" s="12"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="95"/>
+      <c r="L86" s="48"/>
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="101"/>
-      <c r="S86" s="101"/>
-      <c r="T86" s="47"/>
-      <c r="U86" s="47"/>
-      <c r="V86" s="47"/>
-      <c r="W86" s="47"/>
-      <c r="X86" s="47"/>
-      <c r="Y86" s="47"/>
-      <c r="Z86" s="47"/>
-      <c r="AA86" s="47"/>
-      <c r="AB86" s="47"/>
-      <c r="AC86" s="47"/>
-      <c r="AD86" s="47"/>
-      <c r="AE86" s="47"/>
-      <c r="AF86" s="47"/>
-      <c r="AG86" s="47"/>
-      <c r="AH86" s="47"/>
-      <c r="AI86" s="47"/>
-      <c r="AJ86" s="47"/>
-      <c r="AK86" s="47"/>
-      <c r="AL86" s="47"/>
-      <c r="AM86" s="47"/>
-      <c r="AN86" s="47"/>
-      <c r="AO86" s="120"/>
-      <c r="AP86" s="120"/>
-      <c r="AQ86" s="120"/>
-      <c r="AR86" s="120"/>
-      <c r="AS86" s="120"/>
-      <c r="AT86" s="120"/>
-      <c r="AU86" s="47"/>
-      <c r="AV86" s="47"/>
-      <c r="AW86" s="47"/>
-      <c r="AX86" s="47"/>
-      <c r="AY86" s="47"/>
-      <c r="AZ86" s="47"/>
-      <c r="BA86" s="47"/>
-      <c r="BB86" s="47"/>
-      <c r="BC86" s="47"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="56"/>
+      <c r="Z86" s="56"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="68"/>
+      <c r="AP86" s="68"/>
+      <c r="AQ86" s="68"/>
+      <c r="AR86" s="68"/>
+      <c r="AS86" s="68"/>
+      <c r="AT86" s="68"/>
+      <c r="AU86" s="56"/>
+      <c r="AV86" s="56"/>
+      <c r="AW86" s="56"/>
+      <c r="AX86" s="56"/>
+      <c r="AY86" s="56"/>
+      <c r="AZ86" s="56"/>
+      <c r="BA86" s="56"/>
+      <c r="BB86" s="56"/>
+      <c r="BC86" s="56"/>
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B87" s="117"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="119"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="15"/>
       <c r="G87" s="17"/>
       <c r="H87" s="15"/>
       <c r="I87" s="17"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="96"/>
+      <c r="L87" s="49"/>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
-      <c r="R87" s="101"/>
-      <c r="S87" s="101"/>
-      <c r="T87" s="47"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="47"/>
-      <c r="W87" s="47"/>
-      <c r="X87" s="47"/>
-      <c r="Y87" s="47"/>
-      <c r="Z87" s="47"/>
-      <c r="AA87" s="47"/>
-      <c r="AB87" s="47"/>
-      <c r="AC87" s="47"/>
-      <c r="AD87" s="47"/>
-      <c r="AE87" s="47"/>
-      <c r="AF87" s="47"/>
-      <c r="AG87" s="47"/>
-      <c r="AH87" s="47"/>
-      <c r="AI87" s="47"/>
-      <c r="AJ87" s="47"/>
-      <c r="AK87" s="47"/>
-      <c r="AL87" s="47"/>
-      <c r="AM87" s="47"/>
-      <c r="AN87" s="47"/>
-      <c r="AO87" s="120"/>
-      <c r="AP87" s="120"/>
-      <c r="AQ87" s="120"/>
-      <c r="AR87" s="120"/>
-      <c r="AS87" s="120"/>
-      <c r="AT87" s="120"/>
-      <c r="AU87" s="47"/>
-      <c r="AV87" s="47"/>
-      <c r="AW87" s="47"/>
-      <c r="AX87" s="47"/>
-      <c r="AY87" s="47"/>
-      <c r="AZ87" s="47"/>
-      <c r="BA87" s="47"/>
-      <c r="BB87" s="47"/>
-      <c r="BC87" s="47"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="68"/>
+      <c r="AP87" s="68"/>
+      <c r="AQ87" s="68"/>
+      <c r="AR87" s="68"/>
+      <c r="AS87" s="68"/>
+      <c r="AT87" s="68"/>
+      <c r="AU87" s="56"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="56"/>
+      <c r="AX87" s="56"/>
+      <c r="AY87" s="56"/>
+      <c r="AZ87" s="56"/>
+      <c r="BA87" s="56"/>
+      <c r="BB87" s="56"/>
+      <c r="BC87" s="56"/>
     </row>
     <row r="88" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" s="1"/>
@@ -7122,151 +7163,151 @@
       <c r="BC99" s="4"/>
     </row>
     <row r="100" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F100" s="99" t="s">
+      <c r="F100" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="99"/>
-      <c r="H100" s="99"/>
-      <c r="I100" s="99"/>
-      <c r="J100" s="99"/>
-      <c r="K100" s="99"/>
-      <c r="L100" s="99"/>
-      <c r="M100" s="99"/>
-      <c r="N100" s="99"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="72"/>
+      <c r="M100" s="72"/>
+      <c r="N100" s="72"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="100" t="s">
+      <c r="P100" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="Q100" s="100"/>
-      <c r="R100" s="81" t="s">
+      <c r="Q100" s="73"/>
+      <c r="R100" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="81"/>
-      <c r="T100" s="81" t="s">
+      <c r="S100" s="74"/>
+      <c r="T100" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="81"/>
-      <c r="V100" s="81" t="s">
+      <c r="U100" s="74"/>
+      <c r="V100" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W100" s="81"/>
-      <c r="X100" s="81" t="s">
+      <c r="W100" s="74"/>
+      <c r="X100" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="Y100" s="81"/>
-      <c r="Z100" s="81"/>
-      <c r="AA100" s="81"/>
-      <c r="AB100" s="81" t="s">
+      <c r="Y100" s="74"/>
+      <c r="Z100" s="74"/>
+      <c r="AA100" s="74"/>
+      <c r="AB100" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="AC100" s="81"/>
-      <c r="AD100" s="81"/>
-      <c r="AE100" s="81"/>
-      <c r="AF100" s="81"/>
-      <c r="AG100" s="81" t="s">
+      <c r="AC100" s="74"/>
+      <c r="AD100" s="74"/>
+      <c r="AE100" s="74"/>
+      <c r="AF100" s="74"/>
+      <c r="AG100" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="AH100" s="81"/>
-      <c r="AI100" s="81"/>
-      <c r="AJ100" s="81"/>
-      <c r="AK100" s="81"/>
-      <c r="AL100" s="81"/>
-      <c r="AM100" s="81" t="s">
+      <c r="AH100" s="74"/>
+      <c r="AI100" s="74"/>
+      <c r="AJ100" s="74"/>
+      <c r="AK100" s="74"/>
+      <c r="AL100" s="74"/>
+      <c r="AM100" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="AN100" s="81"/>
-      <c r="AO100" s="81" t="s">
+      <c r="AN100" s="74"/>
+      <c r="AO100" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="AP100" s="81"/>
-      <c r="AQ100" s="81"/>
-      <c r="AR100" s="81"/>
-      <c r="AS100" s="81"/>
-      <c r="AT100" s="81"/>
-      <c r="AU100" s="81" t="s">
+      <c r="AP100" s="74"/>
+      <c r="AQ100" s="74"/>
+      <c r="AR100" s="74"/>
+      <c r="AS100" s="74"/>
+      <c r="AT100" s="74"/>
+      <c r="AU100" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="AV100" s="81"/>
-      <c r="AW100" s="81"/>
-      <c r="AX100" s="81"/>
-      <c r="AY100" s="81"/>
-      <c r="AZ100" s="81"/>
-      <c r="BA100" s="81" t="s">
+      <c r="AV100" s="74"/>
+      <c r="AW100" s="74"/>
+      <c r="AX100" s="74"/>
+      <c r="AY100" s="74"/>
+      <c r="AZ100" s="74"/>
+      <c r="BA100" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="BB100" s="81"/>
-      <c r="BC100" s="81"/>
+      <c r="BB100" s="74"/>
+      <c r="BC100" s="74"/>
     </row>
     <row r="101" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99"/>
-      <c r="L101" s="99"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="99"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="100"/>
-      <c r="Q101" s="100"/>
-      <c r="R101" s="81"/>
-      <c r="S101" s="81"/>
-      <c r="T101" s="81"/>
-      <c r="U101" s="81"/>
-      <c r="V101" s="81"/>
-      <c r="W101" s="81"/>
-      <c r="X101" s="81"/>
-      <c r="Y101" s="81"/>
-      <c r="Z101" s="81"/>
-      <c r="AA101" s="81"/>
-      <c r="AB101" s="81"/>
-      <c r="AC101" s="81"/>
-      <c r="AD101" s="81"/>
-      <c r="AE101" s="81"/>
-      <c r="AF101" s="81"/>
-      <c r="AG101" s="81"/>
-      <c r="AH101" s="81"/>
-      <c r="AI101" s="81"/>
-      <c r="AJ101" s="81"/>
-      <c r="AK101" s="81"/>
-      <c r="AL101" s="81"/>
-      <c r="AM101" s="81"/>
-      <c r="AN101" s="81"/>
-      <c r="AO101" s="81"/>
-      <c r="AP101" s="81"/>
-      <c r="AQ101" s="81"/>
-      <c r="AR101" s="81"/>
-      <c r="AS101" s="81"/>
-      <c r="AT101" s="81"/>
-      <c r="AU101" s="81"/>
-      <c r="AV101" s="81"/>
-      <c r="AW101" s="81"/>
-      <c r="AX101" s="81"/>
-      <c r="AY101" s="81"/>
-      <c r="AZ101" s="81"/>
-      <c r="BA101" s="81"/>
-      <c r="BB101" s="81"/>
-      <c r="BC101" s="81"/>
+      <c r="P101" s="73"/>
+      <c r="Q101" s="73"/>
+      <c r="R101" s="74"/>
+      <c r="S101" s="74"/>
+      <c r="T101" s="74"/>
+      <c r="U101" s="74"/>
+      <c r="V101" s="74"/>
+      <c r="W101" s="74"/>
+      <c r="X101" s="74"/>
+      <c r="Y101" s="74"/>
+      <c r="Z101" s="74"/>
+      <c r="AA101" s="74"/>
+      <c r="AB101" s="74"/>
+      <c r="AC101" s="74"/>
+      <c r="AD101" s="74"/>
+      <c r="AE101" s="74"/>
+      <c r="AF101" s="74"/>
+      <c r="AG101" s="74"/>
+      <c r="AH101" s="74"/>
+      <c r="AI101" s="74"/>
+      <c r="AJ101" s="74"/>
+      <c r="AK101" s="74"/>
+      <c r="AL101" s="74"/>
+      <c r="AM101" s="74"/>
+      <c r="AN101" s="74"/>
+      <c r="AO101" s="74"/>
+      <c r="AP101" s="74"/>
+      <c r="AQ101" s="74"/>
+      <c r="AR101" s="74"/>
+      <c r="AS101" s="74"/>
+      <c r="AT101" s="74"/>
+      <c r="AU101" s="74"/>
+      <c r="AV101" s="74"/>
+      <c r="AW101" s="74"/>
+      <c r="AX101" s="74"/>
+      <c r="AY101" s="74"/>
+      <c r="AZ101" s="74"/>
+      <c r="BA101" s="74"/>
+      <c r="BB101" s="74"/>
+      <c r="BC101" s="74"/>
     </row>
     <row r="102" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="41" t="s">
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="42"/>
-      <c r="L102" s="38" t="s">
+      <c r="K102" s="52"/>
+      <c r="L102" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="M102" s="41" t="s">
+      <c r="M102" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N102" s="42"/>
+      <c r="N102" s="52"/>
       <c r="O102" s="4"/>
       <c r="P102" s="9" t="s">
         <v>33</v>
@@ -7309,12 +7350,14 @@
         <v>89</v>
       </c>
       <c r="AN102" s="11"/>
-      <c r="AO102" s="9"/>
-      <c r="AP102" s="10"/>
-      <c r="AQ102" s="10"/>
-      <c r="AR102" s="10"/>
-      <c r="AS102" s="10"/>
-      <c r="AT102" s="11"/>
+      <c r="AO102" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP102" s="122"/>
+      <c r="AQ102" s="122"/>
+      <c r="AR102" s="122"/>
+      <c r="AS102" s="122"/>
+      <c r="AT102" s="123"/>
       <c r="AU102" s="9" t="s">
         <v>90</v>
       </c>
@@ -7330,15 +7373,15 @@
       <c r="BC102" s="11"/>
     </row>
     <row r="103" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F103" s="45"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="44"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="100"/>
+      <c r="M103" s="65"/>
+      <c r="N103" s="67"/>
       <c r="O103" s="4"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="14"/>
@@ -7365,12 +7408,12 @@
       <c r="AL103" s="14"/>
       <c r="AM103" s="12"/>
       <c r="AN103" s="14"/>
-      <c r="AO103" s="12"/>
-      <c r="AP103" s="13"/>
-      <c r="AQ103" s="13"/>
-      <c r="AR103" s="13"/>
-      <c r="AS103" s="13"/>
-      <c r="AT103" s="14"/>
+      <c r="AO103" s="124"/>
+      <c r="AP103" s="125"/>
+      <c r="AQ103" s="125"/>
+      <c r="AR103" s="125"/>
+      <c r="AS103" s="125"/>
+      <c r="AT103" s="126"/>
       <c r="AU103" s="12"/>
       <c r="AV103" s="13"/>
       <c r="AW103" s="13"/>
@@ -7382,19 +7425,19 @@
       <c r="BC103" s="14"/>
     </row>
     <row r="104" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F104" s="41" t="s">
+      <c r="F104" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="41" t="s">
+      <c r="G104" s="52"/>
+      <c r="H104" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I104" s="42"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="44"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="100"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="67"/>
       <c r="O104" s="4"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="14"/>
@@ -7421,12 +7464,12 @@
       <c r="AL104" s="14"/>
       <c r="AM104" s="12"/>
       <c r="AN104" s="14"/>
-      <c r="AO104" s="12"/>
-      <c r="AP104" s="13"/>
-      <c r="AQ104" s="13"/>
-      <c r="AR104" s="13"/>
-      <c r="AS104" s="13"/>
-      <c r="AT104" s="14"/>
+      <c r="AO104" s="124"/>
+      <c r="AP104" s="125"/>
+      <c r="AQ104" s="125"/>
+      <c r="AR104" s="125"/>
+      <c r="AS104" s="125"/>
+      <c r="AT104" s="126"/>
       <c r="AU104" s="12"/>
       <c r="AV104" s="13"/>
       <c r="AW104" s="13"/>
@@ -7438,15 +7481,15 @@
       <c r="BC104" s="14"/>
     </row>
     <row r="105" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F105" s="45"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="46"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="101"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="55"/>
       <c r="O105" s="4"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="14"/>
@@ -7473,12 +7516,12 @@
       <c r="AL105" s="14"/>
       <c r="AM105" s="12"/>
       <c r="AN105" s="14"/>
-      <c r="AO105" s="12"/>
-      <c r="AP105" s="13"/>
-      <c r="AQ105" s="13"/>
-      <c r="AR105" s="13"/>
-      <c r="AS105" s="13"/>
-      <c r="AT105" s="14"/>
+      <c r="AO105" s="124"/>
+      <c r="AP105" s="125"/>
+      <c r="AQ105" s="125"/>
+      <c r="AR105" s="125"/>
+      <c r="AS105" s="125"/>
+      <c r="AT105" s="126"/>
       <c r="AU105" s="12"/>
       <c r="AV105" s="13"/>
       <c r="AW105" s="13"/>
@@ -7502,13 +7545,13 @@
         <v>33</v>
       </c>
       <c r="K106" s="11"/>
-      <c r="L106" s="82" t="s">
+      <c r="L106" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="M106" s="47" t="s">
+      <c r="M106" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N106" s="47"/>
+      <c r="N106" s="56"/>
       <c r="O106" s="6"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="14"/>
@@ -7535,12 +7578,12 @@
       <c r="AL106" s="14"/>
       <c r="AM106" s="12"/>
       <c r="AN106" s="14"/>
-      <c r="AO106" s="12"/>
-      <c r="AP106" s="13"/>
-      <c r="AQ106" s="13"/>
-      <c r="AR106" s="13"/>
-      <c r="AS106" s="13"/>
-      <c r="AT106" s="14"/>
+      <c r="AO106" s="124"/>
+      <c r="AP106" s="125"/>
+      <c r="AQ106" s="125"/>
+      <c r="AR106" s="125"/>
+      <c r="AS106" s="125"/>
+      <c r="AT106" s="126"/>
       <c r="AU106" s="12"/>
       <c r="AV106" s="13"/>
       <c r="AW106" s="13"/>
@@ -7558,9 +7601,9 @@
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
       <c r="K107" s="14"/>
-      <c r="L107" s="95"/>
-      <c r="M107" s="47"/>
-      <c r="N107" s="47"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
       <c r="O107" s="6"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="14"/>
@@ -7587,12 +7630,12 @@
       <c r="AL107" s="14"/>
       <c r="AM107" s="12"/>
       <c r="AN107" s="14"/>
-      <c r="AO107" s="12"/>
-      <c r="AP107" s="13"/>
-      <c r="AQ107" s="13"/>
-      <c r="AR107" s="13"/>
-      <c r="AS107" s="13"/>
-      <c r="AT107" s="14"/>
+      <c r="AO107" s="124"/>
+      <c r="AP107" s="125"/>
+      <c r="AQ107" s="125"/>
+      <c r="AR107" s="125"/>
+      <c r="AS107" s="125"/>
+      <c r="AT107" s="126"/>
       <c r="AU107" s="12"/>
       <c r="AV107" s="13"/>
       <c r="AW107" s="13"/>
@@ -7610,9 +7653,9 @@
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
       <c r="K108" s="14"/>
-      <c r="L108" s="95"/>
-      <c r="M108" s="47"/>
-      <c r="N108" s="47"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
       <c r="O108" s="1"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="14"/>
@@ -7639,12 +7682,12 @@
       <c r="AL108" s="14"/>
       <c r="AM108" s="12"/>
       <c r="AN108" s="14"/>
-      <c r="AO108" s="12"/>
-      <c r="AP108" s="13"/>
-      <c r="AQ108" s="13"/>
-      <c r="AR108" s="13"/>
-      <c r="AS108" s="13"/>
-      <c r="AT108" s="14"/>
+      <c r="AO108" s="124"/>
+      <c r="AP108" s="125"/>
+      <c r="AQ108" s="125"/>
+      <c r="AR108" s="125"/>
+      <c r="AS108" s="125"/>
+      <c r="AT108" s="126"/>
       <c r="AU108" s="12"/>
       <c r="AV108" s="13"/>
       <c r="AW108" s="13"/>
@@ -7662,9 +7705,9 @@
       <c r="I109" s="14"/>
       <c r="J109" s="12"/>
       <c r="K109" s="14"/>
-      <c r="L109" s="95"/>
-      <c r="M109" s="47"/>
-      <c r="N109" s="47"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
       <c r="O109" s="1"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="14"/>
@@ -7691,12 +7734,12 @@
       <c r="AL109" s="14"/>
       <c r="AM109" s="12"/>
       <c r="AN109" s="14"/>
-      <c r="AO109" s="12"/>
-      <c r="AP109" s="13"/>
-      <c r="AQ109" s="13"/>
-      <c r="AR109" s="13"/>
-      <c r="AS109" s="13"/>
-      <c r="AT109" s="14"/>
+      <c r="AO109" s="124"/>
+      <c r="AP109" s="125"/>
+      <c r="AQ109" s="125"/>
+      <c r="AR109" s="125"/>
+      <c r="AS109" s="125"/>
+      <c r="AT109" s="126"/>
       <c r="AU109" s="12"/>
       <c r="AV109" s="13"/>
       <c r="AW109" s="13"/>
@@ -7714,9 +7757,9 @@
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
       <c r="K110" s="14"/>
-      <c r="L110" s="95"/>
-      <c r="M110" s="47"/>
-      <c r="N110" s="47"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
       <c r="O110" s="1"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="14"/>
@@ -7743,12 +7786,12 @@
       <c r="AL110" s="14"/>
       <c r="AM110" s="12"/>
       <c r="AN110" s="14"/>
-      <c r="AO110" s="12"/>
-      <c r="AP110" s="13"/>
-      <c r="AQ110" s="13"/>
-      <c r="AR110" s="13"/>
-      <c r="AS110" s="13"/>
-      <c r="AT110" s="14"/>
+      <c r="AO110" s="127"/>
+      <c r="AP110" s="128"/>
+      <c r="AQ110" s="128"/>
+      <c r="AR110" s="128"/>
+      <c r="AS110" s="128"/>
+      <c r="AT110" s="129"/>
       <c r="AU110" s="12"/>
       <c r="AV110" s="13"/>
       <c r="AW110" s="13"/>
@@ -7766,9 +7809,9 @@
       <c r="I111" s="14"/>
       <c r="J111" s="12"/>
       <c r="K111" s="14"/>
-      <c r="L111" s="95"/>
-      <c r="M111" s="47"/>
-      <c r="N111" s="47"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="56"/>
       <c r="O111" s="1"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -7824,11 +7867,11 @@
         <v>32</v>
       </c>
       <c r="K112" s="11"/>
-      <c r="L112" s="82" t="s">
+      <c r="L112" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="47"/>
-      <c r="N112" s="47"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
       <c r="O112" s="1"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
@@ -7878,9 +7921,9 @@
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
       <c r="K113" s="14"/>
-      <c r="L113" s="95"/>
-      <c r="M113" s="47"/>
-      <c r="N113" s="47"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="56"/>
       <c r="O113" s="1"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -7930,9 +7973,9 @@
       <c r="I114" s="14"/>
       <c r="J114" s="12"/>
       <c r="K114" s="14"/>
-      <c r="L114" s="95"/>
-      <c r="M114" s="47"/>
-      <c r="N114" s="47"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="56"/>
       <c r="O114" s="1"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -7982,9 +8025,9 @@
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
       <c r="K115" s="14"/>
-      <c r="L115" s="95"/>
-      <c r="M115" s="47"/>
-      <c r="N115" s="47"/>
+      <c r="L115" s="48"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
       <c r="O115" s="1"/>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -8034,9 +8077,9 @@
       <c r="I116" s="14"/>
       <c r="J116" s="12"/>
       <c r="K116" s="14"/>
-      <c r="L116" s="95"/>
-      <c r="M116" s="47"/>
-      <c r="N116" s="47"/>
+      <c r="L116" s="48"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
       <c r="O116" s="4"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -8086,9 +8129,9 @@
       <c r="I117" s="17"/>
       <c r="J117" s="15"/>
       <c r="K117" s="17"/>
-      <c r="L117" s="96"/>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
       <c r="O117" s="4"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -8826,164 +8869,164 @@
       <c r="BC133" s="8"/>
     </row>
     <row r="134" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F134" s="52" t="s">
+      <c r="F134" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="52"/>
-      <c r="J134" s="52"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="52"/>
-      <c r="M134" s="52"/>
-      <c r="N134" s="52"/>
+      <c r="G134" s="120"/>
+      <c r="H134" s="120"/>
+      <c r="I134" s="120"/>
+      <c r="J134" s="120"/>
+      <c r="K134" s="120"/>
+      <c r="L134" s="120"/>
+      <c r="M134" s="120"/>
+      <c r="N134" s="120"/>
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F135" s="52"/>
-      <c r="G135" s="52"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="52"/>
-      <c r="L135" s="52"/>
-      <c r="M135" s="52"/>
-      <c r="N135" s="52"/>
+      <c r="F135" s="120"/>
+      <c r="G135" s="120"/>
+      <c r="H135" s="120"/>
+      <c r="I135" s="120"/>
+      <c r="J135" s="120"/>
+      <c r="K135" s="120"/>
+      <c r="L135" s="120"/>
+      <c r="M135" s="120"/>
+      <c r="N135" s="120"/>
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F136" s="41" t="s">
+      <c r="F136" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G136" s="42"/>
-      <c r="H136" s="41" t="s">
+      <c r="G136" s="52"/>
+      <c r="H136" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I136" s="42"/>
-      <c r="J136" s="97" t="s">
+      <c r="I136" s="52"/>
+      <c r="J136" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="K136" s="41" t="s">
+      <c r="K136" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L136" s="50"/>
-      <c r="M136" s="50"/>
-      <c r="N136" s="42"/>
+      <c r="L136" s="51"/>
+      <c r="M136" s="51"/>
+      <c r="N136" s="52"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="80" t="s">
+      <c r="P136" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="Q136" s="80"/>
-      <c r="R136" s="81" t="s">
+      <c r="Q136" s="75"/>
+      <c r="R136" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="S136" s="81"/>
-      <c r="T136" s="81" t="s">
+      <c r="S136" s="74"/>
+      <c r="T136" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="81"/>
-      <c r="V136" s="81" t="s">
+      <c r="U136" s="74"/>
+      <c r="V136" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W136" s="81"/>
-      <c r="X136" s="81" t="s">
+      <c r="W136" s="74"/>
+      <c r="X136" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="Y136" s="81"/>
-      <c r="Z136" s="81"/>
-      <c r="AA136" s="81"/>
-      <c r="AB136" s="81" t="s">
+      <c r="Y136" s="74"/>
+      <c r="Z136" s="74"/>
+      <c r="AA136" s="74"/>
+      <c r="AB136" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="AC136" s="81"/>
-      <c r="AD136" s="81"/>
-      <c r="AE136" s="81"/>
-      <c r="AF136" s="81"/>
-      <c r="AG136" s="81" t="s">
+      <c r="AC136" s="74"/>
+      <c r="AD136" s="74"/>
+      <c r="AE136" s="74"/>
+      <c r="AF136" s="74"/>
+      <c r="AG136" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="AH136" s="81"/>
-      <c r="AI136" s="81"/>
-      <c r="AJ136" s="81"/>
-      <c r="AK136" s="81"/>
-      <c r="AL136" s="81"/>
-      <c r="AM136" s="81" t="s">
+      <c r="AH136" s="74"/>
+      <c r="AI136" s="74"/>
+      <c r="AJ136" s="74"/>
+      <c r="AK136" s="74"/>
+      <c r="AL136" s="74"/>
+      <c r="AM136" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="AN136" s="81"/>
-      <c r="AO136" s="81" t="s">
+      <c r="AN136" s="74"/>
+      <c r="AO136" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="AP136" s="81"/>
-      <c r="AQ136" s="81"/>
-      <c r="AR136" s="81"/>
-      <c r="AS136" s="81"/>
-      <c r="AT136" s="81"/>
-      <c r="AU136" s="81" t="s">
+      <c r="AP136" s="74"/>
+      <c r="AQ136" s="74"/>
+      <c r="AR136" s="74"/>
+      <c r="AS136" s="74"/>
+      <c r="AT136" s="74"/>
+      <c r="AU136" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="AV136" s="81"/>
-      <c r="AW136" s="81"/>
-      <c r="AX136" s="81"/>
-      <c r="AY136" s="81"/>
-      <c r="AZ136" s="81"/>
-      <c r="BA136" s="81" t="s">
+      <c r="AV136" s="74"/>
+      <c r="AW136" s="74"/>
+      <c r="AX136" s="74"/>
+      <c r="AY136" s="74"/>
+      <c r="AZ136" s="74"/>
+      <c r="BA136" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="BB136" s="81"/>
-      <c r="BC136" s="81"/>
+      <c r="BB136" s="74"/>
+      <c r="BC136" s="74"/>
     </row>
     <row r="137" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F137" s="45"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="46"/>
-      <c r="J137" s="98"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="51"/>
-      <c r="M137" s="51"/>
-      <c r="N137" s="46"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="71"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="54"/>
+      <c r="N137" s="55"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="80"/>
-      <c r="Q137" s="80"/>
-      <c r="R137" s="81"/>
-      <c r="S137" s="81"/>
-      <c r="T137" s="81"/>
-      <c r="U137" s="81"/>
-      <c r="V137" s="81"/>
-      <c r="W137" s="81"/>
-      <c r="X137" s="81"/>
-      <c r="Y137" s="81"/>
-      <c r="Z137" s="81"/>
-      <c r="AA137" s="81"/>
-      <c r="AB137" s="81"/>
-      <c r="AC137" s="81"/>
-      <c r="AD137" s="81"/>
-      <c r="AE137" s="81"/>
-      <c r="AF137" s="81"/>
-      <c r="AG137" s="81"/>
-      <c r="AH137" s="81"/>
-      <c r="AI137" s="81"/>
-      <c r="AJ137" s="81"/>
-      <c r="AK137" s="81"/>
-      <c r="AL137" s="81"/>
-      <c r="AM137" s="81"/>
-      <c r="AN137" s="81"/>
-      <c r="AO137" s="81"/>
-      <c r="AP137" s="81"/>
-      <c r="AQ137" s="81"/>
-      <c r="AR137" s="81"/>
-      <c r="AS137" s="81"/>
-      <c r="AT137" s="81"/>
-      <c r="AU137" s="81"/>
-      <c r="AV137" s="81"/>
-      <c r="AW137" s="81"/>
-      <c r="AX137" s="81"/>
-      <c r="AY137" s="81"/>
-      <c r="AZ137" s="81"/>
-      <c r="BA137" s="81"/>
-      <c r="BB137" s="81"/>
-      <c r="BC137" s="81"/>
+      <c r="P137" s="75"/>
+      <c r="Q137" s="75"/>
+      <c r="R137" s="74"/>
+      <c r="S137" s="74"/>
+      <c r="T137" s="74"/>
+      <c r="U137" s="74"/>
+      <c r="V137" s="74"/>
+      <c r="W137" s="74"/>
+      <c r="X137" s="74"/>
+      <c r="Y137" s="74"/>
+      <c r="Z137" s="74"/>
+      <c r="AA137" s="74"/>
+      <c r="AB137" s="74"/>
+      <c r="AC137" s="74"/>
+      <c r="AD137" s="74"/>
+      <c r="AE137" s="74"/>
+      <c r="AF137" s="74"/>
+      <c r="AG137" s="74"/>
+      <c r="AH137" s="74"/>
+      <c r="AI137" s="74"/>
+      <c r="AJ137" s="74"/>
+      <c r="AK137" s="74"/>
+      <c r="AL137" s="74"/>
+      <c r="AM137" s="74"/>
+      <c r="AN137" s="74"/>
+      <c r="AO137" s="74"/>
+      <c r="AP137" s="74"/>
+      <c r="AQ137" s="74"/>
+      <c r="AR137" s="74"/>
+      <c r="AS137" s="74"/>
+      <c r="AT137" s="74"/>
+      <c r="AU137" s="74"/>
+      <c r="AV137" s="74"/>
+      <c r="AW137" s="74"/>
+      <c r="AX137" s="74"/>
+      <c r="AY137" s="74"/>
+      <c r="AZ137" s="74"/>
+      <c r="BA137" s="74"/>
+      <c r="BB137" s="74"/>
+      <c r="BC137" s="74"/>
     </row>
     <row r="138" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9" t="s">
@@ -8994,7 +9037,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="11"/>
-      <c r="J138" s="82" t="s">
+      <c r="J138" s="47" t="s">
         <v>47</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -9004,26 +9047,26 @@
       <c r="M138" s="10"/>
       <c r="N138" s="11"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="47" t="s">
+      <c r="P138" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="47"/>
+      <c r="Q138" s="56"/>
       <c r="R138" s="32" t="s">
         <v>101</v>
       </c>
       <c r="S138" s="34"/>
-      <c r="T138" s="47" t="s">
+      <c r="T138" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="U138" s="47"/>
+      <c r="U138" s="56"/>
       <c r="V138" s="9"/>
       <c r="W138" s="11"/>
-      <c r="X138" s="47" t="s">
+      <c r="X138" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="Y138" s="47"/>
-      <c r="Z138" s="47"/>
-      <c r="AA138" s="47"/>
+      <c r="Y138" s="56"/>
+      <c r="Z138" s="56"/>
+      <c r="AA138" s="56"/>
       <c r="AB138" s="9" t="s">
         <v>96</v>
       </c>
@@ -9037,8 +9080,8 @@
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="11"/>
-      <c r="AM138" s="47"/>
-      <c r="AN138" s="47"/>
+      <c r="AM138" s="56"/>
+      <c r="AN138" s="56"/>
       <c r="AO138" s="9" t="s">
         <v>97</v>
       </c>
@@ -9066,24 +9109,24 @@
       <c r="G139" s="14"/>
       <c r="H139" s="12"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="95"/>
+      <c r="J139" s="48"/>
       <c r="K139" s="12"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="47"/>
-      <c r="Q139" s="47"/>
-      <c r="R139" s="48"/>
-      <c r="S139" s="49"/>
-      <c r="T139" s="47"/>
-      <c r="U139" s="47"/>
+      <c r="P139" s="56"/>
+      <c r="Q139" s="56"/>
+      <c r="R139" s="76"/>
+      <c r="S139" s="77"/>
+      <c r="T139" s="56"/>
+      <c r="U139" s="56"/>
       <c r="V139" s="12"/>
       <c r="W139" s="14"/>
-      <c r="X139" s="47"/>
-      <c r="Y139" s="47"/>
-      <c r="Z139" s="47"/>
-      <c r="AA139" s="47"/>
+      <c r="X139" s="56"/>
+      <c r="Y139" s="56"/>
+      <c r="Z139" s="56"/>
+      <c r="AA139" s="56"/>
       <c r="AB139" s="12"/>
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
@@ -9095,8 +9138,8 @@
       <c r="AJ139" s="13"/>
       <c r="AK139" s="13"/>
       <c r="AL139" s="14"/>
-      <c r="AM139" s="47"/>
-      <c r="AN139" s="47"/>
+      <c r="AM139" s="56"/>
+      <c r="AN139" s="56"/>
       <c r="AO139" s="12"/>
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
@@ -9118,24 +9161,24 @@
       <c r="G140" s="14"/>
       <c r="H140" s="12"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="95"/>
+      <c r="J140" s="48"/>
       <c r="K140" s="12"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="47"/>
-      <c r="Q140" s="47"/>
-      <c r="R140" s="48"/>
-      <c r="S140" s="49"/>
-      <c r="T140" s="47"/>
-      <c r="U140" s="47"/>
+      <c r="P140" s="56"/>
+      <c r="Q140" s="56"/>
+      <c r="R140" s="76"/>
+      <c r="S140" s="77"/>
+      <c r="T140" s="56"/>
+      <c r="U140" s="56"/>
       <c r="V140" s="12"/>
       <c r="W140" s="14"/>
-      <c r="X140" s="47"/>
-      <c r="Y140" s="47"/>
-      <c r="Z140" s="47"/>
-      <c r="AA140" s="47"/>
+      <c r="X140" s="56"/>
+      <c r="Y140" s="56"/>
+      <c r="Z140" s="56"/>
+      <c r="AA140" s="56"/>
       <c r="AB140" s="12"/>
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
@@ -9147,8 +9190,8 @@
       <c r="AJ140" s="13"/>
       <c r="AK140" s="13"/>
       <c r="AL140" s="14"/>
-      <c r="AM140" s="47"/>
-      <c r="AN140" s="47"/>
+      <c r="AM140" s="56"/>
+      <c r="AN140" s="56"/>
       <c r="AO140" s="12"/>
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
@@ -9170,24 +9213,24 @@
       <c r="G141" s="17"/>
       <c r="H141" s="15"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="96"/>
+      <c r="J141" s="49"/>
       <c r="K141" s="15"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
-      <c r="R141" s="48"/>
-      <c r="S141" s="49"/>
-      <c r="T141" s="47"/>
-      <c r="U141" s="47"/>
+      <c r="P141" s="56"/>
+      <c r="Q141" s="56"/>
+      <c r="R141" s="76"/>
+      <c r="S141" s="77"/>
+      <c r="T141" s="56"/>
+      <c r="U141" s="56"/>
       <c r="V141" s="12"/>
       <c r="W141" s="14"/>
-      <c r="X141" s="47"/>
-      <c r="Y141" s="47"/>
-      <c r="Z141" s="47"/>
-      <c r="AA141" s="47"/>
+      <c r="X141" s="56"/>
+      <c r="Y141" s="56"/>
+      <c r="Z141" s="56"/>
+      <c r="AA141" s="56"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
@@ -9199,8 +9242,8 @@
       <c r="AJ141" s="13"/>
       <c r="AK141" s="13"/>
       <c r="AL141" s="14"/>
-      <c r="AM141" s="47"/>
-      <c r="AN141" s="47"/>
+      <c r="AM141" s="56"/>
+      <c r="AN141" s="56"/>
       <c r="AO141" s="12"/>
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
@@ -9226,7 +9269,7 @@
         <v>45</v>
       </c>
       <c r="I142" s="11"/>
-      <c r="J142" s="82" t="s">
+      <c r="J142" s="47" t="s">
         <v>48</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -9236,18 +9279,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="11"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="47"/>
-      <c r="Q142" s="47"/>
-      <c r="R142" s="48"/>
-      <c r="S142" s="49"/>
-      <c r="T142" s="47"/>
-      <c r="U142" s="47"/>
+      <c r="P142" s="56"/>
+      <c r="Q142" s="56"/>
+      <c r="R142" s="76"/>
+      <c r="S142" s="77"/>
+      <c r="T142" s="56"/>
+      <c r="U142" s="56"/>
       <c r="V142" s="12"/>
       <c r="W142" s="14"/>
-      <c r="X142" s="47"/>
-      <c r="Y142" s="47"/>
-      <c r="Z142" s="47"/>
-      <c r="AA142" s="47"/>
+      <c r="X142" s="56"/>
+      <c r="Y142" s="56"/>
+      <c r="Z142" s="56"/>
+      <c r="AA142" s="56"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
@@ -9259,8 +9302,8 @@
       <c r="AJ142" s="13"/>
       <c r="AK142" s="13"/>
       <c r="AL142" s="14"/>
-      <c r="AM142" s="47"/>
-      <c r="AN142" s="47"/>
+      <c r="AM142" s="56"/>
+      <c r="AN142" s="56"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
@@ -9282,24 +9325,24 @@
       <c r="G143" s="14"/>
       <c r="H143" s="12"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="95"/>
+      <c r="J143" s="48"/>
       <c r="K143" s="12"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="14"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="47"/>
-      <c r="Q143" s="47"/>
-      <c r="R143" s="48"/>
-      <c r="S143" s="49"/>
-      <c r="T143" s="47"/>
-      <c r="U143" s="47"/>
+      <c r="P143" s="56"/>
+      <c r="Q143" s="56"/>
+      <c r="R143" s="76"/>
+      <c r="S143" s="77"/>
+      <c r="T143" s="56"/>
+      <c r="U143" s="56"/>
       <c r="V143" s="12"/>
       <c r="W143" s="14"/>
-      <c r="X143" s="47"/>
-      <c r="Y143" s="47"/>
-      <c r="Z143" s="47"/>
-      <c r="AA143" s="47"/>
+      <c r="X143" s="56"/>
+      <c r="Y143" s="56"/>
+      <c r="Z143" s="56"/>
+      <c r="AA143" s="56"/>
       <c r="AB143" s="12"/>
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
@@ -9311,8 +9354,8 @@
       <c r="AJ143" s="13"/>
       <c r="AK143" s="13"/>
       <c r="AL143" s="14"/>
-      <c r="AM143" s="47"/>
-      <c r="AN143" s="47"/>
+      <c r="AM143" s="56"/>
+      <c r="AN143" s="56"/>
       <c r="AO143" s="12"/>
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
@@ -9334,24 +9377,24 @@
       <c r="G144" s="14"/>
       <c r="H144" s="12"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="95"/>
+      <c r="J144" s="48"/>
       <c r="K144" s="12"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="14"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="47"/>
-      <c r="Q144" s="47"/>
-      <c r="R144" s="48"/>
-      <c r="S144" s="49"/>
-      <c r="T144" s="47"/>
-      <c r="U144" s="47"/>
+      <c r="P144" s="56"/>
+      <c r="Q144" s="56"/>
+      <c r="R144" s="76"/>
+      <c r="S144" s="77"/>
+      <c r="T144" s="56"/>
+      <c r="U144" s="56"/>
       <c r="V144" s="12"/>
       <c r="W144" s="14"/>
-      <c r="X144" s="47"/>
-      <c r="Y144" s="47"/>
-      <c r="Z144" s="47"/>
-      <c r="AA144" s="47"/>
+      <c r="X144" s="56"/>
+      <c r="Y144" s="56"/>
+      <c r="Z144" s="56"/>
+      <c r="AA144" s="56"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
@@ -9363,8 +9406,8 @@
       <c r="AJ144" s="13"/>
       <c r="AK144" s="13"/>
       <c r="AL144" s="14"/>
-      <c r="AM144" s="47"/>
-      <c r="AN144" s="47"/>
+      <c r="AM144" s="56"/>
+      <c r="AN144" s="56"/>
       <c r="AO144" s="12"/>
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
@@ -9386,24 +9429,24 @@
       <c r="G145" s="17"/>
       <c r="H145" s="15"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="96"/>
+      <c r="J145" s="49"/>
       <c r="K145" s="15"/>
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="47"/>
-      <c r="Q145" s="47"/>
-      <c r="R145" s="48"/>
-      <c r="S145" s="49"/>
-      <c r="T145" s="47"/>
-      <c r="U145" s="47"/>
+      <c r="P145" s="56"/>
+      <c r="Q145" s="56"/>
+      <c r="R145" s="76"/>
+      <c r="S145" s="77"/>
+      <c r="T145" s="56"/>
+      <c r="U145" s="56"/>
       <c r="V145" s="12"/>
       <c r="W145" s="14"/>
-      <c r="X145" s="47"/>
-      <c r="Y145" s="47"/>
-      <c r="Z145" s="47"/>
-      <c r="AA145" s="47"/>
+      <c r="X145" s="56"/>
+      <c r="Y145" s="56"/>
+      <c r="Z145" s="56"/>
+      <c r="AA145" s="56"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
@@ -9415,8 +9458,8 @@
       <c r="AJ145" s="13"/>
       <c r="AK145" s="13"/>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="47"/>
-      <c r="AN145" s="47"/>
+      <c r="AM145" s="56"/>
+      <c r="AN145" s="56"/>
       <c r="AO145" s="12"/>
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
@@ -9442,28 +9485,28 @@
         <v>46</v>
       </c>
       <c r="I146" s="11"/>
-      <c r="J146" s="82" t="s">
+      <c r="J146" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K146" s="47" t="s">
+      <c r="K146" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="47"/>
-      <c r="M146" s="47"/>
-      <c r="N146" s="47"/>
+      <c r="L146" s="56"/>
+      <c r="M146" s="56"/>
+      <c r="N146" s="56"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="47"/>
-      <c r="Q146" s="47"/>
-      <c r="R146" s="48"/>
-      <c r="S146" s="49"/>
-      <c r="T146" s="47"/>
-      <c r="U146" s="47"/>
+      <c r="P146" s="56"/>
+      <c r="Q146" s="56"/>
+      <c r="R146" s="76"/>
+      <c r="S146" s="77"/>
+      <c r="T146" s="56"/>
+      <c r="U146" s="56"/>
       <c r="V146" s="12"/>
       <c r="W146" s="14"/>
-      <c r="X146" s="47"/>
-      <c r="Y146" s="47"/>
-      <c r="Z146" s="47"/>
-      <c r="AA146" s="47"/>
+      <c r="X146" s="56"/>
+      <c r="Y146" s="56"/>
+      <c r="Z146" s="56"/>
+      <c r="AA146" s="56"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
@@ -9475,8 +9518,8 @@
       <c r="AJ146" s="13"/>
       <c r="AK146" s="13"/>
       <c r="AL146" s="14"/>
-      <c r="AM146" s="47"/>
-      <c r="AN146" s="47"/>
+      <c r="AM146" s="56"/>
+      <c r="AN146" s="56"/>
       <c r="AO146" s="12"/>
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
@@ -9498,24 +9541,24 @@
       <c r="G147" s="14"/>
       <c r="H147" s="12"/>
       <c r="I147" s="14"/>
-      <c r="J147" s="95"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="47"/>
-      <c r="M147" s="47"/>
-      <c r="N147" s="47"/>
+      <c r="J147" s="48"/>
+      <c r="K147" s="56"/>
+      <c r="L147" s="56"/>
+      <c r="M147" s="56"/>
+      <c r="N147" s="56"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="47"/>
-      <c r="R147" s="48"/>
-      <c r="S147" s="49"/>
-      <c r="T147" s="47"/>
-      <c r="U147" s="47"/>
+      <c r="P147" s="56"/>
+      <c r="Q147" s="56"/>
+      <c r="R147" s="76"/>
+      <c r="S147" s="77"/>
+      <c r="T147" s="56"/>
+      <c r="U147" s="56"/>
       <c r="V147" s="12"/>
       <c r="W147" s="14"/>
-      <c r="X147" s="47"/>
-      <c r="Y147" s="47"/>
-      <c r="Z147" s="47"/>
-      <c r="AA147" s="47"/>
+      <c r="X147" s="56"/>
+      <c r="Y147" s="56"/>
+      <c r="Z147" s="56"/>
+      <c r="AA147" s="56"/>
       <c r="AB147" s="12"/>
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
@@ -9527,8 +9570,8 @@
       <c r="AJ147" s="13"/>
       <c r="AK147" s="13"/>
       <c r="AL147" s="14"/>
-      <c r="AM147" s="47"/>
-      <c r="AN147" s="47"/>
+      <c r="AM147" s="56"/>
+      <c r="AN147" s="56"/>
       <c r="AO147" s="12"/>
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
@@ -9550,24 +9593,24 @@
       <c r="G148" s="14"/>
       <c r="H148" s="12"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="95"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="47"/>
-      <c r="M148" s="47"/>
-      <c r="N148" s="47"/>
+      <c r="J148" s="48"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="56"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="47"/>
-      <c r="Q148" s="47"/>
-      <c r="R148" s="48"/>
-      <c r="S148" s="49"/>
-      <c r="T148" s="47"/>
-      <c r="U148" s="47"/>
+      <c r="P148" s="56"/>
+      <c r="Q148" s="56"/>
+      <c r="R148" s="76"/>
+      <c r="S148" s="77"/>
+      <c r="T148" s="56"/>
+      <c r="U148" s="56"/>
       <c r="V148" s="12"/>
       <c r="W148" s="14"/>
-      <c r="X148" s="47"/>
-      <c r="Y148" s="47"/>
-      <c r="Z148" s="47"/>
-      <c r="AA148" s="47"/>
+      <c r="X148" s="56"/>
+      <c r="Y148" s="56"/>
+      <c r="Z148" s="56"/>
+      <c r="AA148" s="56"/>
       <c r="AB148" s="12"/>
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
@@ -9579,8 +9622,8 @@
       <c r="AJ148" s="13"/>
       <c r="AK148" s="13"/>
       <c r="AL148" s="14"/>
-      <c r="AM148" s="47"/>
-      <c r="AN148" s="47"/>
+      <c r="AM148" s="56"/>
+      <c r="AN148" s="56"/>
       <c r="AO148" s="12"/>
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
@@ -9602,24 +9645,24 @@
       <c r="G149" s="17"/>
       <c r="H149" s="15"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="96"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="47"/>
-      <c r="M149" s="47"/>
-      <c r="N149" s="47"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="47"/>
-      <c r="Q149" s="47"/>
-      <c r="R149" s="48"/>
-      <c r="S149" s="49"/>
-      <c r="T149" s="47"/>
-      <c r="U149" s="47"/>
+      <c r="P149" s="56"/>
+      <c r="Q149" s="56"/>
+      <c r="R149" s="76"/>
+      <c r="S149" s="77"/>
+      <c r="T149" s="56"/>
+      <c r="U149" s="56"/>
       <c r="V149" s="12"/>
       <c r="W149" s="14"/>
-      <c r="X149" s="47"/>
-      <c r="Y149" s="47"/>
-      <c r="Z149" s="47"/>
-      <c r="AA149" s="47"/>
+      <c r="X149" s="56"/>
+      <c r="Y149" s="56"/>
+      <c r="Z149" s="56"/>
+      <c r="AA149" s="56"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
@@ -9631,8 +9674,8 @@
       <c r="AJ149" s="13"/>
       <c r="AK149" s="13"/>
       <c r="AL149" s="14"/>
-      <c r="AM149" s="47"/>
-      <c r="AN149" s="47"/>
+      <c r="AM149" s="56"/>
+      <c r="AN149" s="56"/>
       <c r="AO149" s="12"/>
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
@@ -9650,18 +9693,18 @@
       <c r="BC149" s="14"/>
     </row>
     <row r="150" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="P150" s="47"/>
-      <c r="Q150" s="47"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="56"/>
       <c r="R150" s="35"/>
       <c r="S150" s="37"/>
-      <c r="T150" s="47"/>
-      <c r="U150" s="47"/>
+      <c r="T150" s="56"/>
+      <c r="U150" s="56"/>
       <c r="V150" s="15"/>
       <c r="W150" s="17"/>
-      <c r="X150" s="47"/>
-      <c r="Y150" s="47"/>
-      <c r="Z150" s="47"/>
-      <c r="AA150" s="47"/>
+      <c r="X150" s="56"/>
+      <c r="Y150" s="56"/>
+      <c r="Z150" s="56"/>
+      <c r="AA150" s="56"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
@@ -9673,8 +9716,8 @@
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="47"/>
-      <c r="AN150" s="47"/>
+      <c r="AM150" s="56"/>
+      <c r="AN150" s="56"/>
       <c r="AO150" s="15"/>
       <c r="AP150" s="16"/>
       <c r="AQ150" s="16"/>
@@ -9729,14 +9772,14 @@
         <v>106</v>
       </c>
       <c r="AN151" s="11"/>
-      <c r="AO151" s="47" t="s">
+      <c r="AO151" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AP151" s="47"/>
-      <c r="AQ151" s="47"/>
-      <c r="AR151" s="47"/>
-      <c r="AS151" s="47"/>
-      <c r="AT151" s="47"/>
+      <c r="AP151" s="56"/>
+      <c r="AQ151" s="56"/>
+      <c r="AR151" s="56"/>
+      <c r="AS151" s="56"/>
+      <c r="AT151" s="56"/>
       <c r="AU151" s="9"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -9752,8 +9795,8 @@
     <row r="152" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P152" s="12"/>
       <c r="Q152" s="14"/>
-      <c r="R152" s="48"/>
-      <c r="S152" s="49"/>
+      <c r="R152" s="76"/>
+      <c r="S152" s="77"/>
       <c r="T152" s="12"/>
       <c r="U152" s="14"/>
       <c r="V152" s="12"/>
@@ -9775,12 +9818,12 @@
       <c r="AL152" s="14"/>
       <c r="AM152" s="12"/>
       <c r="AN152" s="14"/>
-      <c r="AO152" s="47"/>
-      <c r="AP152" s="47"/>
-      <c r="AQ152" s="47"/>
-      <c r="AR152" s="47"/>
-      <c r="AS152" s="47"/>
-      <c r="AT152" s="47"/>
+      <c r="AO152" s="56"/>
+      <c r="AP152" s="56"/>
+      <c r="AQ152" s="56"/>
+      <c r="AR152" s="56"/>
+      <c r="AS152" s="56"/>
+      <c r="AT152" s="56"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AW152" s="13"/>
@@ -9794,8 +9837,8 @@
     <row r="153" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P153" s="12"/>
       <c r="Q153" s="14"/>
-      <c r="R153" s="48"/>
-      <c r="S153" s="49"/>
+      <c r="R153" s="76"/>
+      <c r="S153" s="77"/>
       <c r="T153" s="12"/>
       <c r="U153" s="14"/>
       <c r="V153" s="12"/>
@@ -9817,12 +9860,12 @@
       <c r="AL153" s="14"/>
       <c r="AM153" s="12"/>
       <c r="AN153" s="14"/>
-      <c r="AO153" s="47"/>
-      <c r="AP153" s="47"/>
-      <c r="AQ153" s="47"/>
-      <c r="AR153" s="47"/>
-      <c r="AS153" s="47"/>
-      <c r="AT153" s="47"/>
+      <c r="AO153" s="56"/>
+      <c r="AP153" s="56"/>
+      <c r="AQ153" s="56"/>
+      <c r="AR153" s="56"/>
+      <c r="AS153" s="56"/>
+      <c r="AT153" s="56"/>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
       <c r="AW153" s="13"/>
@@ -9836,8 +9879,8 @@
     <row r="154" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P154" s="12"/>
       <c r="Q154" s="14"/>
-      <c r="R154" s="48"/>
-      <c r="S154" s="49"/>
+      <c r="R154" s="76"/>
+      <c r="S154" s="77"/>
       <c r="T154" s="12"/>
       <c r="U154" s="14"/>
       <c r="V154" s="12"/>
@@ -9859,12 +9902,12 @@
       <c r="AL154" s="14"/>
       <c r="AM154" s="12"/>
       <c r="AN154" s="14"/>
-      <c r="AO154" s="47"/>
-      <c r="AP154" s="47"/>
-      <c r="AQ154" s="47"/>
-      <c r="AR154" s="47"/>
-      <c r="AS154" s="47"/>
-      <c r="AT154" s="47"/>
+      <c r="AO154" s="56"/>
+      <c r="AP154" s="56"/>
+      <c r="AQ154" s="56"/>
+      <c r="AR154" s="56"/>
+      <c r="AS154" s="56"/>
+      <c r="AT154" s="56"/>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
       <c r="AW154" s="13"/>
@@ -9878,8 +9921,8 @@
     <row r="155" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P155" s="12"/>
       <c r="Q155" s="14"/>
-      <c r="R155" s="48"/>
-      <c r="S155" s="49"/>
+      <c r="R155" s="76"/>
+      <c r="S155" s="77"/>
       <c r="T155" s="12"/>
       <c r="U155" s="14"/>
       <c r="V155" s="12"/>
@@ -9901,12 +9944,12 @@
       <c r="AL155" s="14"/>
       <c r="AM155" s="12"/>
       <c r="AN155" s="14"/>
-      <c r="AO155" s="47"/>
-      <c r="AP155" s="47"/>
-      <c r="AQ155" s="47"/>
-      <c r="AR155" s="47"/>
-      <c r="AS155" s="47"/>
-      <c r="AT155" s="47"/>
+      <c r="AO155" s="56"/>
+      <c r="AP155" s="56"/>
+      <c r="AQ155" s="56"/>
+      <c r="AR155" s="56"/>
+      <c r="AS155" s="56"/>
+      <c r="AT155" s="56"/>
       <c r="AU155" s="12"/>
       <c r="AV155" s="13"/>
       <c r="AW155" s="13"/>
@@ -9920,8 +9963,8 @@
     <row r="156" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P156" s="12"/>
       <c r="Q156" s="14"/>
-      <c r="R156" s="48"/>
-      <c r="S156" s="49"/>
+      <c r="R156" s="76"/>
+      <c r="S156" s="77"/>
       <c r="T156" s="12"/>
       <c r="U156" s="14"/>
       <c r="V156" s="12"/>
@@ -9943,12 +9986,12 @@
       <c r="AL156" s="14"/>
       <c r="AM156" s="12"/>
       <c r="AN156" s="14"/>
-      <c r="AO156" s="47"/>
-      <c r="AP156" s="47"/>
-      <c r="AQ156" s="47"/>
-      <c r="AR156" s="47"/>
-      <c r="AS156" s="47"/>
-      <c r="AT156" s="47"/>
+      <c r="AO156" s="56"/>
+      <c r="AP156" s="56"/>
+      <c r="AQ156" s="56"/>
+      <c r="AR156" s="56"/>
+      <c r="AS156" s="56"/>
+      <c r="AT156" s="56"/>
       <c r="AU156" s="12"/>
       <c r="AV156" s="13"/>
       <c r="AW156" s="13"/>
@@ -9962,8 +10005,8 @@
     <row r="157" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P157" s="12"/>
       <c r="Q157" s="14"/>
-      <c r="R157" s="48"/>
-      <c r="S157" s="49"/>
+      <c r="R157" s="76"/>
+      <c r="S157" s="77"/>
       <c r="T157" s="12"/>
       <c r="U157" s="14"/>
       <c r="V157" s="12"/>
@@ -9985,12 +10028,12 @@
       <c r="AL157" s="14"/>
       <c r="AM157" s="12"/>
       <c r="AN157" s="14"/>
-      <c r="AO157" s="47"/>
-      <c r="AP157" s="47"/>
-      <c r="AQ157" s="47"/>
-      <c r="AR157" s="47"/>
-      <c r="AS157" s="47"/>
-      <c r="AT157" s="47"/>
+      <c r="AO157" s="56"/>
+      <c r="AP157" s="56"/>
+      <c r="AQ157" s="56"/>
+      <c r="AR157" s="56"/>
+      <c r="AS157" s="56"/>
+      <c r="AT157" s="56"/>
       <c r="AU157" s="12"/>
       <c r="AV157" s="13"/>
       <c r="AW157" s="13"/>
@@ -10004,8 +10047,8 @@
     <row r="158" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P158" s="12"/>
       <c r="Q158" s="14"/>
-      <c r="R158" s="48"/>
-      <c r="S158" s="49"/>
+      <c r="R158" s="76"/>
+      <c r="S158" s="77"/>
       <c r="T158" s="12"/>
       <c r="U158" s="14"/>
       <c r="V158" s="12"/>
@@ -10027,12 +10070,12 @@
       <c r="AL158" s="14"/>
       <c r="AM158" s="12"/>
       <c r="AN158" s="14"/>
-      <c r="AO158" s="47"/>
-      <c r="AP158" s="47"/>
-      <c r="AQ158" s="47"/>
-      <c r="AR158" s="47"/>
-      <c r="AS158" s="47"/>
-      <c r="AT158" s="47"/>
+      <c r="AO158" s="56"/>
+      <c r="AP158" s="56"/>
+      <c r="AQ158" s="56"/>
+      <c r="AR158" s="56"/>
+      <c r="AS158" s="56"/>
+      <c r="AT158" s="56"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AW158" s="13"/>
@@ -10046,8 +10089,8 @@
     <row r="159" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P159" s="12"/>
       <c r="Q159" s="14"/>
-      <c r="R159" s="48"/>
-      <c r="S159" s="49"/>
+      <c r="R159" s="76"/>
+      <c r="S159" s="77"/>
       <c r="T159" s="12"/>
       <c r="U159" s="14"/>
       <c r="V159" s="12"/>
@@ -10069,12 +10112,12 @@
       <c r="AL159" s="14"/>
       <c r="AM159" s="12"/>
       <c r="AN159" s="14"/>
-      <c r="AO159" s="47"/>
-      <c r="AP159" s="47"/>
-      <c r="AQ159" s="47"/>
-      <c r="AR159" s="47"/>
-      <c r="AS159" s="47"/>
-      <c r="AT159" s="47"/>
+      <c r="AO159" s="56"/>
+      <c r="AP159" s="56"/>
+      <c r="AQ159" s="56"/>
+      <c r="AR159" s="56"/>
+      <c r="AS159" s="56"/>
+      <c r="AT159" s="56"/>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AW159" s="13"/>
@@ -10088,8 +10131,8 @@
     <row r="160" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P160" s="12"/>
       <c r="Q160" s="14"/>
-      <c r="R160" s="48"/>
-      <c r="S160" s="49"/>
+      <c r="R160" s="76"/>
+      <c r="S160" s="77"/>
       <c r="T160" s="12"/>
       <c r="U160" s="14"/>
       <c r="V160" s="12"/>
@@ -10111,12 +10154,12 @@
       <c r="AL160" s="14"/>
       <c r="AM160" s="12"/>
       <c r="AN160" s="14"/>
-      <c r="AO160" s="47"/>
-      <c r="AP160" s="47"/>
-      <c r="AQ160" s="47"/>
-      <c r="AR160" s="47"/>
-      <c r="AS160" s="47"/>
-      <c r="AT160" s="47"/>
+      <c r="AO160" s="56"/>
+      <c r="AP160" s="56"/>
+      <c r="AQ160" s="56"/>
+      <c r="AR160" s="56"/>
+      <c r="AS160" s="56"/>
+      <c r="AT160" s="56"/>
       <c r="AU160" s="12"/>
       <c r="AV160" s="13"/>
       <c r="AW160" s="13"/>
@@ -10130,8 +10173,8 @@
     <row r="161" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P161" s="12"/>
       <c r="Q161" s="14"/>
-      <c r="R161" s="48"/>
-      <c r="S161" s="49"/>
+      <c r="R161" s="76"/>
+      <c r="S161" s="77"/>
       <c r="T161" s="12"/>
       <c r="U161" s="14"/>
       <c r="V161" s="12"/>
@@ -10153,12 +10196,12 @@
       <c r="AL161" s="14"/>
       <c r="AM161" s="12"/>
       <c r="AN161" s="14"/>
-      <c r="AO161" s="47"/>
-      <c r="AP161" s="47"/>
-      <c r="AQ161" s="47"/>
-      <c r="AR161" s="47"/>
-      <c r="AS161" s="47"/>
-      <c r="AT161" s="47"/>
+      <c r="AO161" s="56"/>
+      <c r="AP161" s="56"/>
+      <c r="AQ161" s="56"/>
+      <c r="AR161" s="56"/>
+      <c r="AS161" s="56"/>
+      <c r="AT161" s="56"/>
       <c r="AU161" s="12"/>
       <c r="AV161" s="13"/>
       <c r="AW161" s="13"/>
@@ -10172,8 +10215,8 @@
     <row r="162" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P162" s="12"/>
       <c r="Q162" s="14"/>
-      <c r="R162" s="48"/>
-      <c r="S162" s="49"/>
+      <c r="R162" s="76"/>
+      <c r="S162" s="77"/>
       <c r="T162" s="12"/>
       <c r="U162" s="14"/>
       <c r="V162" s="12"/>
@@ -10195,12 +10238,12 @@
       <c r="AL162" s="14"/>
       <c r="AM162" s="12"/>
       <c r="AN162" s="14"/>
-      <c r="AO162" s="47"/>
-      <c r="AP162" s="47"/>
-      <c r="AQ162" s="47"/>
-      <c r="AR162" s="47"/>
-      <c r="AS162" s="47"/>
-      <c r="AT162" s="47"/>
+      <c r="AO162" s="56"/>
+      <c r="AP162" s="56"/>
+      <c r="AQ162" s="56"/>
+      <c r="AR162" s="56"/>
+      <c r="AS162" s="56"/>
+      <c r="AT162" s="56"/>
       <c r="AU162" s="12"/>
       <c r="AV162" s="13"/>
       <c r="AW162" s="13"/>
@@ -10214,8 +10257,8 @@
     <row r="163" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P163" s="12"/>
       <c r="Q163" s="14"/>
-      <c r="R163" s="48"/>
-      <c r="S163" s="49"/>
+      <c r="R163" s="76"/>
+      <c r="S163" s="77"/>
       <c r="T163" s="12"/>
       <c r="U163" s="14"/>
       <c r="V163" s="12"/>
@@ -10237,12 +10280,12 @@
       <c r="AL163" s="14"/>
       <c r="AM163" s="12"/>
       <c r="AN163" s="14"/>
-      <c r="AO163" s="47"/>
-      <c r="AP163" s="47"/>
-      <c r="AQ163" s="47"/>
-      <c r="AR163" s="47"/>
-      <c r="AS163" s="47"/>
-      <c r="AT163" s="47"/>
+      <c r="AO163" s="56"/>
+      <c r="AP163" s="56"/>
+      <c r="AQ163" s="56"/>
+      <c r="AR163" s="56"/>
+      <c r="AS163" s="56"/>
+      <c r="AT163" s="56"/>
       <c r="AU163" s="12"/>
       <c r="AV163" s="13"/>
       <c r="AW163" s="13"/>
@@ -10256,8 +10299,8 @@
     <row r="164" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P164" s="12"/>
       <c r="Q164" s="14"/>
-      <c r="R164" s="48"/>
-      <c r="S164" s="49"/>
+      <c r="R164" s="76"/>
+      <c r="S164" s="77"/>
       <c r="T164" s="12"/>
       <c r="U164" s="14"/>
       <c r="V164" s="12"/>
@@ -10279,12 +10322,12 @@
       <c r="AL164" s="14"/>
       <c r="AM164" s="12"/>
       <c r="AN164" s="14"/>
-      <c r="AO164" s="47"/>
-      <c r="AP164" s="47"/>
-      <c r="AQ164" s="47"/>
-      <c r="AR164" s="47"/>
-      <c r="AS164" s="47"/>
-      <c r="AT164" s="47"/>
+      <c r="AO164" s="56"/>
+      <c r="AP164" s="56"/>
+      <c r="AQ164" s="56"/>
+      <c r="AR164" s="56"/>
+      <c r="AS164" s="56"/>
+      <c r="AT164" s="56"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
       <c r="AW164" s="13"/>
@@ -10298,8 +10341,8 @@
     <row r="165" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P165" s="12"/>
       <c r="Q165" s="14"/>
-      <c r="R165" s="48"/>
-      <c r="S165" s="49"/>
+      <c r="R165" s="76"/>
+      <c r="S165" s="77"/>
       <c r="T165" s="12"/>
       <c r="U165" s="14"/>
       <c r="V165" s="12"/>
@@ -10321,12 +10364,12 @@
       <c r="AL165" s="14"/>
       <c r="AM165" s="12"/>
       <c r="AN165" s="14"/>
-      <c r="AO165" s="47"/>
-      <c r="AP165" s="47"/>
-      <c r="AQ165" s="47"/>
-      <c r="AR165" s="47"/>
-      <c r="AS165" s="47"/>
-      <c r="AT165" s="47"/>
+      <c r="AO165" s="56"/>
+      <c r="AP165" s="56"/>
+      <c r="AQ165" s="56"/>
+      <c r="AR165" s="56"/>
+      <c r="AS165" s="56"/>
+      <c r="AT165" s="56"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
       <c r="AW165" s="13"/>
@@ -10340,8 +10383,8 @@
     <row r="166" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P166" s="12"/>
       <c r="Q166" s="14"/>
-      <c r="R166" s="48"/>
-      <c r="S166" s="49"/>
+      <c r="R166" s="76"/>
+      <c r="S166" s="77"/>
       <c r="T166" s="12"/>
       <c r="U166" s="14"/>
       <c r="V166" s="12"/>
@@ -10363,12 +10406,12 @@
       <c r="AL166" s="14"/>
       <c r="AM166" s="12"/>
       <c r="AN166" s="14"/>
-      <c r="AO166" s="47"/>
-      <c r="AP166" s="47"/>
-      <c r="AQ166" s="47"/>
-      <c r="AR166" s="47"/>
-      <c r="AS166" s="47"/>
-      <c r="AT166" s="47"/>
+      <c r="AO166" s="56"/>
+      <c r="AP166" s="56"/>
+      <c r="AQ166" s="56"/>
+      <c r="AR166" s="56"/>
+      <c r="AS166" s="56"/>
+      <c r="AT166" s="56"/>
       <c r="AU166" s="12"/>
       <c r="AV166" s="13"/>
       <c r="AW166" s="13"/>
@@ -10382,8 +10425,8 @@
     <row r="167" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P167" s="12"/>
       <c r="Q167" s="14"/>
-      <c r="R167" s="48"/>
-      <c r="S167" s="49"/>
+      <c r="R167" s="76"/>
+      <c r="S167" s="77"/>
       <c r="T167" s="15"/>
       <c r="U167" s="17"/>
       <c r="V167" s="15"/>
@@ -10405,12 +10448,12 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="15"/>
       <c r="AN167" s="17"/>
-      <c r="AO167" s="47"/>
-      <c r="AP167" s="47"/>
-      <c r="AQ167" s="47"/>
-      <c r="AR167" s="47"/>
-      <c r="AS167" s="47"/>
-      <c r="AT167" s="47"/>
+      <c r="AO167" s="56"/>
+      <c r="AP167" s="56"/>
+      <c r="AQ167" s="56"/>
+      <c r="AR167" s="56"/>
+      <c r="AS167" s="56"/>
+      <c r="AT167" s="56"/>
       <c r="AU167" s="15"/>
       <c r="AV167" s="16"/>
       <c r="AW167" s="16"/>
@@ -10507,6 +10550,259 @@
     </row>
   </sheetData>
   <mergeCells count="277">
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="AG138:AL150"/>
+    <mergeCell ref="AM138:AN150"/>
+    <mergeCell ref="R151:S167"/>
+    <mergeCell ref="P151:Q167"/>
+    <mergeCell ref="T151:U167"/>
+    <mergeCell ref="V151:W167"/>
+    <mergeCell ref="X151:AA167"/>
+    <mergeCell ref="AB151:AF167"/>
+    <mergeCell ref="AG151:AL167"/>
+    <mergeCell ref="AM151:AN167"/>
+    <mergeCell ref="F138:G141"/>
+    <mergeCell ref="F142:G145"/>
+    <mergeCell ref="F146:G149"/>
+    <mergeCell ref="F136:G137"/>
+    <mergeCell ref="K136:N137"/>
+    <mergeCell ref="F134:N135"/>
+    <mergeCell ref="K138:N141"/>
+    <mergeCell ref="K142:N145"/>
+    <mergeCell ref="K146:N149"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="G2:G13"/>
+    <mergeCell ref="H2:H13"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J2:X13"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="J58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:N61"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="X47:AA57"/>
+    <mergeCell ref="V47:W57"/>
+    <mergeCell ref="T47:U57"/>
+    <mergeCell ref="R47:S57"/>
+    <mergeCell ref="P47:Q57"/>
+    <mergeCell ref="M24:N41"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="F20:I21"/>
+    <mergeCell ref="J20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="M20:N23"/>
+    <mergeCell ref="AU151:AZ167"/>
+    <mergeCell ref="BA151:BC167"/>
+    <mergeCell ref="AO151:AT167"/>
+    <mergeCell ref="T138:U150"/>
+    <mergeCell ref="P136:Q137"/>
+    <mergeCell ref="R136:S137"/>
+    <mergeCell ref="T136:U137"/>
+    <mergeCell ref="V136:W137"/>
+    <mergeCell ref="X136:AA137"/>
+    <mergeCell ref="AB136:AF137"/>
+    <mergeCell ref="AG136:AL137"/>
+    <mergeCell ref="AM136:AN137"/>
+    <mergeCell ref="R138:S150"/>
+    <mergeCell ref="P138:Q150"/>
+    <mergeCell ref="AO136:AT137"/>
+    <mergeCell ref="AU136:AZ137"/>
+    <mergeCell ref="BA136:BC137"/>
+    <mergeCell ref="AB138:AF150"/>
+    <mergeCell ref="AO138:AT150"/>
+    <mergeCell ref="AU138:AZ150"/>
+    <mergeCell ref="BA138:BC150"/>
+    <mergeCell ref="X138:AA150"/>
+    <mergeCell ref="V138:W150"/>
+    <mergeCell ref="BA121:BC130"/>
+    <mergeCell ref="V102:W110"/>
+    <mergeCell ref="T102:U110"/>
+    <mergeCell ref="R102:S110"/>
+    <mergeCell ref="P102:Q110"/>
+    <mergeCell ref="BA102:BC110"/>
+    <mergeCell ref="AU111:AZ120"/>
+    <mergeCell ref="P111:Q120"/>
+    <mergeCell ref="R111:S120"/>
+    <mergeCell ref="T111:U120"/>
+    <mergeCell ref="V111:W120"/>
+    <mergeCell ref="X111:AA120"/>
+    <mergeCell ref="AB111:AF120"/>
+    <mergeCell ref="AG111:AL120"/>
+    <mergeCell ref="AM111:AN120"/>
+    <mergeCell ref="AO111:AT120"/>
+    <mergeCell ref="BA111:BC120"/>
+    <mergeCell ref="AU102:AZ110"/>
+    <mergeCell ref="AO102:AT110"/>
+    <mergeCell ref="AM102:AN110"/>
+    <mergeCell ref="AG102:AL110"/>
+    <mergeCell ref="AB102:AF110"/>
+    <mergeCell ref="X102:AA110"/>
+    <mergeCell ref="P121:Q130"/>
+    <mergeCell ref="T100:U101"/>
+    <mergeCell ref="V100:W101"/>
+    <mergeCell ref="X100:AA101"/>
+    <mergeCell ref="AB100:AF101"/>
+    <mergeCell ref="AG100:AL101"/>
+    <mergeCell ref="AM100:AN101"/>
+    <mergeCell ref="AU121:AZ130"/>
+    <mergeCell ref="R121:S130"/>
+    <mergeCell ref="T121:U130"/>
+    <mergeCell ref="V121:W130"/>
+    <mergeCell ref="X121:AA130"/>
+    <mergeCell ref="AB121:AF130"/>
+    <mergeCell ref="AG121:AL130"/>
+    <mergeCell ref="AM121:AN130"/>
+    <mergeCell ref="AO121:AT130"/>
+    <mergeCell ref="AU100:AZ101"/>
+    <mergeCell ref="BA100:BC101"/>
+    <mergeCell ref="AG47:AL57"/>
+    <mergeCell ref="AM47:AN57"/>
+    <mergeCell ref="AO47:AT57"/>
+    <mergeCell ref="AU47:AZ57"/>
+    <mergeCell ref="BA47:BC57"/>
+    <mergeCell ref="AB47:AF57"/>
+    <mergeCell ref="AU68:AZ77"/>
+    <mergeCell ref="AU88:AZ97"/>
+    <mergeCell ref="AO100:AT101"/>
+    <mergeCell ref="F24:G32"/>
+    <mergeCell ref="F33:G41"/>
+    <mergeCell ref="H24:I32"/>
+    <mergeCell ref="J24:K32"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H33:I41"/>
+    <mergeCell ref="J33:K41"/>
+    <mergeCell ref="L24:L32"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="H136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="H138:I141"/>
+    <mergeCell ref="H142:I145"/>
+    <mergeCell ref="H146:I149"/>
+    <mergeCell ref="R88:S97"/>
+    <mergeCell ref="M106:N117"/>
+    <mergeCell ref="F100:N101"/>
+    <mergeCell ref="F112:G117"/>
+    <mergeCell ref="H112:I117"/>
+    <mergeCell ref="F106:G111"/>
+    <mergeCell ref="H106:I111"/>
+    <mergeCell ref="J112:K117"/>
+    <mergeCell ref="J106:K111"/>
+    <mergeCell ref="L112:L117"/>
+    <mergeCell ref="L106:L111"/>
+    <mergeCell ref="H104:I105"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="R100:S101"/>
+    <mergeCell ref="F102:I103"/>
+    <mergeCell ref="J102:K105"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="M102:N105"/>
+    <mergeCell ref="T88:U97"/>
+    <mergeCell ref="V88:W97"/>
+    <mergeCell ref="X88:AA97"/>
+    <mergeCell ref="AM68:AN77"/>
+    <mergeCell ref="AO68:AT77"/>
+    <mergeCell ref="R68:S77"/>
+    <mergeCell ref="T68:U77"/>
+    <mergeCell ref="V68:W77"/>
+    <mergeCell ref="X68:AA77"/>
+    <mergeCell ref="AM88:AN97"/>
+    <mergeCell ref="AO88:AT97"/>
+    <mergeCell ref="AB68:AF77"/>
+    <mergeCell ref="AB88:AF97"/>
+    <mergeCell ref="AG88:AL97"/>
+    <mergeCell ref="AG68:AL77"/>
+    <mergeCell ref="AB78:AF87"/>
+    <mergeCell ref="AG78:AL87"/>
+    <mergeCell ref="X62:AA67"/>
+    <mergeCell ref="AB62:AF67"/>
+    <mergeCell ref="AG62:AL67"/>
+    <mergeCell ref="AM62:AN67"/>
+    <mergeCell ref="AO62:AT67"/>
+    <mergeCell ref="AU62:AZ67"/>
+    <mergeCell ref="R78:S87"/>
+    <mergeCell ref="T78:U87"/>
+    <mergeCell ref="V78:W87"/>
+    <mergeCell ref="X78:AA87"/>
+    <mergeCell ref="P62:Q67"/>
+    <mergeCell ref="P68:Q77"/>
+    <mergeCell ref="P78:Q87"/>
+    <mergeCell ref="P88:Q97"/>
+    <mergeCell ref="BA60:BC61"/>
+    <mergeCell ref="BA62:BC67"/>
+    <mergeCell ref="BA68:BC77"/>
+    <mergeCell ref="BA78:BC87"/>
+    <mergeCell ref="BA88:BC97"/>
+    <mergeCell ref="AB60:AF61"/>
+    <mergeCell ref="AG60:AL61"/>
+    <mergeCell ref="AM60:AN61"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:AZ61"/>
+    <mergeCell ref="R60:S61"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:W61"/>
+    <mergeCell ref="X60:AA61"/>
+    <mergeCell ref="AM78:AN87"/>
+    <mergeCell ref="AO78:AT87"/>
+    <mergeCell ref="AU78:AZ87"/>
+    <mergeCell ref="R62:S67"/>
+    <mergeCell ref="T62:U67"/>
+    <mergeCell ref="V62:W67"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="P24:Q32"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="R24:S32"/>
+    <mergeCell ref="T24:U32"/>
+    <mergeCell ref="V24:W32"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="V33:W41"/>
+    <mergeCell ref="X33:AA41"/>
+    <mergeCell ref="AU22:AZ23"/>
+    <mergeCell ref="BA22:BC23"/>
+    <mergeCell ref="X24:AA32"/>
+    <mergeCell ref="AB24:AF32"/>
+    <mergeCell ref="AG24:AL32"/>
+    <mergeCell ref="AM24:AN32"/>
+    <mergeCell ref="AO24:AT32"/>
+    <mergeCell ref="AU24:AZ32"/>
+    <mergeCell ref="BA24:BC32"/>
+    <mergeCell ref="X22:AA23"/>
+    <mergeCell ref="AB22:AF23"/>
+    <mergeCell ref="AG22:AL23"/>
+    <mergeCell ref="AM22:AN23"/>
+    <mergeCell ref="AO22:AT23"/>
+    <mergeCell ref="B24:E32"/>
+    <mergeCell ref="B33:E41"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B42:E53"/>
+    <mergeCell ref="BA33:BC41"/>
+    <mergeCell ref="P42:Q46"/>
+    <mergeCell ref="R42:S46"/>
+    <mergeCell ref="T42:U46"/>
+    <mergeCell ref="V42:W46"/>
+    <mergeCell ref="X42:AA46"/>
+    <mergeCell ref="AB42:AF46"/>
+    <mergeCell ref="AG42:AL46"/>
+    <mergeCell ref="AM42:AN46"/>
+    <mergeCell ref="AO42:AT46"/>
+    <mergeCell ref="AU42:AZ46"/>
+    <mergeCell ref="BA42:BC46"/>
+    <mergeCell ref="AB33:AF41"/>
+    <mergeCell ref="AG33:AL41"/>
+    <mergeCell ref="AM33:AN41"/>
+    <mergeCell ref="AO33:AT41"/>
+    <mergeCell ref="AU33:AZ41"/>
+    <mergeCell ref="P33:Q41"/>
+    <mergeCell ref="R33:S41"/>
+    <mergeCell ref="T33:U41"/>
     <mergeCell ref="B62:E67"/>
     <mergeCell ref="B68:E77"/>
     <mergeCell ref="B78:E87"/>
@@ -10531,259 +10827,6 @@
     <mergeCell ref="L62:L67"/>
     <mergeCell ref="J62:K67"/>
     <mergeCell ref="H62:I67"/>
-    <mergeCell ref="B24:E32"/>
-    <mergeCell ref="B33:E41"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B42:E53"/>
-    <mergeCell ref="BA33:BC41"/>
-    <mergeCell ref="P42:Q46"/>
-    <mergeCell ref="R42:S46"/>
-    <mergeCell ref="T42:U46"/>
-    <mergeCell ref="V42:W46"/>
-    <mergeCell ref="X42:AA46"/>
-    <mergeCell ref="AB42:AF46"/>
-    <mergeCell ref="AG42:AL46"/>
-    <mergeCell ref="AM42:AN46"/>
-    <mergeCell ref="AO42:AT46"/>
-    <mergeCell ref="AU42:AZ46"/>
-    <mergeCell ref="BA42:BC46"/>
-    <mergeCell ref="AB33:AF41"/>
-    <mergeCell ref="AG33:AL41"/>
-    <mergeCell ref="AM33:AN41"/>
-    <mergeCell ref="AO33:AT41"/>
-    <mergeCell ref="AU33:AZ41"/>
-    <mergeCell ref="P33:Q41"/>
-    <mergeCell ref="R33:S41"/>
-    <mergeCell ref="T33:U41"/>
-    <mergeCell ref="X33:AA41"/>
-    <mergeCell ref="AU22:AZ23"/>
-    <mergeCell ref="BA22:BC23"/>
-    <mergeCell ref="X24:AA32"/>
-    <mergeCell ref="AB24:AF32"/>
-    <mergeCell ref="AG24:AL32"/>
-    <mergeCell ref="AM24:AN32"/>
-    <mergeCell ref="AO24:AT32"/>
-    <mergeCell ref="AU24:AZ32"/>
-    <mergeCell ref="BA24:BC32"/>
-    <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="AB22:AF23"/>
-    <mergeCell ref="AG22:AL23"/>
-    <mergeCell ref="AM22:AN23"/>
-    <mergeCell ref="AO22:AT23"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="P24:Q32"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="R24:S32"/>
-    <mergeCell ref="T24:U32"/>
-    <mergeCell ref="V24:W32"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="V33:W41"/>
-    <mergeCell ref="P62:Q67"/>
-    <mergeCell ref="P68:Q77"/>
-    <mergeCell ref="P78:Q87"/>
-    <mergeCell ref="P88:Q97"/>
-    <mergeCell ref="BA60:BC61"/>
-    <mergeCell ref="BA62:BC67"/>
-    <mergeCell ref="BA68:BC77"/>
-    <mergeCell ref="BA78:BC87"/>
-    <mergeCell ref="BA88:BC97"/>
-    <mergeCell ref="AB60:AF61"/>
-    <mergeCell ref="AG60:AL61"/>
-    <mergeCell ref="AM60:AN61"/>
-    <mergeCell ref="AO60:AT61"/>
-    <mergeCell ref="AU60:AZ61"/>
-    <mergeCell ref="R60:S61"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:W61"/>
-    <mergeCell ref="X60:AA61"/>
-    <mergeCell ref="AM78:AN87"/>
-    <mergeCell ref="AO78:AT87"/>
-    <mergeCell ref="AU78:AZ87"/>
-    <mergeCell ref="R62:S67"/>
-    <mergeCell ref="T62:U67"/>
-    <mergeCell ref="V62:W67"/>
-    <mergeCell ref="X62:AA67"/>
-    <mergeCell ref="AB62:AF67"/>
-    <mergeCell ref="AG62:AL67"/>
-    <mergeCell ref="AM62:AN67"/>
-    <mergeCell ref="AO62:AT67"/>
-    <mergeCell ref="AU62:AZ67"/>
-    <mergeCell ref="R78:S87"/>
-    <mergeCell ref="T78:U87"/>
-    <mergeCell ref="V78:W87"/>
-    <mergeCell ref="X78:AA87"/>
-    <mergeCell ref="T88:U97"/>
-    <mergeCell ref="V88:W97"/>
-    <mergeCell ref="X88:AA97"/>
-    <mergeCell ref="AM68:AN77"/>
-    <mergeCell ref="AO68:AT77"/>
-    <mergeCell ref="R68:S77"/>
-    <mergeCell ref="T68:U77"/>
-    <mergeCell ref="V68:W77"/>
-    <mergeCell ref="X68:AA77"/>
-    <mergeCell ref="AM88:AN97"/>
-    <mergeCell ref="AO88:AT97"/>
-    <mergeCell ref="AB68:AF77"/>
-    <mergeCell ref="AB88:AF97"/>
-    <mergeCell ref="AG88:AL97"/>
-    <mergeCell ref="AG68:AL77"/>
-    <mergeCell ref="AB78:AF87"/>
-    <mergeCell ref="AG78:AL87"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="H136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="H138:I141"/>
-    <mergeCell ref="H142:I145"/>
-    <mergeCell ref="H146:I149"/>
-    <mergeCell ref="R88:S97"/>
-    <mergeCell ref="M106:N117"/>
-    <mergeCell ref="F100:N101"/>
-    <mergeCell ref="F112:G117"/>
-    <mergeCell ref="H112:I117"/>
-    <mergeCell ref="F106:G111"/>
-    <mergeCell ref="H106:I111"/>
-    <mergeCell ref="J112:K117"/>
-    <mergeCell ref="J106:K111"/>
-    <mergeCell ref="L112:L117"/>
-    <mergeCell ref="L106:L111"/>
-    <mergeCell ref="H104:I105"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="R100:S101"/>
-    <mergeCell ref="F102:I103"/>
-    <mergeCell ref="J102:K105"/>
-    <mergeCell ref="F24:G32"/>
-    <mergeCell ref="F33:G41"/>
-    <mergeCell ref="H24:I32"/>
-    <mergeCell ref="J24:K32"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H33:I41"/>
-    <mergeCell ref="J33:K41"/>
-    <mergeCell ref="L24:L32"/>
-    <mergeCell ref="L33:L41"/>
-    <mergeCell ref="BA100:BC101"/>
-    <mergeCell ref="AG47:AL57"/>
-    <mergeCell ref="AM47:AN57"/>
-    <mergeCell ref="AO47:AT57"/>
-    <mergeCell ref="AU47:AZ57"/>
-    <mergeCell ref="BA47:BC57"/>
-    <mergeCell ref="AB47:AF57"/>
-    <mergeCell ref="AU68:AZ77"/>
-    <mergeCell ref="AU88:AZ97"/>
-    <mergeCell ref="AO100:AT101"/>
-    <mergeCell ref="T100:U101"/>
-    <mergeCell ref="V100:W101"/>
-    <mergeCell ref="X100:AA101"/>
-    <mergeCell ref="AB100:AF101"/>
-    <mergeCell ref="AG100:AL101"/>
-    <mergeCell ref="AM100:AN101"/>
-    <mergeCell ref="AU121:AZ130"/>
-    <mergeCell ref="R121:S130"/>
-    <mergeCell ref="T121:U130"/>
-    <mergeCell ref="V121:W130"/>
-    <mergeCell ref="X121:AA130"/>
-    <mergeCell ref="AB121:AF130"/>
-    <mergeCell ref="AG121:AL130"/>
-    <mergeCell ref="AM121:AN130"/>
-    <mergeCell ref="AO121:AT130"/>
-    <mergeCell ref="AU100:AZ101"/>
-    <mergeCell ref="BA121:BC130"/>
-    <mergeCell ref="V102:W110"/>
-    <mergeCell ref="T102:U110"/>
-    <mergeCell ref="R102:S110"/>
-    <mergeCell ref="P102:Q110"/>
-    <mergeCell ref="BA102:BC110"/>
-    <mergeCell ref="AU111:AZ120"/>
-    <mergeCell ref="P111:Q120"/>
-    <mergeCell ref="R111:S120"/>
-    <mergeCell ref="T111:U120"/>
-    <mergeCell ref="V111:W120"/>
-    <mergeCell ref="X111:AA120"/>
-    <mergeCell ref="AB111:AF120"/>
-    <mergeCell ref="AG111:AL120"/>
-    <mergeCell ref="AM111:AN120"/>
-    <mergeCell ref="AO111:AT120"/>
-    <mergeCell ref="BA111:BC120"/>
-    <mergeCell ref="AU102:AZ110"/>
-    <mergeCell ref="AO102:AT110"/>
-    <mergeCell ref="AM102:AN110"/>
-    <mergeCell ref="AG102:AL110"/>
-    <mergeCell ref="AB102:AF110"/>
-    <mergeCell ref="X102:AA110"/>
-    <mergeCell ref="P121:Q130"/>
-    <mergeCell ref="AU151:AZ167"/>
-    <mergeCell ref="BA151:BC167"/>
-    <mergeCell ref="AO151:AT167"/>
-    <mergeCell ref="T138:U150"/>
-    <mergeCell ref="P136:Q137"/>
-    <mergeCell ref="R136:S137"/>
-    <mergeCell ref="T136:U137"/>
-    <mergeCell ref="V136:W137"/>
-    <mergeCell ref="X136:AA137"/>
-    <mergeCell ref="AB136:AF137"/>
-    <mergeCell ref="AG136:AL137"/>
-    <mergeCell ref="AM136:AN137"/>
-    <mergeCell ref="R138:S150"/>
-    <mergeCell ref="P138:Q150"/>
-    <mergeCell ref="AO136:AT137"/>
-    <mergeCell ref="AU136:AZ137"/>
-    <mergeCell ref="BA136:BC137"/>
-    <mergeCell ref="AB138:AF150"/>
-    <mergeCell ref="AO138:AT150"/>
-    <mergeCell ref="AU138:AZ150"/>
-    <mergeCell ref="BA138:BC150"/>
-    <mergeCell ref="X138:AA150"/>
-    <mergeCell ref="V138:W150"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="G2:G13"/>
-    <mergeCell ref="H2:H13"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J2:X13"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="J58:K61"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="M58:N61"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="X47:AA57"/>
-    <mergeCell ref="V47:W57"/>
-    <mergeCell ref="T47:U57"/>
-    <mergeCell ref="R47:S57"/>
-    <mergeCell ref="P47:Q57"/>
-    <mergeCell ref="M24:N41"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="F20:I21"/>
-    <mergeCell ref="J20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="M20:N23"/>
-    <mergeCell ref="L102:L105"/>
-    <mergeCell ref="M102:N105"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="AG138:AL150"/>
-    <mergeCell ref="AM138:AN150"/>
-    <mergeCell ref="R151:S167"/>
-    <mergeCell ref="P151:Q167"/>
-    <mergeCell ref="T151:U167"/>
-    <mergeCell ref="V151:W167"/>
-    <mergeCell ref="X151:AA167"/>
-    <mergeCell ref="AB151:AF167"/>
-    <mergeCell ref="AG151:AL167"/>
-    <mergeCell ref="AM151:AN167"/>
-    <mergeCell ref="F138:G141"/>
-    <mergeCell ref="F142:G145"/>
-    <mergeCell ref="F146:G149"/>
-    <mergeCell ref="F136:G137"/>
-    <mergeCell ref="K136:N137"/>
-    <mergeCell ref="F134:N135"/>
-    <mergeCell ref="K138:N141"/>
-    <mergeCell ref="K142:N145"/>
-    <mergeCell ref="K146:N149"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J142:J145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -749,6 +749,18 @@
 mezcla homogénea. Mantener la mezcla en constante agitación y
 asperjarla, procurando cubrir total y uniformemente el follaje para
 asegurar un mejor control</t>
+  </si>
+  <si>
+    <t>Es utilizada desde tiempos antiguos para curar enfermedades de las plantas, ya que actúa como un excelente fungicida, acaricida. Su nombre lo debe al francés Bouillie Bordelaise, quién lo inventó pensando en el tratamiento de las enfermedades</t>
+  </si>
+  <si>
+    <t>Se aplica en forma de aspersión tanto en árboles como en plantas herbáceas para prevenir la aparición de las enfermedades ya mencionadas o para detener su propagación. La aplicación debe efectuarse poco tiempo después de haber realizado el preparado; como “máximo debe usarse un día después”.</t>
+  </si>
+  <si>
+    <t>Aplicar cada 7 u 8 días. En el desarrollo de plántulas “en vivero”, se aplicara el 50% de solución y 50% de Agua, y en plantaciones en “campo, el 100%” del producto (mezcla pura).</t>
+  </si>
+  <si>
+    <t>capacidad irritativa: ocular positiva; dérmica positiva; capacidad alergénica: nd.</t>
   </si>
 </sst>
 </file>
@@ -2352,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24:AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,7 +2901,9 @@
         <v>137</v>
       </c>
       <c r="W24" s="11"/>
-      <c r="X24" s="9"/>
+      <c r="X24" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="11"/>
@@ -2904,15 +2918,21 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="11"/>
-      <c r="AM24" s="9"/>
+      <c r="AM24" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="9"/>
+      <c r="AO24" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="AP24" s="10"/>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="11"/>
-      <c r="AU24" s="9"/>
+      <c r="AU24" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -1212,6 +1212,225 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,226 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1560,7 @@
         <xdr:cNvPr id="3" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1621,7 @@
         <xdr:cNvPr id="4" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="9" name="8 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1726,7 @@
         <xdr:cNvPr id="11" name="10 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1776,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,507 +2364,507 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T21" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24:AF32"/>
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24:AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="90" t="str">
+      <c r="J2" s="65" t="str">
         <f>[1]Hoja1!$B$6</f>
         <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
 Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país
 El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector
 </v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
     </row>
     <row r="3" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="79"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
     </row>
     <row r="4" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="79"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="95"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="70"/>
     </row>
     <row r="5" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="79"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
     </row>
     <row r="6" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="79"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="95"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
     </row>
     <row r="7" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="79"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="95"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
     </row>
     <row r="8" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="79"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="95"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
     </row>
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="79"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="95"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F10" s="79"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="95"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="79"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="95"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="79"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="95"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
     </row>
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="80"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="98"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="73"/>
     </row>
     <row r="16" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="110"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="91"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="99" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="52"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="67"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="50" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="50" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="67"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="50" t="s">
+      <c r="Q22" s="104"/>
+      <c r="R22" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="52"/>
-      <c r="T22" s="50" t="s">
+      <c r="S22" s="42"/>
+      <c r="T22" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="U22" s="52"/>
-      <c r="V22" s="50" t="s">
+      <c r="U22" s="42"/>
+      <c r="V22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="50" t="s">
+      <c r="W22" s="42"/>
+      <c r="X22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="50" t="s">
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="50" t="s">
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="50" t="s">
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="50" t="s">
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="50" t="s">
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="50" t="s">
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="52"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="42"/>
     </row>
     <row r="23" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="55"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="55"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="46"/>
     </row>
     <row r="24" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>129</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="82" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -2943,17 +2943,17 @@
       <c r="BC24" s="11"/>
     </row>
     <row r="25" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="14"/>
       <c r="J25" s="12"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="48"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="12"/>
       <c r="N25" s="14"/>
       <c r="O25" s="1"/>
@@ -2999,17 +2999,17 @@
       <c r="BC25" s="14"/>
     </row>
     <row r="26" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14"/>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="12"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="48"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="12"/>
       <c r="N26" s="14"/>
       <c r="O26" s="1"/>
@@ -3055,17 +3055,17 @@
       <c r="BC26" s="14"/>
     </row>
     <row r="27" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="48"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="12"/>
       <c r="N27" s="14"/>
       <c r="O27" s="1"/>
@@ -3111,17 +3111,17 @@
       <c r="BC27" s="14"/>
     </row>
     <row r="28" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="12"/>
       <c r="G28" s="14"/>
       <c r="H28" s="12"/>
       <c r="I28" s="14"/>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="48"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="12"/>
       <c r="N28" s="14"/>
       <c r="O28" s="1"/>
@@ -3167,17 +3167,17 @@
       <c r="BC28" s="14"/>
     </row>
     <row r="29" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="14"/>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="48"/>
+      <c r="L29" s="95"/>
       <c r="M29" s="12"/>
       <c r="N29" s="14"/>
       <c r="O29" s="1"/>
@@ -3223,17 +3223,17 @@
       <c r="BC29" s="14"/>
     </row>
     <row r="30" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
       <c r="I30" s="14"/>
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="48"/>
+      <c r="L30" s="95"/>
       <c r="M30" s="12"/>
       <c r="N30" s="14"/>
       <c r="O30" s="1"/>
@@ -3279,17 +3279,17 @@
       <c r="BC30" s="14"/>
     </row>
     <row r="31" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
       <c r="F31" s="12"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
       <c r="I31" s="14"/>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="95"/>
       <c r="M31" s="12"/>
       <c r="N31" s="14"/>
       <c r="O31" s="1"/>
@@ -3335,17 +3335,17 @@
       <c r="BC31" s="14"/>
     </row>
     <row r="32" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="I32" s="17"/>
       <c r="J32" s="15"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="49"/>
+      <c r="L32" s="96"/>
       <c r="M32" s="12"/>
       <c r="N32" s="14"/>
       <c r="O32" s="1"/>
@@ -3391,23 +3391,23 @@
       <c r="BC32" s="17"/>
     </row>
     <row r="33" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
       <c r="F33" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="56"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="9" t="s">
         <v>117</v>
       </c>
       <c r="K33" s="11"/>
-      <c r="L33" s="47" t="s">
+      <c r="L33" s="82" t="s">
         <v>116</v>
       </c>
       <c r="M33" s="12"/>
@@ -3463,17 +3463,17 @@
       <c r="BC33" s="11"/>
     </row>
     <row r="34" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="48"/>
+      <c r="L34" s="95"/>
       <c r="M34" s="12"/>
       <c r="N34" s="14"/>
       <c r="O34" s="1"/>
@@ -3519,17 +3519,17 @@
       <c r="BC34" s="14"/>
     </row>
     <row r="35" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="48"/>
+      <c r="L35" s="95"/>
       <c r="M35" s="12"/>
       <c r="N35" s="14"/>
       <c r="O35" s="1"/>
@@ -3575,17 +3575,17 @@
       <c r="BC35" s="14"/>
     </row>
     <row r="36" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="48"/>
+      <c r="L36" s="95"/>
       <c r="M36" s="12"/>
       <c r="N36" s="14"/>
       <c r="O36" s="1"/>
@@ -3631,17 +3631,17 @@
       <c r="BC36" s="14"/>
     </row>
     <row r="37" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="48"/>
+      <c r="L37" s="95"/>
       <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="1"/>
@@ -3687,17 +3687,17 @@
       <c r="BC37" s="14"/>
     </row>
     <row r="38" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="48"/>
+      <c r="L38" s="95"/>
       <c r="M38" s="12"/>
       <c r="N38" s="14"/>
       <c r="O38" s="1"/>
@@ -3743,17 +3743,17 @@
       <c r="BC38" s="14"/>
     </row>
     <row r="39" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="48"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="12"/>
       <c r="N39" s="14"/>
       <c r="O39" s="1"/>
@@ -3799,17 +3799,17 @@
       <c r="BC39" s="14"/>
     </row>
     <row r="40" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="12"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="48"/>
+      <c r="L40" s="95"/>
       <c r="M40" s="12"/>
       <c r="N40" s="14"/>
       <c r="O40" s="1"/>
@@ -3855,17 +3855,17 @@
       <c r="BC40" s="14"/>
     </row>
     <row r="41" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="96"/>
       <c r="M41" s="15"/>
       <c r="N41" s="17"/>
       <c r="O41" s="1"/>
@@ -3911,10 +3911,10 @@
       <c r="BC41" s="17"/>
     </row>
     <row r="42" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
       <c r="F42" s="9" t="s">
         <v>154</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>132</v>
       </c>
       <c r="K42" s="11"/>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="82" t="s">
         <v>133</v>
       </c>
       <c r="M42" s="9"/>
@@ -3983,17 +3983,17 @@
       <c r="BC42" s="11"/>
     </row>
     <row r="43" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="116"/>
       <c r="F43" s="12"/>
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="14"/>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="48"/>
+      <c r="L43" s="95"/>
       <c r="M43" s="12"/>
       <c r="N43" s="14"/>
       <c r="O43" s="1"/>
@@ -4039,17 +4039,17 @@
       <c r="BC43" s="14"/>
     </row>
     <row r="44" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="14"/>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="48"/>
+      <c r="L44" s="95"/>
       <c r="M44" s="12"/>
       <c r="N44" s="14"/>
       <c r="O44" s="1"/>
@@ -4095,17 +4095,17 @@
       <c r="BC44" s="14"/>
     </row>
     <row r="45" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="12"/>
       <c r="G45" s="14"/>
       <c r="H45" s="12"/>
       <c r="I45" s="14"/>
       <c r="J45" s="12"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="48"/>
+      <c r="L45" s="95"/>
       <c r="M45" s="12"/>
       <c r="N45" s="14"/>
       <c r="O45" s="1"/>
@@ -4151,17 +4151,17 @@
       <c r="BC45" s="14"/>
     </row>
     <row r="46" spans="2:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="12"/>
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="14"/>
       <c r="J46" s="12"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="48"/>
+      <c r="L46" s="95"/>
       <c r="M46" s="12"/>
       <c r="N46" s="14"/>
       <c r="O46" s="1"/>
@@ -4207,17 +4207,17 @@
       <c r="BC46" s="17"/>
     </row>
     <row r="47" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="12"/>
       <c r="G47" s="14"/>
       <c r="H47" s="12"/>
       <c r="I47" s="14"/>
       <c r="J47" s="12"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="48"/>
+      <c r="L47" s="95"/>
       <c r="M47" s="12"/>
       <c r="N47" s="14"/>
       <c r="O47" s="4"/>
@@ -4266,22 +4266,22 @@
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="56"/>
-      <c r="BB47" s="56"/>
-      <c r="BC47" s="56"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47"/>
+      <c r="BC47" s="47"/>
     </row>
     <row r="48" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
       <c r="F48" s="12"/>
       <c r="G48" s="14"/>
       <c r="H48" s="12"/>
       <c r="I48" s="14"/>
       <c r="J48" s="12"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="48"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="12"/>
       <c r="N48" s="14"/>
       <c r="O48" s="4"/>
@@ -4322,22 +4322,22 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="56"/>
-      <c r="BB48" s="56"/>
-      <c r="BC48" s="56"/>
+      <c r="BA48" s="47"/>
+      <c r="BB48" s="47"/>
+      <c r="BC48" s="47"/>
     </row>
     <row r="49" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="116"/>
       <c r="F49" s="12"/>
       <c r="G49" s="14"/>
       <c r="H49" s="12"/>
       <c r="I49" s="14"/>
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="48"/>
+      <c r="L49" s="95"/>
       <c r="M49" s="12"/>
       <c r="N49" s="14"/>
       <c r="O49" s="4"/>
@@ -4378,22 +4378,22 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="56"/>
-      <c r="BB49" s="56"/>
-      <c r="BC49" s="56"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
     </row>
     <row r="50" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116"/>
       <c r="F50" s="12"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
       <c r="I50" s="14"/>
       <c r="J50" s="12"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="48"/>
+      <c r="L50" s="95"/>
       <c r="M50" s="12"/>
       <c r="N50" s="14"/>
       <c r="O50" s="4"/>
@@ -4434,22 +4434,22 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="56"/>
-      <c r="BB50" s="56"/>
-      <c r="BC50" s="56"/>
+      <c r="BA50" s="47"/>
+      <c r="BB50" s="47"/>
+      <c r="BC50" s="47"/>
     </row>
     <row r="51" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116"/>
       <c r="F51" s="12"/>
       <c r="G51" s="14"/>
       <c r="H51" s="12"/>
       <c r="I51" s="14"/>
       <c r="J51" s="12"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="48"/>
+      <c r="L51" s="95"/>
       <c r="M51" s="12"/>
       <c r="N51" s="14"/>
       <c r="O51" s="4"/>
@@ -4490,22 +4490,22 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="56"/>
-      <c r="BB51" s="56"/>
-      <c r="BC51" s="56"/>
+      <c r="BA51" s="47"/>
+      <c r="BB51" s="47"/>
+      <c r="BC51" s="47"/>
     </row>
     <row r="52" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="12"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="14"/>
       <c r="J52" s="12"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="48"/>
+      <c r="L52" s="95"/>
       <c r="M52" s="12"/>
       <c r="N52" s="14"/>
       <c r="O52" s="4"/>
@@ -4546,22 +4546,22 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="56"/>
-      <c r="BB52" s="56"/>
-      <c r="BC52" s="56"/>
+      <c r="BA52" s="47"/>
+      <c r="BB52" s="47"/>
+      <c r="BC52" s="47"/>
     </row>
     <row r="53" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
       <c r="I53" s="17"/>
       <c r="J53" s="15"/>
       <c r="K53" s="17"/>
-      <c r="L53" s="49"/>
+      <c r="L53" s="96"/>
       <c r="M53" s="15"/>
       <c r="N53" s="17"/>
       <c r="O53" s="4"/>
@@ -4602,9 +4602,9 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="56"/>
-      <c r="BB53" s="56"/>
-      <c r="BC53" s="56"/>
+      <c r="BA53" s="47"/>
+      <c r="BB53" s="47"/>
+      <c r="BC53" s="47"/>
     </row>
     <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="O54" s="4"/>
@@ -4645,9 +4645,9 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="56"/>
-      <c r="BB54" s="56"/>
-      <c r="BC54" s="56"/>
+      <c r="BA54" s="47"/>
+      <c r="BB54" s="47"/>
+      <c r="BC54" s="47"/>
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
@@ -4697,22 +4697,22 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
       <c r="AZ55" s="14"/>
-      <c r="BA55" s="56"/>
-      <c r="BB55" s="56"/>
-      <c r="BC55" s="56"/>
+      <c r="BA55" s="47"/>
+      <c r="BB55" s="47"/>
+      <c r="BC55" s="47"/>
     </row>
     <row r="56" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F56" s="102" t="s">
+      <c r="F56" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
-      <c r="L56" s="103"/>
-      <c r="M56" s="103"/>
-      <c r="N56" s="104"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="76"/>
       <c r="O56" s="4"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="14"/>
@@ -4751,20 +4751,20 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="14"/>
-      <c r="BA56" s="56"/>
-      <c r="BB56" s="56"/>
-      <c r="BC56" s="56"/>
+      <c r="BA56" s="47"/>
+      <c r="BB56" s="47"/>
+      <c r="BC56" s="47"/>
     </row>
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F57" s="105"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="107"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="79"/>
       <c r="O57" s="4"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="17"/>
@@ -4803,28 +4803,28 @@
       <c r="AX57" s="16"/>
       <c r="AY57" s="16"/>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="56"/>
-      <c r="BB57" s="56"/>
-      <c r="BC57" s="56"/>
+      <c r="BA57" s="47"/>
+      <c r="BB57" s="47"/>
+      <c r="BC57" s="47"/>
     </row>
     <row r="58" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="50" t="s">
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="52"/>
-      <c r="L58" s="99" t="s">
+      <c r="K58" s="42"/>
+      <c r="L58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="50" t="s">
+      <c r="M58" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="52"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -4868,15 +4868,15 @@
       <c r="BC58" s="4"/>
     </row>
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="100"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="67"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="44"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -4920,163 +4920,163 @@
       <c r="BC59" s="5"/>
     </row>
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="50" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="50" t="s">
+      <c r="G60" s="42"/>
+      <c r="H60" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="67"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="44"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="61" t="s">
+      <c r="P60" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="65" t="s">
+      <c r="Q60" s="108"/>
+      <c r="R60" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="S60" s="67"/>
-      <c r="T60" s="65" t="s">
+      <c r="S60" s="44"/>
+      <c r="T60" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="67"/>
-      <c r="V60" s="65" t="s">
+      <c r="U60" s="44"/>
+      <c r="V60" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="W60" s="67"/>
-      <c r="X60" s="65" t="s">
+      <c r="W60" s="44"/>
+      <c r="X60" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="65" t="s">
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="102"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="67"/>
-      <c r="AG60" s="65" t="s">
+      <c r="AC60" s="102"/>
+      <c r="AD60" s="102"/>
+      <c r="AE60" s="102"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="67"/>
-      <c r="AM60" s="65" t="s">
+      <c r="AH60" s="102"/>
+      <c r="AI60" s="102"/>
+      <c r="AJ60" s="102"/>
+      <c r="AK60" s="102"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AN60" s="67"/>
-      <c r="AO60" s="65" t="s">
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="AP60" s="66"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="67"/>
-      <c r="AU60" s="65" t="s">
+      <c r="AP60" s="102"/>
+      <c r="AQ60" s="102"/>
+      <c r="AR60" s="102"/>
+      <c r="AS60" s="102"/>
+      <c r="AT60" s="44"/>
+      <c r="AU60" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AV60" s="66"/>
-      <c r="AW60" s="66"/>
-      <c r="AX60" s="66"/>
-      <c r="AY60" s="66"/>
-      <c r="AZ60" s="67"/>
-      <c r="BA60" s="65" t="s">
+      <c r="AV60" s="102"/>
+      <c r="AW60" s="102"/>
+      <c r="AX60" s="102"/>
+      <c r="AY60" s="102"/>
+      <c r="AZ60" s="44"/>
+      <c r="BA60" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="BB60" s="66"/>
-      <c r="BC60" s="67"/>
+      <c r="BB60" s="102"/>
+      <c r="BC60" s="44"/>
     </row>
     <row r="61" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="55"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="53"/>
-      <c r="AH61" s="54"/>
-      <c r="AI61" s="54"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="53"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="53"/>
-      <c r="AP61" s="54"/>
-      <c r="AQ61" s="54"/>
-      <c r="AR61" s="54"/>
-      <c r="AS61" s="54"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="53"/>
-      <c r="AV61" s="54"/>
-      <c r="AW61" s="54"/>
-      <c r="AX61" s="54"/>
-      <c r="AY61" s="54"/>
-      <c r="AZ61" s="55"/>
-      <c r="BA61" s="53"/>
-      <c r="BB61" s="54"/>
-      <c r="BC61" s="55"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="45"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="46"/>
+      <c r="AM61" s="45"/>
+      <c r="AN61" s="46"/>
+      <c r="AO61" s="45"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="51"/>
+      <c r="AT61" s="46"/>
+      <c r="AU61" s="45"/>
+      <c r="AV61" s="51"/>
+      <c r="AW61" s="51"/>
+      <c r="AX61" s="51"/>
+      <c r="AY61" s="51"/>
+      <c r="AZ61" s="46"/>
+      <c r="BA61" s="45"/>
+      <c r="BB61" s="51"/>
+      <c r="BC61" s="46"/>
     </row>
     <row r="62" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="56" t="s">
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="56"/>
+      <c r="G62" s="47"/>
       <c r="H62" s="9" t="s">
         <v>119</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="56" t="s">
+      <c r="J62" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
       <c r="M62" s="9" t="s">
         <v>121</v>
       </c>
@@ -5123,14 +5123,14 @@
         <v>82</v>
       </c>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="56" t="s">
+      <c r="AO62" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="AP62" s="56"/>
-      <c r="AQ62" s="56"/>
-      <c r="AR62" s="56"/>
-      <c r="AS62" s="56"/>
-      <c r="AT62" s="56"/>
+      <c r="AP62" s="47"/>
+      <c r="AQ62" s="47"/>
+      <c r="AR62" s="47"/>
+      <c r="AS62" s="47"/>
+      <c r="AT62" s="47"/>
       <c r="AU62" s="9" t="s">
         <v>150</v>
       </c>
@@ -5146,17 +5146,17 @@
       <c r="BC62" s="11"/>
     </row>
     <row r="63" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
       <c r="M63" s="12"/>
       <c r="N63" s="14"/>
       <c r="O63" s="1"/>
@@ -5185,12 +5185,12 @@
       <c r="AL63" s="14"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="14"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="56"/>
-      <c r="AR63" s="56"/>
-      <c r="AS63" s="56"/>
-      <c r="AT63" s="56"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
+      <c r="AQ63" s="47"/>
+      <c r="AR63" s="47"/>
+      <c r="AS63" s="47"/>
+      <c r="AT63" s="47"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="13"/>
       <c r="AW63" s="13"/>
@@ -5202,17 +5202,17 @@
       <c r="BC63" s="14"/>
     </row>
     <row r="64" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
       <c r="M64" s="12"/>
       <c r="N64" s="14"/>
       <c r="O64" s="1"/>
@@ -5241,12 +5241,12 @@
       <c r="AL64" s="14"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="14"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="56"/>
-      <c r="AQ64" s="56"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
+      <c r="AQ64" s="47"/>
+      <c r="AR64" s="47"/>
+      <c r="AS64" s="47"/>
+      <c r="AT64" s="47"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
       <c r="AW64" s="13"/>
@@ -5258,17 +5258,17 @@
       <c r="BC64" s="14"/>
     </row>
     <row r="65" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
       <c r="M65" s="12"/>
       <c r="N65" s="14"/>
       <c r="O65" s="1"/>
@@ -5297,12 +5297,12 @@
       <c r="AL65" s="14"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="14"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="56"/>
-      <c r="AQ65" s="56"/>
-      <c r="AR65" s="56"/>
-      <c r="AS65" s="56"/>
-      <c r="AT65" s="56"/>
+      <c r="AO65" s="47"/>
+      <c r="AP65" s="47"/>
+      <c r="AQ65" s="47"/>
+      <c r="AR65" s="47"/>
+      <c r="AS65" s="47"/>
+      <c r="AT65" s="47"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="13"/>
       <c r="AW65" s="13"/>
@@ -5314,17 +5314,17 @@
       <c r="BC65" s="14"/>
     </row>
     <row r="66" spans="2:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
       <c r="M66" s="12"/>
       <c r="N66" s="14"/>
       <c r="O66" s="1"/>
@@ -5353,12 +5353,12 @@
       <c r="AL66" s="14"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="14"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="56"/>
-      <c r="AQ66" s="56"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
+      <c r="AO66" s="47"/>
+      <c r="AP66" s="47"/>
+      <c r="AQ66" s="47"/>
+      <c r="AR66" s="47"/>
+      <c r="AS66" s="47"/>
+      <c r="AT66" s="47"/>
       <c r="AU66" s="12"/>
       <c r="AV66" s="13"/>
       <c r="AW66" s="13"/>
@@ -5370,17 +5370,17 @@
       <c r="BC66" s="14"/>
     </row>
     <row r="67" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="1"/>
@@ -5409,12 +5409,12 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="17"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="56"/>
-      <c r="AQ67" s="56"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
+      <c r="AQ67" s="47"/>
+      <c r="AR67" s="47"/>
+      <c r="AS67" s="47"/>
+      <c r="AT67" s="47"/>
       <c r="AU67" s="15"/>
       <c r="AV67" s="16"/>
       <c r="AW67" s="16"/>
@@ -5426,10 +5426,10 @@
       <c r="BC67" s="17"/>
     </row>
     <row r="68" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="113"/>
       <c r="F68" s="9" t="s">
         <v>122</v>
       </c>
@@ -5442,11 +5442,11 @@
         <v>123</v>
       </c>
       <c r="K68" s="11"/>
-      <c r="L68" s="47" t="s">
+      <c r="L68" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
       <c r="O68" s="1"/>
       <c r="P68" s="9" t="s">
         <v>22</v>
@@ -5485,26 +5485,26 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="56" t="s">
+      <c r="AM68" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56" t="s">
+      <c r="AN68" s="47"/>
+      <c r="AO68" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="56"/>
-      <c r="AQ68" s="56"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="56"/>
-      <c r="AU68" s="56" t="s">
+      <c r="AP68" s="47"/>
+      <c r="AQ68" s="47"/>
+      <c r="AR68" s="47"/>
+      <c r="AS68" s="47"/>
+      <c r="AT68" s="47"/>
+      <c r="AU68" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AV68" s="56"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="56"/>
+      <c r="AV68" s="47"/>
+      <c r="AW68" s="47"/>
+      <c r="AX68" s="47"/>
+      <c r="AY68" s="47"/>
+      <c r="AZ68" s="47"/>
       <c r="BA68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5512,19 +5512,19 @@
       <c r="BC68" s="11"/>
     </row>
     <row r="69" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="116"/>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
       <c r="H69" s="12"/>
       <c r="I69" s="14"/>
       <c r="J69" s="12"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
       <c r="O69" s="1"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="14"/>
@@ -5549,38 +5549,38 @@
       <c r="AJ69" s="13"/>
       <c r="AK69" s="13"/>
       <c r="AL69" s="14"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="56"/>
-      <c r="AQ69" s="56"/>
-      <c r="AR69" s="56"/>
-      <c r="AS69" s="56"/>
-      <c r="AT69" s="56"/>
-      <c r="AU69" s="56"/>
-      <c r="AV69" s="56"/>
-      <c r="AW69" s="56"/>
-      <c r="AX69" s="56"/>
-      <c r="AY69" s="56"/>
-      <c r="AZ69" s="56"/>
+      <c r="AM69" s="47"/>
+      <c r="AN69" s="47"/>
+      <c r="AO69" s="47"/>
+      <c r="AP69" s="47"/>
+      <c r="AQ69" s="47"/>
+      <c r="AR69" s="47"/>
+      <c r="AS69" s="47"/>
+      <c r="AT69" s="47"/>
+      <c r="AU69" s="47"/>
+      <c r="AV69" s="47"/>
+      <c r="AW69" s="47"/>
+      <c r="AX69" s="47"/>
+      <c r="AY69" s="47"/>
+      <c r="AZ69" s="47"/>
       <c r="BA69" s="12"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="14"/>
     </row>
     <row r="70" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="116"/>
       <c r="F70" s="12"/>
       <c r="G70" s="14"/>
       <c r="H70" s="12"/>
       <c r="I70" s="14"/>
       <c r="J70" s="12"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
       <c r="O70" s="1"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="14"/>
@@ -5605,38 +5605,38 @@
       <c r="AJ70" s="13"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="14"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="56"/>
-      <c r="AQ70" s="56"/>
-      <c r="AR70" s="56"/>
-      <c r="AS70" s="56"/>
-      <c r="AT70" s="56"/>
-      <c r="AU70" s="56"/>
-      <c r="AV70" s="56"/>
-      <c r="AW70" s="56"/>
-      <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
-      <c r="AZ70" s="56"/>
+      <c r="AM70" s="47"/>
+      <c r="AN70" s="47"/>
+      <c r="AO70" s="47"/>
+      <c r="AP70" s="47"/>
+      <c r="AQ70" s="47"/>
+      <c r="AR70" s="47"/>
+      <c r="AS70" s="47"/>
+      <c r="AT70" s="47"/>
+      <c r="AU70" s="47"/>
+      <c r="AV70" s="47"/>
+      <c r="AW70" s="47"/>
+      <c r="AX70" s="47"/>
+      <c r="AY70" s="47"/>
+      <c r="AZ70" s="47"/>
       <c r="BA70" s="12"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="14"/>
     </row>
     <row r="71" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="115"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116"/>
       <c r="F71" s="12"/>
       <c r="G71" s="14"/>
       <c r="H71" s="12"/>
       <c r="I71" s="14"/>
       <c r="J71" s="12"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
       <c r="O71" s="1"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="14"/>
@@ -5661,38 +5661,38 @@
       <c r="AJ71" s="13"/>
       <c r="AK71" s="13"/>
       <c r="AL71" s="14"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="56"/>
-      <c r="AQ71" s="56"/>
-      <c r="AR71" s="56"/>
-      <c r="AS71" s="56"/>
-      <c r="AT71" s="56"/>
-      <c r="AU71" s="56"/>
-      <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
-      <c r="AX71" s="56"/>
-      <c r="AY71" s="56"/>
-      <c r="AZ71" s="56"/>
+      <c r="AM71" s="47"/>
+      <c r="AN71" s="47"/>
+      <c r="AO71" s="47"/>
+      <c r="AP71" s="47"/>
+      <c r="AQ71" s="47"/>
+      <c r="AR71" s="47"/>
+      <c r="AS71" s="47"/>
+      <c r="AT71" s="47"/>
+      <c r="AU71" s="47"/>
+      <c r="AV71" s="47"/>
+      <c r="AW71" s="47"/>
+      <c r="AX71" s="47"/>
+      <c r="AY71" s="47"/>
+      <c r="AZ71" s="47"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="14"/>
     </row>
     <row r="72" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="116"/>
       <c r="F72" s="12"/>
       <c r="G72" s="14"/>
       <c r="H72" s="12"/>
       <c r="I72" s="14"/>
       <c r="J72" s="12"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
       <c r="O72" s="1"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="14"/>
@@ -5717,38 +5717,38 @@
       <c r="AJ72" s="13"/>
       <c r="AK72" s="13"/>
       <c r="AL72" s="14"/>
-      <c r="AM72" s="56"/>
-      <c r="AN72" s="56"/>
-      <c r="AO72" s="56"/>
-      <c r="AP72" s="56"/>
-      <c r="AQ72" s="56"/>
-      <c r="AR72" s="56"/>
-      <c r="AS72" s="56"/>
-      <c r="AT72" s="56"/>
-      <c r="AU72" s="56"/>
-      <c r="AV72" s="56"/>
-      <c r="AW72" s="56"/>
-      <c r="AX72" s="56"/>
-      <c r="AY72" s="56"/>
-      <c r="AZ72" s="56"/>
+      <c r="AM72" s="47"/>
+      <c r="AN72" s="47"/>
+      <c r="AO72" s="47"/>
+      <c r="AP72" s="47"/>
+      <c r="AQ72" s="47"/>
+      <c r="AR72" s="47"/>
+      <c r="AS72" s="47"/>
+      <c r="AT72" s="47"/>
+      <c r="AU72" s="47"/>
+      <c r="AV72" s="47"/>
+      <c r="AW72" s="47"/>
+      <c r="AX72" s="47"/>
+      <c r="AY72" s="47"/>
+      <c r="AZ72" s="47"/>
       <c r="BA72" s="12"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="14"/>
     </row>
     <row r="73" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="116"/>
       <c r="F73" s="12"/>
       <c r="G73" s="14"/>
       <c r="H73" s="12"/>
       <c r="I73" s="14"/>
       <c r="J73" s="12"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
       <c r="O73" s="1"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="14"/>
@@ -5773,38 +5773,38 @@
       <c r="AJ73" s="13"/>
       <c r="AK73" s="13"/>
       <c r="AL73" s="14"/>
-      <c r="AM73" s="56"/>
-      <c r="AN73" s="56"/>
-      <c r="AO73" s="56"/>
-      <c r="AP73" s="56"/>
-      <c r="AQ73" s="56"/>
-      <c r="AR73" s="56"/>
-      <c r="AS73" s="56"/>
-      <c r="AT73" s="56"/>
-      <c r="AU73" s="56"/>
-      <c r="AV73" s="56"/>
-      <c r="AW73" s="56"/>
-      <c r="AX73" s="56"/>
-      <c r="AY73" s="56"/>
-      <c r="AZ73" s="56"/>
+      <c r="AM73" s="47"/>
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="47"/>
+      <c r="AQ73" s="47"/>
+      <c r="AR73" s="47"/>
+      <c r="AS73" s="47"/>
+      <c r="AT73" s="47"/>
+      <c r="AU73" s="47"/>
+      <c r="AV73" s="47"/>
+      <c r="AW73" s="47"/>
+      <c r="AX73" s="47"/>
+      <c r="AY73" s="47"/>
+      <c r="AZ73" s="47"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="14"/>
     </row>
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="116"/>
       <c r="F74" s="12"/>
       <c r="G74" s="14"/>
       <c r="H74" s="12"/>
       <c r="I74" s="14"/>
       <c r="J74" s="12"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
       <c r="O74" s="1"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="14"/>
@@ -5829,38 +5829,38 @@
       <c r="AJ74" s="13"/>
       <c r="AK74" s="13"/>
       <c r="AL74" s="14"/>
-      <c r="AM74" s="56"/>
-      <c r="AN74" s="56"/>
-      <c r="AO74" s="56"/>
-      <c r="AP74" s="56"/>
-      <c r="AQ74" s="56"/>
-      <c r="AR74" s="56"/>
-      <c r="AS74" s="56"/>
-      <c r="AT74" s="56"/>
-      <c r="AU74" s="56"/>
-      <c r="AV74" s="56"/>
-      <c r="AW74" s="56"/>
-      <c r="AX74" s="56"/>
-      <c r="AY74" s="56"/>
-      <c r="AZ74" s="56"/>
+      <c r="AM74" s="47"/>
+      <c r="AN74" s="47"/>
+      <c r="AO74" s="47"/>
+      <c r="AP74" s="47"/>
+      <c r="AQ74" s="47"/>
+      <c r="AR74" s="47"/>
+      <c r="AS74" s="47"/>
+      <c r="AT74" s="47"/>
+      <c r="AU74" s="47"/>
+      <c r="AV74" s="47"/>
+      <c r="AW74" s="47"/>
+      <c r="AX74" s="47"/>
+      <c r="AY74" s="47"/>
+      <c r="AZ74" s="47"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="14"/>
     </row>
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="116"/>
       <c r="F75" s="12"/>
       <c r="G75" s="14"/>
       <c r="H75" s="12"/>
       <c r="I75" s="14"/>
       <c r="J75" s="12"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
+      <c r="L75" s="95"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
       <c r="O75" s="1"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="14"/>
@@ -5885,38 +5885,38 @@
       <c r="AJ75" s="13"/>
       <c r="AK75" s="13"/>
       <c r="AL75" s="14"/>
-      <c r="AM75" s="56"/>
-      <c r="AN75" s="56"/>
-      <c r="AO75" s="56"/>
-      <c r="AP75" s="56"/>
-      <c r="AQ75" s="56"/>
-      <c r="AR75" s="56"/>
-      <c r="AS75" s="56"/>
-      <c r="AT75" s="56"/>
-      <c r="AU75" s="56"/>
-      <c r="AV75" s="56"/>
-      <c r="AW75" s="56"/>
-      <c r="AX75" s="56"/>
-      <c r="AY75" s="56"/>
-      <c r="AZ75" s="56"/>
+      <c r="AM75" s="47"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="47"/>
+      <c r="AP75" s="47"/>
+      <c r="AQ75" s="47"/>
+      <c r="AR75" s="47"/>
+      <c r="AS75" s="47"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="47"/>
+      <c r="AW75" s="47"/>
+      <c r="AX75" s="47"/>
+      <c r="AY75" s="47"/>
+      <c r="AZ75" s="47"/>
       <c r="BA75" s="12"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="14"/>
     </row>
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="116"/>
       <c r="F76" s="12"/>
       <c r="G76" s="14"/>
       <c r="H76" s="12"/>
       <c r="I76" s="14"/>
       <c r="J76" s="12"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
+      <c r="L76" s="95"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
       <c r="O76" s="1"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="14"/>
@@ -5941,38 +5941,38 @@
       <c r="AJ76" s="13"/>
       <c r="AK76" s="13"/>
       <c r="AL76" s="14"/>
-      <c r="AM76" s="56"/>
-      <c r="AN76" s="56"/>
-      <c r="AO76" s="56"/>
-      <c r="AP76" s="56"/>
-      <c r="AQ76" s="56"/>
-      <c r="AR76" s="56"/>
-      <c r="AS76" s="56"/>
-      <c r="AT76" s="56"/>
-      <c r="AU76" s="56"/>
-      <c r="AV76" s="56"/>
-      <c r="AW76" s="56"/>
-      <c r="AX76" s="56"/>
-      <c r="AY76" s="56"/>
-      <c r="AZ76" s="56"/>
+      <c r="AM76" s="47"/>
+      <c r="AN76" s="47"/>
+      <c r="AO76" s="47"/>
+      <c r="AP76" s="47"/>
+      <c r="AQ76" s="47"/>
+      <c r="AR76" s="47"/>
+      <c r="AS76" s="47"/>
+      <c r="AT76" s="47"/>
+      <c r="AU76" s="47"/>
+      <c r="AV76" s="47"/>
+      <c r="AW76" s="47"/>
+      <c r="AX76" s="47"/>
+      <c r="AY76" s="47"/>
+      <c r="AZ76" s="47"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="14"/>
     </row>
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119"/>
       <c r="F77" s="15"/>
       <c r="G77" s="17"/>
       <c r="H77" s="15"/>
       <c r="I77" s="17"/>
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
       <c r="O77" s="1"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="14"/>
@@ -5997,29 +5997,29 @@
       <c r="AJ77" s="13"/>
       <c r="AK77" s="13"/>
       <c r="AL77" s="14"/>
-      <c r="AM77" s="47"/>
-      <c r="AN77" s="47"/>
-      <c r="AO77" s="47"/>
-      <c r="AP77" s="47"/>
-      <c r="AQ77" s="47"/>
-      <c r="AR77" s="47"/>
-      <c r="AS77" s="47"/>
-      <c r="AT77" s="47"/>
-      <c r="AU77" s="47"/>
-      <c r="AV77" s="47"/>
-      <c r="AW77" s="47"/>
-      <c r="AX77" s="47"/>
-      <c r="AY77" s="47"/>
-      <c r="AZ77" s="47"/>
+      <c r="AM77" s="82"/>
+      <c r="AN77" s="82"/>
+      <c r="AO77" s="82"/>
+      <c r="AP77" s="82"/>
+      <c r="AQ77" s="82"/>
+      <c r="AR77" s="82"/>
+      <c r="AS77" s="82"/>
+      <c r="AT77" s="82"/>
+      <c r="AU77" s="82"/>
+      <c r="AV77" s="82"/>
+      <c r="AW77" s="82"/>
+      <c r="AX77" s="82"/>
+      <c r="AY77" s="82"/>
+      <c r="AZ77" s="82"/>
       <c r="BA77" s="12"/>
       <c r="BB77" s="13"/>
       <c r="BC77" s="14"/>
     </row>
     <row r="78" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="113"/>
       <c r="F78" s="9" t="s">
         <v>125</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="11"/>
-      <c r="L78" s="47" t="s">
+      <c r="L78" s="82" t="s">
         <v>126</v>
       </c>
       <c r="M78" s="9" t="s">
@@ -6040,572 +6040,572 @@
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="56" t="s">
+      <c r="P78" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="69" t="s">
+      <c r="Q78" s="47"/>
+      <c r="R78" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S78" s="69"/>
-      <c r="T78" s="56" t="s">
+      <c r="S78" s="101"/>
+      <c r="T78" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="U78" s="56"/>
-      <c r="V78" s="56" t="s">
+      <c r="U78" s="47"/>
+      <c r="V78" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56" t="s">
+      <c r="W78" s="47"/>
+      <c r="X78" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="56"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="56"/>
-      <c r="AB78" s="56" t="s">
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="56"/>
-      <c r="AD78" s="56"/>
-      <c r="AE78" s="56"/>
-      <c r="AF78" s="56"/>
-      <c r="AG78" s="56" t="s">
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AH78" s="56"/>
-      <c r="AI78" s="56"/>
-      <c r="AJ78" s="56"/>
-      <c r="AK78" s="56"/>
-      <c r="AL78" s="56"/>
-      <c r="AM78" s="56" t="s">
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="47"/>
+      <c r="AL78" s="47"/>
+      <c r="AM78" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="AN78" s="56"/>
-      <c r="AO78" s="68" t="s">
+      <c r="AN78" s="47"/>
+      <c r="AO78" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="AP78" s="68"/>
-      <c r="AQ78" s="68"/>
-      <c r="AR78" s="68"/>
-      <c r="AS78" s="68"/>
-      <c r="AT78" s="68"/>
-      <c r="AU78" s="56" t="s">
+      <c r="AP78" s="120"/>
+      <c r="AQ78" s="120"/>
+      <c r="AR78" s="120"/>
+      <c r="AS78" s="120"/>
+      <c r="AT78" s="120"/>
+      <c r="AU78" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="AV78" s="56"/>
-      <c r="AW78" s="56"/>
-      <c r="AX78" s="56"/>
-      <c r="AY78" s="56"/>
-      <c r="AZ78" s="56"/>
-      <c r="BA78" s="56" t="s">
+      <c r="AV78" s="47"/>
+      <c r="AW78" s="47"/>
+      <c r="AX78" s="47"/>
+      <c r="AY78" s="47"/>
+      <c r="AZ78" s="47"/>
+      <c r="BA78" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="BB78" s="56"/>
-      <c r="BC78" s="56"/>
+      <c r="BB78" s="47"/>
+      <c r="BC78" s="47"/>
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="116"/>
       <c r="F79" s="12"/>
       <c r="G79" s="14"/>
       <c r="H79" s="12"/>
       <c r="I79" s="14"/>
       <c r="J79" s="12"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="48"/>
+      <c r="L79" s="95"/>
       <c r="M79" s="12"/>
       <c r="N79" s="14"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="69"/>
-      <c r="S79" s="69"/>
-      <c r="T79" s="56"/>
-      <c r="U79" s="56"/>
-      <c r="V79" s="56"/>
-      <c r="W79" s="56"/>
-      <c r="X79" s="56"/>
-      <c r="Y79" s="56"/>
-      <c r="Z79" s="56"/>
-      <c r="AA79" s="56"/>
-      <c r="AB79" s="56"/>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="56"/>
-      <c r="AE79" s="56"/>
-      <c r="AF79" s="56"/>
-      <c r="AG79" s="56"/>
-      <c r="AH79" s="56"/>
-      <c r="AI79" s="56"/>
-      <c r="AJ79" s="56"/>
-      <c r="AK79" s="56"/>
-      <c r="AL79" s="56"/>
-      <c r="AM79" s="56"/>
-      <c r="AN79" s="56"/>
-      <c r="AO79" s="68"/>
-      <c r="AP79" s="68"/>
-      <c r="AQ79" s="68"/>
-      <c r="AR79" s="68"/>
-      <c r="AS79" s="68"/>
-      <c r="AT79" s="68"/>
-      <c r="AU79" s="56"/>
-      <c r="AV79" s="56"/>
-      <c r="AW79" s="56"/>
-      <c r="AX79" s="56"/>
-      <c r="AY79" s="56"/>
-      <c r="AZ79" s="56"/>
-      <c r="BA79" s="56"/>
-      <c r="BB79" s="56"/>
-      <c r="BC79" s="56"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="101"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="47"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="120"/>
+      <c r="AP79" s="120"/>
+      <c r="AQ79" s="120"/>
+      <c r="AR79" s="120"/>
+      <c r="AS79" s="120"/>
+      <c r="AT79" s="120"/>
+      <c r="AU79" s="47"/>
+      <c r="AV79" s="47"/>
+      <c r="AW79" s="47"/>
+      <c r="AX79" s="47"/>
+      <c r="AY79" s="47"/>
+      <c r="AZ79" s="47"/>
+      <c r="BA79" s="47"/>
+      <c r="BB79" s="47"/>
+      <c r="BC79" s="47"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="116"/>
       <c r="F80" s="12"/>
       <c r="G80" s="14"/>
       <c r="H80" s="12"/>
       <c r="I80" s="14"/>
       <c r="J80" s="12"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="48"/>
+      <c r="L80" s="95"/>
       <c r="M80" s="12"/>
       <c r="N80" s="14"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="69"/>
-      <c r="S80" s="69"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="68"/>
-      <c r="AP80" s="68"/>
-      <c r="AQ80" s="68"/>
-      <c r="AR80" s="68"/>
-      <c r="AS80" s="68"/>
-      <c r="AT80" s="68"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="56"/>
-      <c r="BA80" s="56"/>
-      <c r="BB80" s="56"/>
-      <c r="BC80" s="56"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="101"/>
+      <c r="S80" s="101"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="47"/>
+      <c r="AE80" s="47"/>
+      <c r="AF80" s="47"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="47"/>
+      <c r="AK80" s="47"/>
+      <c r="AL80" s="47"/>
+      <c r="AM80" s="47"/>
+      <c r="AN80" s="47"/>
+      <c r="AO80" s="120"/>
+      <c r="AP80" s="120"/>
+      <c r="AQ80" s="120"/>
+      <c r="AR80" s="120"/>
+      <c r="AS80" s="120"/>
+      <c r="AT80" s="120"/>
+      <c r="AU80" s="47"/>
+      <c r="AV80" s="47"/>
+      <c r="AW80" s="47"/>
+      <c r="AX80" s="47"/>
+      <c r="AY80" s="47"/>
+      <c r="AZ80" s="47"/>
+      <c r="BA80" s="47"/>
+      <c r="BB80" s="47"/>
+      <c r="BC80" s="47"/>
     </row>
     <row r="81" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116"/>
       <c r="F81" s="12"/>
       <c r="G81" s="14"/>
       <c r="H81" s="12"/>
       <c r="I81" s="14"/>
       <c r="J81" s="12"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="48"/>
+      <c r="L81" s="95"/>
       <c r="M81" s="12"/>
       <c r="N81" s="14"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="69"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="68"/>
-      <c r="AP81" s="68"/>
-      <c r="AQ81" s="68"/>
-      <c r="AR81" s="68"/>
-      <c r="AS81" s="68"/>
-      <c r="AT81" s="68"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="56"/>
-      <c r="BA81" s="56"/>
-      <c r="BB81" s="56"/>
-      <c r="BC81" s="56"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="101"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
+      <c r="AD81" s="47"/>
+      <c r="AE81" s="47"/>
+      <c r="AF81" s="47"/>
+      <c r="AG81" s="47"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="47"/>
+      <c r="AJ81" s="47"/>
+      <c r="AK81" s="47"/>
+      <c r="AL81" s="47"/>
+      <c r="AM81" s="47"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="120"/>
+      <c r="AP81" s="120"/>
+      <c r="AQ81" s="120"/>
+      <c r="AR81" s="120"/>
+      <c r="AS81" s="120"/>
+      <c r="AT81" s="120"/>
+      <c r="AU81" s="47"/>
+      <c r="AV81" s="47"/>
+      <c r="AW81" s="47"/>
+      <c r="AX81" s="47"/>
+      <c r="AY81" s="47"/>
+      <c r="AZ81" s="47"/>
+      <c r="BA81" s="47"/>
+      <c r="BB81" s="47"/>
+      <c r="BC81" s="47"/>
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="116"/>
       <c r="F82" s="12"/>
       <c r="G82" s="14"/>
       <c r="H82" s="12"/>
       <c r="I82" s="14"/>
       <c r="J82" s="12"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="48"/>
+      <c r="L82" s="95"/>
       <c r="M82" s="12"/>
       <c r="N82" s="14"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="69"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="68"/>
-      <c r="AP82" s="68"/>
-      <c r="AQ82" s="68"/>
-      <c r="AR82" s="68"/>
-      <c r="AS82" s="68"/>
-      <c r="AT82" s="68"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="56"/>
-      <c r="BA82" s="56"/>
-      <c r="BB82" s="56"/>
-      <c r="BC82" s="56"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="101"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="47"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="47"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="47"/>
+      <c r="AL82" s="47"/>
+      <c r="AM82" s="47"/>
+      <c r="AN82" s="47"/>
+      <c r="AO82" s="120"/>
+      <c r="AP82" s="120"/>
+      <c r="AQ82" s="120"/>
+      <c r="AR82" s="120"/>
+      <c r="AS82" s="120"/>
+      <c r="AT82" s="120"/>
+      <c r="AU82" s="47"/>
+      <c r="AV82" s="47"/>
+      <c r="AW82" s="47"/>
+      <c r="AX82" s="47"/>
+      <c r="AY82" s="47"/>
+      <c r="AZ82" s="47"/>
+      <c r="BA82" s="47"/>
+      <c r="BB82" s="47"/>
+      <c r="BC82" s="47"/>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="12"/>
       <c r="G83" s="14"/>
       <c r="H83" s="12"/>
       <c r="I83" s="14"/>
       <c r="J83" s="12"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="48"/>
+      <c r="L83" s="95"/>
       <c r="M83" s="12"/>
       <c r="N83" s="14"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="69"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="68"/>
-      <c r="AP83" s="68"/>
-      <c r="AQ83" s="68"/>
-      <c r="AR83" s="68"/>
-      <c r="AS83" s="68"/>
-      <c r="AT83" s="68"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="56"/>
-      <c r="BA83" s="56"/>
-      <c r="BB83" s="56"/>
-      <c r="BC83" s="56"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="47"/>
+      <c r="AC83" s="47"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="47"/>
+      <c r="AF83" s="47"/>
+      <c r="AG83" s="47"/>
+      <c r="AH83" s="47"/>
+      <c r="AI83" s="47"/>
+      <c r="AJ83" s="47"/>
+      <c r="AK83" s="47"/>
+      <c r="AL83" s="47"/>
+      <c r="AM83" s="47"/>
+      <c r="AN83" s="47"/>
+      <c r="AO83" s="120"/>
+      <c r="AP83" s="120"/>
+      <c r="AQ83" s="120"/>
+      <c r="AR83" s="120"/>
+      <c r="AS83" s="120"/>
+      <c r="AT83" s="120"/>
+      <c r="AU83" s="47"/>
+      <c r="AV83" s="47"/>
+      <c r="AW83" s="47"/>
+      <c r="AX83" s="47"/>
+      <c r="AY83" s="47"/>
+      <c r="AZ83" s="47"/>
+      <c r="BA83" s="47"/>
+      <c r="BB83" s="47"/>
+      <c r="BC83" s="47"/>
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="116"/>
       <c r="F84" s="12"/>
       <c r="G84" s="14"/>
       <c r="H84" s="12"/>
       <c r="I84" s="14"/>
       <c r="J84" s="12"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="48"/>
+      <c r="L84" s="95"/>
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="69"/>
-      <c r="S84" s="69"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="68"/>
-      <c r="AP84" s="68"/>
-      <c r="AQ84" s="68"/>
-      <c r="AR84" s="68"/>
-      <c r="AS84" s="68"/>
-      <c r="AT84" s="68"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="56"/>
-      <c r="BA84" s="56"/>
-      <c r="BB84" s="56"/>
-      <c r="BC84" s="56"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="101"/>
+      <c r="S84" s="101"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="47"/>
+      <c r="AA84" s="47"/>
+      <c r="AB84" s="47"/>
+      <c r="AC84" s="47"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="47"/>
+      <c r="AF84" s="47"/>
+      <c r="AG84" s="47"/>
+      <c r="AH84" s="47"/>
+      <c r="AI84" s="47"/>
+      <c r="AJ84" s="47"/>
+      <c r="AK84" s="47"/>
+      <c r="AL84" s="47"/>
+      <c r="AM84" s="47"/>
+      <c r="AN84" s="47"/>
+      <c r="AO84" s="120"/>
+      <c r="AP84" s="120"/>
+      <c r="AQ84" s="120"/>
+      <c r="AR84" s="120"/>
+      <c r="AS84" s="120"/>
+      <c r="AT84" s="120"/>
+      <c r="AU84" s="47"/>
+      <c r="AV84" s="47"/>
+      <c r="AW84" s="47"/>
+      <c r="AX84" s="47"/>
+      <c r="AY84" s="47"/>
+      <c r="AZ84" s="47"/>
+      <c r="BA84" s="47"/>
+      <c r="BB84" s="47"/>
+      <c r="BC84" s="47"/>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="115"/>
+      <c r="E85" s="116"/>
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
       <c r="H85" s="12"/>
       <c r="I85" s="14"/>
       <c r="J85" s="12"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="48"/>
+      <c r="L85" s="95"/>
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="69"/>
-      <c r="S85" s="69"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="68"/>
-      <c r="AP85" s="68"/>
-      <c r="AQ85" s="68"/>
-      <c r="AR85" s="68"/>
-      <c r="AS85" s="68"/>
-      <c r="AT85" s="68"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="56"/>
-      <c r="BA85" s="56"/>
-      <c r="BB85" s="56"/>
-      <c r="BC85" s="56"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="101"/>
+      <c r="S85" s="101"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="47"/>
+      <c r="Z85" s="47"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="47"/>
+      <c r="AC85" s="47"/>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="47"/>
+      <c r="AF85" s="47"/>
+      <c r="AG85" s="47"/>
+      <c r="AH85" s="47"/>
+      <c r="AI85" s="47"/>
+      <c r="AJ85" s="47"/>
+      <c r="AK85" s="47"/>
+      <c r="AL85" s="47"/>
+      <c r="AM85" s="47"/>
+      <c r="AN85" s="47"/>
+      <c r="AO85" s="120"/>
+      <c r="AP85" s="120"/>
+      <c r="AQ85" s="120"/>
+      <c r="AR85" s="120"/>
+      <c r="AS85" s="120"/>
+      <c r="AT85" s="120"/>
+      <c r="AU85" s="47"/>
+      <c r="AV85" s="47"/>
+      <c r="AW85" s="47"/>
+      <c r="AX85" s="47"/>
+      <c r="AY85" s="47"/>
+      <c r="AZ85" s="47"/>
+      <c r="BA85" s="47"/>
+      <c r="BB85" s="47"/>
+      <c r="BC85" s="47"/>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="116"/>
       <c r="F86" s="12"/>
       <c r="G86" s="14"/>
       <c r="H86" s="12"/>
       <c r="I86" s="14"/>
       <c r="J86" s="12"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="48"/>
+      <c r="L86" s="95"/>
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="69"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="68"/>
-      <c r="AP86" s="68"/>
-      <c r="AQ86" s="68"/>
-      <c r="AR86" s="68"/>
-      <c r="AS86" s="68"/>
-      <c r="AT86" s="68"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="56"/>
-      <c r="BA86" s="56"/>
-      <c r="BB86" s="56"/>
-      <c r="BC86" s="56"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="101"/>
+      <c r="S86" s="101"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="47"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="47"/>
+      <c r="AD86" s="47"/>
+      <c r="AE86" s="47"/>
+      <c r="AF86" s="47"/>
+      <c r="AG86" s="47"/>
+      <c r="AH86" s="47"/>
+      <c r="AI86" s="47"/>
+      <c r="AJ86" s="47"/>
+      <c r="AK86" s="47"/>
+      <c r="AL86" s="47"/>
+      <c r="AM86" s="47"/>
+      <c r="AN86" s="47"/>
+      <c r="AO86" s="120"/>
+      <c r="AP86" s="120"/>
+      <c r="AQ86" s="120"/>
+      <c r="AR86" s="120"/>
+      <c r="AS86" s="120"/>
+      <c r="AT86" s="120"/>
+      <c r="AU86" s="47"/>
+      <c r="AV86" s="47"/>
+      <c r="AW86" s="47"/>
+      <c r="AX86" s="47"/>
+      <c r="AY86" s="47"/>
+      <c r="AZ86" s="47"/>
+      <c r="BA86" s="47"/>
+      <c r="BB86" s="47"/>
+      <c r="BC86" s="47"/>
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="119"/>
       <c r="F87" s="15"/>
       <c r="G87" s="17"/>
       <c r="H87" s="15"/>
       <c r="I87" s="17"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="49"/>
+      <c r="L87" s="96"/>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="69"/>
-      <c r="S87" s="69"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="68"/>
-      <c r="AP87" s="68"/>
-      <c r="AQ87" s="68"/>
-      <c r="AR87" s="68"/>
-      <c r="AS87" s="68"/>
-      <c r="AT87" s="68"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="56"/>
-      <c r="BA87" s="56"/>
-      <c r="BB87" s="56"/>
-      <c r="BC87" s="56"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="101"/>
+      <c r="S87" s="101"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="47"/>
+      <c r="AD87" s="47"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="47"/>
+      <c r="AI87" s="47"/>
+      <c r="AJ87" s="47"/>
+      <c r="AK87" s="47"/>
+      <c r="AL87" s="47"/>
+      <c r="AM87" s="47"/>
+      <c r="AN87" s="47"/>
+      <c r="AO87" s="120"/>
+      <c r="AP87" s="120"/>
+      <c r="AQ87" s="120"/>
+      <c r="AR87" s="120"/>
+      <c r="AS87" s="120"/>
+      <c r="AT87" s="120"/>
+      <c r="AU87" s="47"/>
+      <c r="AV87" s="47"/>
+      <c r="AW87" s="47"/>
+      <c r="AX87" s="47"/>
+      <c r="AY87" s="47"/>
+      <c r="AZ87" s="47"/>
+      <c r="BA87" s="47"/>
+      <c r="BB87" s="47"/>
+      <c r="BC87" s="47"/>
     </row>
     <row r="88" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" s="1"/>
@@ -7142,151 +7142,151 @@
       <c r="BC99" s="4"/>
     </row>
     <row r="100" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F100" s="72" t="s">
+      <c r="F100" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="99"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="99"/>
+      <c r="M100" s="99"/>
+      <c r="N100" s="99"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="73" t="s">
+      <c r="P100" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="74" t="s">
+      <c r="Q100" s="100"/>
+      <c r="R100" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74" t="s">
+      <c r="S100" s="81"/>
+      <c r="T100" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74" t="s">
+      <c r="U100" s="81"/>
+      <c r="V100" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="W100" s="74"/>
-      <c r="X100" s="74" t="s">
+      <c r="W100" s="81"/>
+      <c r="X100" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Y100" s="74"/>
-      <c r="Z100" s="74"/>
-      <c r="AA100" s="74"/>
-      <c r="AB100" s="74" t="s">
+      <c r="Y100" s="81"/>
+      <c r="Z100" s="81"/>
+      <c r="AA100" s="81"/>
+      <c r="AB100" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AC100" s="74"/>
-      <c r="AD100" s="74"/>
-      <c r="AE100" s="74"/>
-      <c r="AF100" s="74"/>
-      <c r="AG100" s="74" t="s">
+      <c r="AC100" s="81"/>
+      <c r="AD100" s="81"/>
+      <c r="AE100" s="81"/>
+      <c r="AF100" s="81"/>
+      <c r="AG100" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="AH100" s="74"/>
-      <c r="AI100" s="74"/>
-      <c r="AJ100" s="74"/>
-      <c r="AK100" s="74"/>
-      <c r="AL100" s="74"/>
-      <c r="AM100" s="74" t="s">
+      <c r="AH100" s="81"/>
+      <c r="AI100" s="81"/>
+      <c r="AJ100" s="81"/>
+      <c r="AK100" s="81"/>
+      <c r="AL100" s="81"/>
+      <c r="AM100" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="AN100" s="74"/>
-      <c r="AO100" s="74" t="s">
+      <c r="AN100" s="81"/>
+      <c r="AO100" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AP100" s="74"/>
-      <c r="AQ100" s="74"/>
-      <c r="AR100" s="74"/>
-      <c r="AS100" s="74"/>
-      <c r="AT100" s="74"/>
-      <c r="AU100" s="74" t="s">
+      <c r="AP100" s="81"/>
+      <c r="AQ100" s="81"/>
+      <c r="AR100" s="81"/>
+      <c r="AS100" s="81"/>
+      <c r="AT100" s="81"/>
+      <c r="AU100" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AV100" s="74"/>
-      <c r="AW100" s="74"/>
-      <c r="AX100" s="74"/>
-      <c r="AY100" s="74"/>
-      <c r="AZ100" s="74"/>
-      <c r="BA100" s="74" t="s">
+      <c r="AV100" s="81"/>
+      <c r="AW100" s="81"/>
+      <c r="AX100" s="81"/>
+      <c r="AY100" s="81"/>
+      <c r="AZ100" s="81"/>
+      <c r="BA100" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="BB100" s="74"/>
-      <c r="BC100" s="74"/>
+      <c r="BB100" s="81"/>
+      <c r="BC100" s="81"/>
     </row>
     <row r="101" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="99"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="73"/>
-      <c r="Q101" s="73"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="74"/>
-      <c r="X101" s="74"/>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
-      <c r="AA101" s="74"/>
-      <c r="AB101" s="74"/>
-      <c r="AC101" s="74"/>
-      <c r="AD101" s="74"/>
-      <c r="AE101" s="74"/>
-      <c r="AF101" s="74"/>
-      <c r="AG101" s="74"/>
-      <c r="AH101" s="74"/>
-      <c r="AI101" s="74"/>
-      <c r="AJ101" s="74"/>
-      <c r="AK101" s="74"/>
-      <c r="AL101" s="74"/>
-      <c r="AM101" s="74"/>
-      <c r="AN101" s="74"/>
-      <c r="AO101" s="74"/>
-      <c r="AP101" s="74"/>
-      <c r="AQ101" s="74"/>
-      <c r="AR101" s="74"/>
-      <c r="AS101" s="74"/>
-      <c r="AT101" s="74"/>
-      <c r="AU101" s="74"/>
-      <c r="AV101" s="74"/>
-      <c r="AW101" s="74"/>
-      <c r="AX101" s="74"/>
-      <c r="AY101" s="74"/>
-      <c r="AZ101" s="74"/>
-      <c r="BA101" s="74"/>
-      <c r="BB101" s="74"/>
-      <c r="BC101" s="74"/>
+      <c r="P101" s="100"/>
+      <c r="Q101" s="100"/>
+      <c r="R101" s="81"/>
+      <c r="S101" s="81"/>
+      <c r="T101" s="81"/>
+      <c r="U101" s="81"/>
+      <c r="V101" s="81"/>
+      <c r="W101" s="81"/>
+      <c r="X101" s="81"/>
+      <c r="Y101" s="81"/>
+      <c r="Z101" s="81"/>
+      <c r="AA101" s="81"/>
+      <c r="AB101" s="81"/>
+      <c r="AC101" s="81"/>
+      <c r="AD101" s="81"/>
+      <c r="AE101" s="81"/>
+      <c r="AF101" s="81"/>
+      <c r="AG101" s="81"/>
+      <c r="AH101" s="81"/>
+      <c r="AI101" s="81"/>
+      <c r="AJ101" s="81"/>
+      <c r="AK101" s="81"/>
+      <c r="AL101" s="81"/>
+      <c r="AM101" s="81"/>
+      <c r="AN101" s="81"/>
+      <c r="AO101" s="81"/>
+      <c r="AP101" s="81"/>
+      <c r="AQ101" s="81"/>
+      <c r="AR101" s="81"/>
+      <c r="AS101" s="81"/>
+      <c r="AT101" s="81"/>
+      <c r="AU101" s="81"/>
+      <c r="AV101" s="81"/>
+      <c r="AW101" s="81"/>
+      <c r="AX101" s="81"/>
+      <c r="AY101" s="81"/>
+      <c r="AZ101" s="81"/>
+      <c r="BA101" s="81"/>
+      <c r="BB101" s="81"/>
+      <c r="BC101" s="81"/>
     </row>
     <row r="102" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="50" t="s">
+      <c r="F102" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="50" t="s">
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="52"/>
-      <c r="L102" s="99" t="s">
+      <c r="K102" s="42"/>
+      <c r="L102" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M102" s="50" t="s">
+      <c r="M102" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N102" s="52"/>
+      <c r="N102" s="42"/>
       <c r="O102" s="4"/>
       <c r="P102" s="9" t="s">
         <v>33</v>
@@ -7350,15 +7350,15 @@
       <c r="BC102" s="11"/>
     </row>
     <row r="103" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F103" s="53"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="67"/>
-      <c r="L103" s="100"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="67"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="44"/>
       <c r="O103" s="4"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="14"/>
@@ -7402,19 +7402,19 @@
       <c r="BC103" s="14"/>
     </row>
     <row r="104" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="50" t="s">
+      <c r="G104" s="42"/>
+      <c r="H104" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="100"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="67"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="44"/>
       <c r="O104" s="4"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="14"/>
@@ -7458,15 +7458,15 @@
       <c r="BC104" s="14"/>
     </row>
     <row r="105" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F105" s="53"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="101"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="55"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="46"/>
       <c r="O105" s="4"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="14"/>
@@ -7522,13 +7522,13 @@
         <v>33</v>
       </c>
       <c r="K106" s="11"/>
-      <c r="L106" s="47" t="s">
+      <c r="L106" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M106" s="56" t="s">
+      <c r="M106" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="N106" s="56"/>
+      <c r="N106" s="47"/>
       <c r="O106" s="6"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="14"/>
@@ -7578,9 +7578,9 @@
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
       <c r="K107" s="14"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="47"/>
       <c r="O107" s="6"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="14"/>
@@ -7630,9 +7630,9 @@
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
       <c r="K108" s="14"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
+      <c r="L108" s="95"/>
+      <c r="M108" s="47"/>
+      <c r="N108" s="47"/>
       <c r="O108" s="1"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="14"/>
@@ -7682,9 +7682,9 @@
       <c r="I109" s="14"/>
       <c r="J109" s="12"/>
       <c r="K109" s="14"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
+      <c r="L109" s="95"/>
+      <c r="M109" s="47"/>
+      <c r="N109" s="47"/>
       <c r="O109" s="1"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="14"/>
@@ -7734,9 +7734,9 @@
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
       <c r="K110" s="14"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
+      <c r="L110" s="95"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
       <c r="O110" s="1"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="14"/>
@@ -7786,9 +7786,9 @@
       <c r="I111" s="14"/>
       <c r="J111" s="12"/>
       <c r="K111" s="14"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
       <c r="O111" s="1"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -7844,11 +7844,11 @@
         <v>32</v>
       </c>
       <c r="K112" s="11"/>
-      <c r="L112" s="47" t="s">
+      <c r="L112" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
       <c r="O112" s="1"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
@@ -7898,9 +7898,9 @@
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
       <c r="K113" s="14"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="47"/>
       <c r="O113" s="1"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -7950,9 +7950,9 @@
       <c r="I114" s="14"/>
       <c r="J114" s="12"/>
       <c r="K114" s="14"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="47"/>
+      <c r="N114" s="47"/>
       <c r="O114" s="1"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -8002,9 +8002,9 @@
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
       <c r="K115" s="14"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
       <c r="O115" s="1"/>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -8054,9 +8054,9 @@
       <c r="I116" s="14"/>
       <c r="J116" s="12"/>
       <c r="K116" s="14"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
+      <c r="L116" s="95"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="47"/>
       <c r="O116" s="4"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -8106,9 +8106,9 @@
       <c r="I117" s="17"/>
       <c r="J117" s="15"/>
       <c r="K117" s="17"/>
-      <c r="L117" s="49"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
+      <c r="L117" s="96"/>
+      <c r="M117" s="47"/>
+      <c r="N117" s="47"/>
       <c r="O117" s="4"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -8846,164 +8846,164 @@
       <c r="BC133" s="8"/>
     </row>
     <row r="134" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F134" s="120" t="s">
+      <c r="F134" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G134" s="120"/>
-      <c r="H134" s="120"/>
-      <c r="I134" s="120"/>
-      <c r="J134" s="120"/>
-      <c r="K134" s="120"/>
-      <c r="L134" s="120"/>
-      <c r="M134" s="120"/>
-      <c r="N134" s="120"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="52"/>
+      <c r="L134" s="52"/>
+      <c r="M134" s="52"/>
+      <c r="N134" s="52"/>
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F135" s="120"/>
-      <c r="G135" s="120"/>
-      <c r="H135" s="120"/>
-      <c r="I135" s="120"/>
-      <c r="J135" s="120"/>
-      <c r="K135" s="120"/>
-      <c r="L135" s="120"/>
-      <c r="M135" s="120"/>
-      <c r="N135" s="120"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="52"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F136" s="50" t="s">
+      <c r="F136" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G136" s="52"/>
-      <c r="H136" s="50" t="s">
+      <c r="G136" s="42"/>
+      <c r="H136" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I136" s="52"/>
-      <c r="J136" s="70" t="s">
+      <c r="I136" s="42"/>
+      <c r="J136" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="K136" s="50" t="s">
+      <c r="K136" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="L136" s="51"/>
-      <c r="M136" s="51"/>
-      <c r="N136" s="52"/>
+      <c r="L136" s="50"/>
+      <c r="M136" s="50"/>
+      <c r="N136" s="42"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="75" t="s">
+      <c r="P136" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Q136" s="75"/>
-      <c r="R136" s="74" t="s">
+      <c r="Q136" s="80"/>
+      <c r="R136" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="S136" s="74"/>
-      <c r="T136" s="74" t="s">
+      <c r="S136" s="81"/>
+      <c r="T136" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="74"/>
-      <c r="V136" s="74" t="s">
+      <c r="U136" s="81"/>
+      <c r="V136" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="W136" s="74"/>
-      <c r="X136" s="74" t="s">
+      <c r="W136" s="81"/>
+      <c r="X136" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Y136" s="74"/>
-      <c r="Z136" s="74"/>
-      <c r="AA136" s="74"/>
-      <c r="AB136" s="74" t="s">
+      <c r="Y136" s="81"/>
+      <c r="Z136" s="81"/>
+      <c r="AA136" s="81"/>
+      <c r="AB136" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AC136" s="74"/>
-      <c r="AD136" s="74"/>
-      <c r="AE136" s="74"/>
-      <c r="AF136" s="74"/>
-      <c r="AG136" s="74" t="s">
+      <c r="AC136" s="81"/>
+      <c r="AD136" s="81"/>
+      <c r="AE136" s="81"/>
+      <c r="AF136" s="81"/>
+      <c r="AG136" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="AH136" s="74"/>
-      <c r="AI136" s="74"/>
-      <c r="AJ136" s="74"/>
-      <c r="AK136" s="74"/>
-      <c r="AL136" s="74"/>
-      <c r="AM136" s="74" t="s">
+      <c r="AH136" s="81"/>
+      <c r="AI136" s="81"/>
+      <c r="AJ136" s="81"/>
+      <c r="AK136" s="81"/>
+      <c r="AL136" s="81"/>
+      <c r="AM136" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="AN136" s="74"/>
-      <c r="AO136" s="74" t="s">
+      <c r="AN136" s="81"/>
+      <c r="AO136" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AP136" s="74"/>
-      <c r="AQ136" s="74"/>
-      <c r="AR136" s="74"/>
-      <c r="AS136" s="74"/>
-      <c r="AT136" s="74"/>
-      <c r="AU136" s="74" t="s">
+      <c r="AP136" s="81"/>
+      <c r="AQ136" s="81"/>
+      <c r="AR136" s="81"/>
+      <c r="AS136" s="81"/>
+      <c r="AT136" s="81"/>
+      <c r="AU136" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AV136" s="74"/>
-      <c r="AW136" s="74"/>
-      <c r="AX136" s="74"/>
-      <c r="AY136" s="74"/>
-      <c r="AZ136" s="74"/>
-      <c r="BA136" s="74" t="s">
+      <c r="AV136" s="81"/>
+      <c r="AW136" s="81"/>
+      <c r="AX136" s="81"/>
+      <c r="AY136" s="81"/>
+      <c r="AZ136" s="81"/>
+      <c r="BA136" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="BB136" s="74"/>
-      <c r="BC136" s="74"/>
+      <c r="BB136" s="81"/>
+      <c r="BC136" s="81"/>
     </row>
     <row r="137" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F137" s="53"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="55"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="98"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="51"/>
+      <c r="M137" s="51"/>
+      <c r="N137" s="46"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="75"/>
-      <c r="Q137" s="75"/>
-      <c r="R137" s="74"/>
-      <c r="S137" s="74"/>
-      <c r="T137" s="74"/>
-      <c r="U137" s="74"/>
-      <c r="V137" s="74"/>
-      <c r="W137" s="74"/>
-      <c r="X137" s="74"/>
-      <c r="Y137" s="74"/>
-      <c r="Z137" s="74"/>
-      <c r="AA137" s="74"/>
-      <c r="AB137" s="74"/>
-      <c r="AC137" s="74"/>
-      <c r="AD137" s="74"/>
-      <c r="AE137" s="74"/>
-      <c r="AF137" s="74"/>
-      <c r="AG137" s="74"/>
-      <c r="AH137" s="74"/>
-      <c r="AI137" s="74"/>
-      <c r="AJ137" s="74"/>
-      <c r="AK137" s="74"/>
-      <c r="AL137" s="74"/>
-      <c r="AM137" s="74"/>
-      <c r="AN137" s="74"/>
-      <c r="AO137" s="74"/>
-      <c r="AP137" s="74"/>
-      <c r="AQ137" s="74"/>
-      <c r="AR137" s="74"/>
-      <c r="AS137" s="74"/>
-      <c r="AT137" s="74"/>
-      <c r="AU137" s="74"/>
-      <c r="AV137" s="74"/>
-      <c r="AW137" s="74"/>
-      <c r="AX137" s="74"/>
-      <c r="AY137" s="74"/>
-      <c r="AZ137" s="74"/>
-      <c r="BA137" s="74"/>
-      <c r="BB137" s="74"/>
-      <c r="BC137" s="74"/>
+      <c r="P137" s="80"/>
+      <c r="Q137" s="80"/>
+      <c r="R137" s="81"/>
+      <c r="S137" s="81"/>
+      <c r="T137" s="81"/>
+      <c r="U137" s="81"/>
+      <c r="V137" s="81"/>
+      <c r="W137" s="81"/>
+      <c r="X137" s="81"/>
+      <c r="Y137" s="81"/>
+      <c r="Z137" s="81"/>
+      <c r="AA137" s="81"/>
+      <c r="AB137" s="81"/>
+      <c r="AC137" s="81"/>
+      <c r="AD137" s="81"/>
+      <c r="AE137" s="81"/>
+      <c r="AF137" s="81"/>
+      <c r="AG137" s="81"/>
+      <c r="AH137" s="81"/>
+      <c r="AI137" s="81"/>
+      <c r="AJ137" s="81"/>
+      <c r="AK137" s="81"/>
+      <c r="AL137" s="81"/>
+      <c r="AM137" s="81"/>
+      <c r="AN137" s="81"/>
+      <c r="AO137" s="81"/>
+      <c r="AP137" s="81"/>
+      <c r="AQ137" s="81"/>
+      <c r="AR137" s="81"/>
+      <c r="AS137" s="81"/>
+      <c r="AT137" s="81"/>
+      <c r="AU137" s="81"/>
+      <c r="AV137" s="81"/>
+      <c r="AW137" s="81"/>
+      <c r="AX137" s="81"/>
+      <c r="AY137" s="81"/>
+      <c r="AZ137" s="81"/>
+      <c r="BA137" s="81"/>
+      <c r="BB137" s="81"/>
+      <c r="BC137" s="81"/>
     </row>
     <row r="138" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9" t="s">
@@ -9014,7 +9014,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="11"/>
-      <c r="J138" s="47" t="s">
+      <c r="J138" s="82" t="s">
         <v>47</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -9024,26 +9024,26 @@
       <c r="M138" s="10"/>
       <c r="N138" s="11"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="56" t="s">
+      <c r="P138" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="56"/>
+      <c r="Q138" s="47"/>
       <c r="R138" s="32" t="s">
         <v>101</v>
       </c>
       <c r="S138" s="34"/>
-      <c r="T138" s="56" t="s">
+      <c r="T138" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="U138" s="56"/>
+      <c r="U138" s="47"/>
       <c r="V138" s="9"/>
       <c r="W138" s="11"/>
-      <c r="X138" s="56" t="s">
+      <c r="X138" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="Y138" s="56"/>
-      <c r="Z138" s="56"/>
-      <c r="AA138" s="56"/>
+      <c r="Y138" s="47"/>
+      <c r="Z138" s="47"/>
+      <c r="AA138" s="47"/>
       <c r="AB138" s="9" t="s">
         <v>96</v>
       </c>
@@ -9057,8 +9057,8 @@
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="11"/>
-      <c r="AM138" s="56"/>
-      <c r="AN138" s="56"/>
+      <c r="AM138" s="47"/>
+      <c r="AN138" s="47"/>
       <c r="AO138" s="9" t="s">
         <v>97</v>
       </c>
@@ -9086,24 +9086,24 @@
       <c r="G139" s="14"/>
       <c r="H139" s="12"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="95"/>
       <c r="K139" s="12"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="56"/>
-      <c r="Q139" s="56"/>
-      <c r="R139" s="76"/>
-      <c r="S139" s="77"/>
-      <c r="T139" s="56"/>
-      <c r="U139" s="56"/>
+      <c r="P139" s="47"/>
+      <c r="Q139" s="47"/>
+      <c r="R139" s="48"/>
+      <c r="S139" s="49"/>
+      <c r="T139" s="47"/>
+      <c r="U139" s="47"/>
       <c r="V139" s="12"/>
       <c r="W139" s="14"/>
-      <c r="X139" s="56"/>
-      <c r="Y139" s="56"/>
-      <c r="Z139" s="56"/>
-      <c r="AA139" s="56"/>
+      <c r="X139" s="47"/>
+      <c r="Y139" s="47"/>
+      <c r="Z139" s="47"/>
+      <c r="AA139" s="47"/>
       <c r="AB139" s="12"/>
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
@@ -9115,8 +9115,8 @@
       <c r="AJ139" s="13"/>
       <c r="AK139" s="13"/>
       <c r="AL139" s="14"/>
-      <c r="AM139" s="56"/>
-      <c r="AN139" s="56"/>
+      <c r="AM139" s="47"/>
+      <c r="AN139" s="47"/>
       <c r="AO139" s="12"/>
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
@@ -9138,24 +9138,24 @@
       <c r="G140" s="14"/>
       <c r="H140" s="12"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="95"/>
       <c r="K140" s="12"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="56"/>
-      <c r="Q140" s="56"/>
-      <c r="R140" s="76"/>
-      <c r="S140" s="77"/>
-      <c r="T140" s="56"/>
-      <c r="U140" s="56"/>
+      <c r="P140" s="47"/>
+      <c r="Q140" s="47"/>
+      <c r="R140" s="48"/>
+      <c r="S140" s="49"/>
+      <c r="T140" s="47"/>
+      <c r="U140" s="47"/>
       <c r="V140" s="12"/>
       <c r="W140" s="14"/>
-      <c r="X140" s="56"/>
-      <c r="Y140" s="56"/>
-      <c r="Z140" s="56"/>
-      <c r="AA140" s="56"/>
+      <c r="X140" s="47"/>
+      <c r="Y140" s="47"/>
+      <c r="Z140" s="47"/>
+      <c r="AA140" s="47"/>
       <c r="AB140" s="12"/>
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
@@ -9167,8 +9167,8 @@
       <c r="AJ140" s="13"/>
       <c r="AK140" s="13"/>
       <c r="AL140" s="14"/>
-      <c r="AM140" s="56"/>
-      <c r="AN140" s="56"/>
+      <c r="AM140" s="47"/>
+      <c r="AN140" s="47"/>
       <c r="AO140" s="12"/>
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
@@ -9190,24 +9190,24 @@
       <c r="G141" s="17"/>
       <c r="H141" s="15"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="49"/>
+      <c r="J141" s="96"/>
       <c r="K141" s="15"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="56"/>
-      <c r="Q141" s="56"/>
-      <c r="R141" s="76"/>
-      <c r="S141" s="77"/>
-      <c r="T141" s="56"/>
-      <c r="U141" s="56"/>
+      <c r="P141" s="47"/>
+      <c r="Q141" s="47"/>
+      <c r="R141" s="48"/>
+      <c r="S141" s="49"/>
+      <c r="T141" s="47"/>
+      <c r="U141" s="47"/>
       <c r="V141" s="12"/>
       <c r="W141" s="14"/>
-      <c r="X141" s="56"/>
-      <c r="Y141" s="56"/>
-      <c r="Z141" s="56"/>
-      <c r="AA141" s="56"/>
+      <c r="X141" s="47"/>
+      <c r="Y141" s="47"/>
+      <c r="Z141" s="47"/>
+      <c r="AA141" s="47"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
@@ -9219,8 +9219,8 @@
       <c r="AJ141" s="13"/>
       <c r="AK141" s="13"/>
       <c r="AL141" s="14"/>
-      <c r="AM141" s="56"/>
-      <c r="AN141" s="56"/>
+      <c r="AM141" s="47"/>
+      <c r="AN141" s="47"/>
       <c r="AO141" s="12"/>
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
@@ -9246,7 +9246,7 @@
         <v>45</v>
       </c>
       <c r="I142" s="11"/>
-      <c r="J142" s="47" t="s">
+      <c r="J142" s="82" t="s">
         <v>48</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -9256,18 +9256,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="11"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="56"/>
-      <c r="Q142" s="56"/>
-      <c r="R142" s="76"/>
-      <c r="S142" s="77"/>
-      <c r="T142" s="56"/>
-      <c r="U142" s="56"/>
+      <c r="P142" s="47"/>
+      <c r="Q142" s="47"/>
+      <c r="R142" s="48"/>
+      <c r="S142" s="49"/>
+      <c r="T142" s="47"/>
+      <c r="U142" s="47"/>
       <c r="V142" s="12"/>
       <c r="W142" s="14"/>
-      <c r="X142" s="56"/>
-      <c r="Y142" s="56"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="56"/>
+      <c r="X142" s="47"/>
+      <c r="Y142" s="47"/>
+      <c r="Z142" s="47"/>
+      <c r="AA142" s="47"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
@@ -9279,8 +9279,8 @@
       <c r="AJ142" s="13"/>
       <c r="AK142" s="13"/>
       <c r="AL142" s="14"/>
-      <c r="AM142" s="56"/>
-      <c r="AN142" s="56"/>
+      <c r="AM142" s="47"/>
+      <c r="AN142" s="47"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
@@ -9302,24 +9302,24 @@
       <c r="G143" s="14"/>
       <c r="H143" s="12"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="95"/>
       <c r="K143" s="12"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="14"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="56"/>
-      <c r="Q143" s="56"/>
-      <c r="R143" s="76"/>
-      <c r="S143" s="77"/>
-      <c r="T143" s="56"/>
-      <c r="U143" s="56"/>
+      <c r="P143" s="47"/>
+      <c r="Q143" s="47"/>
+      <c r="R143" s="48"/>
+      <c r="S143" s="49"/>
+      <c r="T143" s="47"/>
+      <c r="U143" s="47"/>
       <c r="V143" s="12"/>
       <c r="W143" s="14"/>
-      <c r="X143" s="56"/>
-      <c r="Y143" s="56"/>
-      <c r="Z143" s="56"/>
-      <c r="AA143" s="56"/>
+      <c r="X143" s="47"/>
+      <c r="Y143" s="47"/>
+      <c r="Z143" s="47"/>
+      <c r="AA143" s="47"/>
       <c r="AB143" s="12"/>
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
@@ -9331,8 +9331,8 @@
       <c r="AJ143" s="13"/>
       <c r="AK143" s="13"/>
       <c r="AL143" s="14"/>
-      <c r="AM143" s="56"/>
-      <c r="AN143" s="56"/>
+      <c r="AM143" s="47"/>
+      <c r="AN143" s="47"/>
       <c r="AO143" s="12"/>
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
@@ -9354,24 +9354,24 @@
       <c r="G144" s="14"/>
       <c r="H144" s="12"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="95"/>
       <c r="K144" s="12"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="14"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="56"/>
-      <c r="Q144" s="56"/>
-      <c r="R144" s="76"/>
-      <c r="S144" s="77"/>
-      <c r="T144" s="56"/>
-      <c r="U144" s="56"/>
+      <c r="P144" s="47"/>
+      <c r="Q144" s="47"/>
+      <c r="R144" s="48"/>
+      <c r="S144" s="49"/>
+      <c r="T144" s="47"/>
+      <c r="U144" s="47"/>
       <c r="V144" s="12"/>
       <c r="W144" s="14"/>
-      <c r="X144" s="56"/>
-      <c r="Y144" s="56"/>
-      <c r="Z144" s="56"/>
-      <c r="AA144" s="56"/>
+      <c r="X144" s="47"/>
+      <c r="Y144" s="47"/>
+      <c r="Z144" s="47"/>
+      <c r="AA144" s="47"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
@@ -9383,8 +9383,8 @@
       <c r="AJ144" s="13"/>
       <c r="AK144" s="13"/>
       <c r="AL144" s="14"/>
-      <c r="AM144" s="56"/>
-      <c r="AN144" s="56"/>
+      <c r="AM144" s="47"/>
+      <c r="AN144" s="47"/>
       <c r="AO144" s="12"/>
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
@@ -9406,24 +9406,24 @@
       <c r="G145" s="17"/>
       <c r="H145" s="15"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="49"/>
+      <c r="J145" s="96"/>
       <c r="K145" s="15"/>
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="56"/>
-      <c r="Q145" s="56"/>
-      <c r="R145" s="76"/>
-      <c r="S145" s="77"/>
-      <c r="T145" s="56"/>
-      <c r="U145" s="56"/>
+      <c r="P145" s="47"/>
+      <c r="Q145" s="47"/>
+      <c r="R145" s="48"/>
+      <c r="S145" s="49"/>
+      <c r="T145" s="47"/>
+      <c r="U145" s="47"/>
       <c r="V145" s="12"/>
       <c r="W145" s="14"/>
-      <c r="X145" s="56"/>
-      <c r="Y145" s="56"/>
-      <c r="Z145" s="56"/>
-      <c r="AA145" s="56"/>
+      <c r="X145" s="47"/>
+      <c r="Y145" s="47"/>
+      <c r="Z145" s="47"/>
+      <c r="AA145" s="47"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
@@ -9435,8 +9435,8 @@
       <c r="AJ145" s="13"/>
       <c r="AK145" s="13"/>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="56"/>
-      <c r="AN145" s="56"/>
+      <c r="AM145" s="47"/>
+      <c r="AN145" s="47"/>
       <c r="AO145" s="12"/>
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
@@ -9462,28 +9462,28 @@
         <v>46</v>
       </c>
       <c r="I146" s="11"/>
-      <c r="J146" s="47" t="s">
+      <c r="J146" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="K146" s="56" t="s">
+      <c r="K146" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
+      <c r="L146" s="47"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="47"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="56"/>
-      <c r="R146" s="76"/>
-      <c r="S146" s="77"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="48"/>
+      <c r="S146" s="49"/>
+      <c r="T146" s="47"/>
+      <c r="U146" s="47"/>
       <c r="V146" s="12"/>
       <c r="W146" s="14"/>
-      <c r="X146" s="56"/>
-      <c r="Y146" s="56"/>
-      <c r="Z146" s="56"/>
-      <c r="AA146" s="56"/>
+      <c r="X146" s="47"/>
+      <c r="Y146" s="47"/>
+      <c r="Z146" s="47"/>
+      <c r="AA146" s="47"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
@@ -9495,8 +9495,8 @@
       <c r="AJ146" s="13"/>
       <c r="AK146" s="13"/>
       <c r="AL146" s="14"/>
-      <c r="AM146" s="56"/>
-      <c r="AN146" s="56"/>
+      <c r="AM146" s="47"/>
+      <c r="AN146" s="47"/>
       <c r="AO146" s="12"/>
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
@@ -9518,24 +9518,24 @@
       <c r="G147" s="14"/>
       <c r="H147" s="12"/>
       <c r="I147" s="14"/>
-      <c r="J147" s="48"/>
-      <c r="K147" s="56"/>
-      <c r="L147" s="56"/>
-      <c r="M147" s="56"/>
-      <c r="N147" s="56"/>
+      <c r="J147" s="95"/>
+      <c r="K147" s="47"/>
+      <c r="L147" s="47"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="56"/>
-      <c r="Q147" s="56"/>
-      <c r="R147" s="76"/>
-      <c r="S147" s="77"/>
-      <c r="T147" s="56"/>
-      <c r="U147" s="56"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="48"/>
+      <c r="S147" s="49"/>
+      <c r="T147" s="47"/>
+      <c r="U147" s="47"/>
       <c r="V147" s="12"/>
       <c r="W147" s="14"/>
-      <c r="X147" s="56"/>
-      <c r="Y147" s="56"/>
-      <c r="Z147" s="56"/>
-      <c r="AA147" s="56"/>
+      <c r="X147" s="47"/>
+      <c r="Y147" s="47"/>
+      <c r="Z147" s="47"/>
+      <c r="AA147" s="47"/>
       <c r="AB147" s="12"/>
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
@@ -9547,8 +9547,8 @@
       <c r="AJ147" s="13"/>
       <c r="AK147" s="13"/>
       <c r="AL147" s="14"/>
-      <c r="AM147" s="56"/>
-      <c r="AN147" s="56"/>
+      <c r="AM147" s="47"/>
+      <c r="AN147" s="47"/>
       <c r="AO147" s="12"/>
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
@@ -9570,24 +9570,24 @@
       <c r="G148" s="14"/>
       <c r="H148" s="12"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="48"/>
-      <c r="K148" s="56"/>
-      <c r="L148" s="56"/>
-      <c r="M148" s="56"/>
-      <c r="N148" s="56"/>
+      <c r="J148" s="95"/>
+      <c r="K148" s="47"/>
+      <c r="L148" s="47"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="56"/>
-      <c r="R148" s="76"/>
-      <c r="S148" s="77"/>
-      <c r="T148" s="56"/>
-      <c r="U148" s="56"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="48"/>
+      <c r="S148" s="49"/>
+      <c r="T148" s="47"/>
+      <c r="U148" s="47"/>
       <c r="V148" s="12"/>
       <c r="W148" s="14"/>
-      <c r="X148" s="56"/>
-      <c r="Y148" s="56"/>
-      <c r="Z148" s="56"/>
-      <c r="AA148" s="56"/>
+      <c r="X148" s="47"/>
+      <c r="Y148" s="47"/>
+      <c r="Z148" s="47"/>
+      <c r="AA148" s="47"/>
       <c r="AB148" s="12"/>
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
@@ -9599,8 +9599,8 @@
       <c r="AJ148" s="13"/>
       <c r="AK148" s="13"/>
       <c r="AL148" s="14"/>
-      <c r="AM148" s="56"/>
-      <c r="AN148" s="56"/>
+      <c r="AM148" s="47"/>
+      <c r="AN148" s="47"/>
       <c r="AO148" s="12"/>
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
@@ -9622,24 +9622,24 @@
       <c r="G149" s="17"/>
       <c r="H149" s="15"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="56"/>
-      <c r="L149" s="56"/>
-      <c r="M149" s="56"/>
-      <c r="N149" s="56"/>
+      <c r="J149" s="96"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="47"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="56"/>
-      <c r="Q149" s="56"/>
-      <c r="R149" s="76"/>
-      <c r="S149" s="77"/>
-      <c r="T149" s="56"/>
-      <c r="U149" s="56"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="48"/>
+      <c r="S149" s="49"/>
+      <c r="T149" s="47"/>
+      <c r="U149" s="47"/>
       <c r="V149" s="12"/>
       <c r="W149" s="14"/>
-      <c r="X149" s="56"/>
-      <c r="Y149" s="56"/>
-      <c r="Z149" s="56"/>
-      <c r="AA149" s="56"/>
+      <c r="X149" s="47"/>
+      <c r="Y149" s="47"/>
+      <c r="Z149" s="47"/>
+      <c r="AA149" s="47"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
@@ -9651,8 +9651,8 @@
       <c r="AJ149" s="13"/>
       <c r="AK149" s="13"/>
       <c r="AL149" s="14"/>
-      <c r="AM149" s="56"/>
-      <c r="AN149" s="56"/>
+      <c r="AM149" s="47"/>
+      <c r="AN149" s="47"/>
       <c r="AO149" s="12"/>
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
@@ -9670,18 +9670,18 @@
       <c r="BC149" s="14"/>
     </row>
     <row r="150" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="P150" s="56"/>
-      <c r="Q150" s="56"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
       <c r="R150" s="35"/>
       <c r="S150" s="37"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
+      <c r="T150" s="47"/>
+      <c r="U150" s="47"/>
       <c r="V150" s="15"/>
       <c r="W150" s="17"/>
-      <c r="X150" s="56"/>
-      <c r="Y150" s="56"/>
-      <c r="Z150" s="56"/>
-      <c r="AA150" s="56"/>
+      <c r="X150" s="47"/>
+      <c r="Y150" s="47"/>
+      <c r="Z150" s="47"/>
+      <c r="AA150" s="47"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
@@ -9693,8 +9693,8 @@
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="56"/>
-      <c r="AN150" s="56"/>
+      <c r="AM150" s="47"/>
+      <c r="AN150" s="47"/>
       <c r="AO150" s="15"/>
       <c r="AP150" s="16"/>
       <c r="AQ150" s="16"/>
@@ -9749,14 +9749,14 @@
         <v>106</v>
       </c>
       <c r="AN151" s="11"/>
-      <c r="AO151" s="56" t="s">
+      <c r="AO151" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AP151" s="56"/>
-      <c r="AQ151" s="56"/>
-      <c r="AR151" s="56"/>
-      <c r="AS151" s="56"/>
-      <c r="AT151" s="56"/>
+      <c r="AP151" s="47"/>
+      <c r="AQ151" s="47"/>
+      <c r="AR151" s="47"/>
+      <c r="AS151" s="47"/>
+      <c r="AT151" s="47"/>
       <c r="AU151" s="9"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -9772,8 +9772,8 @@
     <row r="152" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P152" s="12"/>
       <c r="Q152" s="14"/>
-      <c r="R152" s="76"/>
-      <c r="S152" s="77"/>
+      <c r="R152" s="48"/>
+      <c r="S152" s="49"/>
       <c r="T152" s="12"/>
       <c r="U152" s="14"/>
       <c r="V152" s="12"/>
@@ -9795,12 +9795,12 @@
       <c r="AL152" s="14"/>
       <c r="AM152" s="12"/>
       <c r="AN152" s="14"/>
-      <c r="AO152" s="56"/>
-      <c r="AP152" s="56"/>
-      <c r="AQ152" s="56"/>
-      <c r="AR152" s="56"/>
-      <c r="AS152" s="56"/>
-      <c r="AT152" s="56"/>
+      <c r="AO152" s="47"/>
+      <c r="AP152" s="47"/>
+      <c r="AQ152" s="47"/>
+      <c r="AR152" s="47"/>
+      <c r="AS152" s="47"/>
+      <c r="AT152" s="47"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AW152" s="13"/>
@@ -9814,8 +9814,8 @@
     <row r="153" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P153" s="12"/>
       <c r="Q153" s="14"/>
-      <c r="R153" s="76"/>
-      <c r="S153" s="77"/>
+      <c r="R153" s="48"/>
+      <c r="S153" s="49"/>
       <c r="T153" s="12"/>
       <c r="U153" s="14"/>
       <c r="V153" s="12"/>
@@ -9837,12 +9837,12 @@
       <c r="AL153" s="14"/>
       <c r="AM153" s="12"/>
       <c r="AN153" s="14"/>
-      <c r="AO153" s="56"/>
-      <c r="AP153" s="56"/>
-      <c r="AQ153" s="56"/>
-      <c r="AR153" s="56"/>
-      <c r="AS153" s="56"/>
-      <c r="AT153" s="56"/>
+      <c r="AO153" s="47"/>
+      <c r="AP153" s="47"/>
+      <c r="AQ153" s="47"/>
+      <c r="AR153" s="47"/>
+      <c r="AS153" s="47"/>
+      <c r="AT153" s="47"/>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
       <c r="AW153" s="13"/>
@@ -9856,8 +9856,8 @@
     <row r="154" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P154" s="12"/>
       <c r="Q154" s="14"/>
-      <c r="R154" s="76"/>
-      <c r="S154" s="77"/>
+      <c r="R154" s="48"/>
+      <c r="S154" s="49"/>
       <c r="T154" s="12"/>
       <c r="U154" s="14"/>
       <c r="V154" s="12"/>
@@ -9879,12 +9879,12 @@
       <c r="AL154" s="14"/>
       <c r="AM154" s="12"/>
       <c r="AN154" s="14"/>
-      <c r="AO154" s="56"/>
-      <c r="AP154" s="56"/>
-      <c r="AQ154" s="56"/>
-      <c r="AR154" s="56"/>
-      <c r="AS154" s="56"/>
-      <c r="AT154" s="56"/>
+      <c r="AO154" s="47"/>
+      <c r="AP154" s="47"/>
+      <c r="AQ154" s="47"/>
+      <c r="AR154" s="47"/>
+      <c r="AS154" s="47"/>
+      <c r="AT154" s="47"/>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
       <c r="AW154" s="13"/>
@@ -9898,8 +9898,8 @@
     <row r="155" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P155" s="12"/>
       <c r="Q155" s="14"/>
-      <c r="R155" s="76"/>
-      <c r="S155" s="77"/>
+      <c r="R155" s="48"/>
+      <c r="S155" s="49"/>
       <c r="T155" s="12"/>
       <c r="U155" s="14"/>
       <c r="V155" s="12"/>
@@ -9921,12 +9921,12 @@
       <c r="AL155" s="14"/>
       <c r="AM155" s="12"/>
       <c r="AN155" s="14"/>
-      <c r="AO155" s="56"/>
-      <c r="AP155" s="56"/>
-      <c r="AQ155" s="56"/>
-      <c r="AR155" s="56"/>
-      <c r="AS155" s="56"/>
-      <c r="AT155" s="56"/>
+      <c r="AO155" s="47"/>
+      <c r="AP155" s="47"/>
+      <c r="AQ155" s="47"/>
+      <c r="AR155" s="47"/>
+      <c r="AS155" s="47"/>
+      <c r="AT155" s="47"/>
       <c r="AU155" s="12"/>
       <c r="AV155" s="13"/>
       <c r="AW155" s="13"/>
@@ -9940,8 +9940,8 @@
     <row r="156" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P156" s="12"/>
       <c r="Q156" s="14"/>
-      <c r="R156" s="76"/>
-      <c r="S156" s="77"/>
+      <c r="R156" s="48"/>
+      <c r="S156" s="49"/>
       <c r="T156" s="12"/>
       <c r="U156" s="14"/>
       <c r="V156" s="12"/>
@@ -9963,12 +9963,12 @@
       <c r="AL156" s="14"/>
       <c r="AM156" s="12"/>
       <c r="AN156" s="14"/>
-      <c r="AO156" s="56"/>
-      <c r="AP156" s="56"/>
-      <c r="AQ156" s="56"/>
-      <c r="AR156" s="56"/>
-      <c r="AS156" s="56"/>
-      <c r="AT156" s="56"/>
+      <c r="AO156" s="47"/>
+      <c r="AP156" s="47"/>
+      <c r="AQ156" s="47"/>
+      <c r="AR156" s="47"/>
+      <c r="AS156" s="47"/>
+      <c r="AT156" s="47"/>
       <c r="AU156" s="12"/>
       <c r="AV156" s="13"/>
       <c r="AW156" s="13"/>
@@ -9982,8 +9982,8 @@
     <row r="157" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P157" s="12"/>
       <c r="Q157" s="14"/>
-      <c r="R157" s="76"/>
-      <c r="S157" s="77"/>
+      <c r="R157" s="48"/>
+      <c r="S157" s="49"/>
       <c r="T157" s="12"/>
       <c r="U157" s="14"/>
       <c r="V157" s="12"/>
@@ -10005,12 +10005,12 @@
       <c r="AL157" s="14"/>
       <c r="AM157" s="12"/>
       <c r="AN157" s="14"/>
-      <c r="AO157" s="56"/>
-      <c r="AP157" s="56"/>
-      <c r="AQ157" s="56"/>
-      <c r="AR157" s="56"/>
-      <c r="AS157" s="56"/>
-      <c r="AT157" s="56"/>
+      <c r="AO157" s="47"/>
+      <c r="AP157" s="47"/>
+      <c r="AQ157" s="47"/>
+      <c r="AR157" s="47"/>
+      <c r="AS157" s="47"/>
+      <c r="AT157" s="47"/>
       <c r="AU157" s="12"/>
       <c r="AV157" s="13"/>
       <c r="AW157" s="13"/>
@@ -10024,8 +10024,8 @@
     <row r="158" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P158" s="12"/>
       <c r="Q158" s="14"/>
-      <c r="R158" s="76"/>
-      <c r="S158" s="77"/>
+      <c r="R158" s="48"/>
+      <c r="S158" s="49"/>
       <c r="T158" s="12"/>
       <c r="U158" s="14"/>
       <c r="V158" s="12"/>
@@ -10047,12 +10047,12 @@
       <c r="AL158" s="14"/>
       <c r="AM158" s="12"/>
       <c r="AN158" s="14"/>
-      <c r="AO158" s="56"/>
-      <c r="AP158" s="56"/>
-      <c r="AQ158" s="56"/>
-      <c r="AR158" s="56"/>
-      <c r="AS158" s="56"/>
-      <c r="AT158" s="56"/>
+      <c r="AO158" s="47"/>
+      <c r="AP158" s="47"/>
+      <c r="AQ158" s="47"/>
+      <c r="AR158" s="47"/>
+      <c r="AS158" s="47"/>
+      <c r="AT158" s="47"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AW158" s="13"/>
@@ -10066,8 +10066,8 @@
     <row r="159" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P159" s="12"/>
       <c r="Q159" s="14"/>
-      <c r="R159" s="76"/>
-      <c r="S159" s="77"/>
+      <c r="R159" s="48"/>
+      <c r="S159" s="49"/>
       <c r="T159" s="12"/>
       <c r="U159" s="14"/>
       <c r="V159" s="12"/>
@@ -10089,12 +10089,12 @@
       <c r="AL159" s="14"/>
       <c r="AM159" s="12"/>
       <c r="AN159" s="14"/>
-      <c r="AO159" s="56"/>
-      <c r="AP159" s="56"/>
-      <c r="AQ159" s="56"/>
-      <c r="AR159" s="56"/>
-      <c r="AS159" s="56"/>
-      <c r="AT159" s="56"/>
+      <c r="AO159" s="47"/>
+      <c r="AP159" s="47"/>
+      <c r="AQ159" s="47"/>
+      <c r="AR159" s="47"/>
+      <c r="AS159" s="47"/>
+      <c r="AT159" s="47"/>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AW159" s="13"/>
@@ -10108,8 +10108,8 @@
     <row r="160" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P160" s="12"/>
       <c r="Q160" s="14"/>
-      <c r="R160" s="76"/>
-      <c r="S160" s="77"/>
+      <c r="R160" s="48"/>
+      <c r="S160" s="49"/>
       <c r="T160" s="12"/>
       <c r="U160" s="14"/>
       <c r="V160" s="12"/>
@@ -10131,12 +10131,12 @@
       <c r="AL160" s="14"/>
       <c r="AM160" s="12"/>
       <c r="AN160" s="14"/>
-      <c r="AO160" s="56"/>
-      <c r="AP160" s="56"/>
-      <c r="AQ160" s="56"/>
-      <c r="AR160" s="56"/>
-      <c r="AS160" s="56"/>
-      <c r="AT160" s="56"/>
+      <c r="AO160" s="47"/>
+      <c r="AP160" s="47"/>
+      <c r="AQ160" s="47"/>
+      <c r="AR160" s="47"/>
+      <c r="AS160" s="47"/>
+      <c r="AT160" s="47"/>
       <c r="AU160" s="12"/>
       <c r="AV160" s="13"/>
       <c r="AW160" s="13"/>
@@ -10150,8 +10150,8 @@
     <row r="161" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P161" s="12"/>
       <c r="Q161" s="14"/>
-      <c r="R161" s="76"/>
-      <c r="S161" s="77"/>
+      <c r="R161" s="48"/>
+      <c r="S161" s="49"/>
       <c r="T161" s="12"/>
       <c r="U161" s="14"/>
       <c r="V161" s="12"/>
@@ -10173,12 +10173,12 @@
       <c r="AL161" s="14"/>
       <c r="AM161" s="12"/>
       <c r="AN161" s="14"/>
-      <c r="AO161" s="56"/>
-      <c r="AP161" s="56"/>
-      <c r="AQ161" s="56"/>
-      <c r="AR161" s="56"/>
-      <c r="AS161" s="56"/>
-      <c r="AT161" s="56"/>
+      <c r="AO161" s="47"/>
+      <c r="AP161" s="47"/>
+      <c r="AQ161" s="47"/>
+      <c r="AR161" s="47"/>
+      <c r="AS161" s="47"/>
+      <c r="AT161" s="47"/>
       <c r="AU161" s="12"/>
       <c r="AV161" s="13"/>
       <c r="AW161" s="13"/>
@@ -10192,8 +10192,8 @@
     <row r="162" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P162" s="12"/>
       <c r="Q162" s="14"/>
-      <c r="R162" s="76"/>
-      <c r="S162" s="77"/>
+      <c r="R162" s="48"/>
+      <c r="S162" s="49"/>
       <c r="T162" s="12"/>
       <c r="U162" s="14"/>
       <c r="V162" s="12"/>
@@ -10215,12 +10215,12 @@
       <c r="AL162" s="14"/>
       <c r="AM162" s="12"/>
       <c r="AN162" s="14"/>
-      <c r="AO162" s="56"/>
-      <c r="AP162" s="56"/>
-      <c r="AQ162" s="56"/>
-      <c r="AR162" s="56"/>
-      <c r="AS162" s="56"/>
-      <c r="AT162" s="56"/>
+      <c r="AO162" s="47"/>
+      <c r="AP162" s="47"/>
+      <c r="AQ162" s="47"/>
+      <c r="AR162" s="47"/>
+      <c r="AS162" s="47"/>
+      <c r="AT162" s="47"/>
       <c r="AU162" s="12"/>
       <c r="AV162" s="13"/>
       <c r="AW162" s="13"/>
@@ -10234,8 +10234,8 @@
     <row r="163" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P163" s="12"/>
       <c r="Q163" s="14"/>
-      <c r="R163" s="76"/>
-      <c r="S163" s="77"/>
+      <c r="R163" s="48"/>
+      <c r="S163" s="49"/>
       <c r="T163" s="12"/>
       <c r="U163" s="14"/>
       <c r="V163" s="12"/>
@@ -10257,12 +10257,12 @@
       <c r="AL163" s="14"/>
       <c r="AM163" s="12"/>
       <c r="AN163" s="14"/>
-      <c r="AO163" s="56"/>
-      <c r="AP163" s="56"/>
-      <c r="AQ163" s="56"/>
-      <c r="AR163" s="56"/>
-      <c r="AS163" s="56"/>
-      <c r="AT163" s="56"/>
+      <c r="AO163" s="47"/>
+      <c r="AP163" s="47"/>
+      <c r="AQ163" s="47"/>
+      <c r="AR163" s="47"/>
+      <c r="AS163" s="47"/>
+      <c r="AT163" s="47"/>
       <c r="AU163" s="12"/>
       <c r="AV163" s="13"/>
       <c r="AW163" s="13"/>
@@ -10276,8 +10276,8 @@
     <row r="164" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P164" s="12"/>
       <c r="Q164" s="14"/>
-      <c r="R164" s="76"/>
-      <c r="S164" s="77"/>
+      <c r="R164" s="48"/>
+      <c r="S164" s="49"/>
       <c r="T164" s="12"/>
       <c r="U164" s="14"/>
       <c r="V164" s="12"/>
@@ -10299,12 +10299,12 @@
       <c r="AL164" s="14"/>
       <c r="AM164" s="12"/>
       <c r="AN164" s="14"/>
-      <c r="AO164" s="56"/>
-      <c r="AP164" s="56"/>
-      <c r="AQ164" s="56"/>
-      <c r="AR164" s="56"/>
-      <c r="AS164" s="56"/>
-      <c r="AT164" s="56"/>
+      <c r="AO164" s="47"/>
+      <c r="AP164" s="47"/>
+      <c r="AQ164" s="47"/>
+      <c r="AR164" s="47"/>
+      <c r="AS164" s="47"/>
+      <c r="AT164" s="47"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
       <c r="AW164" s="13"/>
@@ -10318,8 +10318,8 @@
     <row r="165" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P165" s="12"/>
       <c r="Q165" s="14"/>
-      <c r="R165" s="76"/>
-      <c r="S165" s="77"/>
+      <c r="R165" s="48"/>
+      <c r="S165" s="49"/>
       <c r="T165" s="12"/>
       <c r="U165" s="14"/>
       <c r="V165" s="12"/>
@@ -10341,12 +10341,12 @@
       <c r="AL165" s="14"/>
       <c r="AM165" s="12"/>
       <c r="AN165" s="14"/>
-      <c r="AO165" s="56"/>
-      <c r="AP165" s="56"/>
-      <c r="AQ165" s="56"/>
-      <c r="AR165" s="56"/>
-      <c r="AS165" s="56"/>
-      <c r="AT165" s="56"/>
+      <c r="AO165" s="47"/>
+      <c r="AP165" s="47"/>
+      <c r="AQ165" s="47"/>
+      <c r="AR165" s="47"/>
+      <c r="AS165" s="47"/>
+      <c r="AT165" s="47"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
       <c r="AW165" s="13"/>
@@ -10360,8 +10360,8 @@
     <row r="166" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P166" s="12"/>
       <c r="Q166" s="14"/>
-      <c r="R166" s="76"/>
-      <c r="S166" s="77"/>
+      <c r="R166" s="48"/>
+      <c r="S166" s="49"/>
       <c r="T166" s="12"/>
       <c r="U166" s="14"/>
       <c r="V166" s="12"/>
@@ -10383,12 +10383,12 @@
       <c r="AL166" s="14"/>
       <c r="AM166" s="12"/>
       <c r="AN166" s="14"/>
-      <c r="AO166" s="56"/>
-      <c r="AP166" s="56"/>
-      <c r="AQ166" s="56"/>
-      <c r="AR166" s="56"/>
-      <c r="AS166" s="56"/>
-      <c r="AT166" s="56"/>
+      <c r="AO166" s="47"/>
+      <c r="AP166" s="47"/>
+      <c r="AQ166" s="47"/>
+      <c r="AR166" s="47"/>
+      <c r="AS166" s="47"/>
+      <c r="AT166" s="47"/>
       <c r="AU166" s="12"/>
       <c r="AV166" s="13"/>
       <c r="AW166" s="13"/>
@@ -10402,8 +10402,8 @@
     <row r="167" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P167" s="12"/>
       <c r="Q167" s="14"/>
-      <c r="R167" s="76"/>
-      <c r="S167" s="77"/>
+      <c r="R167" s="48"/>
+      <c r="S167" s="49"/>
       <c r="T167" s="15"/>
       <c r="U167" s="17"/>
       <c r="V167" s="15"/>
@@ -10425,12 +10425,12 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="15"/>
       <c r="AN167" s="17"/>
-      <c r="AO167" s="56"/>
-      <c r="AP167" s="56"/>
-      <c r="AQ167" s="56"/>
-      <c r="AR167" s="56"/>
-      <c r="AS167" s="56"/>
-      <c r="AT167" s="56"/>
+      <c r="AO167" s="47"/>
+      <c r="AP167" s="47"/>
+      <c r="AQ167" s="47"/>
+      <c r="AR167" s="47"/>
+      <c r="AS167" s="47"/>
+      <c r="AT167" s="47"/>
       <c r="AU167" s="15"/>
       <c r="AV167" s="16"/>
       <c r="AW167" s="16"/>
@@ -10527,28 +10527,235 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="AG138:AL150"/>
-    <mergeCell ref="AM138:AN150"/>
-    <mergeCell ref="R151:S167"/>
-    <mergeCell ref="P151:Q167"/>
-    <mergeCell ref="T151:U167"/>
-    <mergeCell ref="V151:W167"/>
-    <mergeCell ref="X151:AA167"/>
-    <mergeCell ref="AB151:AF167"/>
-    <mergeCell ref="AG151:AL167"/>
-    <mergeCell ref="AM151:AN167"/>
-    <mergeCell ref="F138:G141"/>
-    <mergeCell ref="F142:G145"/>
-    <mergeCell ref="F146:G149"/>
-    <mergeCell ref="F136:G137"/>
-    <mergeCell ref="K136:N137"/>
-    <mergeCell ref="F134:N135"/>
-    <mergeCell ref="K138:N141"/>
-    <mergeCell ref="K142:N145"/>
-    <mergeCell ref="K146:N149"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="B62:E67"/>
+    <mergeCell ref="B68:E77"/>
+    <mergeCell ref="B78:E87"/>
+    <mergeCell ref="F42:G53"/>
+    <mergeCell ref="H42:I53"/>
+    <mergeCell ref="J42:K53"/>
+    <mergeCell ref="L42:L53"/>
+    <mergeCell ref="M42:N53"/>
+    <mergeCell ref="B60:E61"/>
+    <mergeCell ref="M78:N87"/>
+    <mergeCell ref="F78:G87"/>
+    <mergeCell ref="H78:I87"/>
+    <mergeCell ref="J78:K87"/>
+    <mergeCell ref="L78:L87"/>
+    <mergeCell ref="F68:G77"/>
+    <mergeCell ref="H68:I77"/>
+    <mergeCell ref="J68:K77"/>
+    <mergeCell ref="L68:L77"/>
+    <mergeCell ref="F62:G67"/>
+    <mergeCell ref="M68:N77"/>
+    <mergeCell ref="M62:N67"/>
+    <mergeCell ref="L62:L67"/>
+    <mergeCell ref="J62:K67"/>
+    <mergeCell ref="H62:I67"/>
+    <mergeCell ref="B24:E32"/>
+    <mergeCell ref="B33:E41"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B42:E53"/>
+    <mergeCell ref="BA33:BC41"/>
+    <mergeCell ref="P42:Q46"/>
+    <mergeCell ref="R42:S46"/>
+    <mergeCell ref="T42:U46"/>
+    <mergeCell ref="V42:W46"/>
+    <mergeCell ref="X42:AA46"/>
+    <mergeCell ref="AB42:AF46"/>
+    <mergeCell ref="AG42:AL46"/>
+    <mergeCell ref="AM42:AN46"/>
+    <mergeCell ref="AO42:AT46"/>
+    <mergeCell ref="AU42:AZ46"/>
+    <mergeCell ref="BA42:BC46"/>
+    <mergeCell ref="AB33:AF41"/>
+    <mergeCell ref="AG33:AL41"/>
+    <mergeCell ref="AM33:AN41"/>
+    <mergeCell ref="AO33:AT41"/>
+    <mergeCell ref="AU33:AZ41"/>
+    <mergeCell ref="P33:Q41"/>
+    <mergeCell ref="R33:S41"/>
+    <mergeCell ref="T33:U41"/>
+    <mergeCell ref="X33:AA41"/>
+    <mergeCell ref="AU22:AZ23"/>
+    <mergeCell ref="BA22:BC23"/>
+    <mergeCell ref="X24:AA32"/>
+    <mergeCell ref="AB24:AF32"/>
+    <mergeCell ref="AG24:AL32"/>
+    <mergeCell ref="AM24:AN32"/>
+    <mergeCell ref="AO24:AT32"/>
+    <mergeCell ref="AU24:AZ32"/>
+    <mergeCell ref="BA24:BC32"/>
+    <mergeCell ref="X22:AA23"/>
+    <mergeCell ref="AB22:AF23"/>
+    <mergeCell ref="AG22:AL23"/>
+    <mergeCell ref="AM22:AN23"/>
+    <mergeCell ref="AO22:AT23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="P24:Q32"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="R24:S32"/>
+    <mergeCell ref="T24:U32"/>
+    <mergeCell ref="V24:W32"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="V33:W41"/>
+    <mergeCell ref="P62:Q67"/>
+    <mergeCell ref="P68:Q77"/>
+    <mergeCell ref="P78:Q87"/>
+    <mergeCell ref="P88:Q97"/>
+    <mergeCell ref="BA60:BC61"/>
+    <mergeCell ref="BA62:BC67"/>
+    <mergeCell ref="BA68:BC77"/>
+    <mergeCell ref="BA78:BC87"/>
+    <mergeCell ref="BA88:BC97"/>
+    <mergeCell ref="AB60:AF61"/>
+    <mergeCell ref="AG60:AL61"/>
+    <mergeCell ref="AM60:AN61"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:AZ61"/>
+    <mergeCell ref="R60:S61"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:W61"/>
+    <mergeCell ref="X60:AA61"/>
+    <mergeCell ref="AM78:AN87"/>
+    <mergeCell ref="AO78:AT87"/>
+    <mergeCell ref="AU78:AZ87"/>
+    <mergeCell ref="R62:S67"/>
+    <mergeCell ref="T62:U67"/>
+    <mergeCell ref="V62:W67"/>
+    <mergeCell ref="X62:AA67"/>
+    <mergeCell ref="AB62:AF67"/>
+    <mergeCell ref="AG62:AL67"/>
+    <mergeCell ref="AM62:AN67"/>
+    <mergeCell ref="AO62:AT67"/>
+    <mergeCell ref="AU62:AZ67"/>
+    <mergeCell ref="R78:S87"/>
+    <mergeCell ref="T78:U87"/>
+    <mergeCell ref="V78:W87"/>
+    <mergeCell ref="X78:AA87"/>
+    <mergeCell ref="T88:U97"/>
+    <mergeCell ref="V88:W97"/>
+    <mergeCell ref="X88:AA97"/>
+    <mergeCell ref="AM68:AN77"/>
+    <mergeCell ref="AO68:AT77"/>
+    <mergeCell ref="R68:S77"/>
+    <mergeCell ref="T68:U77"/>
+    <mergeCell ref="V68:W77"/>
+    <mergeCell ref="X68:AA77"/>
+    <mergeCell ref="AM88:AN97"/>
+    <mergeCell ref="AO88:AT97"/>
+    <mergeCell ref="AB68:AF77"/>
+    <mergeCell ref="AB88:AF97"/>
+    <mergeCell ref="AG88:AL97"/>
+    <mergeCell ref="AG68:AL77"/>
+    <mergeCell ref="AB78:AF87"/>
+    <mergeCell ref="AG78:AL87"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="H136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="H138:I141"/>
+    <mergeCell ref="H142:I145"/>
+    <mergeCell ref="H146:I149"/>
+    <mergeCell ref="R88:S97"/>
+    <mergeCell ref="M106:N117"/>
+    <mergeCell ref="F100:N101"/>
+    <mergeCell ref="F112:G117"/>
+    <mergeCell ref="H112:I117"/>
+    <mergeCell ref="F106:G111"/>
+    <mergeCell ref="H106:I111"/>
+    <mergeCell ref="J112:K117"/>
+    <mergeCell ref="J106:K111"/>
+    <mergeCell ref="L112:L117"/>
+    <mergeCell ref="L106:L111"/>
+    <mergeCell ref="H104:I105"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="R100:S101"/>
+    <mergeCell ref="F102:I103"/>
+    <mergeCell ref="J102:K105"/>
+    <mergeCell ref="F24:G32"/>
+    <mergeCell ref="F33:G41"/>
+    <mergeCell ref="H24:I32"/>
+    <mergeCell ref="J24:K32"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H33:I41"/>
+    <mergeCell ref="J33:K41"/>
+    <mergeCell ref="L24:L32"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="BA100:BC101"/>
+    <mergeCell ref="AG47:AL57"/>
+    <mergeCell ref="AM47:AN57"/>
+    <mergeCell ref="AO47:AT57"/>
+    <mergeCell ref="AU47:AZ57"/>
+    <mergeCell ref="BA47:BC57"/>
+    <mergeCell ref="AB47:AF57"/>
+    <mergeCell ref="AU68:AZ77"/>
+    <mergeCell ref="AU88:AZ97"/>
+    <mergeCell ref="AO100:AT101"/>
+    <mergeCell ref="T100:U101"/>
+    <mergeCell ref="V100:W101"/>
+    <mergeCell ref="X100:AA101"/>
+    <mergeCell ref="AB100:AF101"/>
+    <mergeCell ref="AG100:AL101"/>
+    <mergeCell ref="AM100:AN101"/>
+    <mergeCell ref="AU121:AZ130"/>
+    <mergeCell ref="R121:S130"/>
+    <mergeCell ref="T121:U130"/>
+    <mergeCell ref="V121:W130"/>
+    <mergeCell ref="X121:AA130"/>
+    <mergeCell ref="AB121:AF130"/>
+    <mergeCell ref="AG121:AL130"/>
+    <mergeCell ref="AM121:AN130"/>
+    <mergeCell ref="AO121:AT130"/>
+    <mergeCell ref="AU100:AZ101"/>
+    <mergeCell ref="BA121:BC130"/>
+    <mergeCell ref="V102:W110"/>
+    <mergeCell ref="T102:U110"/>
+    <mergeCell ref="R102:S110"/>
+    <mergeCell ref="P102:Q110"/>
+    <mergeCell ref="BA102:BC110"/>
+    <mergeCell ref="AU111:AZ120"/>
+    <mergeCell ref="P111:Q120"/>
+    <mergeCell ref="R111:S120"/>
+    <mergeCell ref="T111:U120"/>
+    <mergeCell ref="V111:W120"/>
+    <mergeCell ref="X111:AA120"/>
+    <mergeCell ref="AB111:AF120"/>
+    <mergeCell ref="AG111:AL120"/>
+    <mergeCell ref="AM111:AN120"/>
+    <mergeCell ref="AO111:AT120"/>
+    <mergeCell ref="BA111:BC120"/>
+    <mergeCell ref="AU102:AZ110"/>
+    <mergeCell ref="AO102:AT110"/>
+    <mergeCell ref="AM102:AN110"/>
+    <mergeCell ref="AG102:AL110"/>
+    <mergeCell ref="AB102:AF110"/>
+    <mergeCell ref="X102:AA110"/>
+    <mergeCell ref="P121:Q130"/>
+    <mergeCell ref="AU151:AZ167"/>
+    <mergeCell ref="BA151:BC167"/>
+    <mergeCell ref="AO151:AT167"/>
+    <mergeCell ref="T138:U150"/>
+    <mergeCell ref="P136:Q137"/>
+    <mergeCell ref="R136:S137"/>
+    <mergeCell ref="T136:U137"/>
+    <mergeCell ref="V136:W137"/>
+    <mergeCell ref="X136:AA137"/>
+    <mergeCell ref="AB136:AF137"/>
+    <mergeCell ref="AG136:AL137"/>
+    <mergeCell ref="AM136:AN137"/>
+    <mergeCell ref="R138:S150"/>
+    <mergeCell ref="P138:Q150"/>
+    <mergeCell ref="AO136:AT137"/>
+    <mergeCell ref="AU136:AZ137"/>
+    <mergeCell ref="BA136:BC137"/>
+    <mergeCell ref="AB138:AF150"/>
+    <mergeCell ref="AO138:AT150"/>
+    <mergeCell ref="AU138:AZ150"/>
+    <mergeCell ref="BA138:BC150"/>
+    <mergeCell ref="X138:AA150"/>
+    <mergeCell ref="V138:W150"/>
     <mergeCell ref="F2:F13"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="H2:H13"/>
@@ -10573,237 +10780,30 @@
     <mergeCell ref="F16:N17"/>
     <mergeCell ref="F18:N19"/>
     <mergeCell ref="M20:N23"/>
-    <mergeCell ref="AU151:AZ167"/>
-    <mergeCell ref="BA151:BC167"/>
-    <mergeCell ref="AO151:AT167"/>
-    <mergeCell ref="T138:U150"/>
-    <mergeCell ref="P136:Q137"/>
-    <mergeCell ref="R136:S137"/>
-    <mergeCell ref="T136:U137"/>
-    <mergeCell ref="V136:W137"/>
-    <mergeCell ref="X136:AA137"/>
-    <mergeCell ref="AB136:AF137"/>
-    <mergeCell ref="AG136:AL137"/>
-    <mergeCell ref="AM136:AN137"/>
-    <mergeCell ref="R138:S150"/>
-    <mergeCell ref="P138:Q150"/>
-    <mergeCell ref="AO136:AT137"/>
-    <mergeCell ref="AU136:AZ137"/>
-    <mergeCell ref="BA136:BC137"/>
-    <mergeCell ref="AB138:AF150"/>
-    <mergeCell ref="AO138:AT150"/>
-    <mergeCell ref="AU138:AZ150"/>
-    <mergeCell ref="BA138:BC150"/>
-    <mergeCell ref="X138:AA150"/>
-    <mergeCell ref="V138:W150"/>
-    <mergeCell ref="BA121:BC130"/>
-    <mergeCell ref="V102:W110"/>
-    <mergeCell ref="T102:U110"/>
-    <mergeCell ref="R102:S110"/>
-    <mergeCell ref="P102:Q110"/>
-    <mergeCell ref="BA102:BC110"/>
-    <mergeCell ref="AU111:AZ120"/>
-    <mergeCell ref="P111:Q120"/>
-    <mergeCell ref="R111:S120"/>
-    <mergeCell ref="T111:U120"/>
-    <mergeCell ref="V111:W120"/>
-    <mergeCell ref="X111:AA120"/>
-    <mergeCell ref="AB111:AF120"/>
-    <mergeCell ref="AG111:AL120"/>
-    <mergeCell ref="AM111:AN120"/>
-    <mergeCell ref="AO111:AT120"/>
-    <mergeCell ref="BA111:BC120"/>
-    <mergeCell ref="AU102:AZ110"/>
-    <mergeCell ref="AO102:AT110"/>
-    <mergeCell ref="AM102:AN110"/>
-    <mergeCell ref="AG102:AL110"/>
-    <mergeCell ref="AB102:AF110"/>
-    <mergeCell ref="X102:AA110"/>
-    <mergeCell ref="P121:Q130"/>
-    <mergeCell ref="T100:U101"/>
-    <mergeCell ref="V100:W101"/>
-    <mergeCell ref="X100:AA101"/>
-    <mergeCell ref="AB100:AF101"/>
-    <mergeCell ref="AG100:AL101"/>
-    <mergeCell ref="AM100:AN101"/>
-    <mergeCell ref="AU121:AZ130"/>
-    <mergeCell ref="R121:S130"/>
-    <mergeCell ref="T121:U130"/>
-    <mergeCell ref="V121:W130"/>
-    <mergeCell ref="X121:AA130"/>
-    <mergeCell ref="AB121:AF130"/>
-    <mergeCell ref="AG121:AL130"/>
-    <mergeCell ref="AM121:AN130"/>
-    <mergeCell ref="AO121:AT130"/>
-    <mergeCell ref="AU100:AZ101"/>
-    <mergeCell ref="BA100:BC101"/>
-    <mergeCell ref="AG47:AL57"/>
-    <mergeCell ref="AM47:AN57"/>
-    <mergeCell ref="AO47:AT57"/>
-    <mergeCell ref="AU47:AZ57"/>
-    <mergeCell ref="BA47:BC57"/>
-    <mergeCell ref="AB47:AF57"/>
-    <mergeCell ref="AU68:AZ77"/>
-    <mergeCell ref="AU88:AZ97"/>
-    <mergeCell ref="AO100:AT101"/>
-    <mergeCell ref="F24:G32"/>
-    <mergeCell ref="F33:G41"/>
-    <mergeCell ref="H24:I32"/>
-    <mergeCell ref="J24:K32"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H33:I41"/>
-    <mergeCell ref="J33:K41"/>
-    <mergeCell ref="L24:L32"/>
-    <mergeCell ref="L33:L41"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="H136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="H138:I141"/>
-    <mergeCell ref="H142:I145"/>
-    <mergeCell ref="H146:I149"/>
-    <mergeCell ref="R88:S97"/>
-    <mergeCell ref="M106:N117"/>
-    <mergeCell ref="F100:N101"/>
-    <mergeCell ref="F112:G117"/>
-    <mergeCell ref="H112:I117"/>
-    <mergeCell ref="F106:G111"/>
-    <mergeCell ref="H106:I111"/>
-    <mergeCell ref="J112:K117"/>
-    <mergeCell ref="J106:K111"/>
-    <mergeCell ref="L112:L117"/>
-    <mergeCell ref="L106:L111"/>
-    <mergeCell ref="H104:I105"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="R100:S101"/>
-    <mergeCell ref="F102:I103"/>
-    <mergeCell ref="J102:K105"/>
     <mergeCell ref="L102:L105"/>
     <mergeCell ref="M102:N105"/>
-    <mergeCell ref="T88:U97"/>
-    <mergeCell ref="V88:W97"/>
-    <mergeCell ref="X88:AA97"/>
-    <mergeCell ref="AM68:AN77"/>
-    <mergeCell ref="AO68:AT77"/>
-    <mergeCell ref="R68:S77"/>
-    <mergeCell ref="T68:U77"/>
-    <mergeCell ref="V68:W77"/>
-    <mergeCell ref="X68:AA77"/>
-    <mergeCell ref="AM88:AN97"/>
-    <mergeCell ref="AO88:AT97"/>
-    <mergeCell ref="AB68:AF77"/>
-    <mergeCell ref="AB88:AF97"/>
-    <mergeCell ref="AG88:AL97"/>
-    <mergeCell ref="AG68:AL77"/>
-    <mergeCell ref="AB78:AF87"/>
-    <mergeCell ref="AG78:AL87"/>
-    <mergeCell ref="X62:AA67"/>
-    <mergeCell ref="AB62:AF67"/>
-    <mergeCell ref="AG62:AL67"/>
-    <mergeCell ref="AM62:AN67"/>
-    <mergeCell ref="AO62:AT67"/>
-    <mergeCell ref="AU62:AZ67"/>
-    <mergeCell ref="R78:S87"/>
-    <mergeCell ref="T78:U87"/>
-    <mergeCell ref="V78:W87"/>
-    <mergeCell ref="X78:AA87"/>
-    <mergeCell ref="P62:Q67"/>
-    <mergeCell ref="P68:Q77"/>
-    <mergeCell ref="P78:Q87"/>
-    <mergeCell ref="P88:Q97"/>
-    <mergeCell ref="BA60:BC61"/>
-    <mergeCell ref="BA62:BC67"/>
-    <mergeCell ref="BA68:BC77"/>
-    <mergeCell ref="BA78:BC87"/>
-    <mergeCell ref="BA88:BC97"/>
-    <mergeCell ref="AB60:AF61"/>
-    <mergeCell ref="AG60:AL61"/>
-    <mergeCell ref="AM60:AN61"/>
-    <mergeCell ref="AO60:AT61"/>
-    <mergeCell ref="AU60:AZ61"/>
-    <mergeCell ref="R60:S61"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:W61"/>
-    <mergeCell ref="X60:AA61"/>
-    <mergeCell ref="AM78:AN87"/>
-    <mergeCell ref="AO78:AT87"/>
-    <mergeCell ref="AU78:AZ87"/>
-    <mergeCell ref="R62:S67"/>
-    <mergeCell ref="T62:U67"/>
-    <mergeCell ref="V62:W67"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="P24:Q32"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="R24:S32"/>
-    <mergeCell ref="T24:U32"/>
-    <mergeCell ref="V24:W32"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="V33:W41"/>
-    <mergeCell ref="X33:AA41"/>
-    <mergeCell ref="AU22:AZ23"/>
-    <mergeCell ref="BA22:BC23"/>
-    <mergeCell ref="X24:AA32"/>
-    <mergeCell ref="AB24:AF32"/>
-    <mergeCell ref="AG24:AL32"/>
-    <mergeCell ref="AM24:AN32"/>
-    <mergeCell ref="AO24:AT32"/>
-    <mergeCell ref="AU24:AZ32"/>
-    <mergeCell ref="BA24:BC32"/>
-    <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="AB22:AF23"/>
-    <mergeCell ref="AG22:AL23"/>
-    <mergeCell ref="AM22:AN23"/>
-    <mergeCell ref="AO22:AT23"/>
-    <mergeCell ref="B24:E32"/>
-    <mergeCell ref="B33:E41"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B42:E53"/>
-    <mergeCell ref="BA33:BC41"/>
-    <mergeCell ref="P42:Q46"/>
-    <mergeCell ref="R42:S46"/>
-    <mergeCell ref="T42:U46"/>
-    <mergeCell ref="V42:W46"/>
-    <mergeCell ref="X42:AA46"/>
-    <mergeCell ref="AB42:AF46"/>
-    <mergeCell ref="AG42:AL46"/>
-    <mergeCell ref="AM42:AN46"/>
-    <mergeCell ref="AO42:AT46"/>
-    <mergeCell ref="AU42:AZ46"/>
-    <mergeCell ref="BA42:BC46"/>
-    <mergeCell ref="AB33:AF41"/>
-    <mergeCell ref="AG33:AL41"/>
-    <mergeCell ref="AM33:AN41"/>
-    <mergeCell ref="AO33:AT41"/>
-    <mergeCell ref="AU33:AZ41"/>
-    <mergeCell ref="P33:Q41"/>
-    <mergeCell ref="R33:S41"/>
-    <mergeCell ref="T33:U41"/>
-    <mergeCell ref="B62:E67"/>
-    <mergeCell ref="B68:E77"/>
-    <mergeCell ref="B78:E87"/>
-    <mergeCell ref="F42:G53"/>
-    <mergeCell ref="H42:I53"/>
-    <mergeCell ref="J42:K53"/>
-    <mergeCell ref="L42:L53"/>
-    <mergeCell ref="M42:N53"/>
-    <mergeCell ref="B60:E61"/>
-    <mergeCell ref="M78:N87"/>
-    <mergeCell ref="F78:G87"/>
-    <mergeCell ref="H78:I87"/>
-    <mergeCell ref="J78:K87"/>
-    <mergeCell ref="L78:L87"/>
-    <mergeCell ref="F68:G77"/>
-    <mergeCell ref="H68:I77"/>
-    <mergeCell ref="J68:K77"/>
-    <mergeCell ref="L68:L77"/>
-    <mergeCell ref="F62:G67"/>
-    <mergeCell ref="M68:N77"/>
-    <mergeCell ref="M62:N67"/>
-    <mergeCell ref="L62:L67"/>
-    <mergeCell ref="J62:K67"/>
-    <mergeCell ref="H62:I67"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="AG138:AL150"/>
+    <mergeCell ref="AM138:AN150"/>
+    <mergeCell ref="R151:S167"/>
+    <mergeCell ref="P151:Q167"/>
+    <mergeCell ref="T151:U167"/>
+    <mergeCell ref="V151:W167"/>
+    <mergeCell ref="X151:AA167"/>
+    <mergeCell ref="AB151:AF167"/>
+    <mergeCell ref="AG151:AL167"/>
+    <mergeCell ref="AM151:AN167"/>
+    <mergeCell ref="F138:G141"/>
+    <mergeCell ref="F142:G145"/>
+    <mergeCell ref="F146:G149"/>
+    <mergeCell ref="F136:G137"/>
+    <mergeCell ref="K136:N137"/>
+    <mergeCell ref="F134:N135"/>
+    <mergeCell ref="K138:N141"/>
+    <mergeCell ref="K142:N145"/>
+    <mergeCell ref="K146:N149"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J142:J145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
+++ b/Matriz Cacao, Cafe y Arroz/MATRIZ FINAL DEL CAFÉ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\proyecto\Matriz Cacao, Cafe y Arroz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D0894-7D09-4F20-AF70-90652B520F1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A6C0B6-7798-426E-854E-116D9EB15D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1212,6 +1212,255 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,255 +1487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2391,507 +2391,507 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42:N53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="90" t="str">
+      <c r="J2" s="63" t="str">
         <f>[1]Hoja1!$B$6</f>
         <v xml:space="preserve">EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano.
 Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país
 El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector
 </v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65"/>
     </row>
     <row r="3" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F3" s="79"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
     </row>
     <row r="4" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F4" s="79"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="95"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="68"/>
     </row>
     <row r="5" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F5" s="79"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="68"/>
     </row>
     <row r="6" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F6" s="79"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="95"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68"/>
     </row>
     <row r="7" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F7" s="79"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="95"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68"/>
     </row>
     <row r="8" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="79"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="95"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68"/>
     </row>
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="79"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="95"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="68"/>
     </row>
     <row r="10" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F10" s="79"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="95"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68"/>
     </row>
     <row r="11" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="79"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="95"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68"/>
     </row>
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="79"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="95"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="68"/>
     </row>
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="80"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="98"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="71"/>
     </row>
     <row r="16" spans="6:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="110"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="91"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50" t="s">
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="99" t="s">
+      <c r="K20" s="39"/>
+      <c r="L20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="52"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="67"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="50" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="50" t="s">
+      <c r="G22" s="39"/>
+      <c r="H22" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="67"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="50" t="s">
+      <c r="Q22" s="114"/>
+      <c r="R22" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="52"/>
-      <c r="T22" s="50" t="s">
+      <c r="S22" s="39"/>
+      <c r="T22" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="U22" s="52"/>
-      <c r="V22" s="50" t="s">
+      <c r="U22" s="39"/>
+      <c r="V22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="50" t="s">
+      <c r="W22" s="39"/>
+      <c r="X22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="50" t="s">
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="50" t="s">
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="50" t="s">
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="50" t="s">
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="50" t="s">
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="50" t="s">
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="52"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="39"/>
     </row>
     <row r="23" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="55"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="55"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="40"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="41"/>
     </row>
     <row r="24" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>129</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="48" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -2962,17 +2962,17 @@
       <c r="BC24" s="11"/>
     </row>
     <row r="25" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="14"/>
       <c r="J25" s="12"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="48"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="12"/>
       <c r="N25" s="14"/>
       <c r="O25" s="1"/>
@@ -3018,17 +3018,17 @@
       <c r="BC25" s="14"/>
     </row>
     <row r="26" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14"/>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="12"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="48"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="12"/>
       <c r="N26" s="14"/>
       <c r="O26" s="1"/>
@@ -3074,17 +3074,17 @@
       <c r="BC26" s="14"/>
     </row>
     <row r="27" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="48"/>
+      <c r="L27" s="49"/>
       <c r="M27" s="12"/>
       <c r="N27" s="14"/>
       <c r="O27" s="1"/>
@@ -3130,17 +3130,17 @@
       <c r="BC27" s="14"/>
     </row>
     <row r="28" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="12"/>
       <c r="G28" s="14"/>
       <c r="H28" s="12"/>
       <c r="I28" s="14"/>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="48"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="12"/>
       <c r="N28" s="14"/>
       <c r="O28" s="1"/>
@@ -3186,17 +3186,17 @@
       <c r="BC28" s="14"/>
     </row>
     <row r="29" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="14"/>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="48"/>
+      <c r="L29" s="49"/>
       <c r="M29" s="12"/>
       <c r="N29" s="14"/>
       <c r="O29" s="1"/>
@@ -3242,17 +3242,17 @@
       <c r="BC29" s="14"/>
     </row>
     <row r="30" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
       <c r="I30" s="14"/>
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="48"/>
+      <c r="L30" s="49"/>
       <c r="M30" s="12"/>
       <c r="N30" s="14"/>
       <c r="O30" s="1"/>
@@ -3298,17 +3298,17 @@
       <c r="BC30" s="14"/>
     </row>
     <row r="31" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="12"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
       <c r="I31" s="14"/>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="48"/>
+      <c r="L31" s="49"/>
       <c r="M31" s="12"/>
       <c r="N31" s="14"/>
       <c r="O31" s="1"/>
@@ -3354,17 +3354,17 @@
       <c r="BC31" s="14"/>
     </row>
     <row r="32" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="I32" s="17"/>
       <c r="J32" s="15"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="49"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="12"/>
       <c r="N32" s="14"/>
       <c r="O32" s="1"/>
@@ -3410,23 +3410,23 @@
       <c r="BC32" s="17"/>
     </row>
     <row r="33" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
       <c r="F33" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="56"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="9" t="s">
         <v>117</v>
       </c>
       <c r="K33" s="11"/>
-      <c r="L33" s="47" t="s">
+      <c r="L33" s="48" t="s">
         <v>116</v>
       </c>
       <c r="M33" s="12"/>
@@ -3482,17 +3482,17 @@
       <c r="BC33" s="11"/>
     </row>
     <row r="34" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="48"/>
+      <c r="L34" s="49"/>
       <c r="M34" s="12"/>
       <c r="N34" s="14"/>
       <c r="O34" s="1"/>
@@ -3538,17 +3538,17 @@
       <c r="BC34" s="14"/>
     </row>
     <row r="35" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="48"/>
+      <c r="L35" s="49"/>
       <c r="M35" s="12"/>
       <c r="N35" s="14"/>
       <c r="O35" s="1"/>
@@ -3594,17 +3594,17 @@
       <c r="BC35" s="14"/>
     </row>
     <row r="36" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="48"/>
+      <c r="L36" s="49"/>
       <c r="M36" s="12"/>
       <c r="N36" s="14"/>
       <c r="O36" s="1"/>
@@ -3650,17 +3650,17 @@
       <c r="BC36" s="14"/>
     </row>
     <row r="37" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="12"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="48"/>
+      <c r="L37" s="49"/>
       <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="1"/>
@@ -3706,17 +3706,17 @@
       <c r="BC37" s="14"/>
     </row>
     <row r="38" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="12"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="48"/>
+      <c r="L38" s="49"/>
       <c r="M38" s="12"/>
       <c r="N38" s="14"/>
       <c r="O38" s="1"/>
@@ -3762,17 +3762,17 @@
       <c r="BC38" s="14"/>
     </row>
     <row r="39" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="48"/>
+      <c r="L39" s="49"/>
       <c r="M39" s="12"/>
       <c r="N39" s="14"/>
       <c r="O39" s="1"/>
@@ -3818,17 +3818,17 @@
       <c r="BC39" s="14"/>
     </row>
     <row r="40" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="12"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="48"/>
+      <c r="L40" s="49"/>
       <c r="M40" s="12"/>
       <c r="N40" s="14"/>
       <c r="O40" s="1"/>
@@ -3874,17 +3874,17 @@
       <c r="BC40" s="14"/>
     </row>
     <row r="41" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="129"/>
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="50"/>
       <c r="M41" s="15"/>
       <c r="N41" s="17"/>
       <c r="O41" s="1"/>
@@ -3930,10 +3930,10 @@
       <c r="BC41" s="17"/>
     </row>
     <row r="42" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123"/>
       <c r="F42" s="9" t="s">
         <v>154</v>
       </c>
@@ -3946,13 +3946,13 @@
         <v>132</v>
       </c>
       <c r="K42" s="11"/>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="M42" s="121" t="s">
+      <c r="M42" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="N42" s="123"/>
+      <c r="N42" s="99"/>
       <c r="O42" s="1"/>
       <c r="P42" s="9" t="s">
         <v>143</v>
@@ -4004,19 +4004,19 @@
       <c r="BC42" s="11"/>
     </row>
     <row r="43" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="12"/>
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="14"/>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="126"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="102"/>
       <c r="O43" s="1"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="14"/>
@@ -4060,19 +4060,19 @@
       <c r="BC43" s="14"/>
     </row>
     <row r="44" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="14"/>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="126"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="102"/>
       <c r="O44" s="1"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="14"/>
@@ -4116,19 +4116,19 @@
       <c r="BC44" s="14"/>
     </row>
     <row r="45" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="12"/>
       <c r="G45" s="14"/>
       <c r="H45" s="12"/>
       <c r="I45" s="14"/>
       <c r="J45" s="12"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="126"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="102"/>
       <c r="O45" s="1"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="14"/>
@@ -4172,19 +4172,19 @@
       <c r="BC45" s="14"/>
     </row>
     <row r="46" spans="2:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="12"/>
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="14"/>
       <c r="J46" s="12"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="126"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="102"/>
       <c r="O46" s="1"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="17"/>
@@ -4228,19 +4228,19 @@
       <c r="BC46" s="17"/>
     </row>
     <row r="47" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="12"/>
       <c r="G47" s="14"/>
       <c r="H47" s="12"/>
       <c r="I47" s="14"/>
       <c r="J47" s="12"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="126"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="102"/>
       <c r="O47" s="4"/>
       <c r="P47" s="9" t="s">
         <v>146</v>
@@ -4287,24 +4287,24 @@
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="56"/>
-      <c r="BB47" s="56"/>
-      <c r="BC47" s="56"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42"/>
+      <c r="BC47" s="42"/>
     </row>
     <row r="48" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="12"/>
       <c r="G48" s="14"/>
       <c r="H48" s="12"/>
       <c r="I48" s="14"/>
       <c r="J48" s="12"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="126"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="102"/>
       <c r="O48" s="4"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="14"/>
@@ -4343,24 +4343,24 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="13"/>
       <c r="AZ48" s="14"/>
-      <c r="BA48" s="56"/>
-      <c r="BB48" s="56"/>
-      <c r="BC48" s="56"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
     </row>
     <row r="49" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="12"/>
       <c r="G49" s="14"/>
       <c r="H49" s="12"/>
       <c r="I49" s="14"/>
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="126"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="102"/>
       <c r="O49" s="4"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="14"/>
@@ -4399,24 +4399,24 @@
       <c r="AX49" s="13"/>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="14"/>
-      <c r="BA49" s="56"/>
-      <c r="BB49" s="56"/>
-      <c r="BC49" s="56"/>
+      <c r="BA49" s="42"/>
+      <c r="BB49" s="42"/>
+      <c r="BC49" s="42"/>
     </row>
     <row r="50" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="12"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
       <c r="I50" s="14"/>
       <c r="J50" s="12"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="126"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="102"/>
       <c r="O50" s="4"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="14"/>
@@ -4455,24 +4455,24 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="14"/>
-      <c r="BA50" s="56"/>
-      <c r="BB50" s="56"/>
-      <c r="BC50" s="56"/>
+      <c r="BA50" s="42"/>
+      <c r="BB50" s="42"/>
+      <c r="BC50" s="42"/>
     </row>
     <row r="51" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="12"/>
       <c r="G51" s="14"/>
       <c r="H51" s="12"/>
       <c r="I51" s="14"/>
       <c r="J51" s="12"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="126"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="102"/>
       <c r="O51" s="4"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="14"/>
@@ -4511,24 +4511,24 @@
       <c r="AX51" s="13"/>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="14"/>
-      <c r="BA51" s="56"/>
-      <c r="BB51" s="56"/>
-      <c r="BC51" s="56"/>
+      <c r="BA51" s="42"/>
+      <c r="BB51" s="42"/>
+      <c r="BC51" s="42"/>
     </row>
     <row r="52" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="12"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="14"/>
       <c r="J52" s="12"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="126"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="102"/>
       <c r="O52" s="4"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="14"/>
@@ -4567,24 +4567,24 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="14"/>
-      <c r="BA52" s="56"/>
-      <c r="BB52" s="56"/>
-      <c r="BC52" s="56"/>
+      <c r="BA52" s="42"/>
+      <c r="BB52" s="42"/>
+      <c r="BC52" s="42"/>
     </row>
     <row r="53" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="129"/>
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
       <c r="I53" s="17"/>
       <c r="J53" s="15"/>
       <c r="K53" s="17"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="127"/>
-      <c r="N53" s="129"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="103"/>
+      <c r="N53" s="105"/>
       <c r="O53" s="4"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="14"/>
@@ -4623,9 +4623,9 @@
       <c r="AX53" s="13"/>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="14"/>
-      <c r="BA53" s="56"/>
-      <c r="BB53" s="56"/>
-      <c r="BC53" s="56"/>
+      <c r="BA53" s="42"/>
+      <c r="BB53" s="42"/>
+      <c r="BC53" s="42"/>
     </row>
     <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="O54" s="4"/>
@@ -4666,9 +4666,9 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="14"/>
-      <c r="BA54" s="56"/>
-      <c r="BB54" s="56"/>
-      <c r="BC54" s="56"/>
+      <c r="BA54" s="42"/>
+      <c r="BB54" s="42"/>
+      <c r="BC54" s="42"/>
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="F55" s="4"/>
@@ -4718,22 +4718,22 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="13"/>
       <c r="AZ55" s="14"/>
-      <c r="BA55" s="56"/>
-      <c r="BB55" s="56"/>
-      <c r="BC55" s="56"/>
+      <c r="BA55" s="42"/>
+      <c r="BB55" s="42"/>
+      <c r="BC55" s="42"/>
     </row>
     <row r="56" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F56" s="102" t="s">
+      <c r="F56" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
-      <c r="L56" s="103"/>
-      <c r="M56" s="103"/>
-      <c r="N56" s="104"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="79"/>
       <c r="O56" s="4"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="14"/>
@@ -4772,20 +4772,20 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="13"/>
       <c r="AZ56" s="14"/>
-      <c r="BA56" s="56"/>
-      <c r="BB56" s="56"/>
-      <c r="BC56" s="56"/>
+      <c r="BA56" s="42"/>
+      <c r="BB56" s="42"/>
+      <c r="BC56" s="42"/>
     </row>
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F57" s="105"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="107"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="82"/>
       <c r="O57" s="4"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="17"/>
@@ -4824,28 +4824,28 @@
       <c r="AX57" s="16"/>
       <c r="AY57" s="16"/>
       <c r="AZ57" s="17"/>
-      <c r="BA57" s="56"/>
-      <c r="BB57" s="56"/>
-      <c r="BC57" s="56"/>
+      <c r="BA57" s="42"/>
+      <c r="BB57" s="42"/>
+      <c r="BC57" s="42"/>
     </row>
     <row r="58" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="50" t="s">
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="52"/>
-      <c r="L58" s="99" t="s">
+      <c r="K58" s="39"/>
+      <c r="L58" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="50" t="s">
+      <c r="M58" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="52"/>
+      <c r="N58" s="39"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -4889,15 +4889,15 @@
       <c r="BC58" s="4"/>
     </row>
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="100"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="67"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="73"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -4941,163 +4941,163 @@
       <c r="BC59" s="5"/>
     </row>
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="50" t="s">
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="50" t="s">
+      <c r="G60" s="39"/>
+      <c r="H60" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="67"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="73"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="61" t="s">
+      <c r="P60" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="65" t="s">
+      <c r="Q60" s="118"/>
+      <c r="R60" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="S60" s="67"/>
-      <c r="T60" s="65" t="s">
+      <c r="S60" s="73"/>
+      <c r="T60" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="67"/>
-      <c r="V60" s="65" t="s">
+      <c r="U60" s="73"/>
+      <c r="V60" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="W60" s="67"/>
-      <c r="X60" s="65" t="s">
+      <c r="W60" s="73"/>
+      <c r="X60" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="65" t="s">
+      <c r="Y60" s="111"/>
+      <c r="Z60" s="111"/>
+      <c r="AA60" s="73"/>
+      <c r="AB60" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="67"/>
-      <c r="AG60" s="65" t="s">
+      <c r="AC60" s="111"/>
+      <c r="AD60" s="111"/>
+      <c r="AE60" s="111"/>
+      <c r="AF60" s="73"/>
+      <c r="AG60" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="67"/>
-      <c r="AM60" s="65" t="s">
+      <c r="AH60" s="111"/>
+      <c r="AI60" s="111"/>
+      <c r="AJ60" s="111"/>
+      <c r="AK60" s="111"/>
+      <c r="AL60" s="73"/>
+      <c r="AM60" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AN60" s="67"/>
-      <c r="AO60" s="65" t="s">
+      <c r="AN60" s="73"/>
+      <c r="AO60" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AP60" s="66"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="67"/>
-      <c r="AU60" s="65" t="s">
+      <c r="AP60" s="111"/>
+      <c r="AQ60" s="111"/>
+      <c r="AR60" s="111"/>
+      <c r="AS60" s="111"/>
+      <c r="AT60" s="73"/>
+      <c r="AU60" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="AV60" s="66"/>
-      <c r="AW60" s="66"/>
-      <c r="AX60" s="66"/>
-      <c r="AY60" s="66"/>
-      <c r="AZ60" s="67"/>
-      <c r="BA60" s="65" t="s">
+      <c r="AV60" s="111"/>
+      <c r="AW60" s="111"/>
+      <c r="AX60" s="111"/>
+      <c r="AY60" s="111"/>
+      <c r="AZ60" s="73"/>
+      <c r="BA60" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="BB60" s="66"/>
-      <c r="BC60" s="67"/>
+      <c r="BB60" s="111"/>
+      <c r="BC60" s="73"/>
     </row>
     <row r="61" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="55"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="41"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="53"/>
-      <c r="AH61" s="54"/>
-      <c r="AI61" s="54"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="53"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="53"/>
-      <c r="AP61" s="54"/>
-      <c r="AQ61" s="54"/>
-      <c r="AR61" s="54"/>
-      <c r="AS61" s="54"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="53"/>
-      <c r="AV61" s="54"/>
-      <c r="AW61" s="54"/>
-      <c r="AX61" s="54"/>
-      <c r="AY61" s="54"/>
-      <c r="AZ61" s="55"/>
-      <c r="BA61" s="53"/>
-      <c r="BB61" s="54"/>
-      <c r="BC61" s="55"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="41"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="40"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="41"/>
+      <c r="AG61" s="40"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="46"/>
+      <c r="AL61" s="41"/>
+      <c r="AM61" s="40"/>
+      <c r="AN61" s="41"/>
+      <c r="AO61" s="40"/>
+      <c r="AP61" s="46"/>
+      <c r="AQ61" s="46"/>
+      <c r="AR61" s="46"/>
+      <c r="AS61" s="46"/>
+      <c r="AT61" s="41"/>
+      <c r="AU61" s="40"/>
+      <c r="AV61" s="46"/>
+      <c r="AW61" s="46"/>
+      <c r="AX61" s="46"/>
+      <c r="AY61" s="46"/>
+      <c r="AZ61" s="41"/>
+      <c r="BA61" s="40"/>
+      <c r="BB61" s="46"/>
+      <c r="BC61" s="41"/>
     </row>
     <row r="62" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="56" t="s">
+      <c r="B62" s="121"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="56"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="9" t="s">
         <v>119</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="56" t="s">
+      <c r="J62" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
       <c r="M62" s="9" t="s">
         <v>121</v>
       </c>
@@ -5144,14 +5144,14 @@
         <v>82</v>
       </c>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="56" t="s">
+      <c r="AO62" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="AP62" s="56"/>
-      <c r="AQ62" s="56"/>
-      <c r="AR62" s="56"/>
-      <c r="AS62" s="56"/>
-      <c r="AT62" s="56"/>
+      <c r="AP62" s="42"/>
+      <c r="AQ62" s="42"/>
+      <c r="AR62" s="42"/>
+      <c r="AS62" s="42"/>
+      <c r="AT62" s="42"/>
       <c r="AU62" s="9" t="s">
         <v>150</v>
       </c>
@@ -5167,17 +5167,17 @@
       <c r="BC62" s="11"/>
     </row>
     <row r="63" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
       <c r="M63" s="12"/>
       <c r="N63" s="14"/>
       <c r="O63" s="1"/>
@@ -5206,12 +5206,12 @@
       <c r="AL63" s="14"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="14"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="56"/>
-      <c r="AR63" s="56"/>
-      <c r="AS63" s="56"/>
-      <c r="AT63" s="56"/>
+      <c r="AO63" s="42"/>
+      <c r="AP63" s="42"/>
+      <c r="AQ63" s="42"/>
+      <c r="AR63" s="42"/>
+      <c r="AS63" s="42"/>
+      <c r="AT63" s="42"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="13"/>
       <c r="AW63" s="13"/>
@@ -5223,17 +5223,17 @@
       <c r="BC63" s="14"/>
     </row>
     <row r="64" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
       <c r="M64" s="12"/>
       <c r="N64" s="14"/>
       <c r="O64" s="1"/>
@@ -5262,12 +5262,12 @@
       <c r="AL64" s="14"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="14"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="56"/>
-      <c r="AQ64" s="56"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
+      <c r="AO64" s="42"/>
+      <c r="AP64" s="42"/>
+      <c r="AQ64" s="42"/>
+      <c r="AR64" s="42"/>
+      <c r="AS64" s="42"/>
+      <c r="AT64" s="42"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
       <c r="AW64" s="13"/>
@@ -5279,17 +5279,17 @@
       <c r="BC64" s="14"/>
     </row>
     <row r="65" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
       <c r="M65" s="12"/>
       <c r="N65" s="14"/>
       <c r="O65" s="1"/>
@@ -5318,12 +5318,12 @@
       <c r="AL65" s="14"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="14"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="56"/>
-      <c r="AQ65" s="56"/>
-      <c r="AR65" s="56"/>
-      <c r="AS65" s="56"/>
-      <c r="AT65" s="56"/>
+      <c r="AO65" s="42"/>
+      <c r="AP65" s="42"/>
+      <c r="AQ65" s="42"/>
+      <c r="AR65" s="42"/>
+      <c r="AS65" s="42"/>
+      <c r="AT65" s="42"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="13"/>
       <c r="AW65" s="13"/>
@@ -5335,17 +5335,17 @@
       <c r="BC65" s="14"/>
     </row>
     <row r="66" spans="2:55" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
       <c r="M66" s="12"/>
       <c r="N66" s="14"/>
       <c r="O66" s="1"/>
@@ -5374,12 +5374,12 @@
       <c r="AL66" s="14"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="14"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="56"/>
-      <c r="AQ66" s="56"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
+      <c r="AO66" s="42"/>
+      <c r="AP66" s="42"/>
+      <c r="AQ66" s="42"/>
+      <c r="AR66" s="42"/>
+      <c r="AS66" s="42"/>
+      <c r="AT66" s="42"/>
       <c r="AU66" s="12"/>
       <c r="AV66" s="13"/>
       <c r="AW66" s="13"/>
@@ -5391,17 +5391,17 @@
       <c r="BC66" s="14"/>
     </row>
     <row r="67" spans="2:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="15"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
       <c r="M67" s="15"/>
       <c r="N67" s="17"/>
       <c r="O67" s="1"/>
@@ -5430,12 +5430,12 @@
       <c r="AL67" s="17"/>
       <c r="AM67" s="15"/>
       <c r="AN67" s="17"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="56"/>
-      <c r="AQ67" s="56"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
+      <c r="AO67" s="42"/>
+      <c r="AP67" s="42"/>
+      <c r="AQ67" s="42"/>
+      <c r="AR67" s="42"/>
+      <c r="AS67" s="42"/>
+      <c r="AT67" s="42"/>
       <c r="AU67" s="15"/>
       <c r="AV67" s="16"/>
       <c r="AW67" s="16"/>
@@ -5447,10 +5447,10 @@
       <c r="BC67" s="17"/>
     </row>
     <row r="68" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="123"/>
       <c r="F68" s="9" t="s">
         <v>122</v>
       </c>
@@ -5463,11 +5463,11 @@
         <v>123</v>
       </c>
       <c r="K68" s="11"/>
-      <c r="L68" s="47" t="s">
+      <c r="L68" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
       <c r="O68" s="1"/>
       <c r="P68" s="9" t="s">
         <v>22</v>
@@ -5506,26 +5506,26 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="56" t="s">
+      <c r="AM68" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AN68" s="56"/>
-      <c r="AO68" s="56" t="s">
+      <c r="AN68" s="42"/>
+      <c r="AO68" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="56"/>
-      <c r="AQ68" s="56"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="56"/>
-      <c r="AU68" s="56" t="s">
+      <c r="AP68" s="42"/>
+      <c r="AQ68" s="42"/>
+      <c r="AR68" s="42"/>
+      <c r="AS68" s="42"/>
+      <c r="AT68" s="42"/>
+      <c r="AU68" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AV68" s="56"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="56"/>
+      <c r="AV68" s="42"/>
+      <c r="AW68" s="42"/>
+      <c r="AX68" s="42"/>
+      <c r="AY68" s="42"/>
+      <c r="AZ68" s="42"/>
       <c r="BA68" s="9" t="s">
         <v>77</v>
       </c>
@@ -5533,19 +5533,19 @@
       <c r="BC68" s="11"/>
     </row>
     <row r="69" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="126"/>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
       <c r="H69" s="12"/>
       <c r="I69" s="14"/>
       <c r="J69" s="12"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
       <c r="O69" s="1"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="14"/>
@@ -5570,38 +5570,38 @@
       <c r="AJ69" s="13"/>
       <c r="AK69" s="13"/>
       <c r="AL69" s="14"/>
-      <c r="AM69" s="56"/>
-      <c r="AN69" s="56"/>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="56"/>
-      <c r="AQ69" s="56"/>
-      <c r="AR69" s="56"/>
-      <c r="AS69" s="56"/>
-      <c r="AT69" s="56"/>
-      <c r="AU69" s="56"/>
-      <c r="AV69" s="56"/>
-      <c r="AW69" s="56"/>
-      <c r="AX69" s="56"/>
-      <c r="AY69" s="56"/>
-      <c r="AZ69" s="56"/>
+      <c r="AM69" s="42"/>
+      <c r="AN69" s="42"/>
+      <c r="AO69" s="42"/>
+      <c r="AP69" s="42"/>
+      <c r="AQ69" s="42"/>
+      <c r="AR69" s="42"/>
+      <c r="AS69" s="42"/>
+      <c r="AT69" s="42"/>
+      <c r="AU69" s="42"/>
+      <c r="AV69" s="42"/>
+      <c r="AW69" s="42"/>
+      <c r="AX69" s="42"/>
+      <c r="AY69" s="42"/>
+      <c r="AZ69" s="42"/>
       <c r="BA69" s="12"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="14"/>
     </row>
     <row r="70" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="126"/>
       <c r="F70" s="12"/>
       <c r="G70" s="14"/>
       <c r="H70" s="12"/>
       <c r="I70" s="14"/>
       <c r="J70" s="12"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
       <c r="O70" s="1"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="14"/>
@@ -5626,38 +5626,38 @@
       <c r="AJ70" s="13"/>
       <c r="AK70" s="13"/>
       <c r="AL70" s="14"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="56"/>
-      <c r="AQ70" s="56"/>
-      <c r="AR70" s="56"/>
-      <c r="AS70" s="56"/>
-      <c r="AT70" s="56"/>
-      <c r="AU70" s="56"/>
-      <c r="AV70" s="56"/>
-      <c r="AW70" s="56"/>
-      <c r="AX70" s="56"/>
-      <c r="AY70" s="56"/>
-      <c r="AZ70" s="56"/>
+      <c r="AM70" s="42"/>
+      <c r="AN70" s="42"/>
+      <c r="AO70" s="42"/>
+      <c r="AP70" s="42"/>
+      <c r="AQ70" s="42"/>
+      <c r="AR70" s="42"/>
+      <c r="AS70" s="42"/>
+      <c r="AT70" s="42"/>
+      <c r="AU70" s="42"/>
+      <c r="AV70" s="42"/>
+      <c r="AW70" s="42"/>
+      <c r="AX70" s="42"/>
+      <c r="AY70" s="42"/>
+      <c r="AZ70" s="42"/>
       <c r="BA70" s="12"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="14"/>
     </row>
     <row r="71" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="126"/>
       <c r="F71" s="12"/>
       <c r="G71" s="14"/>
       <c r="H71" s="12"/>
       <c r="I71" s="14"/>
       <c r="J71" s="12"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
       <c r="O71" s="1"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="14"/>
@@ -5682,38 +5682,38 @@
       <c r="AJ71" s="13"/>
       <c r="AK71" s="13"/>
       <c r="AL71" s="14"/>
-      <c r="AM71" s="56"/>
-      <c r="AN71" s="56"/>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="56"/>
-      <c r="AQ71" s="56"/>
-      <c r="AR71" s="56"/>
-      <c r="AS71" s="56"/>
-      <c r="AT71" s="56"/>
-      <c r="AU71" s="56"/>
-      <c r="AV71" s="56"/>
-      <c r="AW71" s="56"/>
-      <c r="AX71" s="56"/>
-      <c r="AY71" s="56"/>
-      <c r="AZ71" s="56"/>
+      <c r="AM71" s="42"/>
+      <c r="AN71" s="42"/>
+      <c r="AO71" s="42"/>
+      <c r="AP71" s="42"/>
+      <c r="AQ71" s="42"/>
+      <c r="AR71" s="42"/>
+      <c r="AS71" s="42"/>
+      <c r="AT71" s="42"/>
+      <c r="AU71" s="42"/>
+      <c r="AV71" s="42"/>
+      <c r="AW71" s="42"/>
+      <c r="AX71" s="42"/>
+      <c r="AY71" s="42"/>
+      <c r="AZ71" s="42"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="14"/>
     </row>
     <row r="72" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
+      <c r="B72" s="124"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="126"/>
       <c r="F72" s="12"/>
       <c r="G72" s="14"/>
       <c r="H72" s="12"/>
       <c r="I72" s="14"/>
       <c r="J72" s="12"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
       <c r="O72" s="1"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="14"/>
@@ -5738,38 +5738,38 @@
       <c r="AJ72" s="13"/>
       <c r="AK72" s="13"/>
       <c r="AL72" s="14"/>
-      <c r="AM72" s="56"/>
-      <c r="AN72" s="56"/>
-      <c r="AO72" s="56"/>
-      <c r="AP72" s="56"/>
-      <c r="AQ72" s="56"/>
-      <c r="AR72" s="56"/>
-      <c r="AS72" s="56"/>
-      <c r="AT72" s="56"/>
-      <c r="AU72" s="56"/>
-      <c r="AV72" s="56"/>
-      <c r="AW72" s="56"/>
-      <c r="AX72" s="56"/>
-      <c r="AY72" s="56"/>
-      <c r="AZ72" s="56"/>
+      <c r="AM72" s="42"/>
+      <c r="AN72" s="42"/>
+      <c r="AO72" s="42"/>
+      <c r="AP72" s="42"/>
+      <c r="AQ72" s="42"/>
+      <c r="AR72" s="42"/>
+      <c r="AS72" s="42"/>
+      <c r="AT72" s="42"/>
+      <c r="AU72" s="42"/>
+      <c r="AV72" s="42"/>
+      <c r="AW72" s="42"/>
+      <c r="AX72" s="42"/>
+      <c r="AY72" s="42"/>
+      <c r="AZ72" s="42"/>
       <c r="BA72" s="12"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="14"/>
     </row>
     <row r="73" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="126"/>
       <c r="F73" s="12"/>
       <c r="G73" s="14"/>
       <c r="H73" s="12"/>
       <c r="I73" s="14"/>
       <c r="J73" s="12"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
       <c r="O73" s="1"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="14"/>
@@ -5794,38 +5794,38 @@
       <c r="AJ73" s="13"/>
       <c r="AK73" s="13"/>
       <c r="AL73" s="14"/>
-      <c r="AM73" s="56"/>
-      <c r="AN73" s="56"/>
-      <c r="AO73" s="56"/>
-      <c r="AP73" s="56"/>
-      <c r="AQ73" s="56"/>
-      <c r="AR73" s="56"/>
-      <c r="AS73" s="56"/>
-      <c r="AT73" s="56"/>
-      <c r="AU73" s="56"/>
-      <c r="AV73" s="56"/>
-      <c r="AW73" s="56"/>
-      <c r="AX73" s="56"/>
-      <c r="AY73" s="56"/>
-      <c r="AZ73" s="56"/>
+      <c r="AM73" s="42"/>
+      <c r="AN73" s="42"/>
+      <c r="AO73" s="42"/>
+      <c r="AP73" s="42"/>
+      <c r="AQ73" s="42"/>
+      <c r="AR73" s="42"/>
+      <c r="AS73" s="42"/>
+      <c r="AT73" s="42"/>
+      <c r="AU73" s="42"/>
+      <c r="AV73" s="42"/>
+      <c r="AW73" s="42"/>
+      <c r="AX73" s="42"/>
+      <c r="AY73" s="42"/>
+      <c r="AZ73" s="42"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="14"/>
     </row>
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="126"/>
       <c r="F74" s="12"/>
       <c r="G74" s="14"/>
       <c r="H74" s="12"/>
       <c r="I74" s="14"/>
       <c r="J74" s="12"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
       <c r="O74" s="1"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="14"/>
@@ -5850,38 +5850,38 @@
       <c r="AJ74" s="13"/>
       <c r="AK74" s="13"/>
       <c r="AL74" s="14"/>
-      <c r="AM74" s="56"/>
-      <c r="AN74" s="56"/>
-      <c r="AO74" s="56"/>
-      <c r="AP74" s="56"/>
-      <c r="AQ74" s="56"/>
-      <c r="AR74" s="56"/>
-      <c r="AS74" s="56"/>
-      <c r="AT74" s="56"/>
-      <c r="AU74" s="56"/>
-      <c r="AV74" s="56"/>
-      <c r="AW74" s="56"/>
-      <c r="AX74" s="56"/>
-      <c r="AY74" s="56"/>
-      <c r="AZ74" s="56"/>
+      <c r="AM74" s="42"/>
+      <c r="AN74" s="42"/>
+      <c r="AO74" s="42"/>
+      <c r="AP74" s="42"/>
+      <c r="AQ74" s="42"/>
+      <c r="AR74" s="42"/>
+      <c r="AS74" s="42"/>
+      <c r="AT74" s="42"/>
+      <c r="AU74" s="42"/>
+      <c r="AV74" s="42"/>
+      <c r="AW74" s="42"/>
+      <c r="AX74" s="42"/>
+      <c r="AY74" s="42"/>
+      <c r="AZ74" s="42"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="14"/>
     </row>
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="126"/>
       <c r="F75" s="12"/>
       <c r="G75" s="14"/>
       <c r="H75" s="12"/>
       <c r="I75" s="14"/>
       <c r="J75" s="12"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
       <c r="O75" s="1"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="14"/>
@@ -5906,38 +5906,38 @@
       <c r="AJ75" s="13"/>
       <c r="AK75" s="13"/>
       <c r="AL75" s="14"/>
-      <c r="AM75" s="56"/>
-      <c r="AN75" s="56"/>
-      <c r="AO75" s="56"/>
-      <c r="AP75" s="56"/>
-      <c r="AQ75" s="56"/>
-      <c r="AR75" s="56"/>
-      <c r="AS75" s="56"/>
-      <c r="AT75" s="56"/>
-      <c r="AU75" s="56"/>
-      <c r="AV75" s="56"/>
-      <c r="AW75" s="56"/>
-      <c r="AX75" s="56"/>
-      <c r="AY75" s="56"/>
-      <c r="AZ75" s="56"/>
+      <c r="AM75" s="42"/>
+      <c r="AN75" s="42"/>
+      <c r="AO75" s="42"/>
+      <c r="AP75" s="42"/>
+      <c r="AQ75" s="42"/>
+      <c r="AR75" s="42"/>
+      <c r="AS75" s="42"/>
+      <c r="AT75" s="42"/>
+      <c r="AU75" s="42"/>
+      <c r="AV75" s="42"/>
+      <c r="AW75" s="42"/>
+      <c r="AX75" s="42"/>
+      <c r="AY75" s="42"/>
+      <c r="AZ75" s="42"/>
       <c r="BA75" s="12"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="14"/>
     </row>
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="126"/>
       <c r="F76" s="12"/>
       <c r="G76" s="14"/>
       <c r="H76" s="12"/>
       <c r="I76" s="14"/>
       <c r="J76" s="12"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
       <c r="O76" s="1"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="14"/>
@@ -5962,38 +5962,38 @@
       <c r="AJ76" s="13"/>
       <c r="AK76" s="13"/>
       <c r="AL76" s="14"/>
-      <c r="AM76" s="56"/>
-      <c r="AN76" s="56"/>
-      <c r="AO76" s="56"/>
-      <c r="AP76" s="56"/>
-      <c r="AQ76" s="56"/>
-      <c r="AR76" s="56"/>
-      <c r="AS76" s="56"/>
-      <c r="AT76" s="56"/>
-      <c r="AU76" s="56"/>
-      <c r="AV76" s="56"/>
-      <c r="AW76" s="56"/>
-      <c r="AX76" s="56"/>
-      <c r="AY76" s="56"/>
-      <c r="AZ76" s="56"/>
+      <c r="AM76" s="42"/>
+      <c r="AN76" s="42"/>
+      <c r="AO76" s="42"/>
+      <c r="AP76" s="42"/>
+      <c r="AQ76" s="42"/>
+      <c r="AR76" s="42"/>
+      <c r="AS76" s="42"/>
+      <c r="AT76" s="42"/>
+      <c r="AU76" s="42"/>
+      <c r="AV76" s="42"/>
+      <c r="AW76" s="42"/>
+      <c r="AX76" s="42"/>
+      <c r="AY76" s="42"/>
+      <c r="AZ76" s="42"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="14"/>
     </row>
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="129"/>
       <c r="F77" s="15"/>
       <c r="G77" s="17"/>
       <c r="H77" s="15"/>
       <c r="I77" s="17"/>
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
       <c r="O77" s="1"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="14"/>
@@ -6018,29 +6018,29 @@
       <c r="AJ77" s="13"/>
       <c r="AK77" s="13"/>
       <c r="AL77" s="14"/>
-      <c r="AM77" s="47"/>
-      <c r="AN77" s="47"/>
-      <c r="AO77" s="47"/>
-      <c r="AP77" s="47"/>
-      <c r="AQ77" s="47"/>
-      <c r="AR77" s="47"/>
-      <c r="AS77" s="47"/>
-      <c r="AT77" s="47"/>
-      <c r="AU77" s="47"/>
-      <c r="AV77" s="47"/>
-      <c r="AW77" s="47"/>
-      <c r="AX77" s="47"/>
-      <c r="AY77" s="47"/>
-      <c r="AZ77" s="47"/>
+      <c r="AM77" s="48"/>
+      <c r="AN77" s="48"/>
+      <c r="AO77" s="48"/>
+      <c r="AP77" s="48"/>
+      <c r="AQ77" s="48"/>
+      <c r="AR77" s="48"/>
+      <c r="AS77" s="48"/>
+      <c r="AT77" s="48"/>
+      <c r="AU77" s="48"/>
+      <c r="AV77" s="48"/>
+      <c r="AW77" s="48"/>
+      <c r="AX77" s="48"/>
+      <c r="AY77" s="48"/>
+      <c r="AZ77" s="48"/>
       <c r="BA77" s="12"/>
       <c r="BB77" s="13"/>
       <c r="BC77" s="14"/>
     </row>
     <row r="78" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="123"/>
       <c r="F78" s="9" t="s">
         <v>125</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="11"/>
-      <c r="L78" s="47" t="s">
+      <c r="L78" s="48" t="s">
         <v>126</v>
       </c>
       <c r="M78" s="9" t="s">
@@ -6061,572 +6061,572 @@
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="56" t="s">
+      <c r="P78" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="69" t="s">
+      <c r="Q78" s="42"/>
+      <c r="R78" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="S78" s="69"/>
-      <c r="T78" s="56" t="s">
+      <c r="S78" s="110"/>
+      <c r="T78" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="U78" s="56"/>
-      <c r="V78" s="56" t="s">
+      <c r="U78" s="42"/>
+      <c r="V78" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56" t="s">
+      <c r="W78" s="42"/>
+      <c r="X78" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="56"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="56"/>
-      <c r="AB78" s="56" t="s">
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AC78" s="56"/>
-      <c r="AD78" s="56"/>
-      <c r="AE78" s="56"/>
-      <c r="AF78" s="56"/>
-      <c r="AG78" s="56" t="s">
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AH78" s="56"/>
-      <c r="AI78" s="56"/>
-      <c r="AJ78" s="56"/>
-      <c r="AK78" s="56"/>
-      <c r="AL78" s="56"/>
-      <c r="AM78" s="56" t="s">
+      <c r="AH78" s="42"/>
+      <c r="AI78" s="42"/>
+      <c r="AJ78" s="42"/>
+      <c r="AK78" s="42"/>
+      <c r="AL78" s="42"/>
+      <c r="AM78" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AN78" s="56"/>
-      <c r="AO78" s="68" t="s">
+      <c r="AN78" s="42"/>
+      <c r="AO78" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="AP78" s="68"/>
-      <c r="AQ78" s="68"/>
-      <c r="AR78" s="68"/>
-      <c r="AS78" s="68"/>
-      <c r="AT78" s="68"/>
-      <c r="AU78" s="56" t="s">
+      <c r="AP78" s="112"/>
+      <c r="AQ78" s="112"/>
+      <c r="AR78" s="112"/>
+      <c r="AS78" s="112"/>
+      <c r="AT78" s="112"/>
+      <c r="AU78" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="AV78" s="56"/>
-      <c r="AW78" s="56"/>
-      <c r="AX78" s="56"/>
-      <c r="AY78" s="56"/>
-      <c r="AZ78" s="56"/>
-      <c r="BA78" s="56" t="s">
+      <c r="AV78" s="42"/>
+      <c r="AW78" s="42"/>
+      <c r="AX78" s="42"/>
+      <c r="AY78" s="42"/>
+      <c r="AZ78" s="42"/>
+      <c r="BA78" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="BB78" s="56"/>
-      <c r="BC78" s="56"/>
+      <c r="BB78" s="42"/>
+      <c r="BC78" s="42"/>
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="126"/>
       <c r="F79" s="12"/>
       <c r="G79" s="14"/>
       <c r="H79" s="12"/>
       <c r="I79" s="14"/>
       <c r="J79" s="12"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="48"/>
+      <c r="L79" s="49"/>
       <c r="M79" s="12"/>
       <c r="N79" s="14"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="69"/>
-      <c r="S79" s="69"/>
-      <c r="T79" s="56"/>
-      <c r="U79" s="56"/>
-      <c r="V79" s="56"/>
-      <c r="W79" s="56"/>
-      <c r="X79" s="56"/>
-      <c r="Y79" s="56"/>
-      <c r="Z79" s="56"/>
-      <c r="AA79" s="56"/>
-      <c r="AB79" s="56"/>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="56"/>
-      <c r="AE79" s="56"/>
-      <c r="AF79" s="56"/>
-      <c r="AG79" s="56"/>
-      <c r="AH79" s="56"/>
-      <c r="AI79" s="56"/>
-      <c r="AJ79" s="56"/>
-      <c r="AK79" s="56"/>
-      <c r="AL79" s="56"/>
-      <c r="AM79" s="56"/>
-      <c r="AN79" s="56"/>
-      <c r="AO79" s="68"/>
-      <c r="AP79" s="68"/>
-      <c r="AQ79" s="68"/>
-      <c r="AR79" s="68"/>
-      <c r="AS79" s="68"/>
-      <c r="AT79" s="68"/>
-      <c r="AU79" s="56"/>
-      <c r="AV79" s="56"/>
-      <c r="AW79" s="56"/>
-      <c r="AX79" s="56"/>
-      <c r="AY79" s="56"/>
-      <c r="AZ79" s="56"/>
-      <c r="BA79" s="56"/>
-      <c r="BB79" s="56"/>
-      <c r="BC79" s="56"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="110"/>
+      <c r="S79" s="110"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="42"/>
+      <c r="AJ79" s="42"/>
+      <c r="AK79" s="42"/>
+      <c r="AL79" s="42"/>
+      <c r="AM79" s="42"/>
+      <c r="AN79" s="42"/>
+      <c r="AO79" s="112"/>
+      <c r="AP79" s="112"/>
+      <c r="AQ79" s="112"/>
+      <c r="AR79" s="112"/>
+      <c r="AS79" s="112"/>
+      <c r="AT79" s="112"/>
+      <c r="AU79" s="42"/>
+      <c r="AV79" s="42"/>
+      <c r="AW79" s="42"/>
+      <c r="AX79" s="42"/>
+      <c r="AY79" s="42"/>
+      <c r="AZ79" s="42"/>
+      <c r="BA79" s="42"/>
+      <c r="BB79" s="42"/>
+      <c r="BC79" s="42"/>
     </row>
     <row r="80" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="126"/>
       <c r="F80" s="12"/>
       <c r="G80" s="14"/>
       <c r="H80" s="12"/>
       <c r="I80" s="14"/>
       <c r="J80" s="12"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="48"/>
+      <c r="L80" s="49"/>
       <c r="M80" s="12"/>
       <c r="N80" s="14"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="69"/>
-      <c r="S80" s="69"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="68"/>
-      <c r="AP80" s="68"/>
-      <c r="AQ80" s="68"/>
-      <c r="AR80" s="68"/>
-      <c r="AS80" s="68"/>
-      <c r="AT80" s="68"/>
-      <c r="AU80" s="56"/>
-      <c r="AV80" s="56"/>
-      <c r="AW80" s="56"/>
-      <c r="AX80" s="56"/>
-      <c r="AY80" s="56"/>
-      <c r="AZ80" s="56"/>
-      <c r="BA80" s="56"/>
-      <c r="BB80" s="56"/>
-      <c r="BC80" s="56"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="110"/>
+      <c r="S80" s="110"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
+      <c r="AK80" s="42"/>
+      <c r="AL80" s="42"/>
+      <c r="AM80" s="42"/>
+      <c r="AN80" s="42"/>
+      <c r="AO80" s="112"/>
+      <c r="AP80" s="112"/>
+      <c r="AQ80" s="112"/>
+      <c r="AR80" s="112"/>
+      <c r="AS80" s="112"/>
+      <c r="AT80" s="112"/>
+      <c r="AU80" s="42"/>
+      <c r="AV80" s="42"/>
+      <c r="AW80" s="42"/>
+      <c r="AX80" s="42"/>
+      <c r="AY80" s="42"/>
+      <c r="AZ80" s="42"/>
+      <c r="BA80" s="42"/>
+      <c r="BB80" s="42"/>
+      <c r="BC80" s="42"/>
     </row>
     <row r="81" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="126"/>
       <c r="F81" s="12"/>
       <c r="G81" s="14"/>
       <c r="H81" s="12"/>
       <c r="I81" s="14"/>
       <c r="J81" s="12"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="48"/>
+      <c r="L81" s="49"/>
       <c r="M81" s="12"/>
       <c r="N81" s="14"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="69"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="68"/>
-      <c r="AP81" s="68"/>
-      <c r="AQ81" s="68"/>
-      <c r="AR81" s="68"/>
-      <c r="AS81" s="68"/>
-      <c r="AT81" s="68"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="56"/>
-      <c r="AX81" s="56"/>
-      <c r="AY81" s="56"/>
-      <c r="AZ81" s="56"/>
-      <c r="BA81" s="56"/>
-      <c r="BB81" s="56"/>
-      <c r="BC81" s="56"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="110"/>
+      <c r="S81" s="110"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="42"/>
+      <c r="AL81" s="42"/>
+      <c r="AM81" s="42"/>
+      <c r="AN81" s="42"/>
+      <c r="AO81" s="112"/>
+      <c r="AP81" s="112"/>
+      <c r="AQ81" s="112"/>
+      <c r="AR81" s="112"/>
+      <c r="AS81" s="112"/>
+      <c r="AT81" s="112"/>
+      <c r="AU81" s="42"/>
+      <c r="AV81" s="42"/>
+      <c r="AW81" s="42"/>
+      <c r="AX81" s="42"/>
+      <c r="AY81" s="42"/>
+      <c r="AZ81" s="42"/>
+      <c r="BA81" s="42"/>
+      <c r="BB81" s="42"/>
+      <c r="BC81" s="42"/>
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="126"/>
       <c r="F82" s="12"/>
       <c r="G82" s="14"/>
       <c r="H82" s="12"/>
       <c r="I82" s="14"/>
       <c r="J82" s="12"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="48"/>
+      <c r="L82" s="49"/>
       <c r="M82" s="12"/>
       <c r="N82" s="14"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="69"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="68"/>
-      <c r="AP82" s="68"/>
-      <c r="AQ82" s="68"/>
-      <c r="AR82" s="68"/>
-      <c r="AS82" s="68"/>
-      <c r="AT82" s="68"/>
-      <c r="AU82" s="56"/>
-      <c r="AV82" s="56"/>
-      <c r="AW82" s="56"/>
-      <c r="AX82" s="56"/>
-      <c r="AY82" s="56"/>
-      <c r="AZ82" s="56"/>
-      <c r="BA82" s="56"/>
-      <c r="BB82" s="56"/>
-      <c r="BC82" s="56"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="110"/>
+      <c r="S82" s="110"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="42"/>
+      <c r="Z82" s="42"/>
+      <c r="AA82" s="42"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="42"/>
+      <c r="AD82" s="42"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="42"/>
+      <c r="AG82" s="42"/>
+      <c r="AH82" s="42"/>
+      <c r="AI82" s="42"/>
+      <c r="AJ82" s="42"/>
+      <c r="AK82" s="42"/>
+      <c r="AL82" s="42"/>
+      <c r="AM82" s="42"/>
+      <c r="AN82" s="42"/>
+      <c r="AO82" s="112"/>
+      <c r="AP82" s="112"/>
+      <c r="AQ82" s="112"/>
+      <c r="AR82" s="112"/>
+      <c r="AS82" s="112"/>
+      <c r="AT82" s="112"/>
+      <c r="AU82" s="42"/>
+      <c r="AV82" s="42"/>
+      <c r="AW82" s="42"/>
+      <c r="AX82" s="42"/>
+      <c r="AY82" s="42"/>
+      <c r="AZ82" s="42"/>
+      <c r="BA82" s="42"/>
+      <c r="BB82" s="42"/>
+      <c r="BC82" s="42"/>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="126"/>
       <c r="F83" s="12"/>
       <c r="G83" s="14"/>
       <c r="H83" s="12"/>
       <c r="I83" s="14"/>
       <c r="J83" s="12"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="48"/>
+      <c r="L83" s="49"/>
       <c r="M83" s="12"/>
       <c r="N83" s="14"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="69"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="68"/>
-      <c r="AP83" s="68"/>
-      <c r="AQ83" s="68"/>
-      <c r="AR83" s="68"/>
-      <c r="AS83" s="68"/>
-      <c r="AT83" s="68"/>
-      <c r="AU83" s="56"/>
-      <c r="AV83" s="56"/>
-      <c r="AW83" s="56"/>
-      <c r="AX83" s="56"/>
-      <c r="AY83" s="56"/>
-      <c r="AZ83" s="56"/>
-      <c r="BA83" s="56"/>
-      <c r="BB83" s="56"/>
-      <c r="BC83" s="56"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="110"/>
+      <c r="S83" s="110"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="42"/>
+      <c r="AA83" s="42"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="42"/>
+      <c r="AD83" s="42"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="42"/>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="42"/>
+      <c r="AJ83" s="42"/>
+      <c r="AK83" s="42"/>
+      <c r="AL83" s="42"/>
+      <c r="AM83" s="42"/>
+      <c r="AN83" s="42"/>
+      <c r="AO83" s="112"/>
+      <c r="AP83" s="112"/>
+      <c r="AQ83" s="112"/>
+      <c r="AR83" s="112"/>
+      <c r="AS83" s="112"/>
+      <c r="AT83" s="112"/>
+      <c r="AU83" s="42"/>
+      <c r="AV83" s="42"/>
+      <c r="AW83" s="42"/>
+      <c r="AX83" s="42"/>
+      <c r="AY83" s="42"/>
+      <c r="AZ83" s="42"/>
+      <c r="BA83" s="42"/>
+      <c r="BB83" s="42"/>
+      <c r="BC83" s="42"/>
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="126"/>
       <c r="F84" s="12"/>
       <c r="G84" s="14"/>
       <c r="H84" s="12"/>
       <c r="I84" s="14"/>
       <c r="J84" s="12"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="48"/>
+      <c r="L84" s="49"/>
       <c r="M84" s="12"/>
       <c r="N84" s="14"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="69"/>
-      <c r="S84" s="69"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="68"/>
-      <c r="AP84" s="68"/>
-      <c r="AQ84" s="68"/>
-      <c r="AR84" s="68"/>
-      <c r="AS84" s="68"/>
-      <c r="AT84" s="68"/>
-      <c r="AU84" s="56"/>
-      <c r="AV84" s="56"/>
-      <c r="AW84" s="56"/>
-      <c r="AX84" s="56"/>
-      <c r="AY84" s="56"/>
-      <c r="AZ84" s="56"/>
-      <c r="BA84" s="56"/>
-      <c r="BB84" s="56"/>
-      <c r="BC84" s="56"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="110"/>
+      <c r="S84" s="110"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="42"/>
+      <c r="AA84" s="42"/>
+      <c r="AB84" s="42"/>
+      <c r="AC84" s="42"/>
+      <c r="AD84" s="42"/>
+      <c r="AE84" s="42"/>
+      <c r="AF84" s="42"/>
+      <c r="AG84" s="42"/>
+      <c r="AH84" s="42"/>
+      <c r="AI84" s="42"/>
+      <c r="AJ84" s="42"/>
+      <c r="AK84" s="42"/>
+      <c r="AL84" s="42"/>
+      <c r="AM84" s="42"/>
+      <c r="AN84" s="42"/>
+      <c r="AO84" s="112"/>
+      <c r="AP84" s="112"/>
+      <c r="AQ84" s="112"/>
+      <c r="AR84" s="112"/>
+      <c r="AS84" s="112"/>
+      <c r="AT84" s="112"/>
+      <c r="AU84" s="42"/>
+      <c r="AV84" s="42"/>
+      <c r="AW84" s="42"/>
+      <c r="AX84" s="42"/>
+      <c r="AY84" s="42"/>
+      <c r="AZ84" s="42"/>
+      <c r="BA84" s="42"/>
+      <c r="BB84" s="42"/>
+      <c r="BC84" s="42"/>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="126"/>
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
       <c r="H85" s="12"/>
       <c r="I85" s="14"/>
       <c r="J85" s="12"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="48"/>
+      <c r="L85" s="49"/>
       <c r="M85" s="12"/>
       <c r="N85" s="14"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="69"/>
-      <c r="S85" s="69"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="68"/>
-      <c r="AP85" s="68"/>
-      <c r="AQ85" s="68"/>
-      <c r="AR85" s="68"/>
-      <c r="AS85" s="68"/>
-      <c r="AT85" s="68"/>
-      <c r="AU85" s="56"/>
-      <c r="AV85" s="56"/>
-      <c r="AW85" s="56"/>
-      <c r="AX85" s="56"/>
-      <c r="AY85" s="56"/>
-      <c r="AZ85" s="56"/>
-      <c r="BA85" s="56"/>
-      <c r="BB85" s="56"/>
-      <c r="BC85" s="56"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="110"/>
+      <c r="S85" s="110"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="42"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="42"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="42"/>
+      <c r="AA85" s="42"/>
+      <c r="AB85" s="42"/>
+      <c r="AC85" s="42"/>
+      <c r="AD85" s="42"/>
+      <c r="AE85" s="42"/>
+      <c r="AF85" s="42"/>
+      <c r="AG85" s="42"/>
+      <c r="AH85" s="42"/>
+      <c r="AI85" s="42"/>
+      <c r="AJ85" s="42"/>
+      <c r="AK85" s="42"/>
+      <c r="AL85" s="42"/>
+      <c r="AM85" s="42"/>
+      <c r="AN85" s="42"/>
+      <c r="AO85" s="112"/>
+      <c r="AP85" s="112"/>
+      <c r="AQ85" s="112"/>
+      <c r="AR85" s="112"/>
+      <c r="AS85" s="112"/>
+      <c r="AT85" s="112"/>
+      <c r="AU85" s="42"/>
+      <c r="AV85" s="42"/>
+      <c r="AW85" s="42"/>
+      <c r="AX85" s="42"/>
+      <c r="AY85" s="42"/>
+      <c r="AZ85" s="42"/>
+      <c r="BA85" s="42"/>
+      <c r="BB85" s="42"/>
+      <c r="BC85" s="42"/>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="126"/>
       <c r="F86" s="12"/>
       <c r="G86" s="14"/>
       <c r="H86" s="12"/>
       <c r="I86" s="14"/>
       <c r="J86" s="12"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="48"/>
+      <c r="L86" s="49"/>
       <c r="M86" s="12"/>
       <c r="N86" s="14"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="69"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="68"/>
-      <c r="AP86" s="68"/>
-      <c r="AQ86" s="68"/>
-      <c r="AR86" s="68"/>
-      <c r="AS86" s="68"/>
-      <c r="AT86" s="68"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
-      <c r="AY86" s="56"/>
-      <c r="AZ86" s="56"/>
-      <c r="BA86" s="56"/>
-      <c r="BB86" s="56"/>
-      <c r="BC86" s="56"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="110"/>
+      <c r="S86" s="110"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="42"/>
+      <c r="W86" s="42"/>
+      <c r="X86" s="42"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="42"/>
+      <c r="AA86" s="42"/>
+      <c r="AB86" s="42"/>
+      <c r="AC86" s="42"/>
+      <c r="AD86" s="42"/>
+      <c r="AE86" s="42"/>
+      <c r="AF86" s="42"/>
+      <c r="AG86" s="42"/>
+      <c r="AH86" s="42"/>
+      <c r="AI86" s="42"/>
+      <c r="AJ86" s="42"/>
+      <c r="AK86" s="42"/>
+      <c r="AL86" s="42"/>
+      <c r="AM86" s="42"/>
+      <c r="AN86" s="42"/>
+      <c r="AO86" s="112"/>
+      <c r="AP86" s="112"/>
+      <c r="AQ86" s="112"/>
+      <c r="AR86" s="112"/>
+      <c r="AS86" s="112"/>
+      <c r="AT86" s="112"/>
+      <c r="AU86" s="42"/>
+      <c r="AV86" s="42"/>
+      <c r="AW86" s="42"/>
+      <c r="AX86" s="42"/>
+      <c r="AY86" s="42"/>
+      <c r="AZ86" s="42"/>
+      <c r="BA86" s="42"/>
+      <c r="BB86" s="42"/>
+      <c r="BC86" s="42"/>
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="128"/>
+      <c r="D87" s="128"/>
+      <c r="E87" s="129"/>
       <c r="F87" s="15"/>
       <c r="G87" s="17"/>
       <c r="H87" s="15"/>
       <c r="I87" s="17"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="49"/>
+      <c r="L87" s="50"/>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="69"/>
-      <c r="S87" s="69"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="68"/>
-      <c r="AP87" s="68"/>
-      <c r="AQ87" s="68"/>
-      <c r="AR87" s="68"/>
-      <c r="AS87" s="68"/>
-      <c r="AT87" s="68"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
-      <c r="AY87" s="56"/>
-      <c r="AZ87" s="56"/>
-      <c r="BA87" s="56"/>
-      <c r="BB87" s="56"/>
-      <c r="BC87" s="56"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="110"/>
+      <c r="S87" s="110"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="42"/>
+      <c r="AA87" s="42"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="42"/>
+      <c r="AD87" s="42"/>
+      <c r="AE87" s="42"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="42"/>
+      <c r="AI87" s="42"/>
+      <c r="AJ87" s="42"/>
+      <c r="AK87" s="42"/>
+      <c r="AL87" s="42"/>
+      <c r="AM87" s="42"/>
+      <c r="AN87" s="42"/>
+      <c r="AO87" s="112"/>
+      <c r="AP87" s="112"/>
+      <c r="AQ87" s="112"/>
+      <c r="AR87" s="112"/>
+      <c r="AS87" s="112"/>
+      <c r="AT87" s="112"/>
+      <c r="AU87" s="42"/>
+      <c r="AV87" s="42"/>
+      <c r="AW87" s="42"/>
+      <c r="AX87" s="42"/>
+      <c r="AY87" s="42"/>
+      <c r="AZ87" s="42"/>
+      <c r="BA87" s="42"/>
+      <c r="BB87" s="42"/>
+      <c r="BC87" s="42"/>
     </row>
     <row r="88" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" s="1"/>
@@ -7163,151 +7163,151 @@
       <c r="BC99" s="4"/>
     </row>
     <row r="100" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F100" s="72" t="s">
+      <c r="F100" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="108"/>
+      <c r="K100" s="108"/>
+      <c r="L100" s="108"/>
+      <c r="M100" s="108"/>
+      <c r="N100" s="108"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="73" t="s">
+      <c r="P100" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="74" t="s">
+      <c r="Q100" s="109"/>
+      <c r="R100" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74" t="s">
+      <c r="S100" s="96"/>
+      <c r="T100" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74" t="s">
+      <c r="U100" s="96"/>
+      <c r="V100" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="W100" s="74"/>
-      <c r="X100" s="74" t="s">
+      <c r="W100" s="96"/>
+      <c r="X100" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="Y100" s="74"/>
-      <c r="Z100" s="74"/>
-      <c r="AA100" s="74"/>
-      <c r="AB100" s="74" t="s">
+      <c r="Y100" s="96"/>
+      <c r="Z100" s="96"/>
+      <c r="AA100" s="96"/>
+      <c r="AB100" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="AC100" s="74"/>
-      <c r="AD100" s="74"/>
-      <c r="AE100" s="74"/>
-      <c r="AF100" s="74"/>
-      <c r="AG100" s="74" t="s">
+      <c r="AC100" s="96"/>
+      <c r="AD100" s="96"/>
+      <c r="AE100" s="96"/>
+      <c r="AF100" s="96"/>
+      <c r="AG100" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="AH100" s="74"/>
-      <c r="AI100" s="74"/>
-      <c r="AJ100" s="74"/>
-      <c r="AK100" s="74"/>
-      <c r="AL100" s="74"/>
-      <c r="AM100" s="74" t="s">
+      <c r="AH100" s="96"/>
+      <c r="AI100" s="96"/>
+      <c r="AJ100" s="96"/>
+      <c r="AK100" s="96"/>
+      <c r="AL100" s="96"/>
+      <c r="AM100" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AN100" s="74"/>
-      <c r="AO100" s="74" t="s">
+      <c r="AN100" s="96"/>
+      <c r="AO100" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="AP100" s="74"/>
-      <c r="AQ100" s="74"/>
-      <c r="AR100" s="74"/>
-      <c r="AS100" s="74"/>
-      <c r="AT100" s="74"/>
-      <c r="AU100" s="74" t="s">
+      <c r="AP100" s="96"/>
+      <c r="AQ100" s="96"/>
+      <c r="AR100" s="96"/>
+      <c r="AS100" s="96"/>
+      <c r="AT100" s="96"/>
+      <c r="AU100" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AV100" s="74"/>
-      <c r="AW100" s="74"/>
-      <c r="AX100" s="74"/>
-      <c r="AY100" s="74"/>
-      <c r="AZ100" s="74"/>
-      <c r="BA100" s="74" t="s">
+      <c r="AV100" s="96"/>
+      <c r="AW100" s="96"/>
+      <c r="AX100" s="96"/>
+      <c r="AY100" s="96"/>
+      <c r="AZ100" s="96"/>
+      <c r="BA100" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="BB100" s="74"/>
-      <c r="BC100" s="74"/>
+      <c r="BB100" s="96"/>
+      <c r="BC100" s="96"/>
     </row>
     <row r="101" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="108"/>
+      <c r="L101" s="108"/>
+      <c r="M101" s="108"/>
+      <c r="N101" s="108"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="73"/>
-      <c r="Q101" s="73"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="74"/>
-      <c r="X101" s="74"/>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
-      <c r="AA101" s="74"/>
-      <c r="AB101" s="74"/>
-      <c r="AC101" s="74"/>
-      <c r="AD101" s="74"/>
-      <c r="AE101" s="74"/>
-      <c r="AF101" s="74"/>
-      <c r="AG101" s="74"/>
-      <c r="AH101" s="74"/>
-      <c r="AI101" s="74"/>
-      <c r="AJ101" s="74"/>
-      <c r="AK101" s="74"/>
-      <c r="AL101" s="74"/>
-      <c r="AM101" s="74"/>
-      <c r="AN101" s="74"/>
-      <c r="AO101" s="74"/>
-      <c r="AP101" s="74"/>
-      <c r="AQ101" s="74"/>
-      <c r="AR101" s="74"/>
-      <c r="AS101" s="74"/>
-      <c r="AT101" s="74"/>
-      <c r="AU101" s="74"/>
-      <c r="AV101" s="74"/>
-      <c r="AW101" s="74"/>
-      <c r="AX101" s="74"/>
-      <c r="AY101" s="74"/>
-      <c r="AZ101" s="74"/>
-      <c r="BA101" s="74"/>
-      <c r="BB101" s="74"/>
-      <c r="BC101" s="74"/>
+      <c r="P101" s="109"/>
+      <c r="Q101" s="109"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="96"/>
+      <c r="T101" s="96"/>
+      <c r="U101" s="96"/>
+      <c r="V101" s="96"/>
+      <c r="W101" s="96"/>
+      <c r="X101" s="96"/>
+      <c r="Y101" s="96"/>
+      <c r="Z101" s="96"/>
+      <c r="AA101" s="96"/>
+      <c r="AB101" s="96"/>
+      <c r="AC101" s="96"/>
+      <c r="AD101" s="96"/>
+      <c r="AE101" s="96"/>
+      <c r="AF101" s="96"/>
+      <c r="AG101" s="96"/>
+      <c r="AH101" s="96"/>
+      <c r="AI101" s="96"/>
+      <c r="AJ101" s="96"/>
+      <c r="AK101" s="96"/>
+      <c r="AL101" s="96"/>
+      <c r="AM101" s="96"/>
+      <c r="AN101" s="96"/>
+      <c r="AO101" s="96"/>
+      <c r="AP101" s="96"/>
+      <c r="AQ101" s="96"/>
+      <c r="AR101" s="96"/>
+      <c r="AS101" s="96"/>
+      <c r="AT101" s="96"/>
+      <c r="AU101" s="96"/>
+      <c r="AV101" s="96"/>
+      <c r="AW101" s="96"/>
+      <c r="AX101" s="96"/>
+      <c r="AY101" s="96"/>
+      <c r="AZ101" s="96"/>
+      <c r="BA101" s="96"/>
+      <c r="BB101" s="96"/>
+      <c r="BC101" s="96"/>
     </row>
     <row r="102" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="50" t="s">
+      <c r="F102" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="50" t="s">
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="52"/>
-      <c r="L102" s="99" t="s">
+      <c r="K102" s="39"/>
+      <c r="L102" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M102" s="50" t="s">
+      <c r="M102" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N102" s="52"/>
+      <c r="N102" s="39"/>
       <c r="O102" s="4"/>
       <c r="P102" s="9" t="s">
         <v>33</v>
@@ -7350,14 +7350,14 @@
         <v>89</v>
       </c>
       <c r="AN102" s="11"/>
-      <c r="AO102" s="121" t="s">
+      <c r="AO102" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="AP102" s="122"/>
-      <c r="AQ102" s="122"/>
-      <c r="AR102" s="122"/>
-      <c r="AS102" s="122"/>
-      <c r="AT102" s="123"/>
+      <c r="AP102" s="98"/>
+      <c r="AQ102" s="98"/>
+      <c r="AR102" s="98"/>
+      <c r="AS102" s="98"/>
+      <c r="AT102" s="99"/>
       <c r="AU102" s="9" t="s">
         <v>90</v>
       </c>
@@ -7373,15 +7373,15 @@
       <c r="BC102" s="11"/>
     </row>
     <row r="103" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F103" s="53"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="67"/>
-      <c r="L103" s="100"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="67"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="73"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="73"/>
       <c r="O103" s="4"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="14"/>
@@ -7408,12 +7408,12 @@
       <c r="AL103" s="14"/>
       <c r="AM103" s="12"/>
       <c r="AN103" s="14"/>
-      <c r="AO103" s="124"/>
-      <c r="AP103" s="125"/>
-      <c r="AQ103" s="125"/>
-      <c r="AR103" s="125"/>
-      <c r="AS103" s="125"/>
-      <c r="AT103" s="126"/>
+      <c r="AO103" s="100"/>
+      <c r="AP103" s="101"/>
+      <c r="AQ103" s="101"/>
+      <c r="AR103" s="101"/>
+      <c r="AS103" s="101"/>
+      <c r="AT103" s="102"/>
       <c r="AU103" s="12"/>
       <c r="AV103" s="13"/>
       <c r="AW103" s="13"/>
@@ -7425,19 +7425,19 @@
       <c r="BC103" s="14"/>
     </row>
     <row r="104" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="50" t="s">
+      <c r="G104" s="39"/>
+      <c r="H104" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="100"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="67"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="73"/>
       <c r="O104" s="4"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="14"/>
@@ -7464,12 +7464,12 @@
       <c r="AL104" s="14"/>
       <c r="AM104" s="12"/>
       <c r="AN104" s="14"/>
-      <c r="AO104" s="124"/>
-      <c r="AP104" s="125"/>
-      <c r="AQ104" s="125"/>
-      <c r="AR104" s="125"/>
-      <c r="AS104" s="125"/>
-      <c r="AT104" s="126"/>
+      <c r="AO104" s="100"/>
+      <c r="AP104" s="101"/>
+      <c r="AQ104" s="101"/>
+      <c r="AR104" s="101"/>
+      <c r="AS104" s="101"/>
+      <c r="AT104" s="102"/>
       <c r="AU104" s="12"/>
       <c r="AV104" s="13"/>
       <c r="AW104" s="13"/>
@@ -7481,15 +7481,15 @@
       <c r="BC104" s="14"/>
     </row>
     <row r="105" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F105" s="53"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="101"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="55"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="76"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="41"/>
       <c r="O105" s="4"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="14"/>
@@ -7516,12 +7516,12 @@
       <c r="AL105" s="14"/>
       <c r="AM105" s="12"/>
       <c r="AN105" s="14"/>
-      <c r="AO105" s="124"/>
-      <c r="AP105" s="125"/>
-      <c r="AQ105" s="125"/>
-      <c r="AR105" s="125"/>
-      <c r="AS105" s="125"/>
-      <c r="AT105" s="126"/>
+      <c r="AO105" s="100"/>
+      <c r="AP105" s="101"/>
+      <c r="AQ105" s="101"/>
+      <c r="AR105" s="101"/>
+      <c r="AS105" s="101"/>
+      <c r="AT105" s="102"/>
       <c r="AU105" s="12"/>
       <c r="AV105" s="13"/>
       <c r="AW105" s="13"/>
@@ -7545,13 +7545,13 @@
         <v>33</v>
       </c>
       <c r="K106" s="11"/>
-      <c r="L106" s="47" t="s">
+      <c r="L106" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M106" s="56" t="s">
+      <c r="M106" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="N106" s="56"/>
+      <c r="N106" s="42"/>
       <c r="O106" s="6"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="14"/>
@@ -7578,12 +7578,12 @@
       <c r="AL106" s="14"/>
       <c r="AM106" s="12"/>
       <c r="AN106" s="14"/>
-      <c r="AO106" s="124"/>
-      <c r="AP106" s="125"/>
-      <c r="AQ106" s="125"/>
-      <c r="AR106" s="125"/>
-      <c r="AS106" s="125"/>
-      <c r="AT106" s="126"/>
+      <c r="AO106" s="100"/>
+      <c r="AP106" s="101"/>
+      <c r="AQ106" s="101"/>
+      <c r="AR106" s="101"/>
+      <c r="AS106" s="101"/>
+      <c r="AT106" s="102"/>
       <c r="AU106" s="12"/>
       <c r="AV106" s="13"/>
       <c r="AW106" s="13"/>
@@ -7601,9 +7601,9 @@
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
       <c r="K107" s="14"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
       <c r="O107" s="6"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="14"/>
@@ -7630,12 +7630,12 @@
       <c r="AL107" s="14"/>
       <c r="AM107" s="12"/>
       <c r="AN107" s="14"/>
-      <c r="AO107" s="124"/>
-      <c r="AP107" s="125"/>
-      <c r="AQ107" s="125"/>
-      <c r="AR107" s="125"/>
-      <c r="AS107" s="125"/>
-      <c r="AT107" s="126"/>
+      <c r="AO107" s="100"/>
+      <c r="AP107" s="101"/>
+      <c r="AQ107" s="101"/>
+      <c r="AR107" s="101"/>
+      <c r="AS107" s="101"/>
+      <c r="AT107" s="102"/>
       <c r="AU107" s="12"/>
       <c r="AV107" s="13"/>
       <c r="AW107" s="13"/>
@@ -7653,9 +7653,9 @@
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
       <c r="K108" s="14"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
       <c r="O108" s="1"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="14"/>
@@ -7682,12 +7682,12 @@
       <c r="AL108" s="14"/>
       <c r="AM108" s="12"/>
       <c r="AN108" s="14"/>
-      <c r="AO108" s="124"/>
-      <c r="AP108" s="125"/>
-      <c r="AQ108" s="125"/>
-      <c r="AR108" s="125"/>
-      <c r="AS108" s="125"/>
-      <c r="AT108" s="126"/>
+      <c r="AO108" s="100"/>
+      <c r="AP108" s="101"/>
+      <c r="AQ108" s="101"/>
+      <c r="AR108" s="101"/>
+      <c r="AS108" s="101"/>
+      <c r="AT108" s="102"/>
       <c r="AU108" s="12"/>
       <c r="AV108" s="13"/>
       <c r="AW108" s="13"/>
@@ -7705,9 +7705,9 @@
       <c r="I109" s="14"/>
       <c r="J109" s="12"/>
       <c r="K109" s="14"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
       <c r="O109" s="1"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="14"/>
@@ -7734,12 +7734,12 @@
       <c r="AL109" s="14"/>
       <c r="AM109" s="12"/>
       <c r="AN109" s="14"/>
-      <c r="AO109" s="124"/>
-      <c r="AP109" s="125"/>
-      <c r="AQ109" s="125"/>
-      <c r="AR109" s="125"/>
-      <c r="AS109" s="125"/>
-      <c r="AT109" s="126"/>
+      <c r="AO109" s="100"/>
+      <c r="AP109" s="101"/>
+      <c r="AQ109" s="101"/>
+      <c r="AR109" s="101"/>
+      <c r="AS109" s="101"/>
+      <c r="AT109" s="102"/>
       <c r="AU109" s="12"/>
       <c r="AV109" s="13"/>
       <c r="AW109" s="13"/>
@@ -7757,9 +7757,9 @@
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
       <c r="K110" s="14"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
       <c r="O110" s="1"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="14"/>
@@ -7786,12 +7786,12 @@
       <c r="AL110" s="14"/>
       <c r="AM110" s="12"/>
       <c r="AN110" s="14"/>
-      <c r="AO110" s="127"/>
-      <c r="AP110" s="128"/>
-      <c r="AQ110" s="128"/>
-      <c r="AR110" s="128"/>
-      <c r="AS110" s="128"/>
-      <c r="AT110" s="129"/>
+      <c r="AO110" s="103"/>
+      <c r="AP110" s="104"/>
+      <c r="AQ110" s="104"/>
+      <c r="AR110" s="104"/>
+      <c r="AS110" s="104"/>
+      <c r="AT110" s="105"/>
       <c r="AU110" s="12"/>
       <c r="AV110" s="13"/>
       <c r="AW110" s="13"/>
@@ -7809,9 +7809,9 @@
       <c r="I111" s="14"/>
       <c r="J111" s="12"/>
       <c r="K111" s="14"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
       <c r="O111" s="1"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -7867,11 +7867,11 @@
         <v>32</v>
       </c>
       <c r="K112" s="11"/>
-      <c r="L112" s="47" t="s">
+      <c r="L112" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
       <c r="O112" s="1"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
@@ -7921,9 +7921,9 @@
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
       <c r="K113" s="14"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
       <c r="O113" s="1"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -7973,9 +7973,9 @@
       <c r="I114" s="14"/>
       <c r="J114" s="12"/>
       <c r="K114" s="14"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
       <c r="O114" s="1"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -8025,9 +8025,9 @@
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
       <c r="K115" s="14"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
       <c r="O115" s="1"/>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -8077,9 +8077,9 @@
       <c r="I116" s="14"/>
       <c r="J116" s="12"/>
       <c r="K116" s="14"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
       <c r="O116" s="4"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -8129,9 +8129,9 @@
       <c r="I117" s="17"/>
       <c r="J117" s="15"/>
       <c r="K117" s="17"/>
-      <c r="L117" s="49"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
+      <c r="L117" s="50"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
       <c r="O117" s="4"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -8869,164 +8869,164 @@
       <c r="BC133" s="8"/>
     </row>
     <row r="134" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F134" s="120" t="s">
+      <c r="F134" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G134" s="120"/>
-      <c r="H134" s="120"/>
-      <c r="I134" s="120"/>
-      <c r="J134" s="120"/>
-      <c r="K134" s="120"/>
-      <c r="L134" s="120"/>
-      <c r="M134" s="120"/>
-      <c r="N134" s="120"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+      <c r="L134" s="47"/>
+      <c r="M134" s="47"/>
+      <c r="N134" s="47"/>
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F135" s="120"/>
-      <c r="G135" s="120"/>
-      <c r="H135" s="120"/>
-      <c r="I135" s="120"/>
-      <c r="J135" s="120"/>
-      <c r="K135" s="120"/>
-      <c r="L135" s="120"/>
-      <c r="M135" s="120"/>
-      <c r="N135" s="120"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F136" s="50" t="s">
+      <c r="F136" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G136" s="52"/>
-      <c r="H136" s="50" t="s">
+      <c r="G136" s="39"/>
+      <c r="H136" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I136" s="52"/>
-      <c r="J136" s="70" t="s">
+      <c r="I136" s="39"/>
+      <c r="J136" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="K136" s="50" t="s">
+      <c r="K136" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L136" s="51"/>
-      <c r="M136" s="51"/>
-      <c r="N136" s="52"/>
+      <c r="L136" s="45"/>
+      <c r="M136" s="45"/>
+      <c r="N136" s="39"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="75" t="s">
+      <c r="P136" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="Q136" s="75"/>
-      <c r="R136" s="74" t="s">
+      <c r="Q136" s="95"/>
+      <c r="R136" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="S136" s="74"/>
-      <c r="T136" s="74" t="s">
+      <c r="S136" s="96"/>
+      <c r="T136" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="74"/>
-      <c r="V136" s="74" t="s">
+      <c r="U136" s="96"/>
+      <c r="V136" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="W136" s="74"/>
-      <c r="X136" s="74" t="s">
+      <c r="W136" s="96"/>
+      <c r="X136" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="Y136" s="74"/>
-      <c r="Z136" s="74"/>
-      <c r="AA136" s="74"/>
-      <c r="AB136" s="74" t="s">
+      <c r="Y136" s="96"/>
+      <c r="Z136" s="96"/>
+      <c r="AA136" s="96"/>
+      <c r="AB136" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="AC136" s="74"/>
-      <c r="AD136" s="74"/>
-      <c r="AE136" s="74"/>
-      <c r="AF136" s="74"/>
-      <c r="AG136" s="74" t="s">
+      <c r="AC136" s="96"/>
+      <c r="AD136" s="96"/>
+      <c r="AE136" s="96"/>
+      <c r="AF136" s="96"/>
+      <c r="AG136" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="AH136" s="74"/>
-      <c r="AI136" s="74"/>
-      <c r="AJ136" s="74"/>
-      <c r="AK136" s="74"/>
-      <c r="AL136" s="74"/>
-      <c r="AM136" s="74" t="s">
+      <c r="AH136" s="96"/>
+      <c r="AI136" s="96"/>
+      <c r="AJ136" s="96"/>
+      <c r="AK136" s="96"/>
+      <c r="AL136" s="96"/>
+      <c r="AM136" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AN136" s="74"/>
-      <c r="AO136" s="74" t="s">
+      <c r="AN136" s="96"/>
+      <c r="AO136" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="AP136" s="74"/>
-      <c r="AQ136" s="74"/>
-      <c r="AR136" s="74"/>
-      <c r="AS136" s="74"/>
-      <c r="AT136" s="74"/>
-      <c r="AU136" s="74" t="s">
+      <c r="AP136" s="96"/>
+      <c r="AQ136" s="96"/>
+      <c r="AR136" s="96"/>
+      <c r="AS136" s="96"/>
+      <c r="AT136" s="96"/>
+      <c r="AU136" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AV136" s="74"/>
-      <c r="AW136" s="74"/>
-      <c r="AX136" s="74"/>
-      <c r="AY136" s="74"/>
-      <c r="AZ136" s="74"/>
-      <c r="BA136" s="74" t="s">
+      <c r="AV136" s="96"/>
+      <c r="AW136" s="96"/>
+      <c r="AX136" s="96"/>
+      <c r="AY136" s="96"/>
+      <c r="AZ136" s="96"/>
+      <c r="BA136" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="BB136" s="74"/>
-      <c r="BC136" s="74"/>
+      <c r="BB136" s="96"/>
+      <c r="BC136" s="96"/>
     </row>
     <row r="137" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="F137" s="53"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="55"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="107"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="41"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="75"/>
-      <c r="Q137" s="75"/>
-      <c r="R137" s="74"/>
-      <c r="S137" s="74"/>
-      <c r="T137" s="74"/>
-      <c r="U137" s="74"/>
-      <c r="V137" s="74"/>
-      <c r="W137" s="74"/>
-      <c r="X137" s="74"/>
-      <c r="Y137" s="74"/>
-      <c r="Z137" s="74"/>
-      <c r="AA137" s="74"/>
-      <c r="AB137" s="74"/>
-      <c r="AC137" s="74"/>
-      <c r="AD137" s="74"/>
-      <c r="AE137" s="74"/>
-      <c r="AF137" s="74"/>
-      <c r="AG137" s="74"/>
-      <c r="AH137" s="74"/>
-      <c r="AI137" s="74"/>
-      <c r="AJ137" s="74"/>
-      <c r="AK137" s="74"/>
-      <c r="AL137" s="74"/>
-      <c r="AM137" s="74"/>
-      <c r="AN137" s="74"/>
-      <c r="AO137" s="74"/>
-      <c r="AP137" s="74"/>
-      <c r="AQ137" s="74"/>
-      <c r="AR137" s="74"/>
-      <c r="AS137" s="74"/>
-      <c r="AT137" s="74"/>
-      <c r="AU137" s="74"/>
-      <c r="AV137" s="74"/>
-      <c r="AW137" s="74"/>
-      <c r="AX137" s="74"/>
-      <c r="AY137" s="74"/>
-      <c r="AZ137" s="74"/>
-      <c r="BA137" s="74"/>
-      <c r="BB137" s="74"/>
-      <c r="BC137" s="74"/>
+      <c r="P137" s="95"/>
+      <c r="Q137" s="95"/>
+      <c r="R137" s="96"/>
+      <c r="S137" s="96"/>
+      <c r="T137" s="96"/>
+      <c r="U137" s="96"/>
+      <c r="V137" s="96"/>
+      <c r="W137" s="96"/>
+      <c r="X137" s="96"/>
+      <c r="Y137" s="96"/>
+      <c r="Z137" s="96"/>
+      <c r="AA137" s="96"/>
+      <c r="AB137" s="96"/>
+      <c r="AC137" s="96"/>
+      <c r="AD137" s="96"/>
+      <c r="AE137" s="96"/>
+      <c r="AF137" s="96"/>
+      <c r="AG137" s="96"/>
+      <c r="AH137" s="96"/>
+      <c r="AI137" s="96"/>
+      <c r="AJ137" s="96"/>
+      <c r="AK137" s="96"/>
+      <c r="AL137" s="96"/>
+      <c r="AM137" s="96"/>
+      <c r="AN137" s="96"/>
+      <c r="AO137" s="96"/>
+      <c r="AP137" s="96"/>
+      <c r="AQ137" s="96"/>
+      <c r="AR137" s="96"/>
+      <c r="AS137" s="96"/>
+      <c r="AT137" s="96"/>
+      <c r="AU137" s="96"/>
+      <c r="AV137" s="96"/>
+      <c r="AW137" s="96"/>
+      <c r="AX137" s="96"/>
+      <c r="AY137" s="96"/>
+      <c r="AZ137" s="96"/>
+      <c r="BA137" s="96"/>
+      <c r="BB137" s="96"/>
+      <c r="BC137" s="96"/>
     </row>
     <row r="138" spans="6:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9" t="s">
@@ -9037,7 +9037,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="11"/>
-      <c r="J138" s="47" t="s">
+      <c r="J138" s="48" t="s">
         <v>47</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -9047,26 +9047,26 @@
       <c r="M138" s="10"/>
       <c r="N138" s="11"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="56" t="s">
+      <c r="P138" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="56"/>
+      <c r="Q138" s="42"/>
       <c r="R138" s="32" t="s">
         <v>101</v>
       </c>
       <c r="S138" s="34"/>
-      <c r="T138" s="56" t="s">
+      <c r="T138" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="U138" s="56"/>
+      <c r="U138" s="42"/>
       <c r="V138" s="9"/>
       <c r="W138" s="11"/>
-      <c r="X138" s="56" t="s">
+      <c r="X138" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="Y138" s="56"/>
-      <c r="Z138" s="56"/>
-      <c r="AA138" s="56"/>
+      <c r="Y138" s="42"/>
+      <c r="Z138" s="42"/>
+      <c r="AA138" s="42"/>
       <c r="AB138" s="9" t="s">
         <v>96</v>
       </c>
@@ -9080,8 +9080,8 @@
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="11"/>
-      <c r="AM138" s="56"/>
-      <c r="AN138" s="56"/>
+      <c r="AM138" s="42"/>
+      <c r="AN138" s="42"/>
       <c r="AO138" s="9" t="s">
         <v>97</v>
       </c>
@@ -9109,24 +9109,24 @@
       <c r="G139" s="14"/>
       <c r="H139" s="12"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="49"/>
       <c r="K139" s="12"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="56"/>
-      <c r="Q139" s="56"/>
-      <c r="R139" s="76"/>
-      <c r="S139" s="77"/>
-      <c r="T139" s="56"/>
-      <c r="U139" s="56"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="42"/>
+      <c r="R139" s="43"/>
+      <c r="S139" s="44"/>
+      <c r="T139" s="42"/>
+      <c r="U139" s="42"/>
       <c r="V139" s="12"/>
       <c r="W139" s="14"/>
-      <c r="X139" s="56"/>
-      <c r="Y139" s="56"/>
-      <c r="Z139" s="56"/>
-      <c r="AA139" s="56"/>
+      <c r="X139" s="42"/>
+      <c r="Y139" s="42"/>
+      <c r="Z139" s="42"/>
+      <c r="AA139" s="42"/>
       <c r="AB139" s="12"/>
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
@@ -9138,8 +9138,8 @@
       <c r="AJ139" s="13"/>
       <c r="AK139" s="13"/>
       <c r="AL139" s="14"/>
-      <c r="AM139" s="56"/>
-      <c r="AN139" s="56"/>
+      <c r="AM139" s="42"/>
+      <c r="AN139" s="42"/>
       <c r="AO139" s="12"/>
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
@@ -9161,24 +9161,24 @@
       <c r="G140" s="14"/>
       <c r="H140" s="12"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="49"/>
       <c r="K140" s="12"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="56"/>
-      <c r="Q140" s="56"/>
-      <c r="R140" s="76"/>
-      <c r="S140" s="77"/>
-      <c r="T140" s="56"/>
-      <c r="U140" s="56"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42"/>
+      <c r="R140" s="43"/>
+      <c r="S140" s="44"/>
+      <c r="T140" s="42"/>
+      <c r="U140" s="42"/>
       <c r="V140" s="12"/>
       <c r="W140" s="14"/>
-      <c r="X140" s="56"/>
-      <c r="Y140" s="56"/>
-      <c r="Z140" s="56"/>
-      <c r="AA140" s="56"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="42"/>
+      <c r="AA140" s="42"/>
       <c r="AB140" s="12"/>
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
@@ -9190,8 +9190,8 @@
       <c r="AJ140" s="13"/>
       <c r="AK140" s="13"/>
       <c r="AL140" s="14"/>
-      <c r="AM140" s="56"/>
-      <c r="AN140" s="56"/>
+      <c r="AM140" s="42"/>
+      <c r="AN140" s="42"/>
       <c r="AO140" s="12"/>
       <c r="AP140" s="13"/>
       <c r="AQ140" s="13"/>
@@ -9213,24 +9213,24 @@
       <c r="G141" s="17"/>
       <c r="H141" s="15"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="49"/>
+      <c r="J141" s="50"/>
       <c r="K141" s="15"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="56"/>
-      <c r="Q141" s="56"/>
-      <c r="R141" s="76"/>
-      <c r="S141" s="77"/>
-      <c r="T141" s="56"/>
-      <c r="U141" s="56"/>
+      <c r="P141" s="42"/>
+      <c r="Q141" s="42"/>
+      <c r="R141" s="43"/>
+      <c r="S141" s="44"/>
+      <c r="T141" s="42"/>
+      <c r="U141" s="42"/>
       <c r="V141" s="12"/>
       <c r="W141" s="14"/>
-      <c r="X141" s="56"/>
-      <c r="Y141" s="56"/>
-      <c r="Z141" s="56"/>
-      <c r="AA141" s="56"/>
+      <c r="X141" s="42"/>
+      <c r="Y141" s="42"/>
+      <c r="Z141" s="42"/>
+      <c r="AA141" s="42"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
@@ -9242,8 +9242,8 @@
       <c r="AJ141" s="13"/>
       <c r="AK141" s="13"/>
       <c r="AL141" s="14"/>
-      <c r="AM141" s="56"/>
-      <c r="AN141" s="56"/>
+      <c r="AM141" s="42"/>
+      <c r="AN141" s="42"/>
       <c r="AO141" s="12"/>
       <c r="AP141" s="13"/>
       <c r="AQ141" s="13"/>
@@ -9269,7 +9269,7 @@
         <v>45</v>
       </c>
       <c r="I142" s="11"/>
-      <c r="J142" s="47" t="s">
+      <c r="J142" s="48" t="s">
         <v>48</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -9279,18 +9279,18 @@
       <c r="M142" s="10"/>
       <c r="N142" s="11"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="56"/>
-      <c r="Q142" s="56"/>
-      <c r="R142" s="76"/>
-      <c r="S142" s="77"/>
-      <c r="T142" s="56"/>
-      <c r="U142" s="56"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="42"/>
+      <c r="R142" s="43"/>
+      <c r="S142" s="44"/>
+      <c r="T142" s="42"/>
+      <c r="U142" s="42"/>
       <c r="V142" s="12"/>
       <c r="W142" s="14"/>
-      <c r="X142" s="56"/>
-      <c r="Y142" s="56"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="56"/>
+      <c r="X142" s="42"/>
+      <c r="Y142" s="42"/>
+      <c r="Z142" s="42"/>
+      <c r="AA142" s="42"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
@@ -9302,8 +9302,8 @@
       <c r="AJ142" s="13"/>
       <c r="AK142" s="13"/>
       <c r="AL142" s="14"/>
-      <c r="AM142" s="56"/>
-      <c r="AN142" s="56"/>
+      <c r="AM142" s="42"/>
+      <c r="AN142" s="42"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="13"/>
       <c r="AQ142" s="13"/>
@@ -9325,24 +9325,24 @@
       <c r="G143" s="14"/>
       <c r="H143" s="12"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="49"/>
       <c r="K143" s="12"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="14"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="56"/>
-      <c r="Q143" s="56"/>
-      <c r="R143" s="76"/>
-      <c r="S143" s="77"/>
-      <c r="T143" s="56"/>
-      <c r="U143" s="56"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
+      <c r="R143" s="43"/>
+      <c r="S143" s="44"/>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
       <c r="V143" s="12"/>
       <c r="W143" s="14"/>
-      <c r="X143" s="56"/>
-      <c r="Y143" s="56"/>
-      <c r="Z143" s="56"/>
-      <c r="AA143" s="56"/>
+      <c r="X143" s="42"/>
+      <c r="Y143" s="42"/>
+      <c r="Z143" s="42"/>
+      <c r="AA143" s="42"/>
       <c r="AB143" s="12"/>
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
@@ -9354,8 +9354,8 @@
       <c r="AJ143" s="13"/>
       <c r="AK143" s="13"/>
       <c r="AL143" s="14"/>
-      <c r="AM143" s="56"/>
-      <c r="AN143" s="56"/>
+      <c r="AM143" s="42"/>
+      <c r="AN143" s="42"/>
       <c r="AO143" s="12"/>
       <c r="AP143" s="13"/>
       <c r="AQ143" s="13"/>
@@ -9377,24 +9377,24 @@
       <c r="G144" s="14"/>
       <c r="H144" s="12"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="49"/>
       <c r="K144" s="12"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="14"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="56"/>
-      <c r="Q144" s="56"/>
-      <c r="R144" s="76"/>
-      <c r="S144" s="77"/>
-      <c r="T144" s="56"/>
-      <c r="U144" s="56"/>
+      <c r="P144" s="42"/>
+      <c r="Q144" s="42"/>
+      <c r="R144" s="43"/>
+      <c r="S144" s="44"/>
+      <c r="T144" s="42"/>
+      <c r="U144" s="42"/>
       <c r="V144" s="12"/>
       <c r="W144" s="14"/>
-      <c r="X144" s="56"/>
-      <c r="Y144" s="56"/>
-      <c r="Z144" s="56"/>
-      <c r="AA144" s="56"/>
+      <c r="X144" s="42"/>
+      <c r="Y144" s="42"/>
+      <c r="Z144" s="42"/>
+      <c r="AA144" s="42"/>
       <c r="AB144" s="12"/>
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
@@ -9406,8 +9406,8 @@
       <c r="AJ144" s="13"/>
       <c r="AK144" s="13"/>
       <c r="AL144" s="14"/>
-      <c r="AM144" s="56"/>
-      <c r="AN144" s="56"/>
+      <c r="AM144" s="42"/>
+      <c r="AN144" s="42"/>
       <c r="AO144" s="12"/>
       <c r="AP144" s="13"/>
       <c r="AQ144" s="13"/>
@@ -9429,24 +9429,24 @@
       <c r="G145" s="17"/>
       <c r="H145" s="15"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="49"/>
+      <c r="J145" s="50"/>
       <c r="K145" s="15"/>
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="56"/>
-      <c r="Q145" s="56"/>
-      <c r="R145" s="76"/>
-      <c r="S145" s="77"/>
-      <c r="T145" s="56"/>
-      <c r="U145" s="56"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
+      <c r="R145" s="43"/>
+      <c r="S145" s="44"/>
+      <c r="T145" s="42"/>
+      <c r="U145" s="42"/>
       <c r="V145" s="12"/>
       <c r="W145" s="14"/>
-      <c r="X145" s="56"/>
-      <c r="Y145" s="56"/>
-      <c r="Z145" s="56"/>
-      <c r="AA145" s="56"/>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="42"/>
+      <c r="Z145" s="42"/>
+      <c r="AA145" s="42"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
@@ -9458,8 +9458,8 @@
       <c r="AJ145" s="13"/>
       <c r="AK145" s="13"/>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="56"/>
-      <c r="AN145" s="56"/>
+      <c r="AM145" s="42"/>
+      <c r="AN145" s="42"/>
       <c r="AO145" s="12"/>
       <c r="AP145" s="13"/>
       <c r="AQ145" s="13"/>
@@ -9485,28 +9485,28 @@
         <v>46</v>
       </c>
       <c r="I146" s="11"/>
-      <c r="J146" s="47" t="s">
+      <c r="J146" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K146" s="56" t="s">
+      <c r="K146" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="42"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="56"/>
-      <c r="R146" s="76"/>
-      <c r="S146" s="77"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="42"/>
+      <c r="R146" s="43"/>
+      <c r="S146" s="44"/>
+      <c r="T146" s="42"/>
+      <c r="U146" s="42"/>
       <c r="V146" s="12"/>
       <c r="W146" s="14"/>
-      <c r="X146" s="56"/>
-      <c r="Y146" s="56"/>
-      <c r="Z146" s="56"/>
-      <c r="AA146" s="56"/>
+      <c r="X146" s="42"/>
+      <c r="Y146" s="42"/>
+      <c r="Z146" s="42"/>
+      <c r="AA146" s="42"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
@@ -9518,8 +9518,8 @@
       <c r="AJ146" s="13"/>
       <c r="AK146" s="13"/>
       <c r="AL146" s="14"/>
-      <c r="AM146" s="56"/>
-      <c r="AN146" s="56"/>
+      <c r="AM146" s="42"/>
+      <c r="AN146" s="42"/>
       <c r="AO146" s="12"/>
       <c r="AP146" s="13"/>
       <c r="AQ146" s="13"/>
@@ -9541,24 +9541,24 @@
       <c r="G147" s="14"/>
       <c r="H147" s="12"/>
       <c r="I147" s="14"/>
-      <c r="J147" s="48"/>
-      <c r="K147" s="56"/>
-      <c r="L147" s="56"/>
-      <c r="M147" s="56"/>
-      <c r="N147" s="56"/>
+      <c r="J147" s="49"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="56"/>
-      <c r="Q147" s="56"/>
-      <c r="R147" s="76"/>
-      <c r="S147" s="77"/>
-      <c r="T147" s="56"/>
-      <c r="U147" s="56"/>
+      <c r="P147" s="42"/>
+      <c r="Q147" s="42"/>
+      <c r="R147" s="43"/>
+      <c r="S147" s="44"/>
+      <c r="T147" s="42"/>
+      <c r="U147" s="42"/>
       <c r="V147" s="12"/>
       <c r="W147" s="14"/>
-      <c r="X147" s="56"/>
-      <c r="Y147" s="56"/>
-      <c r="Z147" s="56"/>
-      <c r="AA147" s="56"/>
+      <c r="X147" s="42"/>
+      <c r="Y147" s="42"/>
+      <c r="Z147" s="42"/>
+      <c r="AA147" s="42"/>
       <c r="AB147" s="12"/>
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
@@ -9570,8 +9570,8 @@
       <c r="AJ147" s="13"/>
       <c r="AK147" s="13"/>
       <c r="AL147" s="14"/>
-      <c r="AM147" s="56"/>
-      <c r="AN147" s="56"/>
+      <c r="AM147" s="42"/>
+      <c r="AN147" s="42"/>
       <c r="AO147" s="12"/>
       <c r="AP147" s="13"/>
       <c r="AQ147" s="13"/>
@@ -9593,24 +9593,24 @@
       <c r="G148" s="14"/>
       <c r="H148" s="12"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="48"/>
-      <c r="K148" s="56"/>
-      <c r="L148" s="56"/>
-      <c r="M148" s="56"/>
-      <c r="N148" s="56"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="56"/>
-      <c r="R148" s="76"/>
-      <c r="S148" s="77"/>
-      <c r="T148" s="56"/>
-      <c r="U148" s="56"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
+      <c r="R148" s="43"/>
+      <c r="S148" s="44"/>
+      <c r="T148" s="42"/>
+      <c r="U148" s="42"/>
       <c r="V148" s="12"/>
       <c r="W148" s="14"/>
-      <c r="X148" s="56"/>
-      <c r="Y148" s="56"/>
-      <c r="Z148" s="56"/>
-      <c r="AA148" s="56"/>
+      <c r="X148" s="42"/>
+      <c r="Y148" s="42"/>
+      <c r="Z148" s="42"/>
+      <c r="AA148" s="42"/>
       <c r="AB148" s="12"/>
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
@@ -9622,8 +9622,8 @@
       <c r="AJ148" s="13"/>
       <c r="AK148" s="13"/>
       <c r="AL148" s="14"/>
-      <c r="AM148" s="56"/>
-      <c r="AN148" s="56"/>
+      <c r="AM148" s="42"/>
+      <c r="AN148" s="42"/>
       <c r="AO148" s="12"/>
       <c r="AP148" s="13"/>
       <c r="AQ148" s="13"/>
@@ -9645,24 +9645,24 @@
       <c r="G149" s="17"/>
       <c r="H149" s="15"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="56"/>
-      <c r="L149" s="56"/>
-      <c r="M149" s="56"/>
-      <c r="N149" s="56"/>
+      <c r="J149" s="50"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="42"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="56"/>
-      <c r="Q149" s="56"/>
-      <c r="R149" s="76"/>
-      <c r="S149" s="77"/>
-      <c r="T149" s="56"/>
-      <c r="U149" s="56"/>
+      <c r="P149" s="42"/>
+      <c r="Q149" s="42"/>
+      <c r="R149" s="43"/>
+      <c r="S149" s="44"/>
+      <c r="T149" s="42"/>
+      <c r="U149" s="42"/>
       <c r="V149" s="12"/>
       <c r="W149" s="14"/>
-      <c r="X149" s="56"/>
-      <c r="Y149" s="56"/>
-      <c r="Z149" s="56"/>
-      <c r="AA149" s="56"/>
+      <c r="X149" s="42"/>
+      <c r="Y149" s="42"/>
+      <c r="Z149" s="42"/>
+      <c r="AA149" s="42"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
@@ -9674,8 +9674,8 @@
       <c r="AJ149" s="13"/>
       <c r="AK149" s="13"/>
       <c r="AL149" s="14"/>
-      <c r="AM149" s="56"/>
-      <c r="AN149" s="56"/>
+      <c r="AM149" s="42"/>
+      <c r="AN149" s="42"/>
       <c r="AO149" s="12"/>
       <c r="AP149" s="13"/>
       <c r="AQ149" s="13"/>
@@ -9693,18 +9693,18 @@
       <c r="BC149" s="14"/>
     </row>
     <row r="150" spans="6:55" x14ac:dyDescent="0.25">
-      <c r="P150" s="56"/>
-      <c r="Q150" s="56"/>
+      <c r="P150" s="42"/>
+      <c r="Q150" s="42"/>
       <c r="R150" s="35"/>
       <c r="S150" s="37"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
+      <c r="T150" s="42"/>
+      <c r="U150" s="42"/>
       <c r="V150" s="15"/>
       <c r="W150" s="17"/>
-      <c r="X150" s="56"/>
-      <c r="Y150" s="56"/>
-      <c r="Z150" s="56"/>
-      <c r="AA150" s="56"/>
+      <c r="X150" s="42"/>
+      <c r="Y150" s="42"/>
+      <c r="Z150" s="42"/>
+      <c r="AA150" s="42"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="16"/>
       <c r="AD150" s="16"/>
@@ -9716,8 +9716,8 @@
       <c r="AJ150" s="16"/>
       <c r="AK150" s="16"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="56"/>
-      <c r="AN150" s="56"/>
+      <c r="AM150" s="42"/>
+      <c r="AN150" s="42"/>
       <c r="AO150" s="15"/>
       <c r="AP150" s="16"/>
       <c r="AQ150" s="16"/>
@@ -9772,14 +9772,14 @@
         <v>106</v>
       </c>
       <c r="AN151" s="11"/>
-      <c r="AO151" s="56" t="s">
+      <c r="AO151" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AP151" s="56"/>
-      <c r="AQ151" s="56"/>
-      <c r="AR151" s="56"/>
-      <c r="AS151" s="56"/>
-      <c r="AT151" s="56"/>
+      <c r="AP151" s="42"/>
+      <c r="AQ151" s="42"/>
+      <c r="AR151" s="42"/>
+      <c r="AS151" s="42"/>
+      <c r="AT151" s="42"/>
       <c r="AU151" s="9"/>
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
@@ -9795,8 +9795,8 @@
     <row r="152" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P152" s="12"/>
       <c r="Q152" s="14"/>
-      <c r="R152" s="76"/>
-      <c r="S152" s="77"/>
+      <c r="R152" s="43"/>
+      <c r="S152" s="44"/>
       <c r="T152" s="12"/>
       <c r="U152" s="14"/>
       <c r="V152" s="12"/>
@@ -9818,12 +9818,12 @@
       <c r="AL152" s="14"/>
       <c r="AM152" s="12"/>
       <c r="AN152" s="14"/>
-      <c r="AO152" s="56"/>
-      <c r="AP152" s="56"/>
-      <c r="AQ152" s="56"/>
-      <c r="AR152" s="56"/>
-      <c r="AS152" s="56"/>
-      <c r="AT152" s="56"/>
+      <c r="AO152" s="42"/>
+      <c r="AP152" s="42"/>
+      <c r="AQ152" s="42"/>
+      <c r="AR152" s="42"/>
+      <c r="AS152" s="42"/>
+      <c r="AT152" s="42"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AW152" s="13"/>
@@ -9837,8 +9837,8 @@
     <row r="153" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P153" s="12"/>
       <c r="Q153" s="14"/>
-      <c r="R153" s="76"/>
-      <c r="S153" s="77"/>
+      <c r="R153" s="43"/>
+      <c r="S153" s="44"/>
       <c r="T153" s="12"/>
       <c r="U153" s="14"/>
       <c r="V153" s="12"/>
@@ -9860,12 +9860,12 @@
       <c r="AL153" s="14"/>
       <c r="AM153" s="12"/>
       <c r="AN153" s="14"/>
-      <c r="AO153" s="56"/>
-      <c r="AP153" s="56"/>
-      <c r="AQ153" s="56"/>
-      <c r="AR153" s="56"/>
-      <c r="AS153" s="56"/>
-      <c r="AT153" s="56"/>
+      <c r="AO153" s="42"/>
+      <c r="AP153" s="42"/>
+      <c r="AQ153" s="42"/>
+      <c r="AR153" s="42"/>
+      <c r="AS153" s="42"/>
+      <c r="AT153" s="42"/>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
       <c r="AW153" s="13"/>
@@ -9879,8 +9879,8 @@
     <row r="154" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P154" s="12"/>
       <c r="Q154" s="14"/>
-      <c r="R154" s="76"/>
-      <c r="S154" s="77"/>
+      <c r="R154" s="43"/>
+      <c r="S154" s="44"/>
       <c r="T154" s="12"/>
       <c r="U154" s="14"/>
       <c r="V154" s="12"/>
@@ -9902,12 +9902,12 @@
       <c r="AL154" s="14"/>
       <c r="AM154" s="12"/>
       <c r="AN154" s="14"/>
-      <c r="AO154" s="56"/>
-      <c r="AP154" s="56"/>
-      <c r="AQ154" s="56"/>
-      <c r="AR154" s="56"/>
-      <c r="AS154" s="56"/>
-      <c r="AT154" s="56"/>
+      <c r="AO154" s="42"/>
+      <c r="AP154" s="42"/>
+      <c r="AQ154" s="42"/>
+      <c r="AR154" s="42"/>
+      <c r="AS154" s="42"/>
+      <c r="AT154" s="42"/>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
       <c r="AW154" s="13"/>
@@ -9921,8 +9921,8 @@
     <row r="155" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P155" s="12"/>
       <c r="Q155" s="14"/>
-      <c r="R155" s="76"/>
-      <c r="S155" s="77"/>
+      <c r="R155" s="43"/>
+      <c r="S155" s="44"/>
       <c r="T155" s="12"/>
       <c r="U155" s="14"/>
       <c r="V155" s="12"/>
@@ -9944,12 +9944,12 @@
       <c r="AL155" s="14"/>
       <c r="AM155" s="12"/>
       <c r="AN155" s="14"/>
-      <c r="AO155" s="56"/>
-      <c r="AP155" s="56"/>
-      <c r="AQ155" s="56"/>
-      <c r="AR155" s="56"/>
-      <c r="AS155" s="56"/>
-      <c r="AT155" s="56"/>
+      <c r="AO155" s="42"/>
+      <c r="AP155" s="42"/>
+      <c r="AQ155" s="42"/>
+      <c r="AR155" s="42"/>
+      <c r="AS155" s="42"/>
+      <c r="AT155" s="42"/>
       <c r="AU155" s="12"/>
       <c r="AV155" s="13"/>
       <c r="AW155" s="13"/>
@@ -9963,8 +9963,8 @@
     <row r="156" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P156" s="12"/>
       <c r="Q156" s="14"/>
-      <c r="R156" s="76"/>
-      <c r="S156" s="77"/>
+      <c r="R156" s="43"/>
+      <c r="S156" s="44"/>
       <c r="T156" s="12"/>
       <c r="U156" s="14"/>
       <c r="V156" s="12"/>
@@ -9986,12 +9986,12 @@
       <c r="AL156" s="14"/>
       <c r="AM156" s="12"/>
       <c r="AN156" s="14"/>
-      <c r="AO156" s="56"/>
-      <c r="AP156" s="56"/>
-      <c r="AQ156" s="56"/>
-      <c r="AR156" s="56"/>
-      <c r="AS156" s="56"/>
-      <c r="AT156" s="56"/>
+      <c r="AO156" s="42"/>
+      <c r="AP156" s="42"/>
+      <c r="AQ156" s="42"/>
+      <c r="AR156" s="42"/>
+      <c r="AS156" s="42"/>
+      <c r="AT156" s="42"/>
       <c r="AU156" s="12"/>
       <c r="AV156" s="13"/>
       <c r="AW156" s="13"/>
@@ -10005,8 +10005,8 @@
     <row r="157" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P157" s="12"/>
       <c r="Q157" s="14"/>
-      <c r="R157" s="76"/>
-      <c r="S157" s="77"/>
+      <c r="R157" s="43"/>
+      <c r="S157" s="44"/>
       <c r="T157" s="12"/>
       <c r="U157" s="14"/>
       <c r="V157" s="12"/>
@@ -10028,12 +10028,12 @@
       <c r="AL157" s="14"/>
       <c r="AM157" s="12"/>
       <c r="AN157" s="14"/>
-      <c r="AO157" s="56"/>
-      <c r="AP157" s="56"/>
-      <c r="AQ157" s="56"/>
-      <c r="AR157" s="56"/>
-      <c r="AS157" s="56"/>
-      <c r="AT157" s="56"/>
+      <c r="AO157" s="42"/>
+      <c r="AP157" s="42"/>
+      <c r="AQ157" s="42"/>
+      <c r="AR157" s="42"/>
+      <c r="AS157" s="42"/>
+      <c r="AT157" s="42"/>
       <c r="AU157" s="12"/>
       <c r="AV157" s="13"/>
       <c r="AW157" s="13"/>
@@ -10047,8 +10047,8 @@
     <row r="158" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P158" s="12"/>
       <c r="Q158" s="14"/>
-      <c r="R158" s="76"/>
-      <c r="S158" s="77"/>
+      <c r="R158" s="43"/>
+      <c r="S158" s="44"/>
       <c r="T158" s="12"/>
       <c r="U158" s="14"/>
       <c r="V158" s="12"/>
@@ -10070,12 +10070,12 @@
       <c r="AL158" s="14"/>
       <c r="AM158" s="12"/>
       <c r="AN158" s="14"/>
-      <c r="AO158" s="56"/>
-      <c r="AP158" s="56"/>
-      <c r="AQ158" s="56"/>
-      <c r="AR158" s="56"/>
-      <c r="AS158" s="56"/>
-      <c r="AT158" s="56"/>
+      <c r="AO158" s="42"/>
+      <c r="AP158" s="42"/>
+      <c r="AQ158" s="42"/>
+      <c r="AR158" s="42"/>
+      <c r="AS158" s="42"/>
+      <c r="AT158" s="42"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AW158" s="13"/>
@@ -10089,8 +10089,8 @@
     <row r="159" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P159" s="12"/>
       <c r="Q159" s="14"/>
-      <c r="R159" s="76"/>
-      <c r="S159" s="77"/>
+      <c r="R159" s="43"/>
+      <c r="S159" s="44"/>
       <c r="T159" s="12"/>
       <c r="U159" s="14"/>
       <c r="V159" s="12"/>
@@ -10112,12 +10112,12 @@
       <c r="AL159" s="14"/>
       <c r="AM159" s="12"/>
       <c r="AN159" s="14"/>
-      <c r="AO159" s="56"/>
-      <c r="AP159" s="56"/>
-      <c r="AQ159" s="56"/>
-      <c r="AR159" s="56"/>
-      <c r="AS159" s="56"/>
-      <c r="AT159" s="56"/>
+      <c r="AO159" s="42"/>
+      <c r="AP159" s="42"/>
+      <c r="AQ159" s="42"/>
+      <c r="AR159" s="42"/>
+      <c r="AS159" s="42"/>
+      <c r="AT159" s="42"/>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AW159" s="13"/>
@@ -10131,8 +10131,8 @@
     <row r="160" spans="6:55" x14ac:dyDescent="0.25">
       <c r="P160" s="12"/>
       <c r="Q160" s="14"/>
-      <c r="R160" s="76"/>
-      <c r="S160" s="77"/>
+      <c r="R160" s="43"/>
+      <c r="S160" s="44"/>
       <c r="T160" s="12"/>
       <c r="U160" s="14"/>
       <c r="V160" s="12"/>
@@ -10154,12 +10154,12 @@
       <c r="AL160" s="14"/>
       <c r="AM160" s="12"/>
       <c r="AN160" s="14"/>
-      <c r="AO160" s="56"/>
-      <c r="AP160" s="56"/>
-      <c r="AQ160" s="56"/>
-      <c r="AR160" s="56"/>
-      <c r="AS160" s="56"/>
-      <c r="AT160" s="56"/>
+      <c r="AO160" s="42"/>
+      <c r="AP160" s="42"/>
+      <c r="AQ160" s="42"/>
+      <c r="AR160" s="42"/>
+      <c r="AS160" s="42"/>
+      <c r="AT160" s="42"/>
       <c r="AU160" s="12"/>
       <c r="AV160" s="13"/>
       <c r="AW160" s="13"/>
@@ -10173,8 +10173,8 @@
     <row r="161" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P161" s="12"/>
       <c r="Q161" s="14"/>
-      <c r="R161" s="76"/>
-      <c r="S161" s="77"/>
+      <c r="R161" s="43"/>
+      <c r="S161" s="44"/>
       <c r="T161" s="12"/>
       <c r="U161" s="14"/>
       <c r="V161" s="12"/>
@@ -10196,12 +10196,12 @@
       <c r="AL161" s="14"/>
       <c r="AM161" s="12"/>
       <c r="AN161" s="14"/>
-      <c r="AO161" s="56"/>
-      <c r="AP161" s="56"/>
-      <c r="AQ161" s="56"/>
-      <c r="AR161" s="56"/>
-      <c r="AS161" s="56"/>
-      <c r="AT161" s="56"/>
+      <c r="AO161" s="42"/>
+      <c r="AP161" s="42"/>
+      <c r="AQ161" s="42"/>
+      <c r="AR161" s="42"/>
+      <c r="AS161" s="42"/>
+      <c r="AT161" s="42"/>
       <c r="AU161" s="12"/>
       <c r="AV161" s="13"/>
       <c r="AW161" s="13"/>
@@ -10215,8 +10215,8 @@
     <row r="162" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P162" s="12"/>
       <c r="Q162" s="14"/>
-      <c r="R162" s="76"/>
-      <c r="S162" s="77"/>
+      <c r="R162" s="43"/>
+      <c r="S162" s="44"/>
       <c r="T162" s="12"/>
       <c r="U162" s="14"/>
       <c r="V162" s="12"/>
@@ -10238,12 +10238,12 @@
       <c r="AL162" s="14"/>
       <c r="AM162" s="12"/>
       <c r="AN162" s="14"/>
-      <c r="AO162" s="56"/>
-      <c r="AP162" s="56"/>
-      <c r="AQ162" s="56"/>
-      <c r="AR162" s="56"/>
-      <c r="AS162" s="56"/>
-      <c r="AT162" s="56"/>
+      <c r="AO162" s="42"/>
+      <c r="AP162" s="42"/>
+      <c r="AQ162" s="42"/>
+      <c r="AR162" s="42"/>
+      <c r="AS162" s="42"/>
+      <c r="AT162" s="42"/>
       <c r="AU162" s="12"/>
       <c r="AV162" s="13"/>
       <c r="AW162" s="13"/>
@@ -10257,8 +10257,8 @@
     <row r="163" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P163" s="12"/>
       <c r="Q163" s="14"/>
-      <c r="R163" s="76"/>
-      <c r="S163" s="77"/>
+      <c r="R163" s="43"/>
+      <c r="S163" s="44"/>
       <c r="T163" s="12"/>
       <c r="U163" s="14"/>
       <c r="V163" s="12"/>
@@ -10280,12 +10280,12 @@
       <c r="AL163" s="14"/>
       <c r="AM163" s="12"/>
       <c r="AN163" s="14"/>
-      <c r="AO163" s="56"/>
-      <c r="AP163" s="56"/>
-      <c r="AQ163" s="56"/>
-      <c r="AR163" s="56"/>
-      <c r="AS163" s="56"/>
-      <c r="AT163" s="56"/>
+      <c r="AO163" s="42"/>
+      <c r="AP163" s="42"/>
+      <c r="AQ163" s="42"/>
+      <c r="AR163" s="42"/>
+      <c r="AS163" s="42"/>
+      <c r="AT163" s="42"/>
       <c r="AU163" s="12"/>
       <c r="AV163" s="13"/>
       <c r="AW163" s="13"/>
@@ -10299,8 +10299,8 @@
     <row r="164" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P164" s="12"/>
       <c r="Q164" s="14"/>
-      <c r="R164" s="76"/>
-      <c r="S164" s="77"/>
+      <c r="R164" s="43"/>
+      <c r="S164" s="44"/>
       <c r="T164" s="12"/>
       <c r="U164" s="14"/>
       <c r="V164" s="12"/>
@@ -10322,12 +10322,12 @@
       <c r="AL164" s="14"/>
       <c r="AM164" s="12"/>
       <c r="AN164" s="14"/>
-      <c r="AO164" s="56"/>
-      <c r="AP164" s="56"/>
-      <c r="AQ164" s="56"/>
-      <c r="AR164" s="56"/>
-      <c r="AS164" s="56"/>
-      <c r="AT164" s="56"/>
+      <c r="AO164" s="42"/>
+      <c r="AP164" s="42"/>
+      <c r="AQ164" s="42"/>
+      <c r="AR164" s="42"/>
+      <c r="AS164" s="42"/>
+      <c r="AT164" s="42"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
       <c r="AW164" s="13"/>
@@ -10341,8 +10341,8 @@
     <row r="165" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P165" s="12"/>
       <c r="Q165" s="14"/>
-      <c r="R165" s="76"/>
-      <c r="S165" s="77"/>
+      <c r="R165" s="43"/>
+      <c r="S165" s="44"/>
       <c r="T165" s="12"/>
       <c r="U165" s="14"/>
       <c r="V165" s="12"/>
@@ -10364,12 +10364,12 @@
       <c r="AL165" s="14"/>
       <c r="AM165" s="12"/>
       <c r="AN165" s="14"/>
-      <c r="AO165" s="56"/>
-      <c r="AP165" s="56"/>
-      <c r="AQ165" s="56"/>
-      <c r="AR165" s="56"/>
-      <c r="AS165" s="56"/>
-      <c r="AT165" s="56"/>
+      <c r="AO165" s="42"/>
+      <c r="AP165" s="42"/>
+      <c r="AQ165" s="42"/>
+      <c r="AR165" s="42"/>
+      <c r="AS165" s="42"/>
+      <c r="AT165" s="42"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
       <c r="AW165" s="13"/>
@@ -10383,8 +10383,8 @@
     <row r="166" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P166" s="12"/>
       <c r="Q166" s="14"/>
-      <c r="R166" s="76"/>
-      <c r="S166" s="77"/>
+      <c r="R166" s="43"/>
+      <c r="S166" s="44"/>
       <c r="T166" s="12"/>
       <c r="U166" s="14"/>
       <c r="V166" s="12"/>
@@ -10406,12 +10406,12 @@
       <c r="AL166" s="14"/>
       <c r="AM166" s="12"/>
       <c r="AN166" s="14"/>
-      <c r="AO166" s="56"/>
-      <c r="AP166" s="56"/>
-      <c r="AQ166" s="56"/>
-      <c r="AR166" s="56"/>
-      <c r="AS166" s="56"/>
-      <c r="AT166" s="56"/>
+      <c r="AO166" s="42"/>
+      <c r="AP166" s="42"/>
+      <c r="AQ166" s="42"/>
+      <c r="AR166" s="42"/>
+      <c r="AS166" s="42"/>
+      <c r="AT166" s="42"/>
       <c r="AU166" s="12"/>
       <c r="AV166" s="13"/>
       <c r="AW166" s="13"/>
@@ -10425,8 +10425,8 @@
     <row r="167" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P167" s="12"/>
       <c r="Q167" s="14"/>
-      <c r="R167" s="76"/>
-      <c r="S167" s="77"/>
+      <c r="R167" s="43"/>
+      <c r="S167" s="44"/>
       <c r="T167" s="15"/>
       <c r="U167" s="17"/>
       <c r="V167" s="15"/>
@@ -10448,12 +10448,12 @@
       <c r="AL167" s="17"/>
       <c r="AM167" s="15"/>
       <c r="AN167" s="17"/>
-      <c r="AO167" s="56"/>
-      <c r="AP167" s="56"/>
-      <c r="AQ167" s="56"/>
-      <c r="AR167" s="56"/>
-      <c r="AS167" s="56"/>
-      <c r="AT167" s="56"/>
+      <c r="AO167" s="42"/>
+      <c r="AP167" s="42"/>
+      <c r="AQ167" s="42"/>
+      <c r="AR167" s="42"/>
+      <c r="AS167" s="42"/>
+      <c r="AT167" s="42"/>
       <c r="AU167" s="15"/>
       <c r="AV167" s="16"/>
       <c r="AW167" s="16"/>
@@ -10550,28 +10550,235 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="AG138:AL150"/>
-    <mergeCell ref="AM138:AN150"/>
-    <mergeCell ref="R151:S167"/>
-    <mergeCell ref="P151:Q167"/>
-    <mergeCell ref="T151:U167"/>
-    <mergeCell ref="V151:W167"/>
-    <mergeCell ref="X151:AA167"/>
-    <mergeCell ref="AB151:AF167"/>
-    <mergeCell ref="AG151:AL167"/>
-    <mergeCell ref="AM151:AN167"/>
-    <mergeCell ref="F138:G141"/>
-    <mergeCell ref="F142:G145"/>
-    <mergeCell ref="F146:G149"/>
-    <mergeCell ref="F136:G137"/>
-    <mergeCell ref="K136:N137"/>
-    <mergeCell ref="F134:N135"/>
-    <mergeCell ref="K138:N141"/>
-    <mergeCell ref="K142:N145"/>
-    <mergeCell ref="K146:N149"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="B62:E67"/>
+    <mergeCell ref="B68:E77"/>
+    <mergeCell ref="B78:E87"/>
+    <mergeCell ref="F42:G53"/>
+    <mergeCell ref="H42:I53"/>
+    <mergeCell ref="J42:K53"/>
+    <mergeCell ref="L42:L53"/>
+    <mergeCell ref="M42:N53"/>
+    <mergeCell ref="B60:E61"/>
+    <mergeCell ref="M78:N87"/>
+    <mergeCell ref="F78:G87"/>
+    <mergeCell ref="H78:I87"/>
+    <mergeCell ref="J78:K87"/>
+    <mergeCell ref="L78:L87"/>
+    <mergeCell ref="F68:G77"/>
+    <mergeCell ref="H68:I77"/>
+    <mergeCell ref="J68:K77"/>
+    <mergeCell ref="L68:L77"/>
+    <mergeCell ref="F62:G67"/>
+    <mergeCell ref="M68:N77"/>
+    <mergeCell ref="M62:N67"/>
+    <mergeCell ref="L62:L67"/>
+    <mergeCell ref="J62:K67"/>
+    <mergeCell ref="H62:I67"/>
+    <mergeCell ref="B24:E32"/>
+    <mergeCell ref="B33:E41"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B42:E53"/>
+    <mergeCell ref="BA33:BC41"/>
+    <mergeCell ref="P42:Q46"/>
+    <mergeCell ref="R42:S46"/>
+    <mergeCell ref="T42:U46"/>
+    <mergeCell ref="V42:W46"/>
+    <mergeCell ref="X42:AA46"/>
+    <mergeCell ref="AB42:AF46"/>
+    <mergeCell ref="AG42:AL46"/>
+    <mergeCell ref="AM42:AN46"/>
+    <mergeCell ref="AO42:AT46"/>
+    <mergeCell ref="AU42:AZ46"/>
+    <mergeCell ref="BA42:BC46"/>
+    <mergeCell ref="AB33:AF41"/>
+    <mergeCell ref="AG33:AL41"/>
+    <mergeCell ref="AM33:AN41"/>
+    <mergeCell ref="AO33:AT41"/>
+    <mergeCell ref="AU33:AZ41"/>
+    <mergeCell ref="P33:Q41"/>
+    <mergeCell ref="R33:S41"/>
+    <mergeCell ref="T33:U41"/>
+    <mergeCell ref="X33:AA41"/>
+    <mergeCell ref="AU22:AZ23"/>
+    <mergeCell ref="BA22:BC23"/>
+    <mergeCell ref="X24:AA32"/>
+    <mergeCell ref="AB24:AF32"/>
+    <mergeCell ref="AG24:AL32"/>
+    <mergeCell ref="AM24:AN32"/>
+    <mergeCell ref="AO24:AT32"/>
+    <mergeCell ref="AU24:AZ32"/>
+    <mergeCell ref="BA24:BC32"/>
+    <mergeCell ref="X22:AA23"/>
+    <mergeCell ref="AB22:AF23"/>
+    <mergeCell ref="AG22:AL23"/>
+    <mergeCell ref="AM22:AN23"/>
+    <mergeCell ref="AO22:AT23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="P24:Q32"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="R24:S32"/>
+    <mergeCell ref="T24:U32"/>
+    <mergeCell ref="V24:W32"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="V33:W41"/>
+    <mergeCell ref="P62:Q67"/>
+    <mergeCell ref="P68:Q77"/>
+    <mergeCell ref="P78:Q87"/>
+    <mergeCell ref="P88:Q97"/>
+    <mergeCell ref="BA60:BC61"/>
+    <mergeCell ref="BA62:BC67"/>
+    <mergeCell ref="BA68:BC77"/>
+    <mergeCell ref="BA78:BC87"/>
+    <mergeCell ref="BA88:BC97"/>
+    <mergeCell ref="AB60:AF61"/>
+    <mergeCell ref="AG60:AL61"/>
+    <mergeCell ref="AM60:AN61"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:AZ61"/>
+    <mergeCell ref="R60:S61"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:W61"/>
+    <mergeCell ref="X60:AA61"/>
+    <mergeCell ref="AM78:AN87"/>
+    <mergeCell ref="AO78:AT87"/>
+    <mergeCell ref="AU78:AZ87"/>
+    <mergeCell ref="R62:S67"/>
+    <mergeCell ref="T62:U67"/>
+    <mergeCell ref="V62:W67"/>
+    <mergeCell ref="X62:AA67"/>
+    <mergeCell ref="AB62:AF67"/>
+    <mergeCell ref="AG62:AL67"/>
+    <mergeCell ref="AM62:AN67"/>
+    <mergeCell ref="AO62:AT67"/>
+    <mergeCell ref="AU62:AZ67"/>
+    <mergeCell ref="R78:S87"/>
+    <mergeCell ref="T78:U87"/>
+    <mergeCell ref="V78:W87"/>
+    <mergeCell ref="X78:AA87"/>
+    <mergeCell ref="T88:U97"/>
+    <mergeCell ref="V88:W97"/>
+    <mergeCell ref="X88:AA97"/>
+    <mergeCell ref="AM68:AN77"/>
+    <mergeCell ref="AO68:AT77"/>
+    <mergeCell ref="R68:S77"/>
+    <mergeCell ref="T68:U77"/>
+    <mergeCell ref="V68:W77"/>
+    <mergeCell ref="X68:AA77"/>
+    <mergeCell ref="AM88:AN97"/>
+    <mergeCell ref="AO88:AT97"/>
+    <mergeCell ref="AB68:AF77"/>
+    <mergeCell ref="AB88:AF97"/>
+    <mergeCell ref="AG88:AL97"/>
+    <mergeCell ref="AG68:AL77"/>
+    <mergeCell ref="AB78:AF87"/>
+    <mergeCell ref="AG78:AL87"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="H138:I141"/>
+    <mergeCell ref="H142:I145"/>
+    <mergeCell ref="H146:I149"/>
+    <mergeCell ref="R88:S97"/>
+    <mergeCell ref="M106:N117"/>
+    <mergeCell ref="F100:N101"/>
+    <mergeCell ref="F112:G117"/>
+    <mergeCell ref="H112:I117"/>
+    <mergeCell ref="F106:G111"/>
+    <mergeCell ref="H106:I111"/>
+    <mergeCell ref="J112:K117"/>
+    <mergeCell ref="J106:K111"/>
+    <mergeCell ref="L112:L117"/>
+    <mergeCell ref="L106:L111"/>
+    <mergeCell ref="H104:I105"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="R100:S101"/>
+    <mergeCell ref="F102:I103"/>
+    <mergeCell ref="J102:K105"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="M102:N105"/>
+    <mergeCell ref="F24:G32"/>
+    <mergeCell ref="F33:G41"/>
+    <mergeCell ref="H24:I32"/>
+    <mergeCell ref="J24:K32"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H33:I41"/>
+    <mergeCell ref="J33:K41"/>
+    <mergeCell ref="L24:L32"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="BA100:BC101"/>
+    <mergeCell ref="AG47:AL57"/>
+    <mergeCell ref="AM47:AN57"/>
+    <mergeCell ref="AO47:AT57"/>
+    <mergeCell ref="AU47:AZ57"/>
+    <mergeCell ref="BA47:BC57"/>
+    <mergeCell ref="AB47:AF57"/>
+    <mergeCell ref="AU68:AZ77"/>
+    <mergeCell ref="AU88:AZ97"/>
+    <mergeCell ref="AO100:AT101"/>
+    <mergeCell ref="T100:U101"/>
+    <mergeCell ref="V100:W101"/>
+    <mergeCell ref="X100:AA101"/>
+    <mergeCell ref="AB100:AF101"/>
+    <mergeCell ref="AG100:AL101"/>
+    <mergeCell ref="AM100:AN101"/>
+    <mergeCell ref="AU121:AZ130"/>
+    <mergeCell ref="R121:S130"/>
+    <mergeCell ref="T121:U130"/>
+    <mergeCell ref="V121:W130"/>
+    <mergeCell ref="X121:AA130"/>
+    <mergeCell ref="AB121:AF130"/>
+    <mergeCell ref="AG121:AL130"/>
+    <mergeCell ref="AM121:AN130"/>
+    <mergeCell ref="AO121:AT130"/>
+    <mergeCell ref="AU100:AZ101"/>
+    <mergeCell ref="BA121:BC130"/>
+    <mergeCell ref="V102:W110"/>
+    <mergeCell ref="T102:U110"/>
+    <mergeCell ref="R102:S110"/>
+    <mergeCell ref="P102:Q110"/>
+    <mergeCell ref="BA102:BC110"/>
+    <mergeCell ref="AU111:AZ120"/>
+    <mergeCell ref="P111:Q120"/>
+    <mergeCell ref="R111:S120"/>
+    <mergeCell ref="T111:U120"/>
+    <mergeCell ref="V111:W120"/>
+    <mergeCell ref="X111:AA120"/>
+    <mergeCell ref="AB111:AF120"/>
+    <mergeCell ref="AG111:AL120"/>
+    <mergeCell ref="AM111:AN120"/>
+    <mergeCell ref="AO111:AT120"/>
+    <mergeCell ref="BA111:BC120"/>
+    <mergeCell ref="AU102:AZ110"/>
+    <mergeCell ref="AO102:AT110"/>
+    <mergeCell ref="AM102:AN110"/>
+    <mergeCell ref="AG102:AL110"/>
+    <mergeCell ref="AB102:AF110"/>
+    <mergeCell ref="X102:AA110"/>
+    <mergeCell ref="P121:Q130"/>
+    <mergeCell ref="AU151:AZ167"/>
+    <mergeCell ref="BA151:BC167"/>
+    <mergeCell ref="AO151:AT167"/>
+    <mergeCell ref="T138:U150"/>
+    <mergeCell ref="P136:Q137"/>
+    <mergeCell ref="R136:S137"/>
+    <mergeCell ref="T136:U137"/>
+    <mergeCell ref="V136:W137"/>
+    <mergeCell ref="X136:AA137"/>
+    <mergeCell ref="AB136:AF137"/>
+    <mergeCell ref="AG136:AL137"/>
+    <mergeCell ref="AM136:AN137"/>
+    <mergeCell ref="R138:S150"/>
+    <mergeCell ref="P138:Q150"/>
+    <mergeCell ref="AO136:AT137"/>
+    <mergeCell ref="AU136:AZ137"/>
+    <mergeCell ref="BA136:BC137"/>
+    <mergeCell ref="AB138:AF150"/>
+    <mergeCell ref="AO138:AT150"/>
+    <mergeCell ref="AU138:AZ150"/>
+    <mergeCell ref="BA138:BC150"/>
+    <mergeCell ref="X138:AA150"/>
+    <mergeCell ref="V138:W150"/>
     <mergeCell ref="F2:F13"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="H2:H13"/>
@@ -10596,237 +10803,30 @@
     <mergeCell ref="F16:N17"/>
     <mergeCell ref="F18:N19"/>
     <mergeCell ref="M20:N23"/>
-    <mergeCell ref="AU151:AZ167"/>
-    <mergeCell ref="BA151:BC167"/>
-    <mergeCell ref="AO151:AT167"/>
-    <mergeCell ref="T138:U150"/>
-    <mergeCell ref="P136:Q137"/>
-    <mergeCell ref="R136:S137"/>
-    <mergeCell ref="T136:U137"/>
-    <mergeCell ref="V136:W137"/>
-    <mergeCell ref="X136:AA137"/>
-    <mergeCell ref="AB136:AF137"/>
-    <mergeCell ref="AG136:AL137"/>
-    <mergeCell ref="AM136:AN137"/>
-    <mergeCell ref="R138:S150"/>
-    <mergeCell ref="P138:Q150"/>
-    <mergeCell ref="AO136:AT137"/>
-    <mergeCell ref="AU136:AZ137"/>
-    <mergeCell ref="BA136:BC137"/>
-    <mergeCell ref="AB138:AF150"/>
-    <mergeCell ref="AO138:AT150"/>
-    <mergeCell ref="AU138:AZ150"/>
-    <mergeCell ref="BA138:BC150"/>
-    <mergeCell ref="X138:AA150"/>
-    <mergeCell ref="V138:W150"/>
-    <mergeCell ref="BA121:BC130"/>
-    <mergeCell ref="V102:W110"/>
-    <mergeCell ref="T102:U110"/>
-    <mergeCell ref="R102:S110"/>
-    <mergeCell ref="P102:Q110"/>
-    <mergeCell ref="BA102:BC110"/>
-    <mergeCell ref="AU111:AZ120"/>
-    <mergeCell ref="P111:Q120"/>
-    <mergeCell ref="R111:S120"/>
-    <mergeCell ref="T111:U120"/>
-    <mergeCell ref="V111:W120"/>
-    <mergeCell ref="X111:AA120"/>
-    <mergeCell ref="AB111:AF120"/>
-    <mergeCell ref="AG111:AL120"/>
-    <mergeCell ref="AM111:AN120"/>
-    <mergeCell ref="AO111:AT120"/>
-    <mergeCell ref="BA111:BC120"/>
-    <mergeCell ref="AU102:AZ110"/>
-    <mergeCell ref="AO102:AT110"/>
-    <mergeCell ref="AM102:AN110"/>
-    <mergeCell ref="AG102:AL110"/>
-    <mergeCell ref="AB102:AF110"/>
-    <mergeCell ref="X102:AA110"/>
-    <mergeCell ref="P121:Q130"/>
-    <mergeCell ref="T100:U101"/>
-    <mergeCell ref="V100:W101"/>
-    <mergeCell ref="X100:AA101"/>
-    <mergeCell ref="AB100:AF101"/>
-    <mergeCell ref="AG100:AL101"/>
-    <mergeCell ref="AM100:AN101"/>
-    <mergeCell ref="AU121:AZ130"/>
-    <mergeCell ref="R121:S130"/>
-    <mergeCell ref="T121:U130"/>
-    <mergeCell ref="V121:W130"/>
-    <mergeCell ref="X121:AA130"/>
-    <mergeCell ref="AB121:AF130"/>
-    <mergeCell ref="AG121:AL130"/>
-    <mergeCell ref="AM121:AN130"/>
-    <mergeCell ref="AO121:AT130"/>
-    <mergeCell ref="AU100:AZ101"/>
-    <mergeCell ref="BA100:BC101"/>
-    <mergeCell ref="AG47:AL57"/>
-    <mergeCell ref="AM47:AN57"/>
-    <mergeCell ref="AO47:AT57"/>
-    <mergeCell ref="AU47:AZ57"/>
-    <mergeCell ref="BA47:BC57"/>
-    <mergeCell ref="AB47:AF57"/>
-    <mergeCell ref="AU68:AZ77"/>
-    <mergeCell ref="AU88:AZ97"/>
-    <mergeCell ref="AO100:AT101"/>
-    <mergeCell ref="F24:G32"/>
-    <mergeCell ref="F33:G41"/>
-    <mergeCell ref="H24:I32"/>
-    <mergeCell ref="J24:K32"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H33:I41"/>
-    <mergeCell ref="J33:K41"/>
-    <mergeCell ref="L24:L32"/>
-    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="AG138:AL150"/>
+    <mergeCell ref="AM138:AN150"/>
+    <mergeCell ref="R151:S167"/>
+    <mergeCell ref="P151:Q167"/>
+    <mergeCell ref="T151:U167"/>
+    <mergeCell ref="V151:W167"/>
+    <mergeCell ref="X151:AA167"/>
+    <mergeCell ref="AB151:AF167"/>
+    <mergeCell ref="AG151:AL167"/>
+    <mergeCell ref="AM151:AN167"/>
+    <mergeCell ref="F138:G141"/>
+    <mergeCell ref="F142:G145"/>
+    <mergeCell ref="F146:G149"/>
+    <mergeCell ref="F136:G137"/>
+    <mergeCell ref="K136:N137"/>
+    <mergeCell ref="F134:N135"/>
+    <mergeCell ref="K138:N141"/>
+    <mergeCell ref="K142:N145"/>
+    <mergeCell ref="K146:N149"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="J142:J145"/>
     <mergeCell ref="J146:J149"/>
     <mergeCell ref="H136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="H138:I141"/>
-    <mergeCell ref="H142:I145"/>
-    <mergeCell ref="H146:I149"/>
-    <mergeCell ref="R88:S97"/>
-    <mergeCell ref="M106:N117"/>
-    <mergeCell ref="F100:N101"/>
-    <mergeCell ref="F112:G117"/>
-    <mergeCell ref="H112:I117"/>
-    <mergeCell ref="F106:G111"/>
-    <mergeCell ref="H106:I111"/>
-    <mergeCell ref="J112:K117"/>
-    <mergeCell ref="J106:K111"/>
-    <mergeCell ref="L112:L117"/>
-    <mergeCell ref="L106:L111"/>
-    <mergeCell ref="H104:I105"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="R100:S101"/>
-    <mergeCell ref="F102:I103"/>
-    <mergeCell ref="J102:K105"/>
-    <mergeCell ref="L102:L105"/>
-    <mergeCell ref="M102:N105"/>
-    <mergeCell ref="T88:U97"/>
-    <mergeCell ref="V88:W97"/>
-    <mergeCell ref="X88:AA97"/>
-    <mergeCell ref="AM68:AN77"/>
-    <mergeCell ref="AO68:AT77"/>
-    <mergeCell ref="R68:S77"/>
-    <mergeCell ref="T68:U77"/>
-    <mergeCell ref="V68:W77"/>
-    <mergeCell ref="X68:AA77"/>
-    <mergeCell ref="AM88:AN97"/>
-    <mergeCell ref="AO88:AT97"/>
-    <mergeCell ref="AB68:AF77"/>
-    <mergeCell ref="AB88:AF97"/>
-    <mergeCell ref="AG88:AL97"/>
-    <mergeCell ref="AG68:AL77"/>
-    <mergeCell ref="AB78:AF87"/>
-    <mergeCell ref="AG78:AL87"/>
-    <mergeCell ref="X62:AA67"/>
-    <mergeCell ref="AB62:AF67"/>
-    <mergeCell ref="AG62:AL67"/>
-    <mergeCell ref="AM62:AN67"/>
-    <mergeCell ref="AO62:AT67"/>
-    <mergeCell ref="AU62:AZ67"/>
-    <mergeCell ref="R78:S87"/>
-    <mergeCell ref="T78:U87"/>
-    <mergeCell ref="V78:W87"/>
-    <mergeCell ref="X78:AA87"/>
-    <mergeCell ref="P62:Q67"/>
-    <mergeCell ref="P68:Q77"/>
-    <mergeCell ref="P78:Q87"/>
-    <mergeCell ref="P88:Q97"/>
-    <mergeCell ref="BA60:BC61"/>
-    <mergeCell ref="BA62:BC67"/>
-    <mergeCell ref="BA68:BC77"/>
-    <mergeCell ref="BA78:BC87"/>
-    <mergeCell ref="BA88:BC97"/>
-    <mergeCell ref="AB60:AF61"/>
-    <mergeCell ref="AG60:AL61"/>
-    <mergeCell ref="AM60:AN61"/>
-    <mergeCell ref="AO60:AT61"/>
-    <mergeCell ref="AU60:AZ61"/>
-    <mergeCell ref="R60:S61"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:W61"/>
-    <mergeCell ref="X60:AA61"/>
-    <mergeCell ref="AM78:AN87"/>
-    <mergeCell ref="AO78:AT87"/>
-    <mergeCell ref="AU78:AZ87"/>
-    <mergeCell ref="R62:S67"/>
-    <mergeCell ref="T62:U67"/>
-    <mergeCell ref="V62:W67"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="P24:Q32"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="R24:S32"/>
-    <mergeCell ref="T24:U32"/>
-    <mergeCell ref="V24:W32"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="V33:W41"/>
-    <mergeCell ref="X33:AA41"/>
-    <mergeCell ref="AU22:AZ23"/>
-    <mergeCell ref="BA22:BC23"/>
-    <mergeCell ref="X24:AA32"/>
-    <mergeCell ref="AB24:AF32"/>
-    <mergeCell ref="AG24:AL32"/>
-    <mergeCell ref="AM24:AN32"/>
-    <mergeCell ref="AO24:AT32"/>
-    <mergeCell ref="AU24:AZ32"/>
-    <mergeCell ref="BA24:BC32"/>
-    <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="AB22:AF23"/>
-    <mergeCell ref="AG22:AL23"/>
-    <mergeCell ref="AM22:AN23"/>
-    <mergeCell ref="AO22:AT23"/>
-    <mergeCell ref="B24:E32"/>
-    <mergeCell ref="B33:E41"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B42:E53"/>
-    <mergeCell ref="BA33:BC41"/>
-    <mergeCell ref="P42:Q46"/>
-    <mergeCell ref="R42:S46"/>
-    <mergeCell ref="T42:U46"/>
-    <mergeCell ref="V42:W46"/>
-    <mergeCell ref="X42:AA46"/>
-    <mergeCell ref="AB42:AF46"/>
-    <mergeCell ref="AG42:AL46"/>
-    <mergeCell ref="AM42:AN46"/>
-    <mergeCell ref="AO42:AT46"/>
-    <mergeCell ref="AU42:AZ46"/>
-    <mergeCell ref="BA42:BC46"/>
-    <mergeCell ref="AB33:AF41"/>
-    <mergeCell ref="AG33:AL41"/>
-    <mergeCell ref="AM33:AN41"/>
-    <mergeCell ref="AO33:AT41"/>
-    <mergeCell ref="AU33:AZ41"/>
-    <mergeCell ref="P33:Q41"/>
-    <mergeCell ref="R33:S41"/>
-    <mergeCell ref="T33:U41"/>
-    <mergeCell ref="B62:E67"/>
-    <mergeCell ref="B68:E77"/>
-    <mergeCell ref="B78:E87"/>
-    <mergeCell ref="F42:G53"/>
-    <mergeCell ref="H42:I53"/>
-    <mergeCell ref="J42:K53"/>
-    <mergeCell ref="L42:L53"/>
-    <mergeCell ref="M42:N53"/>
-    <mergeCell ref="B60:E61"/>
-    <mergeCell ref="M78:N87"/>
-    <mergeCell ref="F78:G87"/>
-    <mergeCell ref="H78:I87"/>
-    <mergeCell ref="J78:K87"/>
-    <mergeCell ref="L78:L87"/>
-    <mergeCell ref="F68:G77"/>
-    <mergeCell ref="H68:I77"/>
-    <mergeCell ref="J68:K77"/>
-    <mergeCell ref="L68:L77"/>
-    <mergeCell ref="F62:G67"/>
-    <mergeCell ref="M68:N77"/>
-    <mergeCell ref="M62:N67"/>
-    <mergeCell ref="L62:L67"/>
-    <mergeCell ref="J62:K67"/>
-    <mergeCell ref="H62:I67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
